--- a/data/CFF Paper Data V10_Clean_SO.xlsx
+++ b/data/CFF Paper Data V10_Clean_SO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ostojic\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DB0AA1-AACD-4ED3-B62E-E1AB63242917}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F7F65-DD94-4888-A938-6A549F995A97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" tabRatio="697" activeTab="3" xr2:uid="{3204C202-7188-45B5-A184-A3CC4EC46C55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" tabRatio="697" activeTab="2" xr2:uid="{3204C202-7188-45B5-A184-A3CC4EC46C55}"/>
   </bookViews>
   <sheets>
     <sheet name="CFF" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="800">
   <si>
     <t xml:space="preserve">Circular Footprint Formula </t>
   </si>
@@ -2514,9 +2514,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>A=0,2 is choosen for high quality secondary materials, which is the case for many metals, including Aluminium</t>
-  </si>
-  <si>
     <t>Application Specific Value from Annex C &amp; literature and market research</t>
   </si>
   <si>
@@ -2544,12 +2541,6 @@
     <t xml:space="preserve">Check in Annex C if company specific value is available: Yes, no recycled St input content, therefore, R1=0 </t>
   </si>
   <si>
-    <t>R2=0,13, in the UK, only 13% of GF-PP is recycled and only 6% is being reused, 67% of GF-PP is going to the landfill</t>
-  </si>
-  <si>
-    <t>A review on the recycling of waste carbon fibre/glass fibre-reinforced composites</t>
-  </si>
-  <si>
     <t>Default Value from Annex C and market lit. Research</t>
   </si>
   <si>
@@ -2562,9 +2553,6 @@
     <t>Check values given in Annex C which are only applicable for packaging materials: A value for only PP was found of Qsout/Qp=0,1</t>
   </si>
   <si>
-    <t>The quality of recycled fibres might be high, but the fibres are fluffy and discotiouns, making it difficult for proper reuse - supply there, but limited demand</t>
-  </si>
-  <si>
     <t>Mirzaie, S (2020)</t>
   </si>
   <si>
@@ -2707,9 +2695,6 @@
   </si>
   <si>
     <t>Current company-specific scenario specifies no recycled input (R1 = 0).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qp=1,assuming: primary material has the highest quality </t>
   </si>
   <si>
     <t xml:space="preserve">Based on assuming: primary material has the highest quality </t>
@@ -2934,12 +2919,6 @@
     <t>Seyed Shahabaldin Seyed Salehi, 2020</t>
   </si>
   <si>
-    <t>(a) Global Recycling Efficiency Rate of aluminium is 76% (b) This paper applies various methodologies to determine different values for R2, ranging from 91% to 100% © The recycling erates in europe are over 90%</t>
-  </si>
-  <si>
-    <t>(a) IAI, 2020 (b) Seyed Shahabaldin Seyed Salehi, 2020 © European Aluminium, 2020</t>
-  </si>
-  <si>
     <t>0,76 - 1</t>
   </si>
   <si>
@@ -2958,45 +2937,24 @@
     <t xml:space="preserve">Based literature and on assuming: primary material has the highest quality </t>
   </si>
   <si>
-    <t>(a) Kulczycka, Lewandowska, Joachimiak; 2024; Wolf et al, 2020 (b) IAI; Eu RIC AISBL, 2022; Bakedano et al, 2021</t>
-  </si>
-  <si>
-    <t>(a) The quality ratio Qsin/Qp has been chosen according the value in Annex C: 1 (b) Aluminium is over and over recycable without any quality loss; Metals are eternally recyclable and don't have issues with downcycling or quality issues if the metal is properly recycled; A recycled aluminium alloy can achieve the same structural material quality as primary aluminium</t>
-  </si>
-  <si>
     <t>Based on packeging default values and literature/ economic market research</t>
   </si>
   <si>
-    <t>(a) boerse, 2025, Böhner, 2025 (b) Wolf et al, 2020; The Battery Pass consortium, 2023 ©  IAI; Eu RIC AISBL, 2022; Bakedano et al, 2021</t>
-  </si>
-  <si>
     <t>0,52 - 1</t>
   </si>
   <si>
-    <t>(a) The price of primary aluminium in germany is around 2500€/t. The price of aluminium scrap is around 1300€/t. This equals a Ratio of 1300/2500=0,52 (b) The quality ratio Qsout/Qp has been chosen according the value in Annex C: 1 ; Qsout has been set to 1 for aluminium (c) Aluminium is over and over recycable without any quality loss; Metals are eternally recyclable and don't have issues with downcycling or quality issues if the metal is properly recycled; A recycled aluminium alloy can achieve the same structural material quality as primary aluminium</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aluminium maintains high quality after recycling, with minimal degradation </t>
   </si>
   <si>
     <t>Truncated Normal (mean=0,9; std=0,1; min=0,52; max=1)</t>
   </si>
   <si>
-    <t>(a) The demand of scrap is far above the supply. High Demand, low supply means low A value according to PEF Annex C A=0,2 (b) Steel demand is growing, but the availability of scrap is not growing at the same rate. Hence a scarcity of steel scrap occurs</t>
-  </si>
-  <si>
     <t>(a) Suer, Traverso, Jäger; 2022 (b) World Steel Association, 2021</t>
   </si>
   <si>
     <t>0,2 is choosen for high quality secondary materials, which is the case for many metals</t>
   </si>
   <si>
-    <t>(a) The default value of Annex C for steel of 0,2 has been used in this paper (b) A value of 0,2 has been set for A for steel in this paper</t>
-  </si>
-  <si>
-    <t>(a) Rydberg et al., 2023 (b) Babian, 2022</t>
-  </si>
-  <si>
     <t>(a) This paper applies various methodologies to determine a value for R1. The value has been set to 0% (b) This paper calculated the R1 value for steel and set the value to 0,6 © A value of 0,17 has been set for R1 for steel in this paper</t>
   </si>
   <si>
@@ -3012,12 +2970,6 @@
     <t>(a) Rydberg et al., 2023 (b) Seyed Shahabaldin Seyed Salehi, 2020 © Ungureanu et al., 2019 (d) Babian, 2022</t>
   </si>
   <si>
-    <t>The reccycling rate of steel is 82,2% globally</t>
-  </si>
-  <si>
-    <t>Rolf Willeke, 2024</t>
-  </si>
-  <si>
     <t>0,81 - 0,9</t>
   </si>
   <si>
@@ -3027,12 +2979,6 @@
     <t>Steel is highly recycled (~85%) (Annex C Default value &amp; lit. Market research on recycability of steel), with some variability based on collection/recycling efficiency</t>
   </si>
   <si>
-    <t>(a) Steel can be recycled over and over again. It is 100% recyclable and can be recycled into the same quality again and again. (b) The steel recycling process is able to remove most impuritities that may be present on scrap steel, hence downcyclingis not a problem and quality stays the same after the recycling process. The properties of the original steel is maintained and the quality can be improved during recycling</t>
-  </si>
-  <si>
-    <t>(a) American Iron and Steel Institute, 2020 (b) World Steel Association, 2021</t>
-  </si>
-  <si>
     <t>This paper set R1 to 0 for the fibre and the poylmer; The recycling content and recycling routes of GF-PP are not easily to assess, because the GF-PP waste tracking is not well established in the market --&gt; No fixed value can be set</t>
   </si>
   <si>
@@ -3045,28 +2991,16 @@
     <t>Check in Annex C the availability of material-specific value: No, value doesn't exist --&gt; Composite value doesn't exist in Annex C. But European average (Step 3) for PP-Material and E-Glassfibre-Material are available and both equal 0</t>
   </si>
   <si>
-    <t>Karuppannan Gopalraj, Kärki; 2020</t>
-  </si>
-  <si>
     <t>Qp=1,assuming: primary material has the highest quality: (a) Qp has been set to 1 for PP (b) The initial fibers of GF-PP show the highest fibre lengths and strength. Any process of the primary material results in losses. The quality of the primary material is hence the highest and can be set to 1</t>
   </si>
   <si>
     <t>(a) The Battery Pass consortium, 2023 (b) Hansson, Larsson; 2022</t>
   </si>
   <si>
-    <t>(a) The price of mehanical recycled fibers is about 80% of virgin ones (b) Recycling with pyrolisis showed a loss of 50 to 64% of mechanical properties of the compound. Mechanical recycling looses approximately 22% of strength of the compound. Compared to the quality of primary GF-PP, a quality ratio of 0,36-0,78 can be set (c) For the polymer, the quality ratio of 0,9 has been chosen as per the PEF Report. The paper based the quality ratios for the fibers based on the loss of tensile strength. It assumes that a loss of 18% is achieved when recycling with pyrolisis. The range for the quality ratio can be set from 0,72-0,9</t>
-  </si>
-  <si>
-    <t>(a) Gonçalves, Martinho, Oliveira; 2022 (b) Gonçalves, Martinho, Oliveira; 2022 © Hermansson et al., 2022</t>
-  </si>
-  <si>
     <t>0,36 - 0,9</t>
   </si>
   <si>
     <t>Default Value from Annex C and lit. Market research</t>
-  </si>
-  <si>
-    <t>Truncated Normal (mean=0,6; std=0,2; min=0,36; max=0,9)</t>
   </si>
   <si>
     <t>Most recycled fibers retain high quality (~0,6) but in most cases show degradation; Annex C identified (for only PP packaging material) a value 0,9</t>
@@ -3223,6 +3157,111 @@
     <t>Carbon Fiber: (a) Qsout = 0,82 : there are no default values available in the PEFCR for quality ratio of carbon fibers; the production cost, and as a consequence price, of carbon fibers is generally determined by their quality (Fang et al. 2017), but as there is currently still no large-scale production and market for recycled carbon fibers, costs are highly uncertain; case study bases the quality ratio on the loss of tensile strength, a tensile strength degradation of 18% for Case Pyrolysis is assumed which corresponds to the degradation in tensile strength for recycled fibers using the fluidized bed method; (b) Qsin/ Qp = 0,902 : The pyrolysis technique provides the recycled CF with high-quality properties comparable to virgin CF; Tensile strength may achieve 90.19% of vCF; (c) Qsin/ Qp = 0,643 : comparison of the mechanical properties (tensile strength) of virgin CF compared to with pyrolysis recycled CF; tensile strength of vCF= 4111MPa, rCF=2643MPa - degradation of tensile strength of 35,7% Concrete: (a) Qsout/ Qp = 1 : assumption that crushed concrete can be interchangeably used instead of virgin crushed gravel, that scenario can be considered as the closest to the actual use of crushed concrete - indicating that the quality of the concrete does not decline (b) Qs/ Qp = 0,5 : as for concrete, it can be downcycled as recycled concrete aggregate (RCA); Studies have shown that RCA costs $2.40 per tonne, while natural aggregate costs $4.70 per tonne (Frondistou-Yannas, 1981) --&gt; allocation: substitute product consits of 99,7% concrete and 0,3% carbon fiber: 
 1. Qsout/ Qp = 0,997*0,5+0,003*0,64 = 0,500
 2. Qsout/ Qp = 0,997*1,0+0,003*0,90 = 0,999</t>
+  </si>
+  <si>
+    <t>(a) A=0,2 is choosen for high quality secondary materials, which is the case for many metals, including Aluminium (b) The allocation factor for metals is set to 0,2</t>
+  </si>
+  <si>
+    <t>(a) The Battery Pass consortium, 2023 (b) Metals for buildings, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(a) Global Recycling Efficiency Rate of aluminium is 76% (b) The global recycling rate of aluminium in the automotive sector is 91% © The recycling erates in europe are over 90% </t>
+  </si>
+  <si>
+    <t>(a) IAI, 2020 (b) Sean, Apelian © European Aluminium, 2020</t>
+  </si>
+  <si>
+    <t>(a) Kulczycka, Lewandowska, Joachimiak; 2024; Wolf et al, 2020 (b) IAI; Eu RIC AISBL, 2022; Bakedano et al, 2021 © Declan Conway, 2023 (d) Metals for buildings, 2024</t>
+  </si>
+  <si>
+    <t>0,8 - 1</t>
+  </si>
+  <si>
+    <t>Truncated Normal (mean=0,9; std=0,05; min=0,8; max=1)</t>
+  </si>
+  <si>
+    <t>(a) The quality ratio Qsout/Qp has been chosen according the value in Annex C: 1 (b) Qsout has been set to 1 for aluminium  (c) Aluminium is over and over recycable without any quality loss; Metals are eternally recyclable and don't have issues with downcycling or quality issues if the metal is properly recycled; A recycled aluminium alloy can achieve the same structural material quality as primary aluminium; The quality of secondary aluminium equals the quality of primary aluminium. Therefor Qsout can be set to 1 and the quality ratio Qsout/Qp equals 1 (d) As aluminium is recycable over and over again withouth any quality loss, it can be assumed, that the quality of the outgoing secondary aluminium equals the quality of the ingoing secondary aluminium. So according to Declan Conway,of the price for secondary aluminium in 2023 in europe was between 2000€ and 2200€ per ton for aluminium pressure diecasting ingot DIN226. Given that this represents approximately 80% of the primary aluminium price, Qsout can be set to 0,8. Therefor Qsout/Qp can be set to 0,8.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(a) The quality ratio Qsin/Qp has been chosen according the value in Annex C: 1 (b) Aluminium is over and over recycable without any quality loss; Metals are eternally recyclable and don't have issues with downcycling or quality issues if the metal is properly recycled; A recycled aluminium alloy can achieve the same structural material quality as primary aluminium (c) According to Declan Conway,of the price for secondary aluminium in 2023 in europe was between 2000€ and 2200€ per ton for aluminium pressure diecasting ingot DIN226. Given that this represents approximately 80% of the primary aluminium price, Qsin can be set to 0,8. Therefor Qsin/Qp can be set to 0,8 (d) For metals, the quality is assumed to stay the same through recycling. Qsin/Qp=Qsout/Qp=1 has been set (e) For metals, the quality is assumed to stay the same through recycling. Qsin/Qp=Qsout/Qp=1 has been set </t>
+  </si>
+  <si>
+    <t>(a) Wolf et al, 2020 (b) The Battery Pass consortium, 2023 ©  IAI; Eu RIC AISBL, 2022; Bakedano et al, 2021 (d) IAI, Declan Conway, 2023 €) Metals for buildings, 2024</t>
+  </si>
+  <si>
+    <t>(a) The demand of scrap is far above the supply. High Demand, low supply means low A value according to PEF Annex C A=0,2 (b) Steel demand is growing, but the availability of scrap is not growing at the same rate. Hence a scarcity of steel scrap occurs. High Demand, low supply means low A value according to PEF Annex C A=0,2</t>
+  </si>
+  <si>
+    <t>(a) The default value of Annex C for steel of 0,2 has been used in this paper (b) A value of 0,2 has been set for A for steel in this paper © The allocation factor for metals is set to 0,2</t>
+  </si>
+  <si>
+    <t>(a) Rydberg et al., 2023 (b) Babian, 2022 © Metals for buildings, 2024</t>
+  </si>
+  <si>
+    <t>(a) The reccycling rate of steel is 82,2% globally (b) The recycling rate for steel in the automotive sector is about 90% © The recycling rate for steel in the automotive sector was 96% in 2019 in the US</t>
+  </si>
+  <si>
+    <t>(a) Rolf Willeke, 2024 (b) WorldAutoSteel © American Iron and Steel Institute, 2021</t>
+  </si>
+  <si>
+    <t>0,81 - 0,96</t>
+  </si>
+  <si>
+    <t>Triangular (0,81; 0,88; 0,96)</t>
+  </si>
+  <si>
+    <t>Qp=1,assuming: primary material has the highest quality: (a) This paper set Qp=1 (b) Qp indicates the quality of the primary aluminium. Accorcing to the London Metal Exchange, the price of primary steel was 740€ per ton in mid-February 2025 for the US. According to Jim Pritchard, the price for secondary steel in 2023 in the US was around 400€ per ton. Since the quality ratios Qsin/Qp and Qsout/Qp are derived by comparing the market price of secondary steel to that of primary steel, Qp can be set to 1 to establish a consistent benchmark for comparison</t>
+  </si>
+  <si>
+    <t>(a) Rydberg et al., 2023 (b) LME Steel, 2025; Jim Pritchard, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(a) Steel can be recycled over and over again. It is 100% recyclable and can be recycled into the same quality again and again. he quality of secondary steel equals the quality of primary steel. Therefor Qsin equals 1 and Qsin/Qp can be set to 1. (b) The steel recycling process is able to remove most impuritities that may be present on scrap steel, hence downcyclingis not a problem and quality stays the same after the recycling process. The properties of the original steel is maintained and the quality can be improved during recycling (c) The recycling rate for steel in the automotive sector was 96% in 2019 in the US (c) According to Jim Pritchard, the price for secondary steel in 2023 in the US was betweenaround 400€ per ton. Given that this represents approximately 55% of the primary steel price, Qsin can be set to 0,55. Therefor Qsin/Qp can be set to 0,55. (d) Qsin/Qp ratio has been fixed to 1 for steel in this paper (e) For metals, the quality is assumed to stay the same through recycling. Qsin/Qp=Qsout/Qp=1 has been set ; Metals are eternally recyclable and don't have issues with downcycling or quality issues if the metal is properly recycled. The quality of secondary steel equals the quality of primary steel. Therefor Qsin equals 1 and Qsin/Qp can be set to 1. (f) Qsin/Qp and Qsout/Qp has been set to 1, as steel keeps the metallugircal properties when recycled. The quality of primary steel equals the quality of secondary steel. </t>
+  </si>
+  <si>
+    <t>(a) American Iron and Steel Institute, 2020 (b) World Steel Association, 2021 © Jim Pritchard, 2024 (d) Babian, 2022; Rydberg et al., 2023 € Metals for buildings, 2024; Eu RIC AISBL, 2022 (f) Yang et al., 2024</t>
+  </si>
+  <si>
+    <t>0,55 - 1</t>
+  </si>
+  <si>
+    <t>Triangular (0,55; 0,9; 0,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(a) Steel can be recycled over and over again. It is 100% recyclable and can be recycled into the same quality again and again. The quality of secondary steel equals the quality of primary steel. Therefor Qsout equals 1 and Qsout/Qp can be set to 1. (b) The steel recycling process is able to remove most impuritities that may be present on scrap steel, hence downcyclingis not a problem and quality stays the same after the recycling process. The properties of the original steel is maintained and the quality can be improved during recycling (c) As steel can be recycled into the same quality over and over again, it can be assumed, that the quality of the outgoing secondary steel equals the quality of the ingoing secondary steel. So according to Jim Pritchard, the price for secondary steel in 2023 in the US was aroun 400€ per ton. Given that this represents approximately 55% of the primary steel price, Qsout can be set to 0,55. Therefor Qsout/Qp can be set to 0,55. (d) Qsout/Qp ratio has been fixed to 1 for steel in this paper (e) For metals, the quality is assumed to stay the same through recycling. Qsin/Qp=Qsout/Qp=1 has been set (f) Qsin/Qp and Qsout/Qp has been set to 1, as steel keeps the metallugircal properties when recycled. The quality ofprimary steel equals the quality of secondary steel. </t>
+  </si>
+  <si>
+    <t>(a) American Iron and Steel Institute, 2020; Eu RIC AISBL, 2022 (b) World Steel Association, 2021; Eu RIC AISBL, 2022 ©Jim Pritchard, 2024; American Iron and Steel Institute, 2020 (d) Babian, 2022; Rydberg et al., 2023 € Metals for buildings, 2024; (f) Yang et al., 2024</t>
+  </si>
+  <si>
+    <t>The use for GF-PP is growing every year and so is the supply of recycable composite waste (a). But the demand is not as high for recycled GF-PP, because recycling end-of-life compounds results in loss of the materials properties (b) and the loss of mechanical durability  limits the reuse of recycled GF-PP for reinforcement and compromises the value position of the recycled material (c). The demand for recyceled GF-PP stays low, as most of the used GF-PP ends up in size reduction or in landfill and no esatblished method for recycling exists (c). But according to Pfisterer, Rinberg, Kroll, 2021 the automotive manufactures are increasingly trying to use recyclates. Low demand and high supply means a high A value according to PEF Report. The A value can be set from 0,5 to 0,8 because of the slightly increasing demand.</t>
+  </si>
+  <si>
+    <t>Karuppannan Gopalraj, Kärki; 2020 (a)
+Achukwu, 2023 (b)
+Ginder, Ker, Ozcan; 2019 (c) 
+Pfisterer, Rinberg, Kroll; 2021</t>
+  </si>
+  <si>
+    <t>(a) The global recycling rate of GF-PP is 13%. R2 can be set to R2=0,13 (b) R2=0,13, in the UK, only 13% of GF-PP is recycled and only 6% is being reused, 67% of GF-PP is going to the landfill</t>
+  </si>
+  <si>
+    <t>(a) Feng, Zhao, Xu, 2016 (b) Karuppannan Gopalraj, Kärki; 2020</t>
+  </si>
+  <si>
+    <t>(a) The price of mehanical recycled fibers is about 80% of virgin ones (b) Recycling with pyrolisis showed a loss of 50 to 64% of mechanical properties of the compound. Mechanical recycling looses approximately 22% of strength of the compound. Compared to the quality of primary GF-PP, a quality ratio of 0,36-0,78 can be set (c) For the polymer, the quality ratio of 0,9 has been chosen as per the PEF Report. The paper based the quality ratios for the fibers based on the loss of tensile strength. It assumes that a loss of 18% is achieved when recycling with pyrolisis. The range for the quality ratio can be set from 0,72-0,9 (d) A decrease of the mechanical properties of the recycled GF-PP was indentified between 13,7% and 23,8% for tensile strength. Qs ranges between 0,76 and 0,86. Qsin/Qp then ranges between 0,76 and 0,86.</t>
+  </si>
+  <si>
+    <t>(a) Gonçalves, Martinho, Oliveira; 2022 (b) Gonçalves, Martinho, Oliveira; 2022 © Hermansson et al., 2022 (d) Colucci et al., 2015</t>
+  </si>
+  <si>
+    <t>Truncated Normal (mean=0,7; std=0,2; min=0,36; max=0,9)</t>
+  </si>
+  <si>
+    <t>composite_CCB_allocated</t>
+  </si>
+  <si>
+    <t>industrial_CCB_allocated</t>
   </si>
 </sst>
 </file>
@@ -4549,7 +4588,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="334">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4931,517 +4970,454 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="81" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="81" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5451,14 +5427,86 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7231,14 +7279,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
     </row>
     <row r="4" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:22" ht="18.75">
@@ -7250,10 +7298,10 @@
       </c>
       <c r="P5" s="7"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="158" t="s">
+      <c r="S5" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="159"/>
+      <c r="T5" s="163"/>
       <c r="U5" s="20" t="s">
         <v>3</v>
       </c>
@@ -7265,10 +7313,10 @@
       </c>
       <c r="P6" s="8"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="160" t="s">
+      <c r="S6" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="161"/>
+      <c r="T6" s="165"/>
       <c r="U6" s="18" t="s">
         <v>5</v>
       </c>
@@ -7359,15 +7407,15 @@
       <c r="N17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="162" t="s">
+      <c r="O17" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="162"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="162"/>
-      <c r="U17" s="162"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="166"/>
+      <c r="S17" s="166"/>
+      <c r="T17" s="166"/>
+      <c r="U17" s="166"/>
     </row>
     <row r="18" spans="14:21">
       <c r="P18" s="10" t="e">
@@ -7426,8 +7474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1BA79A-6A5D-47BC-924A-434DAD144CA9}">
   <dimension ref="A1:M192"/>
   <sheetViews>
-    <sheetView topLeftCell="A189" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView topLeftCell="A60" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -7449,14 +7497,14 @@
     <row r="3" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:13" ht="15.75" thickBot="1">
       <c r="A4" s="132" t="s">
-        <v>586</v>
-      </c>
-      <c r="B4" s="167" t="s">
-        <v>587</v>
-      </c>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
+        <v>582</v>
+      </c>
+      <c r="B4" s="171" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="131"/>
       <c r="G4" s="131"/>
       <c r="H4" s="131"/>
@@ -7471,12 +7519,12 @@
       <c r="A6" s="133">
         <v>0.95</v>
       </c>
-      <c r="B6" s="180" t="s">
-        <v>590</v>
-      </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="182"/>
+      <c r="B6" s="184" t="s">
+        <v>586</v>
+      </c>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="186"/>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="115" t="s">
@@ -7665,12 +7713,12 @@
       <c r="A21" s="133">
         <v>0.05</v>
       </c>
-      <c r="B21" s="180" t="s">
-        <v>591</v>
-      </c>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="182"/>
+      <c r="B21" s="184" t="s">
+        <v>587</v>
+      </c>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="186"/>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="115" t="s">
@@ -7856,12 +7904,12 @@
     </row>
     <row r="36" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="37" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B37" s="170" t="s">
-        <v>588</v>
-      </c>
-      <c r="C37" s="171"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="172"/>
+      <c r="B37" s="174" t="s">
+        <v>584</v>
+      </c>
+      <c r="C37" s="175"/>
+      <c r="D37" s="175"/>
+      <c r="E37" s="176"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="73" t="s">
@@ -7871,110 +7919,110 @@
         <v>189</v>
       </c>
       <c r="D38" s="115" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E38" s="115" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="60">
-      <c r="B39" s="163" t="s">
-        <v>609</v>
-      </c>
-      <c r="C39" s="165">
+      <c r="B39" s="167" t="s">
+        <v>605</v>
+      </c>
+      <c r="C39" s="169">
         <v>0.2</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E39" s="138" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15" hidden="1" customHeight="1">
-      <c r="B40" s="164"/>
-      <c r="C40" s="166"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="170"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="2:5" ht="30">
       <c r="B41" s="34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C41" s="134">
         <v>0</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E41" s="138" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="139" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C42" s="134" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="34" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C43" s="134">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="30">
       <c r="B44" s="139" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C44" s="134" t="s">
         <v>550</v>
       </c>
       <c r="D44" s="138" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="30">
       <c r="B45" s="34" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C45" s="134" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="47" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B47" s="170" t="s">
-        <v>589</v>
-      </c>
-      <c r="C47" s="171"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="172"/>
+      <c r="B47" s="174" t="s">
+        <v>585</v>
+      </c>
+      <c r="C47" s="175"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="176"/>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="73" t="s">
@@ -7984,125 +8032,125 @@
         <v>189</v>
       </c>
       <c r="D48" s="115" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E48" s="115" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="B49" s="163" t="s">
-        <v>609</v>
-      </c>
-      <c r="C49" s="165">
+      <c r="B49" s="167" t="s">
+        <v>605</v>
+      </c>
+      <c r="C49" s="169">
         <v>0.2</v>
       </c>
-      <c r="D49" s="176" t="s">
+      <c r="D49" s="180" t="s">
+        <v>617</v>
+      </c>
+      <c r="E49" s="182" t="s">
         <v>621</v>
       </c>
-      <c r="E49" s="178" t="s">
-        <v>625</v>
-      </c>
     </row>
     <row r="50" spans="1:5" ht="4.5" customHeight="1">
-      <c r="B50" s="164"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="177"/>
-      <c r="E50" s="179"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="181"/>
+      <c r="E50" s="183"/>
     </row>
     <row r="51" spans="1:5" ht="30">
       <c r="B51" s="34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C51" s="134">
         <v>0</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E51" s="138" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="75">
       <c r="B52" s="139" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C52" s="134" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="B53" s="34" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C53" s="134">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="B54" s="139" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C54" s="134">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="B55" s="34" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C55" s="134">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="58" spans="1:5" ht="15.75" thickBot="1">
       <c r="A58" s="132" t="s">
-        <v>586</v>
-      </c>
-      <c r="B58" s="167" t="s">
+        <v>582</v>
+      </c>
+      <c r="B58" s="171" t="s">
         <v>432</v>
       </c>
-      <c r="C58" s="168"/>
-      <c r="D58" s="168"/>
-      <c r="E58" s="169"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="172"/>
+      <c r="E58" s="173"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="61" spans="1:5" ht="15.75" thickBot="1">
       <c r="A61" s="133">
         <v>0.54</v>
       </c>
-      <c r="B61" s="180" t="s">
-        <v>590</v>
-      </c>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
-      <c r="E61" s="182"/>
+      <c r="B61" s="184" t="s">
+        <v>586</v>
+      </c>
+      <c r="C61" s="185"/>
+      <c r="D61" s="185"/>
+      <c r="E61" s="186"/>
     </row>
     <row r="62" spans="1:5">
       <c r="B62" s="1" t="s">
@@ -8291,12 +8339,12 @@
       <c r="A76" s="135">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="B76" s="180" t="s">
-        <v>591</v>
-      </c>
-      <c r="C76" s="181"/>
-      <c r="D76" s="181"/>
-      <c r="E76" s="182"/>
+      <c r="B76" s="184" t="s">
+        <v>587</v>
+      </c>
+      <c r="C76" s="185"/>
+      <c r="D76" s="185"/>
+      <c r="E76" s="186"/>
     </row>
     <row r="77" spans="1:5">
       <c r="B77" s="1" t="s">
@@ -8485,13 +8533,13 @@
       <c r="A91" s="135">
         <v>0.41499999999999998</v>
       </c>
-      <c r="B91" s="170" t="s">
-        <v>592</v>
-      </c>
-      <c r="C91" s="171"/>
-      <c r="D91" s="171"/>
-      <c r="E91" s="171"/>
-      <c r="F91" s="175"/>
+      <c r="B91" s="174" t="s">
+        <v>588</v>
+      </c>
+      <c r="C91" s="175"/>
+      <c r="D91" s="175"/>
+      <c r="E91" s="175"/>
+      <c r="F91" s="179"/>
     </row>
     <row r="92" spans="1:6">
       <c r="B92" s="115" t="s">
@@ -8716,12 +8764,12 @@
     </row>
     <row r="106" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="107" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B107" s="170" t="s">
-        <v>588</v>
-      </c>
-      <c r="C107" s="171"/>
-      <c r="D107" s="171"/>
-      <c r="E107" s="172"/>
+      <c r="B107" s="174" t="s">
+        <v>584</v>
+      </c>
+      <c r="C107" s="175"/>
+      <c r="D107" s="175"/>
+      <c r="E107" s="176"/>
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="73" t="s">
@@ -8731,110 +8779,110 @@
         <v>189</v>
       </c>
       <c r="D108" s="115" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E108" s="115" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="60">
-      <c r="B109" s="163" t="s">
-        <v>609</v>
-      </c>
-      <c r="C109" s="165">
+      <c r="B109" s="167" t="s">
+        <v>605</v>
+      </c>
+      <c r="C109" s="169">
         <v>0.2</v>
       </c>
       <c r="D109" s="34" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E109" s="138" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="164"/>
-      <c r="C110" s="166"/>
+      <c r="B110" s="168"/>
+      <c r="C110" s="170"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="2:6" ht="30">
       <c r="B111" s="34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C111" s="134">
         <v>0</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E111" s="138" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="139" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C112" s="134" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="113" spans="2:5">
       <c r="B113" s="34" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C113" s="134">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="30">
       <c r="B114" s="139" t="s">
-        <v>607</v>
-      </c>
-      <c r="C114" s="134" t="s">
-        <v>550</v>
+        <v>603</v>
+      </c>
+      <c r="C114" s="158" t="s">
+        <v>771</v>
       </c>
       <c r="D114" s="138" t="s">
-        <v>622</v>
+        <v>772</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="115" spans="2:5" ht="30">
       <c r="B115" s="34" t="s">
-        <v>608</v>
-      </c>
-      <c r="C115" s="134" t="s">
-        <v>705</v>
-      </c>
-      <c r="D115" s="36" t="s">
-        <v>708</v>
+        <v>604</v>
+      </c>
+      <c r="C115" s="158" t="s">
+        <v>771</v>
+      </c>
+      <c r="D115" s="138" t="s">
+        <v>772</v>
       </c>
       <c r="E115" s="34" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
     </row>
     <row r="116" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="117" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B117" s="170" t="s">
-        <v>589</v>
-      </c>
-      <c r="C117" s="171"/>
-      <c r="D117" s="171"/>
-      <c r="E117" s="172"/>
+      <c r="B117" s="174" t="s">
+        <v>585</v>
+      </c>
+      <c r="C117" s="175"/>
+      <c r="D117" s="175"/>
+      <c r="E117" s="176"/>
     </row>
     <row r="118" spans="2:5">
       <c r="B118" s="73" t="s">
@@ -8844,110 +8892,110 @@
         <v>189</v>
       </c>
       <c r="D118" s="115" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E118" s="115" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="119" spans="2:5">
-      <c r="B119" s="163" t="s">
-        <v>609</v>
-      </c>
-      <c r="C119" s="165">
+      <c r="B119" s="167" t="s">
+        <v>605</v>
+      </c>
+      <c r="C119" s="169">
         <v>0.2</v>
       </c>
-      <c r="D119" s="176" t="s">
+      <c r="D119" s="180" t="s">
+        <v>617</v>
+      </c>
+      <c r="E119" s="182" t="s">
         <v>621</v>
       </c>
-      <c r="E119" s="178" t="s">
-        <v>625</v>
-      </c>
     </row>
     <row r="120" spans="2:5">
-      <c r="B120" s="164"/>
-      <c r="C120" s="166"/>
-      <c r="D120" s="177"/>
-      <c r="E120" s="179"/>
+      <c r="B120" s="168"/>
+      <c r="C120" s="170"/>
+      <c r="D120" s="181"/>
+      <c r="E120" s="183"/>
     </row>
     <row r="121" spans="2:5" ht="30">
       <c r="B121" s="34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C121" s="134">
         <v>0</v>
       </c>
       <c r="D121" s="34" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E121" s="138" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="75">
       <c r="B122" s="139" t="s">
-        <v>605</v>
-      </c>
-      <c r="C122" s="134" t="s">
-        <v>721</v>
+        <v>601</v>
+      </c>
+      <c r="C122" s="158" t="s">
+        <v>781</v>
       </c>
       <c r="D122" s="37" t="s">
-        <v>722</v>
+        <v>782</v>
       </c>
       <c r="E122" s="36" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="123" spans="2:5">
       <c r="B123" s="34" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C123" s="134">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124" spans="2:5">
       <c r="B124" s="139" t="s">
-        <v>607</v>
-      </c>
-      <c r="C124" s="134">
-        <v>1</v>
+        <v>603</v>
+      </c>
+      <c r="C124" s="158" t="s">
+        <v>787</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>629</v>
+        <v>788</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="125" spans="2:5">
       <c r="B125" s="34" t="s">
-        <v>608</v>
-      </c>
-      <c r="C125" s="134">
-        <v>1</v>
+        <v>604</v>
+      </c>
+      <c r="C125" s="158" t="s">
+        <v>787</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>629</v>
+        <v>788</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="127" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B127" s="170" t="s">
-        <v>593</v>
-      </c>
-      <c r="C127" s="171"/>
-      <c r="D127" s="171"/>
-      <c r="E127" s="172"/>
+      <c r="B127" s="174" t="s">
+        <v>589</v>
+      </c>
+      <c r="C127" s="175"/>
+      <c r="D127" s="175"/>
+      <c r="E127" s="176"/>
     </row>
     <row r="128" spans="2:5">
       <c r="B128" s="73" t="s">
@@ -8957,125 +9005,125 @@
         <v>189</v>
       </c>
       <c r="D128" s="115" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E128" s="115" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="129" spans="2:5">
-      <c r="B129" s="163" t="s">
-        <v>609</v>
-      </c>
-      <c r="C129" s="165" t="s">
+      <c r="B129" s="167" t="s">
+        <v>605</v>
+      </c>
+      <c r="C129" s="169" t="s">
         <v>556</v>
       </c>
-      <c r="D129" s="173" t="s">
-        <v>632</v>
-      </c>
-      <c r="E129" s="173" t="s">
-        <v>634</v>
+      <c r="D129" s="177" t="s">
+        <v>627</v>
+      </c>
+      <c r="E129" s="177" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="41.25" customHeight="1">
-      <c r="B130" s="164"/>
-      <c r="C130" s="166"/>
-      <c r="D130" s="174"/>
-      <c r="E130" s="174"/>
+      <c r="B130" s="168"/>
+      <c r="C130" s="170"/>
+      <c r="D130" s="178"/>
+      <c r="E130" s="178"/>
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C131" s="134">
         <v>0</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="90">
       <c r="B132" s="139" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C132" s="134" t="s">
         <v>555</v>
       </c>
       <c r="D132" s="37" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E132" s="36" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="133" spans="2:5">
       <c r="B133" s="34" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C133" s="134">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="134" spans="2:5" ht="75">
       <c r="B134" s="139" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C134" s="134" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="D134" s="36" t="s">
-        <v>737</v>
+        <v>797</v>
       </c>
       <c r="E134" s="36" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="120">
       <c r="B135" s="34" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C135" s="134" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="D135" s="36" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="E135" s="36" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="138" spans="2:5" ht="15.75" thickBot="1">
       <c r="B138" s="130" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="139" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="140" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B140" s="167" t="s">
+      <c r="B140" s="171" t="s">
         <v>300</v>
       </c>
-      <c r="C140" s="168"/>
-      <c r="D140" s="168"/>
-      <c r="E140" s="169"/>
+      <c r="C140" s="172"/>
+      <c r="D140" s="172"/>
+      <c r="E140" s="173"/>
     </row>
     <row r="141" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="142" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B142" s="167" t="s">
-        <v>595</v>
-      </c>
-      <c r="C142" s="168"/>
-      <c r="D142" s="168"/>
-      <c r="E142" s="169"/>
+      <c r="B142" s="171" t="s">
+        <v>591</v>
+      </c>
+      <c r="C142" s="172"/>
+      <c r="D142" s="172"/>
+      <c r="E142" s="173"/>
     </row>
     <row r="143" spans="2:5">
       <c r="B143" s="1" t="s">
@@ -9261,12 +9309,12 @@
     </row>
     <row r="156" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="157" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B157" s="170" t="s">
-        <v>596</v>
-      </c>
-      <c r="C157" s="171"/>
-      <c r="D157" s="171"/>
-      <c r="E157" s="172"/>
+      <c r="B157" s="174" t="s">
+        <v>592</v>
+      </c>
+      <c r="C157" s="175"/>
+      <c r="D157" s="175"/>
+      <c r="E157" s="176"/>
     </row>
     <row r="158" spans="2:5">
       <c r="B158" s="73" t="s">
@@ -9276,121 +9324,121 @@
         <v>189</v>
       </c>
       <c r="D158" s="115" t="s">
+        <v>595</v>
+      </c>
+      <c r="E158" s="115" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" ht="45" customHeight="1">
+      <c r="B159" s="167" t="s">
+        <v>605</v>
+      </c>
+      <c r="C159" s="169">
+        <v>0.5</v>
+      </c>
+      <c r="D159" s="177" t="s">
         <v>599</v>
       </c>
-      <c r="E158" s="115" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" ht="45" customHeight="1">
-      <c r="B159" s="163" t="s">
-        <v>609</v>
-      </c>
-      <c r="C159" s="165">
-        <v>0.5</v>
-      </c>
-      <c r="D159" s="173" t="s">
-        <v>603</v>
-      </c>
-      <c r="E159" s="173" t="s">
-        <v>662</v>
+      <c r="E159" s="177" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="160" spans="2:5">
-      <c r="B160" s="164"/>
-      <c r="C160" s="166"/>
-      <c r="D160" s="174"/>
-      <c r="E160" s="174"/>
+      <c r="B160" s="168"/>
+      <c r="C160" s="170"/>
+      <c r="D160" s="178"/>
+      <c r="E160" s="178"/>
     </row>
     <row r="161" spans="2:6" ht="30">
       <c r="B161" s="34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C161" s="134">
         <v>0</v>
       </c>
       <c r="D161" s="37" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E161" s="138" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="162" spans="2:6" ht="80.25" customHeight="1">
       <c r="B162" s="139" t="s">
-        <v>605</v>
-      </c>
-      <c r="C162" s="327" t="s">
-        <v>775</v>
+        <v>601</v>
+      </c>
+      <c r="C162" s="158" t="s">
+        <v>753</v>
       </c>
       <c r="D162" s="34" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="E162" s="36" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="163" spans="2:6" ht="45">
       <c r="B163" s="34" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C163" s="134">
         <v>1</v>
       </c>
       <c r="D163" s="37" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E163" s="138" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="164" spans="2:6" ht="75">
       <c r="B164" s="139" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C164" s="136">
         <v>0.52</v>
       </c>
       <c r="D164" s="155" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E164" s="36" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="165" spans="2:6" ht="208.5" customHeight="1">
       <c r="B165" s="34" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C165" s="136" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D165" s="36" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E165" s="36" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F165" s="140"/>
     </row>
     <row r="166" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="167" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B167" s="167" t="s">
+      <c r="B167" s="171" t="s">
         <v>213</v>
       </c>
-      <c r="C167" s="168"/>
-      <c r="D167" s="168"/>
-      <c r="E167" s="169"/>
+      <c r="C167" s="172"/>
+      <c r="D167" s="172"/>
+      <c r="E167" s="173"/>
     </row>
     <row r="168" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="169" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B169" s="167" t="s">
-        <v>597</v>
-      </c>
-      <c r="C169" s="168"/>
-      <c r="D169" s="168"/>
-      <c r="E169" s="168"/>
-      <c r="F169" s="169"/>
+      <c r="B169" s="171" t="s">
+        <v>593</v>
+      </c>
+      <c r="C169" s="172"/>
+      <c r="D169" s="172"/>
+      <c r="E169" s="172"/>
+      <c r="F169" s="173"/>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="1" t="s">
@@ -9624,12 +9672,12 @@
     </row>
     <row r="183" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="184" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B184" s="170" t="s">
-        <v>598</v>
-      </c>
-      <c r="C184" s="171"/>
-      <c r="D184" s="171"/>
-      <c r="E184" s="172"/>
+      <c r="B184" s="174" t="s">
+        <v>594</v>
+      </c>
+      <c r="C184" s="175"/>
+      <c r="D184" s="175"/>
+      <c r="E184" s="176"/>
     </row>
     <row r="185" spans="2:6">
       <c r="B185" s="73" t="s">
@@ -9639,100 +9687,100 @@
         <v>189</v>
       </c>
       <c r="D185" s="115" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E185" s="115" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="163" t="s">
-        <v>609</v>
-      </c>
-      <c r="C186" s="165" t="s">
+      <c r="B186" s="167" t="s">
+        <v>605</v>
+      </c>
+      <c r="C186" s="169" t="s">
         <v>293</v>
       </c>
-      <c r="D186" s="173" t="s">
-        <v>612</v>
-      </c>
-      <c r="E186" s="173" t="s">
-        <v>633</v>
+      <c r="D186" s="177" t="s">
+        <v>608</v>
+      </c>
+      <c r="E186" s="177" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="187" spans="2:6">
-      <c r="B187" s="164"/>
-      <c r="C187" s="166"/>
-      <c r="D187" s="174"/>
-      <c r="E187" s="174"/>
+      <c r="B187" s="168"/>
+      <c r="C187" s="170"/>
+      <c r="D187" s="178"/>
+      <c r="E187" s="178"/>
     </row>
     <row r="188" spans="2:6" ht="135">
       <c r="B188" s="34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C188" s="134">
         <v>0.6</v>
       </c>
       <c r="D188" s="36" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E188" s="36" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="189" spans="2:6" ht="120">
       <c r="B189" s="139" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C189" s="134" t="s">
         <v>557</v>
       </c>
       <c r="D189" s="34" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E189" s="36" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="190" spans="2:6">
       <c r="B190" s="34" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C190" s="134">
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="191" spans="2:6" ht="69.75" customHeight="1">
       <c r="B191" s="81" t="s">
-        <v>607</v>
-      </c>
-      <c r="C191" s="331" t="s">
-        <v>785</v>
+        <v>603</v>
+      </c>
+      <c r="C191" s="159" t="s">
+        <v>763</v>
       </c>
       <c r="D191" s="36" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E191" s="45" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="192" spans="2:6" ht="72" customHeight="1">
       <c r="B192" s="34" t="s">
-        <v>608</v>
-      </c>
-      <c r="C192" s="327" t="s">
-        <v>644</v>
+        <v>604</v>
+      </c>
+      <c r="C192" s="158" t="s">
+        <v>639</v>
       </c>
       <c r="D192" s="36" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E192" s="36" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -9787,10 +9835,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14970EC7-1BC4-45AB-9851-5351B74C0381}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9799,36 +9847,44 @@
     <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="C1" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="D1" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="E1" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="F1" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="G1" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="H1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>743</v>
+      </c>
+      <c r="I1" t="s">
+        <v>799</v>
+      </c>
+      <c r="J1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -9853,10 +9909,18 @@
         <f>'CFF Clean Data'!D176</f>
         <v>23.822000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <f>(0.95*B2)+(0.05*C2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="154">
+        <f>(0.54*D2)+(0.045*E2)+(0.415*F2)</f>
+        <v>7.7189999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="B3">
         <f>'CFF Clean Data'!C13</f>
@@ -9886,10 +9950,18 @@
         <f>'CFF Clean Data'!C176</f>
         <v>84.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <f>(0.95*B3)+(0.05*C3)</f>
+        <v>1.2857999999999998</v>
+      </c>
+      <c r="J3" s="154">
+        <f>(0.54*D3)+(0.045*E3)+(0.415*F3)</f>
+        <v>0.56424094285875614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="B4" s="154">
         <f>'CFF Clean Data'!D13</f>
@@ -9919,10 +9991,18 @@
         <f>'CFF Clean Data'!F176</f>
         <v>0.81499999999999995</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="154">
+        <f>(0.95*B4)+(0.05*C4)</f>
+        <v>1.1247949999999998E-2</v>
+      </c>
+      <c r="J4" s="154">
+        <f>(0.54*D4)+(0.045*E4)+(0.415*F4)</f>
+        <v>6.6009515051587394E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="B5" s="154">
         <f>'CFF Clean Data'!E13</f>
@@ -9952,10 +10032,18 @@
         <f>'CFF Clean Data'!E176</f>
         <v>414</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="154">
+        <f>(0.95*B5)+(0.05*C5)</f>
+        <v>62.699999999999996</v>
+      </c>
+      <c r="J5" s="154">
+        <f>(0.54*D5)+(0.045*E5)+(0.415*F5)</f>
+        <v>21.679835000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="B6" s="154">
         <f>'CFF Clean Data'!E13</f>
@@ -9984,6 +10072,14 @@
       <c r="H6" s="154">
         <f>'CFF Clean Data'!E176</f>
         <v>414</v>
+      </c>
+      <c r="I6" s="154">
+        <f>(0.95*B6)+(0.05*C6)</f>
+        <v>62.699999999999996</v>
+      </c>
+      <c r="J6" s="154">
+        <f>(0.54*D6)+(0.045*E6)+(0.415*F6)</f>
+        <v>21.679835000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9995,8 +10091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2958BDAB-D449-4866-B4F7-C008E6F54453}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -10009,36 +10105,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="B1" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="C1" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="D1" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="E1" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="F1" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="G1" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="B2" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="C2" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D2">
         <f>'CFF Clean Data'!C39</f>
@@ -10047,13 +10143,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="B3" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="C3" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D3">
         <f>'CFF Clean Data'!C40</f>
@@ -10062,13 +10158,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="B4" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="C4" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="D4">
         <v>0.76</v>
@@ -10082,59 +10178,59 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="B5" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="C5" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>766</v>
+      <c r="A6" s="157" t="s">
+        <v>744</v>
       </c>
       <c r="B6" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="C6" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="D6">
-        <v>0.997</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>2E-3</v>
+        <v>0.05</v>
       </c>
       <c r="F6">
-        <v>0.995</v>
+        <v>0.8</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>766</v>
+      <c r="A7" s="157" t="s">
+        <v>744</v>
       </c>
       <c r="B7" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="C7" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="D7">
         <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F7">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -10142,13 +10238,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="B8" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="C8" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D8">
         <v>0.2</v>
@@ -10156,89 +10252,101 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="B9" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="C9" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>767</v>
+      <c r="A10" s="157" t="s">
+        <v>745</v>
       </c>
       <c r="B10" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="C10" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="D10">
         <v>0.81</v>
       </c>
       <c r="E10">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F10">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="B11" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="C11" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>767</v>
+      <c r="A12" s="157" t="s">
+        <v>745</v>
       </c>
       <c r="B12" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="C12" t="s">
-        <v>763</v>
+        <v>739</v>
       </c>
       <c r="D12">
+        <v>0.9</v>
+      </c>
+      <c r="E12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>767</v>
+      <c r="A13" s="157" t="s">
+        <v>745</v>
       </c>
       <c r="B13" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="C13" t="s">
-        <v>763</v>
+        <v>739</v>
       </c>
       <c r="D13">
+        <v>0.9</v>
+      </c>
+      <c r="E13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="B14" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="C14" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D14">
         <v>0.2</v>
@@ -10246,13 +10354,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="B15" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="C15" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -10260,13 +10368,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="B16" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="C16" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="D16">
         <v>0.76</v>
@@ -10280,24 +10388,24 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="B17" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="C17" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="B18" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="C18" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="D18">
         <v>0.997</v>
@@ -10314,13 +10422,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="B19" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="C19" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="D19">
         <v>0.9</v>
@@ -10337,13 +10445,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="B20" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="C20" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D20">
         <v>0.2</v>
@@ -10351,13 +10459,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="B21" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="C21" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -10365,13 +10473,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="B22" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="C22" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="D22">
         <v>0.81</v>
@@ -10385,13 +10493,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="B23" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="C23" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -10399,13 +10507,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="B24" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="C24" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -10413,13 +10521,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="B25" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="C25" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -10427,13 +10535,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="B26" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="C26" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="D26">
         <v>0.65</v>
@@ -10450,24 +10558,24 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="B27" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="C27" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="B28" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="C28" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -10481,27 +10589,27 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="B29" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="C29" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>770</v>
+      <c r="A30" s="157" t="s">
+        <v>748</v>
       </c>
       <c r="B30" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="C30" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="D30">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E30">
         <v>0.2</v>
@@ -10515,13 +10623,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="B31" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="C31" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="D31">
         <v>0.6</v>
@@ -10538,13 +10646,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="B32" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="C32" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="D32">
         <v>0.5</v>
@@ -10561,27 +10669,27 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="B33" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="C33" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="326" t="s">
-        <v>764</v>
+      <c r="A34" s="157" t="s">
+        <v>742</v>
       </c>
       <c r="B34" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="C34" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -10595,13 +10703,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="B35" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="C35" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -10609,13 +10717,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="B36" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="C36" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="D36">
         <v>0.52</v>
@@ -10632,13 +10740,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="B37" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="C37" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="D37">
         <v>0.85</v>
@@ -10655,13 +10763,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="B38" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="C38" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="D38">
         <v>0.6</v>
@@ -10678,13 +10786,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="B39" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="C39" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="D39">
         <v>0.6</v>
@@ -10701,13 +10809,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="B40" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="C40" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -10721,27 +10829,27 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="B41" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="C41" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="326" t="s">
-        <v>765</v>
+      <c r="A42" s="157" t="s">
+        <v>743</v>
       </c>
       <c r="B42" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="C42" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="D42">
         <v>0.45</v>
@@ -10757,14 +10865,14 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="326" t="s">
-        <v>765</v>
+      <c r="A43" s="157" t="s">
+        <v>743</v>
       </c>
       <c r="B43" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="C43" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="D43">
         <v>0.75</v>
@@ -10813,94 +10921,94 @@
       <c r="B4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="190"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:7">
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="193"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="197"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="196"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="200"/>
     </row>
     <row r="8" spans="2:7" ht="30.75" customHeight="1">
       <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="183" t="s">
+      <c r="C8" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="184"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="188"/>
     </row>
     <row r="9" spans="2:7" ht="36" customHeight="1">
       <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="183" t="s">
+      <c r="C9" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="184"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="188"/>
     </row>
     <row r="10" spans="2:7" ht="34.5" customHeight="1">
       <c r="B10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="184"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="188"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="189" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="186"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="187"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="191"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="200" t="s">
+      <c r="B12" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="201"/>
-      <c r="D12" s="201" t="s">
+      <c r="C12" s="205"/>
+      <c r="D12" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="201"/>
-      <c r="F12" s="201" t="s">
+      <c r="E12" s="205"/>
+      <c r="F12" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="202"/>
+      <c r="G12" s="206"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="13" t="s">
@@ -10909,433 +11017,433 @@
       <c r="C13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="203"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="205"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="209"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="194"/>
-      <c r="C14" s="207"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="211"/>
       <c r="D14" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="206"/>
-      <c r="G14" s="196"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="200"/>
     </row>
     <row r="15" spans="2:7" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B15" s="208"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="211" t="s">
+      <c r="B15" s="212"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="212"/>
+      <c r="G15" s="216"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="20" spans="2:7" ht="37.5" customHeight="1" thickBot="1">
       <c r="B20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="188" t="s">
+      <c r="C20" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="189"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="189"/>
-      <c r="G20" s="190"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="194"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="22" spans="2:7">
-      <c r="B22" s="197" t="s">
+      <c r="B22" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="198"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="198"/>
-      <c r="F22" s="198"/>
-      <c r="G22" s="199"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="203"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="200" t="s">
+      <c r="B23" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="201"/>
-      <c r="D23" s="201" t="s">
+      <c r="C23" s="205"/>
+      <c r="D23" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="201"/>
-      <c r="F23" s="201" t="s">
+      <c r="E23" s="205"/>
+      <c r="F23" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="202"/>
+      <c r="G23" s="206"/>
     </row>
     <row r="24" spans="2:7" ht="39" customHeight="1">
-      <c r="B24" s="213" t="s">
+      <c r="B24" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="214"/>
-      <c r="D24" s="203"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="205"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="209"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="194"/>
-      <c r="C25" s="207"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="211"/>
       <c r="D25" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="F25" s="206"/>
-      <c r="G25" s="196"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="200"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="215"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="217"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="218" t="s">
+      <c r="B26" s="219"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="221"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="219"/>
+      <c r="G26" s="223"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="220" t="s">
+      <c r="B27" s="224" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="221"/>
-      <c r="D27" s="221"/>
-      <c r="E27" s="221"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="222"/>
+      <c r="C27" s="225"/>
+      <c r="D27" s="225"/>
+      <c r="E27" s="225"/>
+      <c r="F27" s="225"/>
+      <c r="G27" s="226"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B28" s="223"/>
-      <c r="C28" s="224"/>
-      <c r="D28" s="224"/>
-      <c r="E28" s="224"/>
-      <c r="F28" s="224"/>
-      <c r="G28" s="225"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="229"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="34" spans="2:11" ht="58.5" customHeight="1" thickBot="1">
       <c r="B34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="192" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="190"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="194"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="36" spans="2:11">
-      <c r="B36" s="197" t="s">
+      <c r="B36" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="198"/>
-      <c r="D36" s="198"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="198"/>
-      <c r="G36" s="198"/>
-      <c r="H36" s="198"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="198"/>
-      <c r="K36" s="199"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="202"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="202"/>
+      <c r="J36" s="202"/>
+      <c r="K36" s="203"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="200" t="s">
+      <c r="B37" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="201"/>
-      <c r="D37" s="201" t="s">
+      <c r="C37" s="205"/>
+      <c r="D37" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="201"/>
-      <c r="F37" s="201" t="s">
+      <c r="E37" s="205"/>
+      <c r="F37" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="201"/>
-      <c r="H37" s="201" t="s">
+      <c r="G37" s="205"/>
+      <c r="H37" s="205" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="201"/>
-      <c r="J37" s="201" t="s">
+      <c r="I37" s="205"/>
+      <c r="J37" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="202"/>
+      <c r="K37" s="206"/>
     </row>
     <row r="38" spans="2:11" ht="15" customHeight="1">
-      <c r="B38" s="226" t="s">
+      <c r="B38" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="227"/>
-      <c r="D38" s="203"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="203"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="203"/>
-      <c r="I38" s="204"/>
-      <c r="J38" s="203"/>
-      <c r="K38" s="205"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="209"/>
     </row>
     <row r="39" spans="2:11" ht="30">
-      <c r="B39" s="194"/>
-      <c r="C39" s="207"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="211"/>
       <c r="D39" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="206"/>
-      <c r="G39" s="207"/>
-      <c r="H39" s="206"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="206"/>
-      <c r="K39" s="196"/>
+      <c r="F39" s="210"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="210"/>
+      <c r="I39" s="211"/>
+      <c r="J39" s="210"/>
+      <c r="K39" s="200"/>
     </row>
     <row r="40" spans="2:11" ht="30">
-      <c r="B40" s="194"/>
-      <c r="C40" s="207"/>
-      <c r="D40" s="206"/>
-      <c r="E40" s="207"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="211"/>
+      <c r="D40" s="210"/>
+      <c r="E40" s="211"/>
       <c r="F40" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="206"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="206"/>
-      <c r="K40" s="196"/>
+      <c r="H40" s="210"/>
+      <c r="I40" s="211"/>
+      <c r="J40" s="210"/>
+      <c r="K40" s="200"/>
     </row>
     <row r="41" spans="2:11" ht="45">
-      <c r="B41" s="194"/>
-      <c r="C41" s="207"/>
-      <c r="D41" s="206"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="206"/>
-      <c r="G41" s="207"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="211"/>
+      <c r="D41" s="210"/>
+      <c r="E41" s="211"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="211"/>
       <c r="H41" s="14" t="s">
         <v>36</v>
       </c>
       <c r="I41" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="206"/>
-      <c r="K41" s="196"/>
+      <c r="J41" s="210"/>
+      <c r="K41" s="200"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="194"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="206"/>
-      <c r="E42" s="207"/>
-      <c r="F42" s="206"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="206"/>
-      <c r="I42" s="207"/>
-      <c r="J42" s="228" t="s">
+      <c r="B42" s="198"/>
+      <c r="C42" s="211"/>
+      <c r="D42" s="210"/>
+      <c r="E42" s="211"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="211"/>
+      <c r="H42" s="210"/>
+      <c r="I42" s="211"/>
+      <c r="J42" s="232" t="s">
         <v>56</v>
       </c>
-      <c r="K42" s="229"/>
+      <c r="K42" s="233"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="194"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="206"/>
-      <c r="E43" s="207"/>
-      <c r="F43" s="206"/>
-      <c r="G43" s="207"/>
-      <c r="H43" s="206"/>
-      <c r="I43" s="207"/>
-      <c r="J43" s="228"/>
-      <c r="K43" s="229"/>
+      <c r="B43" s="198"/>
+      <c r="C43" s="211"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="211"/>
+      <c r="F43" s="210"/>
+      <c r="G43" s="211"/>
+      <c r="H43" s="210"/>
+      <c r="I43" s="211"/>
+      <c r="J43" s="232"/>
+      <c r="K43" s="233"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="194"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="206"/>
-      <c r="E44" s="207"/>
-      <c r="F44" s="206"/>
-      <c r="G44" s="207"/>
-      <c r="H44" s="206"/>
-      <c r="I44" s="207"/>
-      <c r="J44" s="228"/>
-      <c r="K44" s="229"/>
+      <c r="B44" s="198"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="210"/>
+      <c r="E44" s="211"/>
+      <c r="F44" s="210"/>
+      <c r="G44" s="211"/>
+      <c r="H44" s="210"/>
+      <c r="I44" s="211"/>
+      <c r="J44" s="232"/>
+      <c r="K44" s="233"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="194"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="206"/>
-      <c r="E45" s="207"/>
-      <c r="F45" s="206"/>
-      <c r="G45" s="207"/>
-      <c r="H45" s="206"/>
-      <c r="I45" s="207"/>
-      <c r="J45" s="228"/>
-      <c r="K45" s="229"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="211"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="211"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="211"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="211"/>
+      <c r="J45" s="232"/>
+      <c r="K45" s="233"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B46" s="208"/>
-      <c r="C46" s="209"/>
-      <c r="D46" s="210"/>
-      <c r="E46" s="209"/>
-      <c r="F46" s="210"/>
-      <c r="G46" s="209"/>
-      <c r="H46" s="210"/>
-      <c r="I46" s="209"/>
-      <c r="J46" s="230"/>
-      <c r="K46" s="212"/>
+      <c r="B46" s="212"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="214"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="214"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="214"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="234"/>
+      <c r="K46" s="216"/>
     </row>
     <row r="51" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="52" spans="2:13" ht="96.75" customHeight="1" thickBot="1">
       <c r="B52" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="188" t="s">
+      <c r="C52" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="189"/>
-      <c r="E52" s="189"/>
-      <c r="F52" s="189"/>
-      <c r="G52" s="189"/>
-      <c r="H52" s="189"/>
-      <c r="I52" s="189"/>
-      <c r="J52" s="189"/>
-      <c r="K52" s="190"/>
+      <c r="D52" s="193"/>
+      <c r="E52" s="193"/>
+      <c r="F52" s="193"/>
+      <c r="G52" s="193"/>
+      <c r="H52" s="193"/>
+      <c r="I52" s="193"/>
+      <c r="J52" s="193"/>
+      <c r="K52" s="194"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="54" spans="2:13">
-      <c r="B54" s="231" t="s">
+      <c r="B54" s="235" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="232"/>
-      <c r="D54" s="232"/>
-      <c r="E54" s="232"/>
-      <c r="F54" s="232"/>
-      <c r="G54" s="232"/>
-      <c r="H54" s="232"/>
-      <c r="I54" s="233"/>
+      <c r="C54" s="236"/>
+      <c r="D54" s="236"/>
+      <c r="E54" s="236"/>
+      <c r="F54" s="236"/>
+      <c r="G54" s="236"/>
+      <c r="H54" s="236"/>
+      <c r="I54" s="237"/>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="200" t="s">
+      <c r="B55" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="201"/>
-      <c r="D55" s="201" t="s">
+      <c r="C55" s="205"/>
+      <c r="D55" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="234"/>
-      <c r="F55" s="201" t="s">
+      <c r="E55" s="238"/>
+      <c r="F55" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="G55" s="201"/>
-      <c r="H55" s="234" t="s">
+      <c r="G55" s="205"/>
+      <c r="H55" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="I55" s="235"/>
+      <c r="I55" s="239"/>
     </row>
     <row r="56" spans="2:13" ht="55.5" customHeight="1">
-      <c r="B56" s="237" t="s">
+      <c r="B56" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="238"/>
-      <c r="D56" s="203"/>
-      <c r="E56" s="204"/>
-      <c r="F56" s="203"/>
-      <c r="G56" s="204"/>
-      <c r="H56" s="203"/>
-      <c r="I56" s="205"/>
+      <c r="C56" s="242"/>
+      <c r="D56" s="207"/>
+      <c r="E56" s="208"/>
+      <c r="F56" s="207"/>
+      <c r="G56" s="208"/>
+      <c r="H56" s="207"/>
+      <c r="I56" s="209"/>
     </row>
     <row r="57" spans="2:13" ht="38.25" customHeight="1">
-      <c r="B57" s="213" t="s">
+      <c r="B57" s="217" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="214"/>
-      <c r="D57" s="206"/>
-      <c r="E57" s="207"/>
-      <c r="F57" s="206"/>
-      <c r="G57" s="207"/>
-      <c r="H57" s="206"/>
-      <c r="I57" s="196"/>
+      <c r="C57" s="218"/>
+      <c r="D57" s="210"/>
+      <c r="E57" s="211"/>
+      <c r="F57" s="210"/>
+      <c r="G57" s="211"/>
+      <c r="H57" s="210"/>
+      <c r="I57" s="200"/>
     </row>
     <row r="58" spans="2:13" ht="22.5" customHeight="1">
-      <c r="B58" s="194"/>
-      <c r="C58" s="207"/>
-      <c r="D58" s="228" t="s">
+      <c r="B58" s="198"/>
+      <c r="C58" s="211"/>
+      <c r="D58" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="236"/>
-      <c r="F58" s="206"/>
-      <c r="G58" s="207"/>
-      <c r="H58" s="206"/>
-      <c r="I58" s="196"/>
+      <c r="E58" s="240"/>
+      <c r="F58" s="210"/>
+      <c r="G58" s="211"/>
+      <c r="H58" s="210"/>
+      <c r="I58" s="200"/>
     </row>
     <row r="59" spans="2:13" ht="99.75" customHeight="1">
-      <c r="B59" s="194"/>
-      <c r="C59" s="207"/>
-      <c r="D59" s="206"/>
-      <c r="E59" s="207"/>
-      <c r="F59" s="228" t="s">
+      <c r="B59" s="198"/>
+      <c r="C59" s="211"/>
+      <c r="D59" s="210"/>
+      <c r="E59" s="211"/>
+      <c r="F59" s="232" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="236"/>
-      <c r="H59" s="206"/>
-      <c r="I59" s="196"/>
+      <c r="G59" s="240"/>
+      <c r="H59" s="210"/>
+      <c r="I59" s="200"/>
       <c r="M59" s="23"/>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="194"/>
-      <c r="C60" s="207"/>
-      <c r="D60" s="206"/>
-      <c r="E60" s="207"/>
-      <c r="F60" s="206"/>
-      <c r="G60" s="207"/>
-      <c r="H60" s="214" t="s">
+      <c r="B60" s="198"/>
+      <c r="C60" s="211"/>
+      <c r="D60" s="210"/>
+      <c r="E60" s="211"/>
+      <c r="F60" s="210"/>
+      <c r="G60" s="211"/>
+      <c r="H60" s="218" t="s">
         <v>62</v>
       </c>
-      <c r="I60" s="229"/>
+      <c r="I60" s="233"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="194"/>
-      <c r="C61" s="207"/>
-      <c r="D61" s="206"/>
-      <c r="E61" s="207"/>
-      <c r="F61" s="206"/>
-      <c r="G61" s="207"/>
-      <c r="H61" s="214"/>
-      <c r="I61" s="229"/>
+      <c r="B61" s="198"/>
+      <c r="C61" s="211"/>
+      <c r="D61" s="210"/>
+      <c r="E61" s="211"/>
+      <c r="F61" s="210"/>
+      <c r="G61" s="211"/>
+      <c r="H61" s="218"/>
+      <c r="I61" s="233"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="194"/>
-      <c r="C62" s="207"/>
-      <c r="D62" s="206"/>
-      <c r="E62" s="207"/>
-      <c r="F62" s="206"/>
-      <c r="G62" s="207"/>
-      <c r="H62" s="214"/>
-      <c r="I62" s="229"/>
+      <c r="B62" s="198"/>
+      <c r="C62" s="211"/>
+      <c r="D62" s="210"/>
+      <c r="E62" s="211"/>
+      <c r="F62" s="210"/>
+      <c r="G62" s="211"/>
+      <c r="H62" s="218"/>
+      <c r="I62" s="233"/>
     </row>
     <row r="63" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B63" s="208"/>
-      <c r="C63" s="209"/>
-      <c r="D63" s="210"/>
-      <c r="E63" s="209"/>
-      <c r="F63" s="210"/>
-      <c r="G63" s="209"/>
-      <c r="H63" s="211"/>
-      <c r="I63" s="212"/>
+      <c r="B63" s="212"/>
+      <c r="C63" s="213"/>
+      <c r="D63" s="214"/>
+      <c r="E63" s="213"/>
+      <c r="F63" s="214"/>
+      <c r="G63" s="213"/>
+      <c r="H63" s="215"/>
+      <c r="I63" s="216"/>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
@@ -11422,8 +11530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E5B1F2-A65A-4BFB-B63A-780942F289F5}">
   <dimension ref="B2:N445"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H438" sqref="H438"/>
+    <sheetView topLeftCell="A304" zoomScale="62" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G437" sqref="G437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -11433,7 +11541,7 @@
     <col min="4" max="4" width="68" customWidth="1"/>
     <col min="5" max="5" width="52" customWidth="1"/>
     <col min="6" max="6" width="61.140625" customWidth="1"/>
-    <col min="7" max="7" width="63.7109375" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" customWidth="1"/>
     <col min="8" max="8" width="47.42578125" customWidth="1"/>
     <col min="9" max="9" width="22.140625" customWidth="1"/>
     <col min="10" max="10" width="45.28515625" customWidth="1"/>
@@ -11446,14 +11554,14 @@
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="23" spans="2:5" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="272" t="s">
+      <c r="B23" s="276" t="s">
         <v>558</v>
       </c>
-      <c r="C23" s="273"/>
-      <c r="D23" s="274" t="s">
+      <c r="C23" s="277"/>
+      <c r="D23" s="278" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="275"/>
+      <c r="E23" s="279"/>
     </row>
     <row r="24" spans="2:5" ht="16.5" thickTop="1" thickBot="1">
       <c r="B24" s="26" t="s">
@@ -11498,10 +11606,10 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B27" s="276" t="s">
+      <c r="B27" s="280" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="279">
+      <c r="C27" s="283">
         <v>0.248</v>
       </c>
       <c r="D27" s="31" t="s">
@@ -11512,8 +11620,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B28" s="277"/>
-      <c r="C28" s="280"/>
+      <c r="B28" s="281"/>
+      <c r="C28" s="284"/>
       <c r="D28" s="28" t="s">
         <v>74</v>
       </c>
@@ -11522,8 +11630,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B29" s="277"/>
-      <c r="C29" s="280"/>
+      <c r="B29" s="281"/>
+      <c r="C29" s="284"/>
       <c r="D29" s="31" t="s">
         <v>75</v>
       </c>
@@ -11532,8 +11640,8 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B30" s="278"/>
-      <c r="C30" s="281"/>
+      <c r="B30" s="282"/>
+      <c r="C30" s="285"/>
       <c r="D30" s="28" t="s">
         <v>76</v>
       </c>
@@ -11578,20 +11686,20 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="262" t="s">
+      <c r="B35" s="266" t="s">
         <v>185</v>
       </c>
-      <c r="C35" s="263"/>
-      <c r="D35" s="263"/>
-      <c r="E35" s="263"/>
-      <c r="F35" s="263"/>
-      <c r="G35" s="263"/>
-      <c r="H35" s="263"/>
-      <c r="I35" s="263"/>
-      <c r="J35" s="263"/>
-      <c r="K35" s="263"/>
-      <c r="L35" s="263"/>
-      <c r="M35" s="264"/>
+      <c r="C35" s="267"/>
+      <c r="D35" s="267"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="267"/>
+      <c r="G35" s="267"/>
+      <c r="H35" s="267"/>
+      <c r="I35" s="267"/>
+      <c r="J35" s="267"/>
+      <c r="K35" s="267"/>
+      <c r="L35" s="267"/>
+      <c r="M35" s="268"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" t="s">
@@ -11611,74 +11719,74 @@
       <c r="B40" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="282" t="s">
+      <c r="C40" s="286" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="282"/>
-      <c r="E40" s="282"/>
-      <c r="F40" s="282"/>
-      <c r="G40" s="282"/>
-      <c r="H40" s="282"/>
-      <c r="I40" s="282"/>
-      <c r="J40" s="282"/>
-      <c r="K40" s="282"/>
-      <c r="L40" s="282"/>
-      <c r="M40" s="282"/>
+      <c r="D40" s="286"/>
+      <c r="E40" s="286"/>
+      <c r="F40" s="286"/>
+      <c r="G40" s="286"/>
+      <c r="H40" s="286"/>
+      <c r="I40" s="286"/>
+      <c r="J40" s="286"/>
+      <c r="K40" s="286"/>
+      <c r="L40" s="286"/>
+      <c r="M40" s="286"/>
     </row>
     <row r="41" spans="2:13" ht="18">
       <c r="B41" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="246" t="str">
+      <c r="C41" s="250" t="str">
         <f xml:space="preserve"> 'Case Study 2'!B164</f>
         <v>LCI:  Erec = 0 (as only primary materialsl and no secondary material is used for the conventional concrete product)</v>
       </c>
-      <c r="D41" s="246"/>
-      <c r="E41" s="246"/>
-      <c r="F41" s="246"/>
-      <c r="G41" s="246"/>
-      <c r="H41" s="246"/>
-      <c r="I41" s="246"/>
-      <c r="J41" s="246"/>
-      <c r="K41" s="246"/>
-      <c r="L41" s="246"/>
-      <c r="M41" s="246"/>
+      <c r="D41" s="250"/>
+      <c r="E41" s="250"/>
+      <c r="F41" s="250"/>
+      <c r="G41" s="250"/>
+      <c r="H41" s="250"/>
+      <c r="I41" s="250"/>
+      <c r="J41" s="250"/>
+      <c r="K41" s="250"/>
+      <c r="L41" s="250"/>
+      <c r="M41" s="250"/>
     </row>
     <row r="42" spans="2:13" ht="264" customHeight="1">
       <c r="B42" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="245" t="s">
+      <c r="C42" s="249" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="245"/>
-      <c r="E42" s="245"/>
-      <c r="F42" s="245"/>
-      <c r="G42" s="245"/>
-      <c r="H42" s="245"/>
-      <c r="I42" s="245"/>
-      <c r="J42" s="245"/>
-      <c r="K42" s="245"/>
-      <c r="L42" s="245"/>
-      <c r="M42" s="245"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="249"/>
+      <c r="G42" s="249"/>
+      <c r="H42" s="249"/>
+      <c r="I42" s="249"/>
+      <c r="J42" s="249"/>
+      <c r="K42" s="249"/>
+      <c r="L42" s="249"/>
+      <c r="M42" s="249"/>
     </row>
     <row r="43" spans="2:13" ht="83.25" customHeight="1">
       <c r="B43" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="245" t="s">
+      <c r="C43" s="249" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="283"/>
-      <c r="E43" s="283"/>
-      <c r="F43" s="283"/>
-      <c r="G43" s="283"/>
-      <c r="H43" s="283"/>
-      <c r="I43" s="283"/>
-      <c r="J43" s="283"/>
-      <c r="K43" s="283"/>
-      <c r="L43" s="283"/>
-      <c r="M43" s="283"/>
+      <c r="D43" s="287"/>
+      <c r="E43" s="287"/>
+      <c r="F43" s="287"/>
+      <c r="G43" s="287"/>
+      <c r="H43" s="287"/>
+      <c r="I43" s="287"/>
+      <c r="J43" s="287"/>
+      <c r="K43" s="287"/>
+      <c r="L43" s="287"/>
+      <c r="M43" s="287"/>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="38" t="s">
@@ -11686,174 +11794,174 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="249" t="s">
+      <c r="B47" s="253" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="250"/>
+      <c r="C47" s="254"/>
       <c r="D47" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="251" t="s">
+      <c r="E47" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="251"/>
+      <c r="F47" s="255"/>
       <c r="G47" s="49"/>
       <c r="H47" s="49"/>
     </row>
     <row r="48" spans="2:13" ht="53.25" customHeight="1">
-      <c r="B48" s="234"/>
-      <c r="C48" s="244"/>
+      <c r="B48" s="238"/>
+      <c r="C48" s="248"/>
       <c r="D48" s="34">
         <v>0.10125000000000001</v>
       </c>
-      <c r="E48" s="245" t="s">
+      <c r="E48" s="249" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="245"/>
+      <c r="F48" s="249"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
     </row>
     <row r="49" spans="2:8" ht="54" customHeight="1">
-      <c r="B49" s="234"/>
-      <c r="C49" s="244"/>
+      <c r="B49" s="238"/>
+      <c r="C49" s="248"/>
       <c r="D49" s="34">
         <v>0.15079000000000001</v>
       </c>
-      <c r="E49" s="245" t="s">
+      <c r="E49" s="249" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="246"/>
+      <c r="F49" s="250"/>
       <c r="G49" s="48"/>
       <c r="H49" s="48"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="247" t="s">
+      <c r="B50" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="248"/>
+      <c r="C50" s="252"/>
       <c r="D50" s="39">
         <v>0.126</v>
       </c>
-      <c r="E50" s="201"/>
-      <c r="F50" s="201"/>
+      <c r="E50" s="205"/>
+      <c r="F50" s="205"/>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="249" t="s">
+      <c r="B52" s="253" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="250"/>
+      <c r="C52" s="254"/>
       <c r="D52" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="251" t="s">
+      <c r="E52" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="251"/>
+      <c r="F52" s="255"/>
       <c r="G52" s="49"/>
       <c r="H52" s="49"/>
     </row>
     <row r="53" spans="2:8" ht="54.75" customHeight="1">
-      <c r="B53" s="234"/>
-      <c r="C53" s="244"/>
+      <c r="B53" s="238"/>
+      <c r="C53" s="248"/>
       <c r="D53" s="34">
         <v>1.44</v>
       </c>
-      <c r="E53" s="245" t="s">
+      <c r="E53" s="249" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="245"/>
+      <c r="F53" s="249"/>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
     </row>
     <row r="54" spans="2:8" ht="49.5" customHeight="1">
-      <c r="B54" s="234"/>
-      <c r="C54" s="244"/>
+      <c r="B54" s="238"/>
+      <c r="C54" s="248"/>
       <c r="D54" s="34">
         <v>2.88</v>
       </c>
-      <c r="E54" s="245" t="s">
+      <c r="E54" s="249" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="246"/>
+      <c r="F54" s="250"/>
       <c r="G54" s="48"/>
       <c r="H54" s="48"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="247" t="s">
+      <c r="B55" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="248"/>
+      <c r="C55" s="252"/>
       <c r="D55" s="39">
         <v>2.16</v>
       </c>
-      <c r="E55" s="201"/>
-      <c r="F55" s="201"/>
+      <c r="E55" s="205"/>
+      <c r="F55" s="205"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="249" t="s">
+      <c r="B57" s="253" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="250"/>
+      <c r="C57" s="254"/>
       <c r="D57" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="251" t="s">
+      <c r="E57" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="251"/>
+      <c r="F57" s="255"/>
       <c r="G57" s="49"/>
       <c r="H57" s="49"/>
     </row>
     <row r="58" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B58" s="234"/>
-      <c r="C58" s="244"/>
+      <c r="B58" s="238"/>
+      <c r="C58" s="248"/>
       <c r="D58" s="34">
         <v>11.7</v>
       </c>
-      <c r="E58" s="245" t="s">
+      <c r="E58" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="245"/>
+      <c r="F58" s="249"/>
       <c r="G58" s="24"/>
       <c r="H58" s="24"/>
     </row>
     <row r="59" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B59" s="234"/>
-      <c r="C59" s="244"/>
+      <c r="B59" s="238"/>
+      <c r="C59" s="248"/>
       <c r="D59" s="34">
         <v>19.7</v>
       </c>
-      <c r="E59" s="245" t="s">
+      <c r="E59" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="F59" s="246"/>
+      <c r="F59" s="250"/>
       <c r="G59" s="48"/>
       <c r="H59" s="48"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="247" t="s">
+      <c r="B60" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="248"/>
+      <c r="C60" s="252"/>
       <c r="D60" s="39">
         <v>15.7</v>
       </c>
-      <c r="E60" s="201"/>
-      <c r="F60" s="201"/>
+      <c r="E60" s="205"/>
+      <c r="F60" s="205"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="241" t="s">
+      <c r="B63" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="241"/>
-      <c r="D63" s="241"/>
-      <c r="E63" s="241"/>
+      <c r="C63" s="245"/>
+      <c r="D63" s="245"/>
+      <c r="E63" s="245"/>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="42" t="s">
@@ -12010,12 +12118,12 @@
       </c>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="240" t="s">
+      <c r="B75" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="240"/>
-      <c r="D75" s="240"/>
-      <c r="E75" s="240"/>
+      <c r="C75" s="244"/>
+      <c r="D75" s="244"/>
+      <c r="E75" s="244"/>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="58" t="s">
@@ -12066,12 +12174,12 @@
       <c r="E79" s="58"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="241" t="s">
+      <c r="B81" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C81" s="241"/>
-      <c r="D81" s="241"/>
-      <c r="E81" s="241"/>
+      <c r="C81" s="245"/>
+      <c r="D81" s="245"/>
+      <c r="E81" s="245"/>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="42" t="s">
@@ -12200,12 +12308,12 @@
       </c>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="240" t="s">
+      <c r="B91" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C91" s="240"/>
-      <c r="D91" s="240"/>
-      <c r="E91" s="240"/>
+      <c r="C91" s="244"/>
+      <c r="D91" s="244"/>
+      <c r="E91" s="244"/>
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="58" t="s">
@@ -12237,12 +12345,12 @@
       </c>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="241" t="s">
+      <c r="B98" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="241"/>
-      <c r="D98" s="241"/>
-      <c r="E98" s="241"/>
+      <c r="C98" s="245"/>
+      <c r="D98" s="245"/>
+      <c r="E98" s="245"/>
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="42" t="s">
@@ -12287,12 +12395,12 @@
       </c>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="261" t="s">
+      <c r="B102" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="C102" s="261"/>
-      <c r="D102" s="261"/>
-      <c r="E102" s="261"/>
+      <c r="C102" s="265"/>
+      <c r="D102" s="265"/>
+      <c r="E102" s="265"/>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="1" t="s">
@@ -12315,12 +12423,12 @@
       <c r="E104" s="1"/>
     </row>
     <row r="106" spans="2:5">
-      <c r="B106" s="241" t="s">
+      <c r="B106" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="241"/>
-      <c r="D106" s="241"/>
-      <c r="E106" s="241"/>
+      <c r="C106" s="245"/>
+      <c r="D106" s="245"/>
+      <c r="E106" s="245"/>
     </row>
     <row r="107" spans="2:5">
       <c r="B107" s="42" t="s">
@@ -12351,12 +12459,12 @@
       </c>
     </row>
     <row r="109" spans="2:5">
-      <c r="B109" s="261" t="s">
+      <c r="B109" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="261"/>
-      <c r="D109" s="261"/>
-      <c r="E109" s="261"/>
+      <c r="C109" s="265"/>
+      <c r="D109" s="265"/>
+      <c r="E109" s="265"/>
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="1" t="s">
@@ -12374,12 +12482,12 @@
       </c>
     </row>
     <row r="115" spans="2:5">
-      <c r="B115" s="239" t="s">
+      <c r="B115" s="243" t="s">
         <v>216</v>
       </c>
-      <c r="C115" s="241"/>
-      <c r="D115" s="241"/>
-      <c r="E115" s="241"/>
+      <c r="C115" s="245"/>
+      <c r="D115" s="245"/>
+      <c r="E115" s="245"/>
     </row>
     <row r="116" spans="2:5">
       <c r="B116" s="1" t="s">
@@ -12564,12 +12672,12 @@
       </c>
     </row>
     <row r="130" spans="2:5">
-      <c r="B130" s="239" t="s">
+      <c r="B130" s="243" t="s">
         <v>215</v>
       </c>
-      <c r="C130" s="241"/>
-      <c r="D130" s="241"/>
-      <c r="E130" s="241"/>
+      <c r="C130" s="245"/>
+      <c r="D130" s="245"/>
+      <c r="E130" s="245"/>
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="1" t="s">
@@ -12763,17 +12871,17 @@
       </c>
     </row>
     <row r="149" spans="2:14">
-      <c r="B149" s="241" t="s">
+      <c r="B149" s="245" t="s">
         <v>188</v>
       </c>
-      <c r="C149" s="241"/>
-      <c r="D149" s="241"/>
-      <c r="E149" s="241"/>
-      <c r="F149" s="241"/>
-      <c r="G149" s="241"/>
-      <c r="H149" s="241"/>
-      <c r="I149" s="241"/>
-      <c r="J149" s="241"/>
+      <c r="C149" s="245"/>
+      <c r="D149" s="245"/>
+      <c r="E149" s="245"/>
+      <c r="F149" s="245"/>
+      <c r="G149" s="245"/>
+      <c r="H149" s="245"/>
+      <c r="I149" s="245"/>
+      <c r="J149" s="245"/>
       <c r="K149" s="47"/>
       <c r="L149" s="47"/>
       <c r="M149" s="47"/>
@@ -12795,10 +12903,10 @@
       <c r="F150" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G150" s="242" t="s">
+      <c r="G150" s="246" t="s">
         <v>559</v>
       </c>
-      <c r="H150" s="243"/>
+      <c r="H150" s="247"/>
       <c r="I150" s="119" t="s">
         <v>189</v>
       </c>
@@ -12811,64 +12919,64 @@
       <c r="N150" s="46"/>
     </row>
     <row r="151" spans="2:14" ht="44.25" customHeight="1">
-      <c r="B151" s="163" t="s">
+      <c r="B151" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="163" t="s">
+      <c r="C151" s="167" t="s">
         <v>191</v>
       </c>
-      <c r="D151" s="266"/>
-      <c r="E151" s="269"/>
-      <c r="F151" s="266"/>
+      <c r="D151" s="270"/>
+      <c r="E151" s="273"/>
+      <c r="F151" s="270"/>
       <c r="G151" s="123" t="s">
-        <v>562</v>
+        <v>766</v>
       </c>
       <c r="H151" s="124" t="s">
-        <v>688</v>
-      </c>
-      <c r="I151" s="258">
+        <v>767</v>
+      </c>
+      <c r="I151" s="262">
         <v>0.2</v>
       </c>
-      <c r="J151" s="163" t="s">
+      <c r="J151" s="167" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="152" spans="2:14" ht="72" customHeight="1">
-      <c r="B152" s="265"/>
-      <c r="C152" s="265"/>
-      <c r="D152" s="267"/>
-      <c r="E152" s="270"/>
-      <c r="F152" s="267"/>
+      <c r="B152" s="269"/>
+      <c r="C152" s="269"/>
+      <c r="D152" s="271"/>
+      <c r="E152" s="274"/>
+      <c r="F152" s="271"/>
       <c r="G152" s="123" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H152" s="124" t="s">
-        <v>687</v>
-      </c>
-      <c r="I152" s="259"/>
-      <c r="J152" s="265"/>
+        <v>682</v>
+      </c>
+      <c r="I152" s="263"/>
+      <c r="J152" s="269"/>
     </row>
     <row r="153" spans="2:14" ht="67.5" customHeight="1">
-      <c r="B153" s="164"/>
-      <c r="C153" s="164"/>
-      <c r="D153" s="268"/>
-      <c r="E153" s="271"/>
-      <c r="F153" s="268"/>
+      <c r="B153" s="168"/>
+      <c r="C153" s="168"/>
+      <c r="D153" s="272"/>
+      <c r="E153" s="275"/>
+      <c r="F153" s="272"/>
       <c r="G153" s="123" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="H153" s="124" t="s">
-        <v>690</v>
-      </c>
-      <c r="I153" s="260"/>
-      <c r="J153" s="164"/>
+        <v>685</v>
+      </c>
+      <c r="I153" s="264"/>
+      <c r="J153" s="168"/>
     </row>
     <row r="154" spans="2:14" ht="67.5" customHeight="1">
       <c r="B154" s="34" t="s">
         <v>180</v>
       </c>
       <c r="C154" s="36" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D154" s="36" t="s">
         <v>199</v>
@@ -12876,10 +12984,10 @@
       <c r="E154" s="36"/>
       <c r="F154" s="34"/>
       <c r="G154" s="52" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="H154" s="53" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="I154" s="120">
         <v>0</v>
@@ -12891,12 +12999,12 @@
         <v>561</v>
       </c>
     </row>
-    <row r="155" spans="2:14" ht="60">
+    <row r="155" spans="2:14" ht="45">
       <c r="B155" s="139" t="s">
         <v>181</v>
       </c>
       <c r="C155" s="122" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D155" s="122" t="s">
         <v>193</v>
@@ -12904,16 +13012,16 @@
       <c r="E155" s="126"/>
       <c r="F155" s="125"/>
       <c r="G155" s="123" t="s">
-        <v>693</v>
+        <v>768</v>
       </c>
       <c r="H155" s="127" t="s">
-        <v>694</v>
+        <v>769</v>
       </c>
       <c r="I155" s="120" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="J155" s="122" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="156" spans="2:14" ht="45" customHeight="1">
@@ -12933,19 +13041,19 @@
         <v>299</v>
       </c>
       <c r="G156" s="36" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="H156" s="36" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="I156" s="120">
         <v>1</v>
       </c>
       <c r="J156" s="45" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" ht="119.25" customHeight="1">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" ht="174.75" customHeight="1">
       <c r="B157" s="34" t="s">
         <v>183</v>
       </c>
@@ -12962,19 +13070,19 @@
         <v>299</v>
       </c>
       <c r="G157" s="36" t="s">
-        <v>702</v>
+        <v>774</v>
       </c>
       <c r="H157" s="36" t="s">
-        <v>701</v>
-      </c>
-      <c r="I157" s="120" t="s">
-        <v>550</v>
+        <v>770</v>
+      </c>
+      <c r="I157" s="160" t="s">
+        <v>771</v>
       </c>
       <c r="J157" s="45" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" ht="135">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" ht="210">
       <c r="B158" s="34" t="s">
         <v>184</v>
       </c>
@@ -12991,30 +13099,30 @@
         <v>299</v>
       </c>
       <c r="G158" s="36" t="s">
-        <v>706</v>
+        <v>773</v>
       </c>
       <c r="H158" s="36" t="s">
-        <v>704</v>
-      </c>
-      <c r="I158" s="120" t="s">
-        <v>705</v>
+        <v>775</v>
+      </c>
+      <c r="I158" s="160" t="s">
+        <v>771</v>
       </c>
       <c r="J158" s="45" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="161" spans="2:13">
-      <c r="B161" s="241" t="s">
+      <c r="B161" s="245" t="s">
         <v>198</v>
       </c>
-      <c r="C161" s="241"/>
-      <c r="D161" s="241"/>
-      <c r="E161" s="241"/>
-      <c r="F161" s="241"/>
-      <c r="G161" s="241"/>
-      <c r="H161" s="241"/>
-      <c r="I161" s="241"/>
-      <c r="J161" s="241"/>
+      <c r="C161" s="245"/>
+      <c r="D161" s="245"/>
+      <c r="E161" s="245"/>
+      <c r="F161" s="245"/>
+      <c r="G161" s="245"/>
+      <c r="H161" s="245"/>
+      <c r="I161" s="245"/>
+      <c r="J161" s="245"/>
     </row>
     <row r="162" spans="2:13">
       <c r="B162" s="42" t="s">
@@ -13032,10 +13140,10 @@
       <c r="F162" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G162" s="242" t="s">
+      <c r="G162" s="246" t="s">
         <v>196</v>
       </c>
-      <c r="H162" s="243"/>
+      <c r="H162" s="247"/>
       <c r="I162" s="119" t="s">
         <v>189</v>
       </c>
@@ -13043,67 +13151,67 @@
         <v>190</v>
       </c>
     </row>
-    <row r="163" spans="2:13" ht="45" customHeight="1">
-      <c r="B163" s="284" t="s">
+    <row r="163" spans="2:13" ht="79.5" customHeight="1">
+      <c r="B163" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="C163" s="163" t="s">
+      <c r="C163" s="167" t="s">
         <v>194</v>
       </c>
-      <c r="D163" s="163" t="s">
+      <c r="D163" s="167" t="s">
         <v>195</v>
       </c>
-      <c r="E163" s="284"/>
-      <c r="F163" s="163"/>
+      <c r="E163" s="288"/>
+      <c r="F163" s="167"/>
       <c r="G163" s="146" t="s">
-        <v>709</v>
+        <v>776</v>
       </c>
       <c r="H163" s="124" t="s">
-        <v>710</v>
-      </c>
-      <c r="I163" s="258">
+        <v>698</v>
+      </c>
+      <c r="I163" s="262">
         <v>0.2</v>
       </c>
-      <c r="J163" s="163" t="s">
+      <c r="J163" s="167" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="164" spans="2:13" ht="31.5" customHeight="1">
-      <c r="B164" s="286"/>
-      <c r="C164" s="265"/>
-      <c r="D164" s="265"/>
-      <c r="E164" s="286"/>
-      <c r="F164" s="265"/>
+      <c r="B164" s="290"/>
+      <c r="C164" s="269"/>
+      <c r="D164" s="269"/>
+      <c r="E164" s="290"/>
+      <c r="F164" s="269"/>
       <c r="G164" s="145" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="H164" s="147" t="s">
-        <v>688</v>
-      </c>
-      <c r="I164" s="259"/>
-      <c r="J164" s="265"/>
+        <v>683</v>
+      </c>
+      <c r="I164" s="263"/>
+      <c r="J164" s="269"/>
     </row>
     <row r="165" spans="2:13" ht="45.75" customHeight="1">
-      <c r="B165" s="285"/>
-      <c r="C165" s="164"/>
-      <c r="D165" s="164"/>
-      <c r="E165" s="285"/>
-      <c r="F165" s="164"/>
+      <c r="B165" s="289"/>
+      <c r="C165" s="168"/>
+      <c r="D165" s="168"/>
+      <c r="E165" s="289"/>
+      <c r="F165" s="168"/>
       <c r="G165" s="145" t="s">
-        <v>712</v>
+        <v>777</v>
       </c>
       <c r="H165" s="147" t="s">
-        <v>713</v>
-      </c>
-      <c r="I165" s="260"/>
-      <c r="J165" s="164"/>
+        <v>778</v>
+      </c>
+      <c r="I165" s="264"/>
+      <c r="J165" s="168"/>
     </row>
     <row r="166" spans="2:13" ht="67.5" customHeight="1">
       <c r="B166" s="34" t="s">
         <v>180</v>
       </c>
       <c r="C166" s="36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D166" s="36" t="s">
         <v>200</v>
@@ -13111,10 +13219,10 @@
       <c r="E166" s="36"/>
       <c r="F166" s="34"/>
       <c r="G166" s="52" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="H166" s="53" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="I166" s="120">
         <v>0</v>
@@ -13123,49 +13231,49 @@
         <v>201</v>
       </c>
     </row>
-    <row r="167" spans="2:13" ht="59.25" customHeight="1">
-      <c r="B167" s="284" t="s">
+    <row r="167" spans="2:13" ht="99.75" customHeight="1">
+      <c r="B167" s="288" t="s">
         <v>181</v>
       </c>
-      <c r="C167" s="163" t="s">
-        <v>570</v>
-      </c>
-      <c r="D167" s="163" t="s">
+      <c r="C167" s="167" t="s">
+        <v>569</v>
+      </c>
+      <c r="D167" s="167" t="s">
         <v>202</v>
       </c>
-      <c r="E167" s="163" t="s">
-        <v>716</v>
-      </c>
-      <c r="F167" s="163"/>
+      <c r="E167" s="167" t="s">
+        <v>702</v>
+      </c>
+      <c r="F167" s="167"/>
       <c r="G167" s="146" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="H167" s="124" t="s">
-        <v>718</v>
-      </c>
-      <c r="I167" s="258" t="s">
-        <v>721</v>
-      </c>
-      <c r="J167" s="163" t="s">
+        <v>704</v>
+      </c>
+      <c r="I167" s="335" t="s">
+        <v>781</v>
+      </c>
+      <c r="J167" s="167" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="168" spans="2:13" ht="36" customHeight="1">
-      <c r="B168" s="285"/>
-      <c r="C168" s="164"/>
-      <c r="D168" s="164"/>
-      <c r="E168" s="164"/>
-      <c r="F168" s="164"/>
+    <row r="168" spans="2:13" ht="61.5" customHeight="1">
+      <c r="B168" s="289"/>
+      <c r="C168" s="168"/>
+      <c r="D168" s="168"/>
+      <c r="E168" s="168"/>
+      <c r="F168" s="168"/>
       <c r="G168" s="145" t="s">
-        <v>719</v>
+        <v>779</v>
       </c>
       <c r="H168" s="147" t="s">
-        <v>720</v>
-      </c>
-      <c r="I168" s="260"/>
-      <c r="J168" s="164"/>
-    </row>
-    <row r="169" spans="2:13" ht="45" customHeight="1">
+        <v>780</v>
+      </c>
+      <c r="I168" s="336"/>
+      <c r="J168" s="168"/>
+    </row>
+    <row r="169" spans="2:13" ht="107.25" customHeight="1">
       <c r="B169" s="34" t="s">
         <v>182</v>
       </c>
@@ -13182,17 +13290,19 @@
         <v>299</v>
       </c>
       <c r="G169" s="36" t="s">
-        <v>627</v>
-      </c>
-      <c r="H169" s="36"/>
+        <v>783</v>
+      </c>
+      <c r="H169" s="36" t="s">
+        <v>784</v>
+      </c>
       <c r="I169" s="120">
         <v>1</v>
       </c>
       <c r="J169" s="45" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="170" spans="2:13" ht="45" customHeight="1">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" ht="213.75" customHeight="1">
       <c r="B170" s="34" t="s">
         <v>183</v>
       </c>
@@ -13209,19 +13319,19 @@
         <v>299</v>
       </c>
       <c r="G170" s="36" t="s">
-        <v>724</v>
+        <v>785</v>
       </c>
       <c r="H170" s="36" t="s">
-        <v>725</v>
-      </c>
-      <c r="I170" s="120">
-        <v>1</v>
+        <v>786</v>
+      </c>
+      <c r="I170" s="160" t="s">
+        <v>787</v>
       </c>
       <c r="J170" s="45" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="171" spans="2:13" ht="105">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" ht="183" customHeight="1">
       <c r="B171" s="34" t="s">
         <v>184</v>
       </c>
@@ -13238,34 +13348,34 @@
         <v>299</v>
       </c>
       <c r="G171" s="36" t="s">
-        <v>724</v>
+        <v>789</v>
       </c>
       <c r="H171" s="36" t="s">
-        <v>725</v>
-      </c>
-      <c r="I171" s="120">
-        <v>1</v>
+        <v>790</v>
+      </c>
+      <c r="I171" s="160" t="s">
+        <v>787</v>
       </c>
       <c r="J171" s="45" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="172" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="173" spans="2:13">
-      <c r="B173" s="262" t="s">
+      <c r="B173" s="266" t="s">
         <v>432</v>
       </c>
-      <c r="C173" s="263"/>
-      <c r="D173" s="263"/>
-      <c r="E173" s="263"/>
-      <c r="F173" s="263"/>
-      <c r="G173" s="263"/>
-      <c r="H173" s="263"/>
-      <c r="I173" s="263"/>
-      <c r="J173" s="263"/>
-      <c r="K173" s="263"/>
-      <c r="L173" s="263"/>
-      <c r="M173" s="264"/>
+      <c r="C173" s="267"/>
+      <c r="D173" s="267"/>
+      <c r="E173" s="267"/>
+      <c r="F173" s="267"/>
+      <c r="G173" s="267"/>
+      <c r="H173" s="267"/>
+      <c r="I173" s="267"/>
+      <c r="J173" s="267"/>
+      <c r="K173" s="267"/>
+      <c r="L173" s="267"/>
+      <c r="M173" s="268"/>
     </row>
     <row r="174" spans="2:13">
       <c r="B174" t="s">
@@ -13287,12 +13397,12 @@
       </c>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="261" t="s">
+      <c r="B180" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="C180" s="261"/>
-      <c r="D180" s="261"/>
-      <c r="E180" s="261"/>
+      <c r="C180" s="265"/>
+      <c r="D180" s="265"/>
+      <c r="E180" s="265"/>
     </row>
     <row r="181" spans="2:5">
       <c r="B181" s="42" t="s">
@@ -13339,12 +13449,12 @@
       </c>
     </row>
     <row r="184" spans="2:5">
-      <c r="B184" s="261" t="s">
+      <c r="B184" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="C184" s="261"/>
-      <c r="D184" s="261"/>
-      <c r="E184" s="261"/>
+      <c r="C184" s="265"/>
+      <c r="D184" s="265"/>
+      <c r="E184" s="265"/>
     </row>
     <row r="185" spans="2:5">
       <c r="B185" s="1" t="s">
@@ -13367,12 +13477,12 @@
       <c r="E186" s="1"/>
     </row>
     <row r="188" spans="2:5">
-      <c r="B188" s="261" t="s">
+      <c r="B188" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="C188" s="261"/>
-      <c r="D188" s="261"/>
-      <c r="E188" s="261"/>
+      <c r="C188" s="265"/>
+      <c r="D188" s="265"/>
+      <c r="E188" s="265"/>
     </row>
     <row r="189" spans="2:5">
       <c r="B189" s="42" t="s">
@@ -13404,12 +13514,12 @@
       </c>
     </row>
     <row r="191" spans="2:5">
-      <c r="B191" s="261" t="s">
+      <c r="B191" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="C191" s="261"/>
-      <c r="D191" s="261"/>
-      <c r="E191" s="261"/>
+      <c r="C191" s="265"/>
+      <c r="D191" s="265"/>
+      <c r="E191" s="265"/>
     </row>
     <row r="192" spans="2:5">
       <c r="B192" s="1" t="s">
@@ -13422,12 +13532,12 @@
       <c r="E192" s="1"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="261" t="s">
+      <c r="B194" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="C194" s="261"/>
-      <c r="D194" s="261"/>
-      <c r="E194" s="261"/>
+      <c r="C194" s="265"/>
+      <c r="D194" s="265"/>
+      <c r="E194" s="265"/>
     </row>
     <row r="195" spans="2:6">
       <c r="B195" s="42" t="s">
@@ -13472,12 +13582,12 @@
       </c>
     </row>
     <row r="198" spans="2:6">
-      <c r="B198" s="261" t="s">
+      <c r="B198" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="C198" s="261"/>
-      <c r="D198" s="261"/>
-      <c r="E198" s="261"/>
+      <c r="C198" s="265"/>
+      <c r="D198" s="265"/>
+      <c r="E198" s="265"/>
     </row>
     <row r="199" spans="2:6">
       <c r="B199" s="1" t="s">
@@ -13506,307 +13616,307 @@
       </c>
     </row>
     <row r="204" spans="2:6">
-      <c r="B204" s="249" t="s">
+      <c r="B204" s="253" t="s">
         <v>441</v>
       </c>
-      <c r="C204" s="250"/>
+      <c r="C204" s="254"/>
       <c r="D204" s="41" t="s">
         <v>442</v>
       </c>
-      <c r="E204" s="251" t="s">
+      <c r="E204" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F204" s="251"/>
+      <c r="F204" s="255"/>
     </row>
     <row r="205" spans="2:6">
-      <c r="B205" s="234"/>
-      <c r="C205" s="244"/>
+      <c r="B205" s="238"/>
+      <c r="C205" s="248"/>
       <c r="D205" s="34">
         <v>0.94199999999999995</v>
       </c>
-      <c r="E205" s="245" t="s">
+      <c r="E205" s="249" t="s">
         <v>443</v>
       </c>
-      <c r="F205" s="245"/>
+      <c r="F205" s="249"/>
     </row>
     <row r="206" spans="2:6" ht="32.25" customHeight="1">
-      <c r="B206" s="234"/>
-      <c r="C206" s="244"/>
+      <c r="B206" s="238"/>
+      <c r="C206" s="248"/>
       <c r="D206" s="34">
         <v>0.25</v>
       </c>
-      <c r="E206" s="252" t="s">
+      <c r="E206" s="256" t="s">
         <v>444</v>
       </c>
-      <c r="F206" s="255"/>
+      <c r="F206" s="259"/>
     </row>
     <row r="207" spans="2:6">
-      <c r="B207" s="234"/>
-      <c r="C207" s="244"/>
+      <c r="B207" s="238"/>
+      <c r="C207" s="248"/>
       <c r="D207" s="34">
         <v>0.09</v>
       </c>
-      <c r="E207" s="252" t="s">
+      <c r="E207" s="256" t="s">
         <v>445</v>
       </c>
-      <c r="F207" s="255"/>
+      <c r="F207" s="259"/>
     </row>
     <row r="208" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B208" s="234"/>
-      <c r="C208" s="244"/>
+      <c r="B208" s="238"/>
+      <c r="C208" s="248"/>
       <c r="D208" s="34">
         <v>0.11700000000000001</v>
       </c>
-      <c r="E208" s="252" t="s">
+      <c r="E208" s="256" t="s">
         <v>446</v>
       </c>
-      <c r="F208" s="255"/>
+      <c r="F208" s="259"/>
     </row>
     <row r="209" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B209" s="234"/>
-      <c r="C209" s="244"/>
+      <c r="B209" s="238"/>
+      <c r="C209" s="248"/>
       <c r="D209" s="34">
         <v>1.603E-3</v>
       </c>
-      <c r="E209" s="252" t="s">
+      <c r="E209" s="256" t="s">
         <v>447</v>
       </c>
-      <c r="F209" s="255"/>
+      <c r="F209" s="259"/>
     </row>
     <row r="210" spans="2:6" ht="57" customHeight="1">
-      <c r="B210" s="234"/>
-      <c r="C210" s="244"/>
+      <c r="B210" s="238"/>
+      <c r="C210" s="248"/>
       <c r="D210" s="34">
         <v>2.2680000000000001E-3</v>
       </c>
-      <c r="E210" s="245" t="s">
+      <c r="E210" s="249" t="s">
         <v>447</v>
       </c>
-      <c r="F210" s="246"/>
+      <c r="F210" s="250"/>
     </row>
     <row r="211" spans="2:6">
-      <c r="B211" s="247" t="s">
+      <c r="B211" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C211" s="248"/>
+      <c r="C211" s="252"/>
       <c r="D211" s="39">
         <v>0.23380000000000001</v>
       </c>
-      <c r="E211" s="201"/>
-      <c r="F211" s="201"/>
+      <c r="E211" s="205"/>
+      <c r="F211" s="205"/>
     </row>
     <row r="213" spans="2:6">
-      <c r="B213" s="249" t="s">
+      <c r="B213" s="253" t="s">
         <v>448</v>
       </c>
-      <c r="C213" s="250"/>
+      <c r="C213" s="254"/>
       <c r="D213" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="E213" s="251" t="s">
+      <c r="E213" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F213" s="251"/>
+      <c r="F213" s="255"/>
     </row>
     <row r="214" spans="2:6" ht="51" customHeight="1">
-      <c r="B214" s="234"/>
-      <c r="C214" s="244"/>
+      <c r="B214" s="238"/>
+      <c r="C214" s="248"/>
       <c r="D214" s="34">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="E214" s="245" t="s">
+      <c r="E214" s="249" t="s">
         <v>450</v>
       </c>
-      <c r="F214" s="245"/>
+      <c r="F214" s="249"/>
     </row>
     <row r="215" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B215" s="234"/>
-      <c r="C215" s="244"/>
+      <c r="B215" s="238"/>
+      <c r="C215" s="248"/>
       <c r="D215" s="34">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E215" s="245" t="s">
+      <c r="E215" s="249" t="s">
         <v>451</v>
       </c>
-      <c r="F215" s="246"/>
+      <c r="F215" s="250"/>
     </row>
     <row r="216" spans="2:6">
-      <c r="B216" s="247" t="s">
+      <c r="B216" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C216" s="248"/>
+      <c r="C216" s="252"/>
       <c r="D216" s="39">
         <v>3.2750000000000001E-2</v>
       </c>
-      <c r="E216" s="201"/>
-      <c r="F216" s="201"/>
+      <c r="E216" s="205"/>
+      <c r="F216" s="205"/>
     </row>
     <row r="218" spans="2:6">
-      <c r="B218" s="249" t="s">
+      <c r="B218" s="253" t="s">
         <v>452</v>
       </c>
-      <c r="C218" s="250"/>
+      <c r="C218" s="254"/>
       <c r="D218" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="E218" s="251" t="s">
+      <c r="E218" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F218" s="251"/>
+      <c r="F218" s="255"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="234"/>
-      <c r="C219" s="244"/>
+      <c r="B219" s="238"/>
+      <c r="C219" s="248"/>
       <c r="D219" s="34">
         <v>1.125E-2</v>
       </c>
-      <c r="E219" s="245" t="s">
+      <c r="E219" s="249" t="s">
         <v>454</v>
       </c>
-      <c r="F219" s="245"/>
+      <c r="F219" s="249"/>
     </row>
     <row r="220" spans="2:6" ht="31.5" customHeight="1">
-      <c r="B220" s="234"/>
-      <c r="C220" s="244"/>
+      <c r="B220" s="238"/>
+      <c r="C220" s="248"/>
       <c r="D220" s="34">
         <v>3.68</v>
       </c>
-      <c r="E220" s="252" t="s">
+      <c r="E220" s="256" t="s">
         <v>455</v>
       </c>
-      <c r="F220" s="255"/>
+      <c r="F220" s="259"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="234"/>
-      <c r="C221" s="244"/>
+      <c r="B221" s="238"/>
+      <c r="C221" s="248"/>
       <c r="D221" s="34">
         <v>4.2</v>
       </c>
-      <c r="E221" s="252" t="s">
+      <c r="E221" s="256" t="s">
         <v>456</v>
       </c>
-      <c r="F221" s="255"/>
+      <c r="F221" s="259"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="234"/>
-      <c r="C222" s="244"/>
+      <c r="B222" s="238"/>
+      <c r="C222" s="248"/>
       <c r="D222" s="34">
         <v>3.1248</v>
       </c>
-      <c r="E222" s="252" t="s">
+      <c r="E222" s="256" t="s">
         <v>456</v>
       </c>
-      <c r="F222" s="255"/>
+      <c r="F222" s="259"/>
     </row>
     <row r="223" spans="2:6">
-      <c r="B223" s="234"/>
-      <c r="C223" s="244"/>
+      <c r="B223" s="238"/>
+      <c r="C223" s="248"/>
       <c r="D223" s="34">
         <v>1.764</v>
       </c>
-      <c r="E223" s="252" t="s">
+      <c r="E223" s="256" t="s">
         <v>456</v>
       </c>
-      <c r="F223" s="255"/>
+      <c r="F223" s="259"/>
     </row>
     <row r="224" spans="2:6">
-      <c r="B224" s="234"/>
-      <c r="C224" s="244"/>
+      <c r="B224" s="238"/>
+      <c r="C224" s="248"/>
       <c r="D224" s="34">
         <v>1.3440000000000001</v>
       </c>
-      <c r="E224" s="245" t="s">
+      <c r="E224" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F224" s="246"/>
+      <c r="F224" s="250"/>
     </row>
     <row r="225" spans="2:6">
-      <c r="B225" s="247"/>
-      <c r="C225" s="248"/>
+      <c r="B225" s="251"/>
+      <c r="C225" s="252"/>
       <c r="D225" s="34">
         <v>1.1060000000000001</v>
       </c>
-      <c r="E225" s="245" t="s">
+      <c r="E225" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F225" s="246"/>
+      <c r="F225" s="250"/>
     </row>
     <row r="226" spans="2:6">
-      <c r="B226" s="256"/>
-      <c r="C226" s="257"/>
+      <c r="B226" s="260"/>
+      <c r="C226" s="261"/>
       <c r="D226" s="109">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E226" s="245" t="s">
+      <c r="E226" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="246"/>
+      <c r="F226" s="250"/>
     </row>
     <row r="227" spans="2:6">
-      <c r="B227" s="256"/>
-      <c r="C227" s="257"/>
+      <c r="B227" s="260"/>
+      <c r="C227" s="261"/>
       <c r="D227" s="109">
         <v>0.74199999999999999</v>
       </c>
-      <c r="E227" s="245" t="s">
+      <c r="E227" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F227" s="246"/>
+      <c r="F227" s="250"/>
     </row>
     <row r="228" spans="2:6">
-      <c r="B228" s="256"/>
-      <c r="C228" s="257"/>
+      <c r="B228" s="260"/>
+      <c r="C228" s="261"/>
       <c r="D228" s="109">
         <v>0.66779999999999995</v>
       </c>
-      <c r="E228" s="245" t="s">
+      <c r="E228" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F228" s="246"/>
+      <c r="F228" s="250"/>
     </row>
     <row r="229" spans="2:6">
-      <c r="B229" s="256"/>
-      <c r="C229" s="257"/>
+      <c r="B229" s="260"/>
+      <c r="C229" s="261"/>
       <c r="D229" s="109">
         <v>0.71399999999999997</v>
       </c>
-      <c r="E229" s="245" t="s">
+      <c r="E229" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F229" s="246"/>
+      <c r="F229" s="250"/>
     </row>
     <row r="230" spans="2:6">
-      <c r="B230" s="256"/>
-      <c r="C230" s="257"/>
+      <c r="B230" s="260"/>
+      <c r="C230" s="261"/>
       <c r="D230" s="109">
         <v>0.81200000000000006</v>
       </c>
-      <c r="E230" s="245" t="s">
+      <c r="E230" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F230" s="246"/>
+      <c r="F230" s="250"/>
     </row>
     <row r="231" spans="2:6">
-      <c r="B231" s="234"/>
-      <c r="C231" s="244"/>
+      <c r="B231" s="238"/>
+      <c r="C231" s="248"/>
       <c r="D231" s="34">
         <v>0.80500000000000005</v>
       </c>
-      <c r="E231" s="245" t="s">
+      <c r="E231" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F231" s="246"/>
+      <c r="F231" s="250"/>
     </row>
     <row r="232" spans="2:6">
-      <c r="B232" s="247" t="s">
+      <c r="B232" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C232" s="248"/>
+      <c r="C232" s="252"/>
       <c r="D232" s="39">
         <v>1.5271399999999999</v>
       </c>
-      <c r="E232" s="201"/>
-      <c r="F232" s="201"/>
+      <c r="E232" s="205"/>
+      <c r="F232" s="205"/>
     </row>
     <row r="233" spans="2:6">
       <c r="B233" s="111"/>
@@ -13816,116 +13926,116 @@
       <c r="F233" s="25"/>
     </row>
     <row r="234" spans="2:6">
-      <c r="B234" s="249" t="s">
+      <c r="B234" s="253" t="s">
         <v>458</v>
       </c>
-      <c r="C234" s="250"/>
+      <c r="C234" s="254"/>
       <c r="D234" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="E234" s="251" t="s">
+      <c r="E234" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F234" s="251"/>
+      <c r="F234" s="255"/>
     </row>
     <row r="235" spans="2:6">
-      <c r="B235" s="234"/>
-      <c r="C235" s="244"/>
+      <c r="B235" s="238"/>
+      <c r="C235" s="248"/>
       <c r="D235" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E235" s="245" t="s">
+      <c r="E235" s="249" t="s">
         <v>460</v>
       </c>
-      <c r="F235" s="245"/>
+      <c r="F235" s="249"/>
     </row>
     <row r="236" spans="2:6">
-      <c r="B236" s="234"/>
-      <c r="C236" s="244"/>
+      <c r="B236" s="238"/>
+      <c r="C236" s="248"/>
       <c r="D236" s="34">
         <v>0.01</v>
       </c>
-      <c r="E236" s="252" t="s">
+      <c r="E236" s="256" t="s">
         <v>460</v>
       </c>
-      <c r="F236" s="255"/>
+      <c r="F236" s="259"/>
     </row>
     <row r="237" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B237" s="234"/>
-      <c r="C237" s="244"/>
+      <c r="B237" s="238"/>
+      <c r="C237" s="248"/>
       <c r="D237" s="34">
         <v>1.67E-3</v>
       </c>
-      <c r="E237" s="252" t="s">
+      <c r="E237" s="256" t="s">
         <v>461</v>
       </c>
-      <c r="F237" s="255"/>
+      <c r="F237" s="259"/>
     </row>
     <row r="238" spans="2:6" ht="54" customHeight="1">
-      <c r="B238" s="234"/>
-      <c r="C238" s="244"/>
+      <c r="B238" s="238"/>
+      <c r="C238" s="248"/>
       <c r="D238" s="34">
         <v>2.2499999999999998E-3</v>
       </c>
-      <c r="E238" s="252" t="s">
+      <c r="E238" s="256" t="s">
         <v>462</v>
       </c>
-      <c r="F238" s="255"/>
+      <c r="F238" s="259"/>
     </row>
     <row r="239" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B239" s="234"/>
-      <c r="C239" s="244"/>
+      <c r="B239" s="238"/>
+      <c r="C239" s="248"/>
       <c r="D239" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E239" s="252" t="s">
+      <c r="E239" s="256" t="s">
         <v>463</v>
       </c>
-      <c r="F239" s="255"/>
+      <c r="F239" s="259"/>
     </row>
     <row r="240" spans="2:6" ht="48.75" customHeight="1">
-      <c r="B240" s="234"/>
-      <c r="C240" s="244"/>
+      <c r="B240" s="238"/>
+      <c r="C240" s="248"/>
       <c r="D240" s="34">
         <v>1.67E-2</v>
       </c>
-      <c r="E240" s="245" t="s">
+      <c r="E240" s="249" t="s">
         <v>464</v>
       </c>
-      <c r="F240" s="246"/>
+      <c r="F240" s="250"/>
     </row>
     <row r="241" spans="2:6" ht="54.75" customHeight="1">
-      <c r="B241" s="247"/>
-      <c r="C241" s="248"/>
+      <c r="B241" s="251"/>
+      <c r="C241" s="252"/>
       <c r="D241" s="34">
         <v>1.4E-2</v>
       </c>
-      <c r="E241" s="245" t="s">
+      <c r="E241" s="249" t="s">
         <v>465</v>
       </c>
-      <c r="F241" s="246"/>
+      <c r="F241" s="250"/>
     </row>
     <row r="242" spans="2:6" ht="51.75" customHeight="1">
-      <c r="B242" s="256"/>
-      <c r="C242" s="257"/>
+      <c r="B242" s="260"/>
+      <c r="C242" s="261"/>
       <c r="D242" s="109">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E242" s="245" t="s">
+      <c r="E242" s="249" t="s">
         <v>466</v>
       </c>
-      <c r="F242" s="246"/>
+      <c r="F242" s="250"/>
     </row>
     <row r="243" spans="2:6">
-      <c r="B243" s="247" t="s">
+      <c r="B243" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C243" s="248"/>
+      <c r="C243" s="252"/>
       <c r="D243" s="39">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="E243" s="201"/>
-      <c r="F243" s="201"/>
+      <c r="E243" s="205"/>
+      <c r="F243" s="205"/>
     </row>
     <row r="244" spans="2:6">
       <c r="B244" s="111"/>
@@ -13935,149 +14045,149 @@
       <c r="F244" s="25"/>
     </row>
     <row r="245" spans="2:6">
-      <c r="B245" s="249" t="s">
+      <c r="B245" s="253" t="s">
         <v>467</v>
       </c>
-      <c r="C245" s="250"/>
+      <c r="C245" s="254"/>
       <c r="D245" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="E245" s="251" t="s">
+      <c r="E245" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F245" s="251"/>
+      <c r="F245" s="255"/>
     </row>
     <row r="246" spans="2:6">
-      <c r="B246" s="234"/>
-      <c r="C246" s="244"/>
+      <c r="B246" s="238"/>
+      <c r="C246" s="248"/>
       <c r="D246" s="34">
         <v>0.75600000000000001</v>
       </c>
-      <c r="E246" s="245" t="s">
+      <c r="E246" s="249" t="s">
         <v>475</v>
       </c>
-      <c r="F246" s="245"/>
+      <c r="F246" s="249"/>
     </row>
     <row r="247" spans="2:6" ht="15" customHeight="1">
-      <c r="B247" s="234"/>
-      <c r="C247" s="244"/>
+      <c r="B247" s="238"/>
+      <c r="C247" s="248"/>
       <c r="D247" s="34">
         <v>0.64</v>
       </c>
-      <c r="E247" s="252" t="s">
+      <c r="E247" s="256" t="s">
         <v>474</v>
       </c>
-      <c r="F247" s="255"/>
+      <c r="F247" s="259"/>
     </row>
     <row r="248" spans="2:6">
-      <c r="B248" s="234"/>
-      <c r="C248" s="244"/>
+      <c r="B248" s="238"/>
+      <c r="C248" s="248"/>
       <c r="D248" s="34">
         <v>1</v>
       </c>
-      <c r="E248" s="252" t="s">
+      <c r="E248" s="256" t="s">
         <v>474</v>
       </c>
-      <c r="F248" s="255"/>
+      <c r="F248" s="259"/>
     </row>
     <row r="249" spans="2:6" ht="15" customHeight="1">
-      <c r="B249" s="234"/>
-      <c r="C249" s="244"/>
+      <c r="B249" s="238"/>
+      <c r="C249" s="248"/>
       <c r="D249" s="34">
         <v>0.97199999999999998</v>
       </c>
-      <c r="E249" s="252" t="s">
+      <c r="E249" s="256" t="s">
         <v>471</v>
       </c>
-      <c r="F249" s="255"/>
+      <c r="F249" s="259"/>
     </row>
     <row r="250" spans="2:6">
-      <c r="B250" s="234"/>
-      <c r="C250" s="244"/>
+      <c r="B250" s="238"/>
+      <c r="C250" s="248"/>
       <c r="D250" s="34">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E250" s="252" t="s">
+      <c r="E250" s="256" t="s">
         <v>471</v>
       </c>
-      <c r="F250" s="255"/>
+      <c r="F250" s="259"/>
     </row>
     <row r="251" spans="2:6">
-      <c r="B251" s="234"/>
-      <c r="C251" s="244"/>
+      <c r="B251" s="238"/>
+      <c r="C251" s="248"/>
       <c r="D251" s="34">
         <v>0.1008</v>
       </c>
-      <c r="E251" s="245" t="s">
+      <c r="E251" s="249" t="s">
         <v>473</v>
       </c>
-      <c r="F251" s="246"/>
+      <c r="F251" s="250"/>
     </row>
     <row r="252" spans="2:6">
-      <c r="B252" s="247"/>
-      <c r="C252" s="248"/>
+      <c r="B252" s="251"/>
+      <c r="C252" s="252"/>
       <c r="D252" s="34">
         <v>0.504</v>
       </c>
-      <c r="E252" s="245" t="s">
+      <c r="E252" s="249" t="s">
         <v>473</v>
       </c>
-      <c r="F252" s="246"/>
+      <c r="F252" s="250"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="256"/>
-      <c r="C253" s="257"/>
+      <c r="B253" s="260"/>
+      <c r="C253" s="261"/>
       <c r="D253" s="109">
         <v>1.512</v>
       </c>
-      <c r="E253" s="245" t="s">
+      <c r="E253" s="249" t="s">
         <v>472</v>
       </c>
-      <c r="F253" s="246"/>
+      <c r="F253" s="250"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="B254" s="256"/>
-      <c r="C254" s="257"/>
+      <c r="B254" s="260"/>
+      <c r="C254" s="261"/>
       <c r="D254" s="109">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E254" s="245" t="s">
+      <c r="E254" s="249" t="s">
         <v>472</v>
       </c>
-      <c r="F254" s="246"/>
+      <c r="F254" s="250"/>
     </row>
     <row r="255" spans="2:6">
-      <c r="B255" s="256"/>
-      <c r="C255" s="257"/>
+      <c r="B255" s="260"/>
+      <c r="C255" s="261"/>
       <c r="D255" s="109">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E255" s="245" t="s">
+      <c r="E255" s="249" t="s">
         <v>471</v>
       </c>
-      <c r="F255" s="246"/>
+      <c r="F255" s="250"/>
     </row>
     <row r="256" spans="2:6" ht="33.75" customHeight="1">
-      <c r="B256" s="256"/>
-      <c r="C256" s="257"/>
+      <c r="B256" s="260"/>
+      <c r="C256" s="261"/>
       <c r="D256" s="109">
         <v>1.288</v>
       </c>
-      <c r="E256" s="245" t="s">
+      <c r="E256" s="249" t="s">
         <v>470</v>
       </c>
-      <c r="F256" s="246"/>
+      <c r="F256" s="250"/>
     </row>
     <row r="257" spans="2:6" ht="30" customHeight="1">
-      <c r="B257" s="256"/>
-      <c r="C257" s="257"/>
+      <c r="B257" s="260"/>
+      <c r="C257" s="261"/>
       <c r="D257" s="109">
         <v>2.1</v>
       </c>
-      <c r="E257" s="245" t="s">
+      <c r="E257" s="249" t="s">
         <v>470</v>
       </c>
-      <c r="F257" s="246"/>
+      <c r="F257" s="250"/>
     </row>
     <row r="258" spans="2:6">
       <c r="B258" s="110"/>
@@ -14085,32 +14195,32 @@
       <c r="D258" s="34">
         <v>0.95399999999999996</v>
       </c>
-      <c r="E258" s="245" t="s">
+      <c r="E258" s="249" t="s">
         <v>469</v>
       </c>
-      <c r="F258" s="246"/>
+      <c r="F258" s="250"/>
     </row>
     <row r="259" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B259" s="234"/>
-      <c r="C259" s="244"/>
+      <c r="B259" s="238"/>
+      <c r="C259" s="248"/>
       <c r="D259" s="34">
         <v>1.8759999999999999</v>
       </c>
-      <c r="E259" s="245" t="s">
+      <c r="E259" s="249" t="s">
         <v>469</v>
       </c>
-      <c r="F259" s="246"/>
+      <c r="F259" s="250"/>
     </row>
     <row r="260" spans="2:6">
-      <c r="B260" s="247" t="s">
+      <c r="B260" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C260" s="248"/>
+      <c r="C260" s="252"/>
       <c r="D260" s="39">
         <v>1.1097999999999999</v>
       </c>
-      <c r="E260" s="201"/>
-      <c r="F260" s="201"/>
+      <c r="E260" s="205"/>
+      <c r="F260" s="205"/>
     </row>
     <row r="261" spans="2:6">
       <c r="B261" s="111"/>
@@ -14120,50 +14230,50 @@
       <c r="F261" s="25"/>
     </row>
     <row r="262" spans="2:6">
-      <c r="B262" s="249" t="s">
+      <c r="B262" s="253" t="s">
         <v>476</v>
       </c>
-      <c r="C262" s="250"/>
+      <c r="C262" s="254"/>
       <c r="D262" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="E262" s="251" t="s">
+      <c r="E262" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F262" s="251"/>
+      <c r="F262" s="255"/>
     </row>
     <row r="263" spans="2:6">
-      <c r="B263" s="234"/>
-      <c r="C263" s="244"/>
+      <c r="B263" s="238"/>
+      <c r="C263" s="248"/>
       <c r="D263" s="34">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E263" s="245" t="s">
+      <c r="E263" s="249" t="s">
         <v>478</v>
       </c>
-      <c r="F263" s="245"/>
+      <c r="F263" s="249"/>
     </row>
     <row r="264" spans="2:6" ht="48.75" customHeight="1">
-      <c r="B264" s="234"/>
-      <c r="C264" s="244"/>
+      <c r="B264" s="238"/>
+      <c r="C264" s="248"/>
       <c r="D264" s="34">
         <v>0.2016</v>
       </c>
-      <c r="E264" s="252" t="s">
+      <c r="E264" s="256" t="s">
         <v>479</v>
       </c>
-      <c r="F264" s="255"/>
+      <c r="F264" s="259"/>
     </row>
     <row r="265" spans="2:6">
-      <c r="B265" s="247" t="s">
+      <c r="B265" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C265" s="248"/>
+      <c r="C265" s="252"/>
       <c r="D265" s="39">
         <v>0.32679999999999998</v>
       </c>
-      <c r="E265" s="201"/>
-      <c r="F265" s="201"/>
+      <c r="E265" s="205"/>
+      <c r="F265" s="205"/>
     </row>
     <row r="266" spans="2:6">
       <c r="B266" s="111"/>
@@ -14173,91 +14283,91 @@
       <c r="F266" s="25"/>
     </row>
     <row r="267" spans="2:6">
-      <c r="B267" s="249" t="s">
+      <c r="B267" s="253" t="s">
         <v>480</v>
       </c>
-      <c r="C267" s="250"/>
+      <c r="C267" s="254"/>
       <c r="D267" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="E267" s="251" t="s">
+      <c r="E267" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F267" s="251"/>
+      <c r="F267" s="255"/>
     </row>
     <row r="268" spans="2:6">
-      <c r="B268" s="234"/>
-      <c r="C268" s="244"/>
+      <c r="B268" s="238"/>
+      <c r="C268" s="248"/>
       <c r="D268" s="34">
         <v>0.23699999999999999</v>
       </c>
-      <c r="E268" s="245" t="s">
+      <c r="E268" s="249" t="s">
         <v>482</v>
       </c>
-      <c r="F268" s="245"/>
+      <c r="F268" s="249"/>
     </row>
     <row r="269" spans="2:6">
-      <c r="B269" s="234"/>
-      <c r="C269" s="244"/>
+      <c r="B269" s="238"/>
+      <c r="C269" s="248"/>
       <c r="D269" s="34">
         <v>0.54</v>
       </c>
-      <c r="E269" s="246" t="s">
+      <c r="E269" s="250" t="s">
         <v>483</v>
       </c>
-      <c r="F269" s="246"/>
+      <c r="F269" s="250"/>
     </row>
     <row r="270" spans="2:6">
-      <c r="B270" s="234"/>
-      <c r="C270" s="244"/>
+      <c r="B270" s="238"/>
+      <c r="C270" s="248"/>
       <c r="D270" s="34">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E270" s="246" t="s">
+      <c r="E270" s="250" t="s">
         <v>483</v>
       </c>
-      <c r="F270" s="246"/>
+      <c r="F270" s="250"/>
     </row>
     <row r="271" spans="2:6">
-      <c r="B271" s="234"/>
-      <c r="C271" s="244"/>
+      <c r="B271" s="238"/>
+      <c r="C271" s="248"/>
       <c r="D271" s="34">
         <v>2.88</v>
       </c>
-      <c r="E271" s="246" t="s">
+      <c r="E271" s="250" t="s">
         <v>483</v>
       </c>
-      <c r="F271" s="246"/>
+      <c r="F271" s="250"/>
     </row>
     <row r="272" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B272" s="234"/>
-      <c r="C272" s="244"/>
+      <c r="B272" s="238"/>
+      <c r="C272" s="248"/>
       <c r="D272" s="34">
         <v>0.65500000000000003</v>
       </c>
-      <c r="E272" s="245" t="s">
+      <c r="E272" s="249" t="s">
         <v>484</v>
       </c>
-      <c r="F272" s="245"/>
+      <c r="F272" s="249"/>
     </row>
     <row r="273" spans="2:6">
-      <c r="B273" s="247" t="s">
+      <c r="B273" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C273" s="248"/>
+      <c r="C273" s="252"/>
       <c r="D273" s="39">
         <v>0.87680000000000002</v>
       </c>
-      <c r="E273" s="201"/>
-      <c r="F273" s="201"/>
+      <c r="E273" s="205"/>
+      <c r="F273" s="205"/>
     </row>
     <row r="275" spans="2:6">
-      <c r="B275" s="241" t="s">
+      <c r="B275" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C275" s="241"/>
-      <c r="D275" s="241"/>
-      <c r="E275" s="241"/>
+      <c r="C275" s="245"/>
+      <c r="D275" s="245"/>
+      <c r="E275" s="245"/>
     </row>
     <row r="276" spans="2:6">
       <c r="B276" s="42" t="s">
@@ -14331,12 +14441,12 @@
       </c>
     </row>
     <row r="281" spans="2:6">
-      <c r="B281" s="240" t="s">
+      <c r="B281" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C281" s="240"/>
-      <c r="D281" s="240"/>
-      <c r="E281" s="240"/>
+      <c r="C281" s="244"/>
+      <c r="D281" s="244"/>
+      <c r="E281" s="244"/>
     </row>
     <row r="282" spans="2:6">
       <c r="B282" s="58" t="s">
@@ -14357,289 +14467,289 @@
       </c>
     </row>
     <row r="286" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B286" s="214" t="s">
+      <c r="B286" s="218" t="s">
         <v>496</v>
       </c>
-      <c r="C286" s="214"/>
-      <c r="D286" s="214"/>
-      <c r="E286" s="214"/>
-      <c r="F286" s="214"/>
+      <c r="C286" s="218"/>
+      <c r="D286" s="218"/>
+      <c r="E286" s="218"/>
+      <c r="F286" s="218"/>
     </row>
     <row r="287" spans="2:6">
-      <c r="B287" s="249" t="s">
+      <c r="B287" s="253" t="s">
         <v>498</v>
       </c>
-      <c r="C287" s="250"/>
+      <c r="C287" s="254"/>
       <c r="D287" s="41" t="s">
         <v>499</v>
       </c>
-      <c r="E287" s="251" t="s">
+      <c r="E287" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F287" s="251"/>
+      <c r="F287" s="255"/>
     </row>
     <row r="288" spans="2:6">
-      <c r="B288" s="234"/>
-      <c r="C288" s="244"/>
+      <c r="B288" s="238"/>
+      <c r="C288" s="248"/>
       <c r="D288" s="34">
         <v>0.18</v>
       </c>
-      <c r="E288" s="245" t="s">
+      <c r="E288" s="249" t="s">
         <v>511</v>
       </c>
-      <c r="F288" s="245"/>
+      <c r="F288" s="249"/>
     </row>
     <row r="289" spans="2:6" ht="38.25" customHeight="1">
-      <c r="B289" s="234"/>
-      <c r="C289" s="244"/>
+      <c r="B289" s="238"/>
+      <c r="C289" s="248"/>
       <c r="D289" s="34">
         <v>1.93</v>
       </c>
-      <c r="E289" s="245" t="s">
+      <c r="E289" s="249" t="s">
         <v>510</v>
       </c>
-      <c r="F289" s="245"/>
+      <c r="F289" s="249"/>
     </row>
     <row r="290" spans="2:6">
-      <c r="B290" s="234"/>
-      <c r="C290" s="244"/>
+      <c r="B290" s="238"/>
+      <c r="C290" s="248"/>
       <c r="D290" s="34">
         <v>0.1</v>
       </c>
-      <c r="E290" s="252" t="s">
+      <c r="E290" s="256" t="s">
         <v>508</v>
       </c>
-      <c r="F290" s="255"/>
+      <c r="F290" s="259"/>
     </row>
     <row r="291" spans="2:6">
-      <c r="B291" s="234"/>
-      <c r="C291" s="244"/>
+      <c r="B291" s="238"/>
+      <c r="C291" s="248"/>
       <c r="D291" s="34">
         <v>4.8</v>
       </c>
-      <c r="E291" s="252" t="s">
+      <c r="E291" s="256" t="s">
         <v>508</v>
       </c>
-      <c r="F291" s="255"/>
+      <c r="F291" s="259"/>
     </row>
     <row r="292" spans="2:6">
-      <c r="B292" s="234"/>
-      <c r="C292" s="244"/>
+      <c r="B292" s="238"/>
+      <c r="C292" s="248"/>
       <c r="D292" s="34">
         <v>0.26</v>
       </c>
-      <c r="E292" s="254" t="s">
+      <c r="E292" s="258" t="s">
         <v>509</v>
       </c>
-      <c r="F292" s="253"/>
+      <c r="F292" s="257"/>
     </row>
     <row r="293" spans="2:6">
-      <c r="B293" s="234"/>
-      <c r="C293" s="244"/>
+      <c r="B293" s="238"/>
+      <c r="C293" s="248"/>
       <c r="D293" s="34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E293" s="252" t="s">
+      <c r="E293" s="256" t="s">
         <v>508</v>
       </c>
-      <c r="F293" s="255"/>
+      <c r="F293" s="259"/>
     </row>
     <row r="294" spans="2:6" ht="36" customHeight="1">
-      <c r="B294" s="234"/>
-      <c r="C294" s="244"/>
+      <c r="B294" s="238"/>
+      <c r="C294" s="248"/>
       <c r="D294" s="34">
         <v>6.7</v>
       </c>
-      <c r="E294" s="252" t="s">
+      <c r="E294" s="256" t="s">
         <v>507</v>
       </c>
-      <c r="F294" s="255"/>
+      <c r="F294" s="259"/>
     </row>
     <row r="295" spans="2:6">
-      <c r="B295" s="234"/>
-      <c r="C295" s="244"/>
+      <c r="B295" s="238"/>
+      <c r="C295" s="248"/>
       <c r="D295" s="34">
         <v>5.53</v>
       </c>
-      <c r="E295" s="254" t="s">
+      <c r="E295" s="258" t="s">
         <v>506</v>
       </c>
-      <c r="F295" s="253"/>
+      <c r="F295" s="257"/>
     </row>
     <row r="296" spans="2:6">
-      <c r="B296" s="234"/>
-      <c r="C296" s="244"/>
+      <c r="B296" s="238"/>
+      <c r="C296" s="248"/>
       <c r="D296" s="34">
         <v>1.03</v>
       </c>
-      <c r="E296" s="254" t="s">
+      <c r="E296" s="258" t="s">
         <v>506</v>
       </c>
-      <c r="F296" s="253"/>
+      <c r="F296" s="257"/>
     </row>
     <row r="297" spans="2:6">
-      <c r="B297" s="234"/>
-      <c r="C297" s="244"/>
+      <c r="B297" s="238"/>
+      <c r="C297" s="248"/>
       <c r="D297" s="34">
         <v>0.54</v>
       </c>
-      <c r="E297" s="254" t="s">
+      <c r="E297" s="258" t="s">
         <v>506</v>
       </c>
-      <c r="F297" s="253"/>
+      <c r="F297" s="257"/>
     </row>
     <row r="298" spans="2:6">
-      <c r="B298" s="234"/>
-      <c r="C298" s="244"/>
+      <c r="B298" s="238"/>
+      <c r="C298" s="248"/>
       <c r="D298" s="34">
         <v>0.37</v>
       </c>
-      <c r="E298" s="254" t="s">
+      <c r="E298" s="258" t="s">
         <v>506</v>
       </c>
-      <c r="F298" s="253"/>
+      <c r="F298" s="257"/>
     </row>
     <row r="299" spans="2:6" ht="47.25" customHeight="1">
-      <c r="B299" s="234"/>
-      <c r="C299" s="244"/>
+      <c r="B299" s="238"/>
+      <c r="C299" s="248"/>
       <c r="D299" s="34">
         <v>0.69</v>
       </c>
-      <c r="E299" s="252" t="s">
+      <c r="E299" s="256" t="s">
         <v>505</v>
       </c>
-      <c r="F299" s="255"/>
+      <c r="F299" s="259"/>
     </row>
     <row r="300" spans="2:6">
-      <c r="B300" s="234"/>
-      <c r="C300" s="244"/>
+      <c r="B300" s="238"/>
+      <c r="C300" s="248"/>
       <c r="D300" s="34">
         <v>0.27</v>
       </c>
-      <c r="E300" s="254" t="s">
+      <c r="E300" s="258" t="s">
         <v>504</v>
       </c>
-      <c r="F300" s="253"/>
+      <c r="F300" s="257"/>
     </row>
     <row r="301" spans="2:6">
-      <c r="B301" s="234"/>
-      <c r="C301" s="244"/>
+      <c r="B301" s="238"/>
+      <c r="C301" s="248"/>
       <c r="D301" s="34">
         <v>0.17</v>
       </c>
-      <c r="E301" s="254" t="s">
+      <c r="E301" s="258" t="s">
         <v>503</v>
       </c>
-      <c r="F301" s="253"/>
+      <c r="F301" s="257"/>
     </row>
     <row r="302" spans="2:6">
-      <c r="B302" s="234"/>
-      <c r="C302" s="244"/>
+      <c r="B302" s="238"/>
+      <c r="C302" s="248"/>
       <c r="D302" s="34">
         <v>0.27</v>
       </c>
-      <c r="E302" s="254" t="s">
+      <c r="E302" s="258" t="s">
         <v>503</v>
       </c>
-      <c r="F302" s="253"/>
+      <c r="F302" s="257"/>
     </row>
     <row r="303" spans="2:6">
-      <c r="B303" s="234"/>
-      <c r="C303" s="244"/>
+      <c r="B303" s="238"/>
+      <c r="C303" s="248"/>
       <c r="D303" s="34">
         <v>0.35</v>
       </c>
-      <c r="E303" s="254" t="s">
+      <c r="E303" s="258" t="s">
         <v>503</v>
       </c>
-      <c r="F303" s="253"/>
+      <c r="F303" s="257"/>
     </row>
     <row r="304" spans="2:6">
-      <c r="B304" s="234"/>
-      <c r="C304" s="244"/>
+      <c r="B304" s="238"/>
+      <c r="C304" s="248"/>
       <c r="D304" s="34">
         <v>4.75</v>
       </c>
-      <c r="E304" s="254" t="s">
+      <c r="E304" s="258" t="s">
         <v>503</v>
       </c>
-      <c r="F304" s="253"/>
+      <c r="F304" s="257"/>
     </row>
     <row r="305" spans="2:6">
-      <c r="B305" s="234"/>
-      <c r="C305" s="244"/>
+      <c r="B305" s="238"/>
+      <c r="C305" s="248"/>
       <c r="D305" s="34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E305" s="254" t="s">
+      <c r="E305" s="258" t="s">
         <v>503</v>
       </c>
-      <c r="F305" s="253"/>
+      <c r="F305" s="257"/>
     </row>
     <row r="306" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B306" s="234"/>
-      <c r="C306" s="244"/>
+      <c r="B306" s="238"/>
+      <c r="C306" s="248"/>
       <c r="D306" s="34">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E306" s="252" t="s">
+      <c r="E306" s="256" t="s">
         <v>502</v>
       </c>
-      <c r="F306" s="253"/>
+      <c r="F306" s="257"/>
     </row>
     <row r="307" spans="2:6">
-      <c r="B307" s="234"/>
-      <c r="C307" s="244"/>
+      <c r="B307" s="238"/>
+      <c r="C307" s="248"/>
       <c r="D307" s="34">
         <v>0.52</v>
       </c>
-      <c r="E307" s="245" t="s">
+      <c r="E307" s="249" t="s">
         <v>500</v>
       </c>
-      <c r="F307" s="245"/>
+      <c r="F307" s="249"/>
     </row>
     <row r="308" spans="2:6">
-      <c r="B308" s="234"/>
-      <c r="C308" s="244"/>
+      <c r="B308" s="238"/>
+      <c r="C308" s="248"/>
       <c r="D308" s="34">
         <v>0.33</v>
       </c>
-      <c r="E308" s="245" t="s">
+      <c r="E308" s="249" t="s">
         <v>500</v>
       </c>
-      <c r="F308" s="245"/>
+      <c r="F308" s="249"/>
     </row>
     <row r="309" spans="2:6">
-      <c r="B309" s="234"/>
-      <c r="C309" s="244"/>
+      <c r="B309" s="238"/>
+      <c r="C309" s="248"/>
       <c r="D309" s="34">
         <v>0.27</v>
       </c>
-      <c r="E309" s="245" t="s">
+      <c r="E309" s="249" t="s">
         <v>500</v>
       </c>
-      <c r="F309" s="245"/>
+      <c r="F309" s="249"/>
     </row>
     <row r="310" spans="2:6" ht="31.5" customHeight="1">
-      <c r="B310" s="247" t="s">
+      <c r="B310" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C310" s="248"/>
+      <c r="C310" s="252"/>
       <c r="D310" s="39">
         <v>1.649</v>
       </c>
-      <c r="E310" s="245" t="s">
+      <c r="E310" s="249" t="s">
         <v>501</v>
       </c>
-      <c r="F310" s="245"/>
+      <c r="F310" s="249"/>
     </row>
     <row r="312" spans="2:6">
-      <c r="B312" s="241" t="s">
+      <c r="B312" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C312" s="241"/>
-      <c r="D312" s="241"/>
-      <c r="E312" s="241"/>
+      <c r="C312" s="245"/>
+      <c r="D312" s="245"/>
+      <c r="E312" s="245"/>
     </row>
     <row r="313" spans="2:6">
       <c r="B313" s="42" t="s">
@@ -14697,12 +14807,12 @@
       </c>
     </row>
     <row r="317" spans="2:6">
-      <c r="B317" s="240" t="s">
+      <c r="B317" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C317" s="240"/>
-      <c r="D317" s="240"/>
-      <c r="E317" s="240"/>
+      <c r="C317" s="244"/>
+      <c r="D317" s="244"/>
+      <c r="E317" s="244"/>
     </row>
     <row r="318" spans="2:6">
       <c r="B318" s="58" t="s">
@@ -14740,150 +14850,150 @@
       <c r="E320" s="58"/>
     </row>
     <row r="322" spans="2:6">
-      <c r="B322" s="249" t="s">
+      <c r="B322" s="253" t="s">
         <v>96</v>
       </c>
-      <c r="C322" s="250"/>
+      <c r="C322" s="254"/>
       <c r="D322" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E322" s="251" t="s">
+      <c r="E322" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F322" s="251"/>
+      <c r="F322" s="255"/>
     </row>
     <row r="323" spans="2:6">
-      <c r="B323" s="234"/>
-      <c r="C323" s="244"/>
+      <c r="B323" s="238"/>
+      <c r="C323" s="248"/>
       <c r="D323" s="34">
         <v>0.10125000000000001</v>
       </c>
-      <c r="E323" s="245" t="s">
+      <c r="E323" s="249" t="s">
         <v>88</v>
       </c>
-      <c r="F323" s="245"/>
+      <c r="F323" s="249"/>
     </row>
     <row r="324" spans="2:6">
-      <c r="B324" s="234"/>
-      <c r="C324" s="244"/>
+      <c r="B324" s="238"/>
+      <c r="C324" s="248"/>
       <c r="D324" s="34">
         <v>0.15079000000000001</v>
       </c>
-      <c r="E324" s="245" t="s">
+      <c r="E324" s="249" t="s">
         <v>89</v>
       </c>
-      <c r="F324" s="246"/>
+      <c r="F324" s="250"/>
     </row>
     <row r="325" spans="2:6">
-      <c r="B325" s="247" t="s">
+      <c r="B325" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C325" s="248"/>
+      <c r="C325" s="252"/>
       <c r="D325" s="39">
         <v>0.126</v>
       </c>
-      <c r="E325" s="201"/>
-      <c r="F325" s="201"/>
+      <c r="E325" s="205"/>
+      <c r="F325" s="205"/>
     </row>
     <row r="327" spans="2:6">
-      <c r="B327" s="249" t="s">
+      <c r="B327" s="253" t="s">
         <v>92</v>
       </c>
-      <c r="C327" s="250"/>
+      <c r="C327" s="254"/>
       <c r="D327" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E327" s="251" t="s">
+      <c r="E327" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F327" s="251"/>
+      <c r="F327" s="255"/>
     </row>
     <row r="328" spans="2:6">
-      <c r="B328" s="234"/>
-      <c r="C328" s="244"/>
+      <c r="B328" s="238"/>
+      <c r="C328" s="248"/>
       <c r="D328" s="34">
         <v>1.44</v>
       </c>
-      <c r="E328" s="245" t="s">
+      <c r="E328" s="249" t="s">
         <v>94</v>
       </c>
-      <c r="F328" s="245"/>
+      <c r="F328" s="249"/>
     </row>
     <row r="329" spans="2:6">
-      <c r="B329" s="234"/>
-      <c r="C329" s="244"/>
+      <c r="B329" s="238"/>
+      <c r="C329" s="248"/>
       <c r="D329" s="34">
         <v>2.88</v>
       </c>
-      <c r="E329" s="245" t="s">
+      <c r="E329" s="249" t="s">
         <v>95</v>
       </c>
-      <c r="F329" s="246"/>
+      <c r="F329" s="250"/>
     </row>
     <row r="330" spans="2:6">
-      <c r="B330" s="247" t="s">
+      <c r="B330" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C330" s="248"/>
+      <c r="C330" s="252"/>
       <c r="D330" s="39">
         <v>2.16</v>
       </c>
-      <c r="E330" s="201"/>
-      <c r="F330" s="201"/>
+      <c r="E330" s="205"/>
+      <c r="F330" s="205"/>
     </row>
     <row r="332" spans="2:6">
-      <c r="B332" s="249" t="s">
+      <c r="B332" s="253" t="s">
         <v>98</v>
       </c>
-      <c r="C332" s="250"/>
+      <c r="C332" s="254"/>
       <c r="D332" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E332" s="251" t="s">
+      <c r="E332" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F332" s="251"/>
+      <c r="F332" s="255"/>
     </row>
     <row r="333" spans="2:6">
-      <c r="B333" s="234"/>
-      <c r="C333" s="244"/>
+      <c r="B333" s="238"/>
+      <c r="C333" s="248"/>
       <c r="D333" s="34">
         <v>11.7</v>
       </c>
-      <c r="E333" s="245" t="s">
+      <c r="E333" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="F333" s="245"/>
+      <c r="F333" s="249"/>
     </row>
     <row r="334" spans="2:6">
-      <c r="B334" s="234"/>
-      <c r="C334" s="244"/>
+      <c r="B334" s="238"/>
+      <c r="C334" s="248"/>
       <c r="D334" s="34">
         <v>19.7</v>
       </c>
-      <c r="E334" s="245" t="s">
+      <c r="E334" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="F334" s="246"/>
+      <c r="F334" s="250"/>
     </row>
     <row r="335" spans="2:6">
-      <c r="B335" s="247" t="s">
+      <c r="B335" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C335" s="248"/>
+      <c r="C335" s="252"/>
       <c r="D335" s="39">
         <v>15.7</v>
       </c>
-      <c r="E335" s="201"/>
-      <c r="F335" s="201"/>
+      <c r="E335" s="205"/>
+      <c r="F335" s="205"/>
     </row>
     <row r="338" spans="2:5">
-      <c r="B338" s="241" t="s">
+      <c r="B338" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C338" s="241"/>
-      <c r="D338" s="241"/>
-      <c r="E338" s="241"/>
+      <c r="C338" s="245"/>
+      <c r="D338" s="245"/>
+      <c r="E338" s="245"/>
     </row>
     <row r="339" spans="2:5">
       <c r="B339" s="42" t="s">
@@ -15048,12 +15158,12 @@
       </c>
     </row>
     <row r="350" spans="2:5">
-      <c r="B350" s="240" t="s">
+      <c r="B350" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C350" s="240"/>
-      <c r="D350" s="240"/>
-      <c r="E350" s="240"/>
+      <c r="C350" s="244"/>
+      <c r="D350" s="244"/>
+      <c r="E350" s="244"/>
     </row>
     <row r="351" spans="2:5">
       <c r="B351" s="58" t="s">
@@ -15108,12 +15218,12 @@
       <c r="E354" s="58"/>
     </row>
     <row r="356" spans="2:5">
-      <c r="B356" s="241" t="s">
+      <c r="B356" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C356" s="241"/>
-      <c r="D356" s="241"/>
-      <c r="E356" s="241"/>
+      <c r="C356" s="245"/>
+      <c r="D356" s="245"/>
+      <c r="E356" s="245"/>
     </row>
     <row r="357" spans="2:5">
       <c r="B357" s="42" t="s">
@@ -15250,12 +15360,12 @@
       </c>
     </row>
     <row r="366" spans="2:5">
-      <c r="B366" s="240" t="s">
+      <c r="B366" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C366" s="240"/>
-      <c r="D366" s="240"/>
-      <c r="E366" s="240"/>
+      <c r="C366" s="244"/>
+      <c r="D366" s="244"/>
+      <c r="E366" s="244"/>
     </row>
     <row r="367" spans="2:5">
       <c r="B367" s="58" t="s">
@@ -15289,12 +15399,12 @@
       </c>
     </row>
     <row r="372" spans="2:5">
-      <c r="B372" s="241" t="s">
+      <c r="B372" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C372" s="241"/>
-      <c r="D372" s="241"/>
-      <c r="E372" s="241"/>
+      <c r="C372" s="245"/>
+      <c r="D372" s="245"/>
+      <c r="E372" s="245"/>
     </row>
     <row r="373" spans="2:5">
       <c r="B373" s="42" t="s">
@@ -15326,12 +15436,12 @@
       </c>
     </row>
     <row r="375" spans="2:5">
-      <c r="B375" s="240" t="s">
+      <c r="B375" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C375" s="240"/>
-      <c r="D375" s="240"/>
-      <c r="E375" s="240"/>
+      <c r="C375" s="244"/>
+      <c r="D375" s="244"/>
+      <c r="E375" s="244"/>
     </row>
     <row r="376" spans="2:5">
       <c r="B376" s="58" t="s">
@@ -15350,12 +15460,12 @@
       </c>
     </row>
     <row r="380" spans="2:5">
-      <c r="B380" s="239" t="s">
+      <c r="B380" s="243" t="s">
         <v>531</v>
       </c>
-      <c r="C380" s="241"/>
-      <c r="D380" s="241"/>
-      <c r="E380" s="241"/>
+      <c r="C380" s="245"/>
+      <c r="D380" s="245"/>
+      <c r="E380" s="245"/>
     </row>
     <row r="381" spans="2:5">
       <c r="B381" s="1" t="s">
@@ -15540,12 +15650,12 @@
       </c>
     </row>
     <row r="395" spans="2:5">
-      <c r="B395" s="239" t="s">
+      <c r="B395" s="243" t="s">
         <v>532</v>
       </c>
-      <c r="C395" s="241"/>
-      <c r="D395" s="241"/>
-      <c r="E395" s="241"/>
+      <c r="C395" s="245"/>
+      <c r="D395" s="245"/>
+      <c r="E395" s="245"/>
     </row>
     <row r="396" spans="2:5">
       <c r="B396" s="1" t="s">
@@ -15730,13 +15840,13 @@
       </c>
     </row>
     <row r="410" spans="2:6">
-      <c r="B410" s="239" t="s">
+      <c r="B410" s="243" t="s">
         <v>528</v>
       </c>
-      <c r="C410" s="239"/>
-      <c r="D410" s="239"/>
-      <c r="E410" s="239"/>
-      <c r="F410" s="239"/>
+      <c r="C410" s="243"/>
+      <c r="D410" s="243"/>
+      <c r="E410" s="243"/>
+      <c r="F410" s="243"/>
     </row>
     <row r="411" spans="2:6">
       <c r="B411" s="115" t="s">
@@ -15969,43 +16079,43 @@
       </c>
     </row>
     <row r="427" spans="2:10">
-      <c r="B427" s="241" t="s">
+      <c r="B427" s="245" t="s">
         <v>552</v>
       </c>
-      <c r="C427" s="241"/>
-      <c r="D427" s="241"/>
-      <c r="E427" s="241"/>
-      <c r="F427" s="241"/>
-      <c r="G427" s="241"/>
-      <c r="H427" s="241"/>
-      <c r="I427" s="241"/>
-      <c r="J427" s="241"/>
+      <c r="C427" s="245"/>
+      <c r="D427" s="245"/>
+      <c r="E427" s="245"/>
+      <c r="F427" s="245"/>
+      <c r="G427" s="245"/>
+      <c r="H427" s="245"/>
+      <c r="I427" s="245"/>
+      <c r="J427" s="245"/>
     </row>
     <row r="428" spans="2:10">
-      <c r="B428" s="241" t="s">
+      <c r="B428" s="245" t="s">
         <v>553</v>
       </c>
-      <c r="C428" s="241"/>
-      <c r="D428" s="241"/>
-      <c r="E428" s="241"/>
-      <c r="F428" s="241"/>
-      <c r="G428" s="241"/>
-      <c r="H428" s="241"/>
-      <c r="I428" s="241"/>
-      <c r="J428" s="241"/>
+      <c r="C428" s="245"/>
+      <c r="D428" s="245"/>
+      <c r="E428" s="245"/>
+      <c r="F428" s="245"/>
+      <c r="G428" s="245"/>
+      <c r="H428" s="245"/>
+      <c r="I428" s="245"/>
+      <c r="J428" s="245"/>
     </row>
     <row r="429" spans="2:10">
-      <c r="B429" s="241" t="s">
+      <c r="B429" s="245" t="s">
         <v>554</v>
       </c>
-      <c r="C429" s="241"/>
-      <c r="D429" s="241"/>
-      <c r="E429" s="241"/>
-      <c r="F429" s="241"/>
-      <c r="G429" s="241"/>
-      <c r="H429" s="241"/>
-      <c r="I429" s="241"/>
-      <c r="J429" s="241"/>
+      <c r="C429" s="245"/>
+      <c r="D429" s="245"/>
+      <c r="E429" s="245"/>
+      <c r="F429" s="245"/>
+      <c r="G429" s="245"/>
+      <c r="H429" s="245"/>
+      <c r="I429" s="245"/>
+      <c r="J429" s="245"/>
     </row>
     <row r="430" spans="2:10">
       <c r="B430" s="42" t="s">
@@ -16023,10 +16133,10 @@
       <c r="F430" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G430" s="242" t="s">
+      <c r="G430" s="246" t="s">
         <v>196</v>
       </c>
-      <c r="H430" s="243"/>
+      <c r="H430" s="247"/>
       <c r="I430" s="119" t="s">
         <v>189</v>
       </c>
@@ -16034,7 +16144,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="431" spans="2:10" ht="54" customHeight="1">
+    <row r="431" spans="2:10" ht="116.25" customHeight="1">
       <c r="B431" s="34" t="s">
         <v>2</v>
       </c>
@@ -16045,28 +16155,28 @@
         <v>289</v>
       </c>
       <c r="E431" s="36" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F431" s="37"/>
       <c r="G431" s="45" t="s">
-        <v>578</v>
+        <v>791</v>
       </c>
       <c r="H431" s="45" t="s">
-        <v>573</v>
+        <v>792</v>
       </c>
       <c r="I431" s="120" t="s">
         <v>556</v>
       </c>
       <c r="J431" s="45" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="432" spans="2:10" ht="60">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="432" spans="2:10" ht="45">
       <c r="B432" s="34" t="s">
         <v>180</v>
       </c>
       <c r="C432" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D432" s="36" t="s">
         <v>200</v>
@@ -16074,10 +16184,10 @@
       <c r="E432" s="36"/>
       <c r="F432" s="34"/>
       <c r="G432" s="52" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="H432" s="53" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="I432" s="120">
         <v>0</v>
@@ -16091,28 +16201,28 @@
         <v>181</v>
       </c>
       <c r="C433" s="36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D433" s="36" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="E433" s="36" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="F433" s="36" t="s">
         <v>551</v>
       </c>
       <c r="G433" s="52" t="s">
-        <v>572</v>
+        <v>793</v>
       </c>
       <c r="H433" s="53" t="s">
-        <v>730</v>
+        <v>794</v>
       </c>
       <c r="I433" s="120" t="s">
         <v>555</v>
       </c>
       <c r="J433" s="36" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="434" spans="2:10" ht="81.75" customHeight="1">
@@ -16123,7 +16233,7 @@
         <v>297</v>
       </c>
       <c r="D434" s="36" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E434" s="36" t="s">
         <v>298</v>
@@ -16132,19 +16242,19 @@
         <v>299</v>
       </c>
       <c r="G434" s="36" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="H434" s="36" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="I434" s="120">
         <v>1</v>
       </c>
       <c r="J434" s="45" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="435" spans="2:10" ht="150">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="435" spans="2:10" ht="105">
       <c r="B435" s="34" t="s">
         <v>183</v>
       </c>
@@ -16152,7 +16262,7 @@
         <v>297</v>
       </c>
       <c r="D435" s="36" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E435" s="36" t="s">
         <v>298</v>
@@ -16161,16 +16271,16 @@
         <v>299</v>
       </c>
       <c r="G435" s="36" t="s">
-        <v>733</v>
+        <v>795</v>
       </c>
       <c r="H435" s="36" t="s">
-        <v>734</v>
+        <v>796</v>
       </c>
       <c r="I435" s="120" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="J435" s="45" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
     </row>
     <row r="436" spans="2:10" ht="169.5" customHeight="1">
@@ -16181,7 +16291,7 @@
         <v>297</v>
       </c>
       <c r="D436" s="36" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E436" s="36" t="s">
         <v>298</v>
@@ -16190,29 +16300,29 @@
         <v>299</v>
       </c>
       <c r="G436" s="36" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="H436" s="36" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
       <c r="I436" s="120" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="J436" s="144" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
     </row>
     <row r="443" spans="2:10">
-      <c r="C443" s="214"/>
-      <c r="D443" s="214"/>
+      <c r="C443" s="218"/>
+      <c r="D443" s="218"/>
     </row>
     <row r="444" spans="2:10">
-      <c r="C444" s="214"/>
-      <c r="D444" s="214"/>
+      <c r="C444" s="218"/>
+      <c r="D444" s="218"/>
     </row>
     <row r="445" spans="2:10">
-      <c r="C445" s="214"/>
-      <c r="D445" s="214"/>
+      <c r="C445" s="218"/>
+      <c r="D445" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="294">
@@ -16522,8 +16632,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:Q251"/>
   <sheetViews>
-    <sheetView topLeftCell="F146" zoomScale="90" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="J146" sqref="J146:J147"/>
+    <sheetView topLeftCell="C298" zoomScale="46" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -16548,14 +16658,14 @@
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="27" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B27" s="272" t="s">
+      <c r="B27" s="276" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="273"/>
-      <c r="D27" s="274" t="s">
+      <c r="C27" s="277"/>
+      <c r="D27" s="278" t="s">
         <v>205</v>
       </c>
-      <c r="E27" s="275"/>
+      <c r="E27" s="279"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B28" s="63" t="s">
@@ -16607,54 +16717,54 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="39" customHeight="1" thickBot="1">
-      <c r="B31" s="308" t="s">
+      <c r="B31" s="317" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="308">
+      <c r="C31" s="317">
         <v>160</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E31" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B32" s="309"/>
-      <c r="C32" s="309"/>
+      <c r="B32" s="318"/>
+      <c r="C32" s="318"/>
       <c r="D32" s="28" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E32" s="28">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="21" customHeight="1" thickBot="1">
-      <c r="B33" s="309"/>
-      <c r="C33" s="309"/>
+      <c r="B33" s="318"/>
+      <c r="C33" s="318"/>
       <c r="D33" s="31" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E33" s="31">
         <v>95</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="21" customHeight="1" thickBot="1">
-      <c r="B34" s="309"/>
-      <c r="C34" s="309"/>
+      <c r="B34" s="318"/>
+      <c r="C34" s="318"/>
       <c r="D34" s="28" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E34" s="28">
         <v>160</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="21" customHeight="1" thickBot="1">
-      <c r="B35" s="310"/>
-      <c r="C35" s="310"/>
+      <c r="B35" s="319"/>
+      <c r="C35" s="319"/>
       <c r="D35" s="31" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E35" s="31">
         <v>9.8000000000000007</v>
@@ -16662,20 +16772,20 @@
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="38" spans="2:13">
-      <c r="B38" s="262" t="s">
+      <c r="B38" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="C38" s="263"/>
-      <c r="D38" s="263"/>
-      <c r="E38" s="263"/>
-      <c r="F38" s="263"/>
-      <c r="G38" s="263"/>
-      <c r="H38" s="263"/>
-      <c r="I38" s="263"/>
-      <c r="J38" s="263"/>
-      <c r="K38" s="263"/>
-      <c r="L38" s="263"/>
-      <c r="M38" s="264"/>
+      <c r="C38" s="267"/>
+      <c r="D38" s="267"/>
+      <c r="E38" s="267"/>
+      <c r="F38" s="267"/>
+      <c r="G38" s="267"/>
+      <c r="H38" s="267"/>
+      <c r="I38" s="267"/>
+      <c r="J38" s="267"/>
+      <c r="K38" s="267"/>
+      <c r="L38" s="267"/>
+      <c r="M38" s="268"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="40" spans="2:13" ht="18.75" thickBot="1">
@@ -16688,20 +16798,20 @@
     </row>
     <row r="41" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="42" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B42" s="298" t="s">
+      <c r="B42" s="304" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="299"/>
-      <c r="D42" s="299"/>
-      <c r="E42" s="300"/>
+      <c r="C42" s="305"/>
+      <c r="D42" s="305"/>
+      <c r="E42" s="306"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="241" t="s">
+      <c r="B44" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="241"/>
-      <c r="D44" s="241"/>
-      <c r="E44" s="241"/>
+      <c r="C44" s="245"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="42" t="s">
@@ -16729,7 +16839,7 @@
       <c r="D46" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="E46" s="311" t="s">
+      <c r="E46" s="320" t="s">
         <v>246</v>
       </c>
     </row>
@@ -16744,7 +16854,7 @@
       <c r="D47" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="E47" s="312"/>
+      <c r="E47" s="321"/>
       <c r="G47" s="66"/>
     </row>
     <row r="48" spans="2:13" ht="30">
@@ -16763,12 +16873,12 @@
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="240" t="s">
+      <c r="B49" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="240"/>
-      <c r="D49" s="240"/>
-      <c r="E49" s="240"/>
+      <c r="C49" s="244"/>
+      <c r="D49" s="244"/>
+      <c r="E49" s="244"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="59" t="s">
@@ -16802,12 +16912,12 @@
     </row>
     <row r="53" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="54" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B54" s="298" t="s">
+      <c r="B54" s="304" t="s">
         <v>248</v>
       </c>
-      <c r="C54" s="299"/>
-      <c r="D54" s="299"/>
-      <c r="E54" s="300"/>
+      <c r="C54" s="305"/>
+      <c r="D54" s="305"/>
+      <c r="E54" s="306"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="118" t="s">
@@ -16815,12 +16925,12 @@
       </c>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="240" t="s">
+      <c r="B57" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="240"/>
-      <c r="D57" s="240"/>
-      <c r="E57" s="240"/>
+      <c r="C57" s="244"/>
+      <c r="D57" s="244"/>
+      <c r="E57" s="244"/>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="73" t="s">
@@ -16882,12 +16992,12 @@
       <c r="F61" s="72"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="240" t="s">
+      <c r="B62" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="240"/>
-      <c r="D62" s="240"/>
-      <c r="E62" s="240"/>
+      <c r="C62" s="244"/>
+      <c r="D62" s="244"/>
+      <c r="E62" s="244"/>
       <c r="G62" t="s">
         <v>262</v>
       </c>
@@ -16937,20 +17047,20 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="33" customHeight="1">
-      <c r="B66" s="304" t="s">
+      <c r="B66" s="313" t="s">
         <v>533</v>
       </c>
-      <c r="C66" s="304"/>
-      <c r="D66" s="304"/>
-      <c r="E66" s="304"/>
+      <c r="C66" s="313"/>
+      <c r="D66" s="313"/>
+      <c r="E66" s="313"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="240" t="s">
+      <c r="B67" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="240"/>
-      <c r="D67" s="240"/>
-      <c r="E67" s="240"/>
+      <c r="C67" s="244"/>
+      <c r="D67" s="244"/>
+      <c r="E67" s="244"/>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="42" t="s">
@@ -17020,12 +17130,12 @@
       </c>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="240" t="s">
+      <c r="B73" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="240"/>
-      <c r="D73" s="240"/>
-      <c r="E73" s="240"/>
+      <c r="C73" s="244"/>
+      <c r="D73" s="244"/>
+      <c r="E73" s="244"/>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="59" t="s">
@@ -17084,20 +17194,20 @@
       <c r="E77" s="76"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="305" t="s">
+      <c r="B79" s="314" t="s">
         <v>274</v>
       </c>
-      <c r="C79" s="304"/>
-      <c r="D79" s="304"/>
-      <c r="E79" s="304"/>
+      <c r="C79" s="313"/>
+      <c r="D79" s="313"/>
+      <c r="E79" s="313"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="240" t="s">
+      <c r="B80" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="240"/>
-      <c r="D80" s="240"/>
-      <c r="E80" s="240"/>
+      <c r="C80" s="244"/>
+      <c r="D80" s="244"/>
+      <c r="E80" s="244"/>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="42" t="s">
@@ -17139,12 +17249,12 @@
       </c>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="240" t="s">
+      <c r="B84" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="240"/>
-      <c r="D84" s="240"/>
-      <c r="E84" s="240"/>
+      <c r="C84" s="244"/>
+      <c r="D84" s="244"/>
+      <c r="E84" s="244"/>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="59" t="s">
@@ -17174,20 +17284,20 @@
     </row>
     <row r="87" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="88" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B88" s="298" t="s">
+      <c r="B88" s="304" t="s">
         <v>277</v>
       </c>
-      <c r="C88" s="299"/>
-      <c r="D88" s="299"/>
-      <c r="E88" s="300"/>
+      <c r="C88" s="305"/>
+      <c r="D88" s="305"/>
+      <c r="E88" s="306"/>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="240" t="s">
+      <c r="B90" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="240"/>
-      <c r="D90" s="240"/>
-      <c r="E90" s="240"/>
+      <c r="C90" s="244"/>
+      <c r="D90" s="244"/>
+      <c r="E90" s="244"/>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="42" t="s">
@@ -17219,12 +17329,12 @@
       </c>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="240" t="s">
+      <c r="B93" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="240"/>
-      <c r="D93" s="240"/>
-      <c r="E93" s="240"/>
+      <c r="C93" s="244"/>
+      <c r="D93" s="244"/>
+      <c r="E93" s="244"/>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="59" t="s">
@@ -17240,12 +17350,12 @@
       <c r="E94" s="58"/>
     </row>
     <row r="96" spans="2:5">
-      <c r="B96" s="240" t="s">
+      <c r="B96" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="240"/>
-      <c r="D96" s="240"/>
-      <c r="E96" s="240"/>
+      <c r="C96" s="244"/>
+      <c r="D96" s="244"/>
+      <c r="E96" s="244"/>
     </row>
     <row r="97" spans="2:17">
       <c r="B97" s="42" t="s">
@@ -17277,10 +17387,10 @@
       </c>
     </row>
     <row r="99" spans="2:17">
-      <c r="B99" s="240"/>
-      <c r="C99" s="240"/>
-      <c r="D99" s="240"/>
-      <c r="E99" s="240"/>
+      <c r="B99" s="244"/>
+      <c r="C99" s="244"/>
+      <c r="D99" s="244"/>
+      <c r="E99" s="244"/>
     </row>
     <row r="100" spans="2:17">
       <c r="B100" s="59" t="s">
@@ -17297,33 +17407,33 @@
     </row>
     <row r="101" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="102" spans="2:17" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B102" s="298" t="s">
+      <c r="B102" s="304" t="s">
         <v>282</v>
       </c>
-      <c r="C102" s="299"/>
-      <c r="D102" s="299"/>
-      <c r="E102" s="300"/>
-      <c r="G102" s="306" t="s">
+      <c r="C102" s="305"/>
+      <c r="D102" s="305"/>
+      <c r="E102" s="306"/>
+      <c r="G102" s="315" t="s">
         <v>281</v>
       </c>
-      <c r="H102" s="307"/>
-      <c r="I102" s="307"/>
-      <c r="J102" s="307"/>
-      <c r="K102" s="307"/>
-      <c r="L102" s="307"/>
-      <c r="M102" s="307"/>
-      <c r="N102" s="307"/>
-      <c r="O102" s="307"/>
-      <c r="P102" s="307"/>
-      <c r="Q102" s="307"/>
+      <c r="H102" s="316"/>
+      <c r="I102" s="316"/>
+      <c r="J102" s="316"/>
+      <c r="K102" s="316"/>
+      <c r="L102" s="316"/>
+      <c r="M102" s="316"/>
+      <c r="N102" s="316"/>
+      <c r="O102" s="316"/>
+      <c r="P102" s="316"/>
+      <c r="Q102" s="316"/>
     </row>
     <row r="104" spans="2:17">
-      <c r="B104" s="240" t="s">
+      <c r="B104" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="240"/>
-      <c r="D104" s="240"/>
-      <c r="E104" s="240"/>
+      <c r="C104" s="244"/>
+      <c r="D104" s="244"/>
+      <c r="E104" s="244"/>
     </row>
     <row r="105" spans="2:17">
       <c r="B105" s="42" t="s">
@@ -17442,12 +17552,12 @@
       </c>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="240" t="s">
+      <c r="B113" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C113" s="240"/>
-      <c r="D113" s="240"/>
-      <c r="E113" s="240"/>
+      <c r="C113" s="244"/>
+      <c r="D113" s="244"/>
+      <c r="E113" s="244"/>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="59" t="s">
@@ -17468,12 +17578,12 @@
       </c>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="240" t="s">
+      <c r="B118" s="244" t="s">
         <v>213</v>
       </c>
-      <c r="C118" s="240"/>
-      <c r="D118" s="240"/>
-      <c r="E118" s="240"/>
+      <c r="C118" s="244"/>
+      <c r="D118" s="244"/>
+      <c r="E118" s="244"/>
       <c r="F118" s="107"/>
     </row>
     <row r="119" spans="2:6">
@@ -17716,17 +17826,17 @@
       </c>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" s="241" t="s">
+      <c r="B135" s="245" t="s">
         <v>213</v>
       </c>
-      <c r="C135" s="241"/>
-      <c r="D135" s="241"/>
-      <c r="E135" s="241"/>
-      <c r="F135" s="241"/>
-      <c r="G135" s="241"/>
-      <c r="H135" s="241"/>
-      <c r="I135" s="241"/>
-      <c r="J135" s="241"/>
+      <c r="C135" s="245"/>
+      <c r="D135" s="245"/>
+      <c r="E135" s="245"/>
+      <c r="F135" s="245"/>
+      <c r="G135" s="245"/>
+      <c r="H135" s="245"/>
+      <c r="I135" s="245"/>
+      <c r="J135" s="245"/>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="42" t="s">
@@ -17744,10 +17854,10 @@
       <c r="F136" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G136" s="242" t="s">
+      <c r="G136" s="246" t="s">
         <v>196</v>
       </c>
-      <c r="H136" s="243"/>
+      <c r="H136" s="247"/>
       <c r="I136" s="119" t="s">
         <v>189</v>
       </c>
@@ -17757,47 +17867,47 @@
       <c r="K136" s="1"/>
     </row>
     <row r="137" spans="2:11" ht="117" customHeight="1">
-      <c r="B137" s="178" t="s">
+      <c r="B137" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="173" t="s">
+      <c r="C137" s="177" t="s">
         <v>194</v>
       </c>
-      <c r="D137" s="173" t="s">
+      <c r="D137" s="177" t="s">
         <v>289</v>
       </c>
-      <c r="E137" s="173" t="s">
-        <v>566</v>
-      </c>
-      <c r="F137" s="178"/>
+      <c r="E137" s="177" t="s">
+        <v>565</v>
+      </c>
+      <c r="F137" s="182"/>
       <c r="G137" s="141" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="H137" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="I137" s="258" t="s">
+      <c r="I137" s="262" t="s">
         <v>293</v>
       </c>
-      <c r="J137" s="173" t="s">
-        <v>583</v>
+      <c r="J137" s="177" t="s">
+        <v>579</v>
       </c>
       <c r="K137" s="143"/>
     </row>
     <row r="138" spans="2:11" ht="45">
-      <c r="B138" s="179"/>
-      <c r="C138" s="174"/>
-      <c r="D138" s="174"/>
-      <c r="E138" s="174"/>
-      <c r="F138" s="179"/>
+      <c r="B138" s="183"/>
+      <c r="C138" s="178"/>
+      <c r="D138" s="178"/>
+      <c r="E138" s="178"/>
+      <c r="F138" s="183"/>
       <c r="G138" s="51" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="H138" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="I138" s="260"/>
-      <c r="J138" s="174"/>
+      <c r="I138" s="264"/>
+      <c r="J138" s="178"/>
       <c r="K138" s="1"/>
     </row>
     <row r="139" spans="2:11" ht="105">
@@ -17805,7 +17915,7 @@
         <v>180</v>
       </c>
       <c r="C139" s="59" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D139" s="36" t="s">
         <v>200</v>
@@ -17813,7 +17923,7 @@
       <c r="E139" s="36"/>
       <c r="F139" s="34"/>
       <c r="G139" s="52" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H139" s="36" t="s">
         <v>291</v>
@@ -17822,7 +17932,7 @@
         <v>0.6</v>
       </c>
       <c r="J139" s="36" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="K139" s="1"/>
     </row>
@@ -17831,7 +17941,7 @@
         <v>181</v>
       </c>
       <c r="C140" s="36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D140" s="45" t="s">
         <v>202</v>
@@ -17843,16 +17953,16 @@
         <v>551</v>
       </c>
       <c r="G140" s="24" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="H140" s="36" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="I140" s="121" t="s">
         <v>557</v>
       </c>
       <c r="J140" s="36" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="K140" s="77"/>
     </row>
@@ -17864,160 +17974,160 @@
         <v>297</v>
       </c>
       <c r="D141" s="36" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E141" s="36" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F141" s="36" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G141" s="52" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H141" s="79" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="I141" s="120">
         <v>1</v>
       </c>
       <c r="J141" s="45" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="K141" s="1"/>
     </row>
     <row r="142" spans="2:11" ht="104.25" customHeight="1">
-      <c r="B142" s="178" t="s">
+      <c r="B142" s="182" t="s">
         <v>183</v>
       </c>
-      <c r="C142" s="173" t="s">
+      <c r="C142" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="D142" s="173" t="s">
-        <v>646</v>
-      </c>
-      <c r="E142" s="173" t="s">
-        <v>647</v>
-      </c>
-      <c r="F142" s="173" t="s">
-        <v>674</v>
+      <c r="D142" s="177" t="s">
+        <v>641</v>
+      </c>
+      <c r="E142" s="177" t="s">
+        <v>642</v>
+      </c>
+      <c r="F142" s="177" t="s">
+        <v>669</v>
       </c>
       <c r="G142" s="142"/>
       <c r="H142" s="80"/>
-      <c r="I142" s="328" t="s">
-        <v>785</v>
-      </c>
-      <c r="J142" s="173" t="s">
-        <v>677</v>
-      </c>
-      <c r="K142" s="301"/>
+      <c r="I142" s="307" t="s">
+        <v>763</v>
+      </c>
+      <c r="J142" s="177" t="s">
+        <v>672</v>
+      </c>
+      <c r="K142" s="310"/>
     </row>
     <row r="143" spans="2:11" ht="232.5" customHeight="1">
-      <c r="B143" s="291"/>
-      <c r="C143" s="287"/>
-      <c r="D143" s="287"/>
-      <c r="E143" s="287"/>
-      <c r="F143" s="287"/>
+      <c r="B143" s="295"/>
+      <c r="C143" s="291"/>
+      <c r="D143" s="291"/>
+      <c r="E143" s="291"/>
+      <c r="F143" s="291"/>
       <c r="G143" s="142" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="H143" s="156" t="s">
-        <v>782</v>
-      </c>
-      <c r="I143" s="329"/>
-      <c r="J143" s="287"/>
-      <c r="K143" s="301"/>
+        <v>760</v>
+      </c>
+      <c r="I143" s="308"/>
+      <c r="J143" s="291"/>
+      <c r="K143" s="310"/>
     </row>
     <row r="144" spans="2:11" ht="91.5" customHeight="1">
-      <c r="B144" s="291"/>
-      <c r="C144" s="287"/>
-      <c r="D144" s="287"/>
-      <c r="E144" s="287"/>
-      <c r="F144" s="287"/>
+      <c r="B144" s="295"/>
+      <c r="C144" s="291"/>
+      <c r="D144" s="291"/>
+      <c r="E144" s="291"/>
+      <c r="F144" s="291"/>
       <c r="G144" s="36" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="H144" s="80" t="s">
-        <v>676</v>
-      </c>
-      <c r="I144" s="329"/>
-      <c r="J144" s="287"/>
-      <c r="K144" s="301"/>
+        <v>671</v>
+      </c>
+      <c r="I144" s="308"/>
+      <c r="J144" s="291"/>
+      <c r="K144" s="310"/>
     </row>
     <row r="145" spans="2:13" ht="87.75" customHeight="1">
-      <c r="B145" s="179"/>
-      <c r="C145" s="174"/>
-      <c r="D145" s="174"/>
-      <c r="E145" s="174"/>
-      <c r="F145" s="174"/>
+      <c r="B145" s="183"/>
+      <c r="C145" s="178"/>
+      <c r="D145" s="178"/>
+      <c r="E145" s="178"/>
+      <c r="F145" s="178"/>
       <c r="G145" s="36"/>
       <c r="H145" s="80"/>
-      <c r="I145" s="330"/>
-      <c r="J145" s="174"/>
-      <c r="K145" s="301"/>
+      <c r="I145" s="309"/>
+      <c r="J145" s="178"/>
+      <c r="K145" s="310"/>
     </row>
     <row r="146" spans="2:13" ht="279" customHeight="1">
-      <c r="B146" s="178" t="s">
+      <c r="B146" s="182" t="s">
         <v>184</v>
       </c>
-      <c r="C146" s="173" t="s">
+      <c r="C146" s="177" t="s">
         <v>297</v>
       </c>
-      <c r="D146" s="173" t="s">
-        <v>646</v>
-      </c>
-      <c r="E146" s="173" t="s">
-        <v>675</v>
-      </c>
-      <c r="F146" s="173" t="s">
-        <v>650</v>
+      <c r="D146" s="177" t="s">
+        <v>641</v>
+      </c>
+      <c r="E146" s="177" t="s">
+        <v>670</v>
+      </c>
+      <c r="F146" s="177" t="s">
+        <v>645</v>
       </c>
       <c r="G146" s="52" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="H146" s="36" t="s">
-        <v>786</v>
-      </c>
-      <c r="I146" s="332" t="s">
-        <v>644</v>
-      </c>
-      <c r="J146" s="173" t="s">
-        <v>677</v>
-      </c>
-      <c r="K146" s="302"/>
+        <v>764</v>
+      </c>
+      <c r="I146" s="302" t="s">
+        <v>639</v>
+      </c>
+      <c r="J146" s="177" t="s">
+        <v>672</v>
+      </c>
+      <c r="K146" s="311"/>
     </row>
     <row r="147" spans="2:13" ht="195.75" customHeight="1">
-      <c r="B147" s="179"/>
-      <c r="C147" s="174"/>
-      <c r="D147" s="174"/>
-      <c r="E147" s="174"/>
-      <c r="F147" s="174"/>
+      <c r="B147" s="183"/>
+      <c r="C147" s="178"/>
+      <c r="D147" s="178"/>
+      <c r="E147" s="178"/>
+      <c r="F147" s="178"/>
       <c r="G147" s="36" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H147" s="80" t="s">
-        <v>676</v>
-      </c>
-      <c r="I147" s="333"/>
-      <c r="J147" s="174"/>
-      <c r="K147" s="303"/>
+        <v>671</v>
+      </c>
+      <c r="I147" s="303"/>
+      <c r="J147" s="178"/>
+      <c r="K147" s="312"/>
     </row>
     <row r="149" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="150" spans="2:13">
-      <c r="B150" s="262" t="s">
+      <c r="B150" s="266" t="s">
         <v>300</v>
       </c>
-      <c r="C150" s="263"/>
-      <c r="D150" s="263"/>
-      <c r="E150" s="263"/>
-      <c r="F150" s="263"/>
-      <c r="G150" s="263"/>
-      <c r="H150" s="263"/>
-      <c r="I150" s="263"/>
-      <c r="J150" s="263"/>
-      <c r="K150" s="263"/>
-      <c r="L150" s="263"/>
-      <c r="M150" s="264"/>
+      <c r="C150" s="267"/>
+      <c r="D150" s="267"/>
+      <c r="E150" s="267"/>
+      <c r="F150" s="267"/>
+      <c r="G150" s="267"/>
+      <c r="H150" s="267"/>
+      <c r="I150" s="267"/>
+      <c r="J150" s="267"/>
+      <c r="K150" s="267"/>
+      <c r="L150" s="267"/>
+      <c r="M150" s="268"/>
     </row>
     <row r="151" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="152" spans="2:13" ht="18.75" thickBot="1">
@@ -18030,20 +18140,20 @@
     </row>
     <row r="153" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="154" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B154" s="298" t="s">
+      <c r="B154" s="304" t="s">
         <v>282</v>
       </c>
-      <c r="C154" s="299"/>
-      <c r="D154" s="299"/>
-      <c r="E154" s="300"/>
+      <c r="C154" s="305"/>
+      <c r="D154" s="305"/>
+      <c r="E154" s="306"/>
     </row>
     <row r="156" spans="2:13">
-      <c r="B156" s="240" t="s">
+      <c r="B156" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C156" s="240"/>
-      <c r="D156" s="240"/>
-      <c r="E156" s="240"/>
+      <c r="C156" s="244"/>
+      <c r="D156" s="244"/>
+      <c r="E156" s="244"/>
     </row>
     <row r="157" spans="2:13">
       <c r="B157" s="42" t="s">
@@ -18105,12 +18215,12 @@
       </c>
     </row>
     <row r="161" spans="2:5">
-      <c r="B161" s="240" t="s">
+      <c r="B161" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C161" s="240"/>
-      <c r="D161" s="240"/>
-      <c r="E161" s="240"/>
+      <c r="C161" s="244"/>
+      <c r="D161" s="244"/>
+      <c r="E161" s="244"/>
     </row>
     <row r="162" spans="2:5">
       <c r="B162" s="59" t="s">
@@ -18127,21 +18237,21 @@
     </row>
     <row r="163" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="164" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B164" s="298" t="s">
+      <c r="B164" s="304" t="s">
         <v>422</v>
       </c>
-      <c r="C164" s="299"/>
-      <c r="D164" s="299"/>
-      <c r="E164" s="300"/>
+      <c r="C164" s="305"/>
+      <c r="D164" s="305"/>
+      <c r="E164" s="306"/>
     </row>
     <row r="165" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="166" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B166" s="298" t="s">
+      <c r="B166" s="304" t="s">
         <v>248</v>
       </c>
-      <c r="C166" s="299"/>
-      <c r="D166" s="299"/>
-      <c r="E166" s="300"/>
+      <c r="C166" s="305"/>
+      <c r="D166" s="305"/>
+      <c r="E166" s="306"/>
     </row>
     <row r="168" spans="2:5">
       <c r="B168" s="118" t="s">
@@ -18149,12 +18259,12 @@
       </c>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="240" t="s">
+      <c r="B169" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C169" s="240"/>
-      <c r="D169" s="240"/>
-      <c r="E169" s="240"/>
+      <c r="C169" s="244"/>
+      <c r="D169" s="244"/>
+      <c r="E169" s="244"/>
     </row>
     <row r="170" spans="2:5">
       <c r="B170" s="73" t="s">
@@ -18228,12 +18338,12 @@
       </c>
     </row>
     <row r="175" spans="2:5">
-      <c r="B175" s="240" t="s">
+      <c r="B175" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C175" s="240"/>
-      <c r="D175" s="240"/>
-      <c r="E175" s="240"/>
+      <c r="C175" s="244"/>
+      <c r="D175" s="244"/>
+      <c r="E175" s="244"/>
     </row>
     <row r="176" spans="2:5" ht="30">
       <c r="B176" s="59" t="s">
@@ -18263,20 +18373,20 @@
     </row>
     <row r="178" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="179" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B179" s="298" t="s">
+      <c r="B179" s="304" t="s">
         <v>277</v>
       </c>
-      <c r="C179" s="299"/>
-      <c r="D179" s="299"/>
-      <c r="E179" s="300"/>
+      <c r="C179" s="305"/>
+      <c r="D179" s="305"/>
+      <c r="E179" s="306"/>
     </row>
     <row r="181" spans="2:6">
-      <c r="B181" s="240" t="s">
+      <c r="B181" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C181" s="240"/>
-      <c r="D181" s="240"/>
-      <c r="E181" s="240"/>
+      <c r="C181" s="244"/>
+      <c r="D181" s="244"/>
+      <c r="E181" s="244"/>
     </row>
     <row r="182" spans="2:6">
       <c r="B182" s="42" t="s">
@@ -18308,12 +18418,12 @@
       </c>
     </row>
     <row r="184" spans="2:6">
-      <c r="B184" s="240" t="s">
+      <c r="B184" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C184" s="240"/>
-      <c r="D184" s="240"/>
-      <c r="E184" s="240"/>
+      <c r="C184" s="244"/>
+      <c r="D184" s="244"/>
+      <c r="E184" s="244"/>
     </row>
     <row r="185" spans="2:6">
       <c r="B185" s="59" t="s">
@@ -18334,12 +18444,12 @@
       </c>
     </row>
     <row r="189" spans="2:6">
-      <c r="B189" s="240" t="s">
+      <c r="B189" s="244" t="s">
         <v>300</v>
       </c>
-      <c r="C189" s="240"/>
-      <c r="D189" s="240"/>
-      <c r="E189" s="240"/>
+      <c r="C189" s="244"/>
+      <c r="D189" s="244"/>
+      <c r="E189" s="244"/>
       <c r="F189" s="105"/>
     </row>
     <row r="190" spans="2:6">
@@ -18535,17 +18645,17 @@
       </c>
     </row>
     <row r="206" spans="2:10">
-      <c r="B206" s="241" t="s">
+      <c r="B206" s="245" t="s">
         <v>300</v>
       </c>
-      <c r="C206" s="241"/>
-      <c r="D206" s="241"/>
-      <c r="E206" s="241"/>
-      <c r="F206" s="241"/>
-      <c r="G206" s="241"/>
-      <c r="H206" s="241"/>
-      <c r="I206" s="241"/>
-      <c r="J206" s="241"/>
+      <c r="C206" s="245"/>
+      <c r="D206" s="245"/>
+      <c r="E206" s="245"/>
+      <c r="F206" s="245"/>
+      <c r="G206" s="245"/>
+      <c r="H206" s="245"/>
+      <c r="I206" s="245"/>
+      <c r="J206" s="245"/>
     </row>
     <row r="207" spans="2:10">
       <c r="B207" s="42" t="s">
@@ -18563,10 +18673,10 @@
       <c r="F207" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G207" s="242" t="s">
+      <c r="G207" s="246" t="s">
         <v>196</v>
       </c>
-      <c r="H207" s="243"/>
+      <c r="H207" s="247"/>
       <c r="I207" s="119" t="s">
         <v>189</v>
       </c>
@@ -18575,298 +18685,298 @@
       </c>
     </row>
     <row r="208" spans="2:10" ht="87" customHeight="1">
-      <c r="B208" s="178" t="s">
+      <c r="B208" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="C208" s="173" t="s">
+      <c r="C208" s="177" t="s">
         <v>194</v>
       </c>
-      <c r="D208" s="173" t="s">
+      <c r="D208" s="177" t="s">
         <v>289</v>
       </c>
-      <c r="E208" s="173" t="s">
-        <v>566</v>
-      </c>
-      <c r="F208" s="178"/>
-      <c r="G208" s="316" t="s">
-        <v>639</v>
-      </c>
-      <c r="H208" s="318" t="s">
-        <v>640</v>
-      </c>
-      <c r="I208" s="258">
+      <c r="E208" s="177" t="s">
+        <v>565</v>
+      </c>
+      <c r="F208" s="182"/>
+      <c r="G208" s="325" t="s">
+        <v>634</v>
+      </c>
+      <c r="H208" s="327" t="s">
+        <v>635</v>
+      </c>
+      <c r="I208" s="262">
         <v>0.5</v>
       </c>
-      <c r="J208" s="173" t="s">
+      <c r="J208" s="177" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="209" spans="2:11" ht="1.5" customHeight="1">
-      <c r="B209" s="179"/>
-      <c r="C209" s="174"/>
-      <c r="D209" s="174"/>
-      <c r="E209" s="174"/>
-      <c r="F209" s="179"/>
-      <c r="G209" s="317"/>
-      <c r="H209" s="319"/>
-      <c r="I209" s="260"/>
-      <c r="J209" s="174"/>
+      <c r="B209" s="183"/>
+      <c r="C209" s="178"/>
+      <c r="D209" s="178"/>
+      <c r="E209" s="178"/>
+      <c r="F209" s="183"/>
+      <c r="G209" s="326"/>
+      <c r="H209" s="328"/>
+      <c r="I209" s="264"/>
+      <c r="J209" s="178"/>
     </row>
     <row r="210" spans="2:11" ht="39.75" customHeight="1">
-      <c r="B210" s="178" t="s">
+      <c r="B210" s="182" t="s">
         <v>180</v>
       </c>
-      <c r="C210" s="173" t="s">
-        <v>580</v>
-      </c>
-      <c r="D210" s="173" t="s">
+      <c r="C210" s="177" t="s">
+        <v>576</v>
+      </c>
+      <c r="D210" s="177" t="s">
         <v>200</v>
       </c>
-      <c r="E210" s="173" t="s">
+      <c r="E210" s="177" t="s">
         <v>551</v>
       </c>
-      <c r="F210" s="176"/>
+      <c r="F210" s="180"/>
       <c r="G210" s="52" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="H210" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="I210" s="258">
+      <c r="I210" s="262">
         <v>0</v>
       </c>
-      <c r="J210" s="173" t="s">
-        <v>581</v>
+      <c r="J210" s="177" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="211" spans="2:11" ht="39.75" customHeight="1">
-      <c r="B211" s="179"/>
-      <c r="C211" s="174"/>
-      <c r="D211" s="174"/>
-      <c r="E211" s="174"/>
-      <c r="F211" s="177"/>
+      <c r="B211" s="183"/>
+      <c r="C211" s="178"/>
+      <c r="D211" s="178"/>
+      <c r="E211" s="178"/>
+      <c r="F211" s="181"/>
       <c r="G211" s="36" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H211" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="I211" s="260"/>
-      <c r="J211" s="174"/>
+        <v>575</v>
+      </c>
+      <c r="I211" s="264"/>
+      <c r="J211" s="178"/>
     </row>
     <row r="212" spans="2:11" ht="30" customHeight="1">
-      <c r="B212" s="178" t="s">
+      <c r="B212" s="182" t="s">
         <v>181</v>
       </c>
-      <c r="C212" s="173" t="s">
-        <v>570</v>
-      </c>
-      <c r="D212" s="173" t="s">
+      <c r="C212" s="177" t="s">
+        <v>569</v>
+      </c>
+      <c r="D212" s="177" t="s">
         <v>202</v>
       </c>
-      <c r="E212" s="173" t="s">
+      <c r="E212" s="177" t="s">
         <v>296</v>
       </c>
-      <c r="F212" s="173" t="s">
+      <c r="F212" s="177" t="s">
         <v>551</v>
       </c>
-      <c r="G212" s="320" t="s">
-        <v>773</v>
-      </c>
-      <c r="H212" s="178" t="s">
-        <v>774</v>
-      </c>
-      <c r="I212" s="292" t="s">
-        <v>775</v>
-      </c>
-      <c r="J212" s="173" t="s">
-        <v>643</v>
+      <c r="G212" s="329" t="s">
+        <v>751</v>
+      </c>
+      <c r="H212" s="182" t="s">
+        <v>752</v>
+      </c>
+      <c r="I212" s="296" t="s">
+        <v>753</v>
+      </c>
+      <c r="J212" s="177" t="s">
+        <v>638</v>
       </c>
       <c r="K212" s="77"/>
     </row>
     <row r="213" spans="2:11">
-      <c r="B213" s="179"/>
-      <c r="C213" s="174"/>
-      <c r="D213" s="174"/>
-      <c r="E213" s="174"/>
-      <c r="F213" s="174"/>
-      <c r="G213" s="321"/>
-      <c r="H213" s="179"/>
-      <c r="I213" s="294"/>
-      <c r="J213" s="174"/>
+      <c r="B213" s="183"/>
+      <c r="C213" s="178"/>
+      <c r="D213" s="178"/>
+      <c r="E213" s="178"/>
+      <c r="F213" s="178"/>
+      <c r="G213" s="330"/>
+      <c r="H213" s="183"/>
+      <c r="I213" s="298"/>
+      <c r="J213" s="178"/>
       <c r="K213" s="128"/>
     </row>
-    <row r="214" spans="2:11" ht="135">
+    <row r="214" spans="2:11" ht="120">
       <c r="B214" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C214" s="36" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D214" s="36" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E214" s="36" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F214" s="36" t="s">
         <v>299</v>
       </c>
       <c r="G214" s="52" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="H214" s="79" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="I214" s="120">
         <v>1</v>
       </c>
       <c r="J214" s="45" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="215" spans="2:11" ht="157.5" customHeight="1">
-      <c r="B215" s="178" t="s">
+      <c r="B215" s="182" t="s">
         <v>183</v>
       </c>
-      <c r="C215" s="173" t="s">
+      <c r="C215" s="177" t="s">
+        <v>640</v>
+      </c>
+      <c r="D215" s="177" t="s">
+        <v>641</v>
+      </c>
+      <c r="E215" s="177" t="s">
+        <v>298</v>
+      </c>
+      <c r="F215" s="177" t="s">
         <v>645</v>
       </c>
-      <c r="D215" s="173" t="s">
+      <c r="G215" s="299" t="s">
         <v>646</v>
       </c>
-      <c r="E215" s="173" t="s">
+      <c r="H215" s="300" t="s">
+        <v>647</v>
+      </c>
+      <c r="I215" s="292">
+        <v>0.52</v>
+      </c>
+      <c r="J215" s="301" t="s">
+        <v>648</v>
+      </c>
+      <c r="K215" s="322"/>
+    </row>
+    <row r="216" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B216" s="295"/>
+      <c r="C216" s="291"/>
+      <c r="D216" s="291"/>
+      <c r="E216" s="291"/>
+      <c r="F216" s="291"/>
+      <c r="G216" s="299"/>
+      <c r="H216" s="300"/>
+      <c r="I216" s="293"/>
+      <c r="J216" s="291"/>
+      <c r="K216" s="323"/>
+    </row>
+    <row r="217" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B217" s="183"/>
+      <c r="C217" s="178"/>
+      <c r="D217" s="178"/>
+      <c r="E217" s="178"/>
+      <c r="F217" s="178"/>
+      <c r="G217" s="299"/>
+      <c r="H217" s="300"/>
+      <c r="I217" s="294"/>
+      <c r="J217" s="178"/>
+      <c r="K217" s="324"/>
+    </row>
+    <row r="218" spans="2:11" ht="30">
+      <c r="B218" s="182" t="s">
+        <v>184</v>
+      </c>
+      <c r="C218" s="177" t="s">
+        <v>640</v>
+      </c>
+      <c r="D218" s="177" t="s">
+        <v>641</v>
+      </c>
+      <c r="E218" s="177" t="s">
         <v>298</v>
       </c>
-      <c r="F215" s="173" t="s">
+      <c r="F218" s="177" t="s">
+        <v>645</v>
+      </c>
+      <c r="G218" s="52" t="s">
+        <v>649</v>
+      </c>
+      <c r="H218" s="36" t="s">
+        <v>647</v>
+      </c>
+      <c r="I218" s="296" t="s">
+        <v>639</v>
+      </c>
+      <c r="J218" s="177" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" ht="30">
+      <c r="B219" s="295"/>
+      <c r="C219" s="291"/>
+      <c r="D219" s="291"/>
+      <c r="E219" s="291"/>
+      <c r="F219" s="291"/>
+      <c r="G219" s="69" t="s">
         <v>650</v>
       </c>
-      <c r="G215" s="295" t="s">
+      <c r="H219" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="H215" s="296" t="s">
+      <c r="I219" s="297"/>
+      <c r="J219" s="291"/>
+    </row>
+    <row r="220" spans="2:11" ht="45">
+      <c r="B220" s="295"/>
+      <c r="C220" s="291"/>
+      <c r="D220" s="291"/>
+      <c r="E220" s="291"/>
+      <c r="F220" s="291"/>
+      <c r="G220" s="69" t="s">
+        <v>654</v>
+      </c>
+      <c r="H220" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="I215" s="288">
-        <v>0.52</v>
-      </c>
-      <c r="J215" s="297" t="s">
+      <c r="I220" s="297"/>
+      <c r="J220" s="291"/>
+    </row>
+    <row r="221" spans="2:11" ht="30">
+      <c r="B221" s="295"/>
+      <c r="C221" s="291"/>
+      <c r="D221" s="291"/>
+      <c r="E221" s="291"/>
+      <c r="F221" s="291"/>
+      <c r="G221" s="69" t="s">
+        <v>755</v>
+      </c>
+      <c r="H221" s="155" t="s">
+        <v>756</v>
+      </c>
+      <c r="I221" s="297"/>
+      <c r="J221" s="291"/>
+    </row>
+    <row r="222" spans="2:11" ht="30">
+      <c r="B222" s="183"/>
+      <c r="C222" s="178"/>
+      <c r="D222" s="178"/>
+      <c r="E222" s="178"/>
+      <c r="F222" s="178"/>
+      <c r="G222" s="69" t="s">
+        <v>655</v>
+      </c>
+      <c r="H222" s="78" t="s">
         <v>653</v>
       </c>
-      <c r="K215" s="313"/>
-    </row>
-    <row r="216" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B216" s="291"/>
-      <c r="C216" s="287"/>
-      <c r="D216" s="287"/>
-      <c r="E216" s="287"/>
-      <c r="F216" s="287"/>
-      <c r="G216" s="295"/>
-      <c r="H216" s="296"/>
-      <c r="I216" s="289"/>
-      <c r="J216" s="287"/>
-      <c r="K216" s="314"/>
-    </row>
-    <row r="217" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B217" s="179"/>
-      <c r="C217" s="174"/>
-      <c r="D217" s="174"/>
-      <c r="E217" s="174"/>
-      <c r="F217" s="174"/>
-      <c r="G217" s="295"/>
-      <c r="H217" s="296"/>
-      <c r="I217" s="290"/>
-      <c r="J217" s="174"/>
-      <c r="K217" s="315"/>
-    </row>
-    <row r="218" spans="2:11" ht="30">
-      <c r="B218" s="178" t="s">
-        <v>184</v>
-      </c>
-      <c r="C218" s="173" t="s">
-        <v>645</v>
-      </c>
-      <c r="D218" s="173" t="s">
-        <v>646</v>
-      </c>
-      <c r="E218" s="173" t="s">
-        <v>298</v>
-      </c>
-      <c r="F218" s="173" t="s">
-        <v>650</v>
-      </c>
-      <c r="G218" s="52" t="s">
-        <v>654</v>
-      </c>
-      <c r="H218" s="36" t="s">
-        <v>652</v>
-      </c>
-      <c r="I218" s="292" t="s">
-        <v>644</v>
-      </c>
-      <c r="J218" s="173" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="219" spans="2:11" ht="30">
-      <c r="B219" s="291"/>
-      <c r="C219" s="287"/>
-      <c r="D219" s="287"/>
-      <c r="E219" s="287"/>
-      <c r="F219" s="287"/>
-      <c r="G219" s="69" t="s">
-        <v>655</v>
-      </c>
-      <c r="H219" s="36" t="s">
-        <v>656</v>
-      </c>
-      <c r="I219" s="293"/>
-      <c r="J219" s="287"/>
-    </row>
-    <row r="220" spans="2:11" ht="45">
-      <c r="B220" s="291"/>
-      <c r="C220" s="287"/>
-      <c r="D220" s="287"/>
-      <c r="E220" s="287"/>
-      <c r="F220" s="287"/>
-      <c r="G220" s="69" t="s">
-        <v>659</v>
-      </c>
-      <c r="H220" s="36" t="s">
-        <v>657</v>
-      </c>
-      <c r="I220" s="293"/>
-      <c r="J220" s="287"/>
-    </row>
-    <row r="221" spans="2:11" ht="30">
-      <c r="B221" s="291"/>
-      <c r="C221" s="287"/>
-      <c r="D221" s="287"/>
-      <c r="E221" s="287"/>
-      <c r="F221" s="287"/>
-      <c r="G221" s="69" t="s">
-        <v>777</v>
-      </c>
-      <c r="H221" s="155" t="s">
-        <v>778</v>
-      </c>
-      <c r="I221" s="293"/>
-      <c r="J221" s="287"/>
-    </row>
-    <row r="222" spans="2:11" ht="45">
-      <c r="B222" s="179"/>
-      <c r="C222" s="174"/>
-      <c r="D222" s="174"/>
-      <c r="E222" s="174"/>
-      <c r="F222" s="174"/>
-      <c r="G222" s="69" t="s">
-        <v>660</v>
-      </c>
-      <c r="H222" s="78" t="s">
-        <v>658</v>
-      </c>
-      <c r="I222" s="294"/>
-      <c r="J222" s="174"/>
+      <c r="I222" s="298"/>
+      <c r="J222" s="178"/>
     </row>
     <row r="225" spans="2:4">
       <c r="B225" s="24"/>
@@ -18875,7 +18985,7 @@
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -19024,7 +19134,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75">
-      <c r="B3" s="325" t="s">
+      <c r="B3" s="334" t="s">
         <v>305</v>
       </c>
       <c r="C3" s="81" t="s">
@@ -19038,7 +19148,7 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="B4" s="325"/>
+      <c r="B4" s="334"/>
       <c r="C4" s="45" t="s">
         <v>308</v>
       </c>
@@ -19047,7 +19157,7 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="B5" s="325"/>
+      <c r="B5" s="334"/>
       <c r="C5" s="81" t="s">
         <v>309</v>
       </c>
@@ -19068,7 +19178,7 @@
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="B6" s="325"/>
+      <c r="B6" s="334"/>
       <c r="C6" s="37" t="s">
         <v>314</v>
       </c>
@@ -19093,7 +19203,7 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="B7" s="325"/>
+      <c r="B7" s="334"/>
       <c r="C7" s="88" t="s">
         <v>319</v>
       </c>
@@ -19109,7 +19219,7 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="325"/>
+      <c r="B8" s="334"/>
       <c r="C8" s="45" t="s">
         <v>322</v>
       </c>
@@ -19118,7 +19228,7 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="B9" s="325"/>
+      <c r="B9" s="334"/>
       <c r="C9" s="81" t="s">
         <v>323</v>
       </c>
@@ -19167,10 +19277,10 @@
       <c r="F12" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="G12" s="195" t="s">
+      <c r="G12" s="199" t="s">
         <v>328</v>
       </c>
-      <c r="H12" s="195"/>
+      <c r="H12" s="199"/>
       <c r="I12" s="25">
         <f>0.92*K10</f>
         <v>55.2</v>
@@ -19225,10 +19335,10 @@
       <c r="F17" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="G17" s="195" t="s">
+      <c r="G17" s="199" t="s">
         <v>334</v>
       </c>
-      <c r="H17" s="195"/>
+      <c r="H17" s="199"/>
       <c r="I17" s="25">
         <f>I12-I15</f>
         <v>46.2</v>
@@ -19478,10 +19588,10 @@
       <c r="H58" s="85" t="s">
         <v>375</v>
       </c>
-      <c r="I58" s="195" t="s">
+      <c r="I58" s="199" t="s">
         <v>376</v>
       </c>
-      <c r="J58" s="195"/>
+      <c r="J58" s="199"/>
       <c r="K58" s="25">
         <f>37+E58</f>
         <v>46</v>
@@ -19499,19 +19609,19 @@
       <c r="H61" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="I61" s="195" t="s">
+      <c r="I61" s="199" t="s">
         <v>378</v>
       </c>
-      <c r="J61" s="195"/>
+      <c r="J61" s="199"/>
     </row>
     <row r="62" spans="2:12">
       <c r="H62" s="85" t="s">
         <v>379</v>
       </c>
-      <c r="I62" s="195" t="s">
+      <c r="I62" s="199" t="s">
         <v>380</v>
       </c>
-      <c r="J62" s="195"/>
+      <c r="J62" s="199"/>
       <c r="K62" s="25">
         <f>K58/0.92</f>
         <v>50</v>
@@ -19660,10 +19770,10 @@
       <c r="Q82" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="R82" s="195" t="s">
+      <c r="R82" s="199" t="s">
         <v>402</v>
       </c>
-      <c r="S82" s="195"/>
+      <c r="S82" s="199"/>
       <c r="T82" s="87">
         <f>1-S74-S78</f>
         <v>0.73677419354838702</v>
@@ -19699,10 +19809,10 @@
       <c r="Q86" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="R86" s="195" t="s">
+      <c r="R86" s="199" t="s">
         <v>406</v>
       </c>
-      <c r="S86" s="195"/>
+      <c r="S86" s="199"/>
       <c r="T86" s="97">
         <f>T82*E35</f>
         <v>1915.6129032258063</v>
@@ -19731,7 +19841,7 @@
     <row r="88" spans="1:26">
       <c r="S88" s="25"/>
       <c r="V88" s="98"/>
-      <c r="W88" s="322" t="s">
+      <c r="W88" s="331" t="s">
         <v>305</v>
       </c>
       <c r="X88" s="99" t="s">
@@ -19747,7 +19857,7 @@
       </c>
       <c r="S89" s="25"/>
       <c r="V89" s="98"/>
-      <c r="W89" s="323"/>
+      <c r="W89" s="332"/>
       <c r="X89" s="45" t="s">
         <v>411</v>
       </c>
@@ -19763,7 +19873,7 @@
         <v>413</v>
       </c>
       <c r="V90" s="98"/>
-      <c r="W90" s="324"/>
+      <c r="W90" s="333"/>
       <c r="X90" s="102" t="s">
         <v>322</v>
       </c>
@@ -19775,10 +19885,10 @@
       <c r="Q91" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="R91" s="195" t="s">
+      <c r="R91" s="199" t="s">
         <v>414</v>
       </c>
-      <c r="S91" s="195"/>
+      <c r="S91" s="199"/>
       <c r="T91" s="25">
         <f>E53+S70+T87</f>
         <v>2400</v>

--- a/data/CFF Paper Data V10_Clean_SO.xlsx
+++ b/data/CFF Paper Data V10_Clean_SO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ostojic\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F7F65-DD94-4888-A938-6A549F995A97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CEA79D-F4BE-4F9D-A811-F466DCD6E035}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" tabRatio="697" activeTab="2" xr2:uid="{3204C202-7188-45B5-A184-A3CC4EC46C55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="836">
   <si>
     <t xml:space="preserve">Circular Footprint Formula </t>
   </si>
@@ -3024,21 +3024,6 @@
     <t>Allows for variability in recyclability quality, avoiding extreme values but ensuring realistic uncertainty (recycling quality varies widely (0,29 to 0,8), depending on recycling efficiency;  Annex C identified (for only PP packaging material) a value 0,1</t>
   </si>
   <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>erec</t>
-  </si>
-  <si>
-    <t>erec_eol</t>
-  </si>
-  <si>
-    <t>ev_star</t>
-  </si>
-  <si>
-    <t>ev</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -3262,6 +3247,129 @@
   </si>
   <si>
     <t>industrial_CCB_allocated</t>
+  </si>
+  <si>
+    <t>erec_GWP</t>
+  </si>
+  <si>
+    <t>erec_eol_GWP</t>
+  </si>
+  <si>
+    <t>ed_GWP</t>
+  </si>
+  <si>
+    <t>ev_GWP</t>
+  </si>
+  <si>
+    <t>ev_star_GWP</t>
+  </si>
+  <si>
+    <t>erec_eol_ADP_elements</t>
+  </si>
+  <si>
+    <t>erec_ADP_elements</t>
+  </si>
+  <si>
+    <t>ev_ADP_elements</t>
+  </si>
+  <si>
+    <t>ev_star_ADP_elements</t>
+  </si>
+  <si>
+    <t>erec_ADP_fossil</t>
+  </si>
+  <si>
+    <t>erec_eol_ADP_fossil</t>
+  </si>
+  <si>
+    <t>ev_ADP_fossil</t>
+  </si>
+  <si>
+    <t>ev_star_ADP_fossil</t>
+  </si>
+  <si>
+    <t>erec_AP</t>
+  </si>
+  <si>
+    <t>erec_eol_AP</t>
+  </si>
+  <si>
+    <t>ed_AP</t>
+  </si>
+  <si>
+    <t>ev_AP</t>
+  </si>
+  <si>
+    <t>ev_star_AP</t>
+  </si>
+  <si>
+    <t>ed_ADP_fossil</t>
+  </si>
+  <si>
+    <t>ed_ADP_elements</t>
+  </si>
+  <si>
+    <t>erec_EP</t>
+  </si>
+  <si>
+    <t>erec_eol_EP</t>
+  </si>
+  <si>
+    <t>ed_EP</t>
+  </si>
+  <si>
+    <t>ev_EP</t>
+  </si>
+  <si>
+    <t>ev_star_EP</t>
+  </si>
+  <si>
+    <t>erec_HTP</t>
+  </si>
+  <si>
+    <t>erec_eol_HTP</t>
+  </si>
+  <si>
+    <t>ed_HTP</t>
+  </si>
+  <si>
+    <t>ev_HTP</t>
+  </si>
+  <si>
+    <t>ev_star_HTP</t>
+  </si>
+  <si>
+    <t>erec_ODP</t>
+  </si>
+  <si>
+    <t>erec_eol_ODP</t>
+  </si>
+  <si>
+    <t>ed_ODP</t>
+  </si>
+  <si>
+    <t>ev_ODP</t>
+  </si>
+  <si>
+    <t>ev_star_ODP</t>
+  </si>
+  <si>
+    <t>erec_POCP</t>
+  </si>
+  <si>
+    <t>erec_eol_POCP</t>
+  </si>
+  <si>
+    <t>ed_POCP</t>
+  </si>
+  <si>
+    <t>ev_POCP</t>
+  </si>
+  <si>
+    <t>ev_star_POCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact Category </t>
   </si>
 </sst>
 </file>
@@ -3492,7 +3600,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3555,6 +3663,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4588,7 +4714,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4980,6 +5106,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="18" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5058,6 +5191,9 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5292,6 +5428,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5501,12 +5643,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7279,14 +7415,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
     </row>
     <row r="4" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:22" ht="18.75">
@@ -7298,10 +7434,10 @@
       </c>
       <c r="P5" s="7"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="162" t="s">
+      <c r="S5" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="163"/>
+      <c r="T5" s="168"/>
       <c r="U5" s="20" t="s">
         <v>3</v>
       </c>
@@ -7313,10 +7449,10 @@
       </c>
       <c r="P6" s="8"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="164" t="s">
+      <c r="S6" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="165"/>
+      <c r="T6" s="170"/>
       <c r="U6" s="18" t="s">
         <v>5</v>
       </c>
@@ -7407,15 +7543,15 @@
       <c r="N17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="166" t="s">
+      <c r="O17" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="166"/>
-      <c r="S17" s="166"/>
-      <c r="T17" s="166"/>
-      <c r="U17" s="166"/>
+      <c r="P17" s="171"/>
+      <c r="Q17" s="171"/>
+      <c r="R17" s="171"/>
+      <c r="S17" s="171"/>
+      <c r="T17" s="171"/>
+      <c r="U17" s="171"/>
     </row>
     <row r="18" spans="14:21">
       <c r="P18" s="10" t="e">
@@ -7474,8 +7610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1BA79A-6A5D-47BC-924A-434DAD144CA9}">
   <dimension ref="A1:M192"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A149" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -7499,12 +7635,12 @@
       <c r="A4" s="132" t="s">
         <v>582</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="176" t="s">
         <v>583</v>
       </c>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="173"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="178"/>
       <c r="F4" s="131"/>
       <c r="G4" s="131"/>
       <c r="H4" s="131"/>
@@ -7519,12 +7655,12 @@
       <c r="A6" s="133">
         <v>0.95</v>
       </c>
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="189" t="s">
         <v>586</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="186"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="191"/>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="115" t="s">
@@ -7713,12 +7849,12 @@
       <c r="A21" s="133">
         <v>0.05</v>
       </c>
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="189" t="s">
         <v>587</v>
       </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="186"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="190"/>
+      <c r="E21" s="191"/>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="115" t="s">
@@ -7904,12 +8040,12 @@
     </row>
     <row r="36" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="37" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="179" t="s">
         <v>584</v>
       </c>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="176"/>
+      <c r="C37" s="180"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="181"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="73" t="s">
@@ -7926,10 +8062,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="60">
-      <c r="B39" s="167" t="s">
+      <c r="B39" s="172" t="s">
         <v>605</v>
       </c>
-      <c r="C39" s="169">
+      <c r="C39" s="174">
         <v>0.2</v>
       </c>
       <c r="D39" s="34" t="s">
@@ -7940,8 +8076,8 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="15" hidden="1" customHeight="1">
-      <c r="B40" s="168"/>
-      <c r="C40" s="170"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="175"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
@@ -8017,12 +8153,12 @@
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="47" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B47" s="174" t="s">
+      <c r="B47" s="179" t="s">
         <v>585</v>
       </c>
-      <c r="C47" s="175"/>
-      <c r="D47" s="175"/>
-      <c r="E47" s="176"/>
+      <c r="C47" s="180"/>
+      <c r="D47" s="180"/>
+      <c r="E47" s="181"/>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="73" t="s">
@@ -8039,24 +8175,24 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="B49" s="167" t="s">
+      <c r="B49" s="172" t="s">
         <v>605</v>
       </c>
-      <c r="C49" s="169">
+      <c r="C49" s="174">
         <v>0.2</v>
       </c>
-      <c r="D49" s="180" t="s">
+      <c r="D49" s="185" t="s">
         <v>617</v>
       </c>
-      <c r="E49" s="182" t="s">
+      <c r="E49" s="187" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="4.5" customHeight="1">
-      <c r="B50" s="168"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="181"/>
-      <c r="E50" s="183"/>
+      <c r="B50" s="173"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="186"/>
+      <c r="E50" s="188"/>
     </row>
     <row r="51" spans="1:5" ht="30">
       <c r="B51" s="34" t="s">
@@ -8133,24 +8269,24 @@
       <c r="A58" s="132" t="s">
         <v>582</v>
       </c>
-      <c r="B58" s="171" t="s">
+      <c r="B58" s="176" t="s">
         <v>432</v>
       </c>
-      <c r="C58" s="172"/>
-      <c r="D58" s="172"/>
-      <c r="E58" s="173"/>
+      <c r="C58" s="177"/>
+      <c r="D58" s="177"/>
+      <c r="E58" s="178"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="61" spans="1:5" ht="15.75" thickBot="1">
       <c r="A61" s="133">
         <v>0.54</v>
       </c>
-      <c r="B61" s="184" t="s">
+      <c r="B61" s="189" t="s">
         <v>586</v>
       </c>
-      <c r="C61" s="185"/>
-      <c r="D61" s="185"/>
-      <c r="E61" s="186"/>
+      <c r="C61" s="190"/>
+      <c r="D61" s="190"/>
+      <c r="E61" s="191"/>
     </row>
     <row r="62" spans="1:5">
       <c r="B62" s="1" t="s">
@@ -8339,12 +8475,12 @@
       <c r="A76" s="135">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="B76" s="184" t="s">
+      <c r="B76" s="189" t="s">
         <v>587</v>
       </c>
-      <c r="C76" s="185"/>
-      <c r="D76" s="185"/>
-      <c r="E76" s="186"/>
+      <c r="C76" s="190"/>
+      <c r="D76" s="190"/>
+      <c r="E76" s="191"/>
     </row>
     <row r="77" spans="1:5">
       <c r="B77" s="1" t="s">
@@ -8533,13 +8669,13 @@
       <c r="A91" s="135">
         <v>0.41499999999999998</v>
       </c>
-      <c r="B91" s="174" t="s">
+      <c r="B91" s="179" t="s">
         <v>588</v>
       </c>
-      <c r="C91" s="175"/>
-      <c r="D91" s="175"/>
-      <c r="E91" s="175"/>
-      <c r="F91" s="179"/>
+      <c r="C91" s="180"/>
+      <c r="D91" s="180"/>
+      <c r="E91" s="180"/>
+      <c r="F91" s="184"/>
     </row>
     <row r="92" spans="1:6">
       <c r="B92" s="115" t="s">
@@ -8764,12 +8900,12 @@
     </row>
     <row r="106" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="107" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B107" s="174" t="s">
+      <c r="B107" s="179" t="s">
         <v>584</v>
       </c>
-      <c r="C107" s="175"/>
-      <c r="D107" s="175"/>
-      <c r="E107" s="176"/>
+      <c r="C107" s="180"/>
+      <c r="D107" s="180"/>
+      <c r="E107" s="181"/>
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="73" t="s">
@@ -8786,10 +8922,10 @@
       </c>
     </row>
     <row r="109" spans="2:6" ht="60">
-      <c r="B109" s="167" t="s">
+      <c r="B109" s="172" t="s">
         <v>605</v>
       </c>
-      <c r="C109" s="169">
+      <c r="C109" s="174">
         <v>0.2</v>
       </c>
       <c r="D109" s="34" t="s">
@@ -8800,8 +8936,8 @@
       </c>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="168"/>
-      <c r="C110" s="170"/>
+      <c r="B110" s="173"/>
+      <c r="C110" s="175"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
@@ -8852,10 +8988,10 @@
         <v>603</v>
       </c>
       <c r="C114" s="158" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D114" s="138" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E114" s="34" t="s">
         <v>619</v>
@@ -8866,10 +9002,10 @@
         <v>604</v>
       </c>
       <c r="C115" s="158" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D115" s="138" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E115" s="34" t="s">
         <v>696</v>
@@ -8877,12 +9013,12 @@
     </row>
     <row r="116" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="117" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B117" s="174" t="s">
+      <c r="B117" s="179" t="s">
         <v>585</v>
       </c>
-      <c r="C117" s="175"/>
-      <c r="D117" s="175"/>
-      <c r="E117" s="176"/>
+      <c r="C117" s="180"/>
+      <c r="D117" s="180"/>
+      <c r="E117" s="181"/>
     </row>
     <row r="118" spans="2:5">
       <c r="B118" s="73" t="s">
@@ -8899,24 +9035,24 @@
       </c>
     </row>
     <row r="119" spans="2:5">
-      <c r="B119" s="167" t="s">
+      <c r="B119" s="172" t="s">
         <v>605</v>
       </c>
-      <c r="C119" s="169">
+      <c r="C119" s="174">
         <v>0.2</v>
       </c>
-      <c r="D119" s="180" t="s">
+      <c r="D119" s="185" t="s">
         <v>617</v>
       </c>
-      <c r="E119" s="182" t="s">
+      <c r="E119" s="187" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="120" spans="2:5">
-      <c r="B120" s="168"/>
-      <c r="C120" s="170"/>
-      <c r="D120" s="181"/>
-      <c r="E120" s="183"/>
+      <c r="B120" s="173"/>
+      <c r="C120" s="175"/>
+      <c r="D120" s="186"/>
+      <c r="E120" s="188"/>
     </row>
     <row r="121" spans="2:5" ht="30">
       <c r="B121" s="34" t="s">
@@ -8937,10 +9073,10 @@
         <v>601</v>
       </c>
       <c r="C122" s="158" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D122" s="37" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E122" s="36" t="s">
         <v>707</v>
@@ -8965,10 +9101,10 @@
         <v>603</v>
       </c>
       <c r="C124" s="158" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>625</v>
@@ -8979,10 +9115,10 @@
         <v>604</v>
       </c>
       <c r="C125" s="158" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>625</v>
@@ -8990,12 +9126,12 @@
     </row>
     <row r="126" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="127" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B127" s="174" t="s">
+      <c r="B127" s="179" t="s">
         <v>589</v>
       </c>
-      <c r="C127" s="175"/>
-      <c r="D127" s="175"/>
-      <c r="E127" s="176"/>
+      <c r="C127" s="180"/>
+      <c r="D127" s="180"/>
+      <c r="E127" s="181"/>
     </row>
     <row r="128" spans="2:5">
       <c r="B128" s="73" t="s">
@@ -9012,24 +9148,24 @@
       </c>
     </row>
     <row r="129" spans="2:5">
-      <c r="B129" s="167" t="s">
+      <c r="B129" s="172" t="s">
         <v>605</v>
       </c>
-      <c r="C129" s="169" t="s">
+      <c r="C129" s="174" t="s">
         <v>556</v>
       </c>
-      <c r="D129" s="177" t="s">
+      <c r="D129" s="182" t="s">
         <v>627</v>
       </c>
-      <c r="E129" s="177" t="s">
+      <c r="E129" s="182" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="41.25" customHeight="1">
-      <c r="B130" s="168"/>
-      <c r="C130" s="170"/>
-      <c r="D130" s="178"/>
-      <c r="E130" s="178"/>
+      <c r="B130" s="173"/>
+      <c r="C130" s="175"/>
+      <c r="D130" s="183"/>
+      <c r="E130" s="183"/>
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="34" t="s">
@@ -9081,7 +9217,7 @@
         <v>714</v>
       </c>
       <c r="D134" s="36" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E134" s="36" t="s">
         <v>716</v>
@@ -9109,21 +9245,21 @@
     </row>
     <row r="139" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="140" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B140" s="171" t="s">
+      <c r="B140" s="176" t="s">
         <v>300</v>
       </c>
-      <c r="C140" s="172"/>
-      <c r="D140" s="172"/>
-      <c r="E140" s="173"/>
+      <c r="C140" s="177"/>
+      <c r="D140" s="177"/>
+      <c r="E140" s="178"/>
     </row>
     <row r="141" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="142" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B142" s="171" t="s">
+      <c r="B142" s="176" t="s">
         <v>591</v>
       </c>
-      <c r="C142" s="172"/>
-      <c r="D142" s="172"/>
-      <c r="E142" s="173"/>
+      <c r="C142" s="177"/>
+      <c r="D142" s="177"/>
+      <c r="E142" s="178"/>
     </row>
     <row r="143" spans="2:5">
       <c r="B143" s="1" t="s">
@@ -9140,58 +9276,58 @@
       </c>
     </row>
     <row r="144" spans="2:5">
-      <c r="B144" s="36" t="s">
+      <c r="B144" s="161" t="s">
         <v>163</v>
       </c>
-      <c r="C144" s="44">
+      <c r="C144" s="162">
         <v>9.2199999999999998E-6</v>
       </c>
-      <c r="D144" s="57">
+      <c r="D144" s="163">
         <v>3.8800000000000001E-6</v>
       </c>
-      <c r="E144" s="44">
+      <c r="E144" s="162">
         <v>4.4900000000000002E-4</v>
       </c>
     </row>
     <row r="145" spans="2:5">
-      <c r="B145" s="36" t="s">
+      <c r="B145" s="161" t="s">
         <v>164</v>
       </c>
-      <c r="C145" s="44">
+      <c r="C145" s="162">
         <v>1030</v>
       </c>
-      <c r="D145" s="57">
+      <c r="D145" s="163">
         <v>137</v>
       </c>
-      <c r="E145" s="44">
+      <c r="E145" s="162">
         <v>1140</v>
       </c>
     </row>
     <row r="146" spans="2:5">
-      <c r="B146" s="36" t="s">
+      <c r="B146" s="161" t="s">
         <v>165</v>
       </c>
-      <c r="C146" s="44">
+      <c r="C146" s="162">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="D146" s="57">
+      <c r="D146" s="163">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="E146" s="44">
+      <c r="E146" s="162">
         <v>0.108</v>
       </c>
     </row>
     <row r="147" spans="2:5">
-      <c r="B147" s="36" t="s">
+      <c r="B147" s="161" t="s">
         <v>166</v>
       </c>
-      <c r="C147" s="44">
+      <c r="C147" s="162">
         <v>6.2300000000000003E-3</v>
       </c>
-      <c r="D147" s="57">
+      <c r="D147" s="163">
         <v>6.8500000000000002E-3</v>
       </c>
-      <c r="E147" s="44">
+      <c r="E147" s="162">
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
@@ -9238,16 +9374,16 @@
       </c>
     </row>
     <row r="151" spans="2:5">
-      <c r="B151" s="36" t="s">
+      <c r="B151" s="161" t="s">
         <v>170</v>
       </c>
-      <c r="C151" s="44">
+      <c r="C151" s="162">
         <v>1.32</v>
       </c>
-      <c r="D151" s="57">
+      <c r="D151" s="163">
         <v>0.52600000000000002</v>
       </c>
-      <c r="E151" s="44">
+      <c r="E151" s="162">
         <v>4.6100000000000003</v>
       </c>
     </row>
@@ -9266,30 +9402,30 @@
       </c>
     </row>
     <row r="153" spans="2:5">
-      <c r="B153" s="36" t="s">
+      <c r="B153" s="161" t="s">
         <v>172</v>
       </c>
-      <c r="C153" s="44">
+      <c r="C153" s="162">
         <v>6.2800000000000005E-11</v>
       </c>
-      <c r="D153" s="57">
+      <c r="D153" s="163">
         <v>3.0099999999999998E-11</v>
       </c>
-      <c r="E153" s="44">
+      <c r="E153" s="162">
         <v>5.2700000000000004E-10</v>
       </c>
     </row>
     <row r="154" spans="2:5">
-      <c r="B154" s="36" t="s">
+      <c r="B154" s="161" t="s">
         <v>173</v>
       </c>
-      <c r="C154" s="44">
+      <c r="C154" s="162">
         <v>5.4900000000000001E-3</v>
       </c>
-      <c r="D154" s="57">
+      <c r="D154" s="163">
         <v>4.7699999999999999E-3</v>
       </c>
-      <c r="E154" s="44">
+      <c r="E154" s="162">
         <v>9.3100000000000006E-3</v>
       </c>
     </row>
@@ -9309,12 +9445,12 @@
     </row>
     <row r="156" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="157" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B157" s="174" t="s">
+      <c r="B157" s="179" t="s">
         <v>592</v>
       </c>
-      <c r="C157" s="175"/>
-      <c r="D157" s="175"/>
-      <c r="E157" s="176"/>
+      <c r="C157" s="180"/>
+      <c r="D157" s="180"/>
+      <c r="E157" s="181"/>
     </row>
     <row r="158" spans="2:5">
       <c r="B158" s="73" t="s">
@@ -9331,24 +9467,24 @@
       </c>
     </row>
     <row r="159" spans="2:5" ht="45" customHeight="1">
-      <c r="B159" s="167" t="s">
+      <c r="B159" s="172" t="s">
         <v>605</v>
       </c>
-      <c r="C159" s="169">
+      <c r="C159" s="174">
         <v>0.5</v>
       </c>
-      <c r="D159" s="177" t="s">
+      <c r="D159" s="182" t="s">
         <v>599</v>
       </c>
-      <c r="E159" s="177" t="s">
+      <c r="E159" s="182" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="160" spans="2:5">
-      <c r="B160" s="168"/>
-      <c r="C160" s="170"/>
-      <c r="D160" s="178"/>
-      <c r="E160" s="178"/>
+      <c r="B160" s="173"/>
+      <c r="C160" s="175"/>
+      <c r="D160" s="183"/>
+      <c r="E160" s="183"/>
     </row>
     <row r="161" spans="2:6" ht="30">
       <c r="B161" s="34" t="s">
@@ -9369,10 +9505,10 @@
         <v>601</v>
       </c>
       <c r="C162" s="158" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D162" s="34" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E162" s="36" t="s">
         <v>606</v>
@@ -9423,22 +9559,22 @@
     </row>
     <row r="166" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="167" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B167" s="171" t="s">
+      <c r="B167" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="C167" s="172"/>
-      <c r="D167" s="172"/>
-      <c r="E167" s="173"/>
+      <c r="C167" s="177"/>
+      <c r="D167" s="177"/>
+      <c r="E167" s="178"/>
     </row>
     <row r="168" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="169" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B169" s="171" t="s">
+      <c r="B169" s="176" t="s">
         <v>593</v>
       </c>
-      <c r="C169" s="172"/>
-      <c r="D169" s="172"/>
-      <c r="E169" s="172"/>
-      <c r="F169" s="173"/>
+      <c r="C169" s="177"/>
+      <c r="D169" s="177"/>
+      <c r="E169" s="177"/>
+      <c r="F169" s="178"/>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="1" t="s">
@@ -9672,12 +9808,12 @@
     </row>
     <row r="183" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="184" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B184" s="174" t="s">
+      <c r="B184" s="179" t="s">
         <v>594</v>
       </c>
-      <c r="C184" s="175"/>
-      <c r="D184" s="175"/>
-      <c r="E184" s="176"/>
+      <c r="C184" s="180"/>
+      <c r="D184" s="180"/>
+      <c r="E184" s="181"/>
     </row>
     <row r="185" spans="2:6">
       <c r="B185" s="73" t="s">
@@ -9694,24 +9830,24 @@
       </c>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="167" t="s">
+      <c r="B186" s="172" t="s">
         <v>605</v>
       </c>
-      <c r="C186" s="169" t="s">
+      <c r="C186" s="174" t="s">
         <v>293</v>
       </c>
-      <c r="D186" s="177" t="s">
+      <c r="D186" s="182" t="s">
         <v>608</v>
       </c>
-      <c r="E186" s="177" t="s">
+      <c r="E186" s="182" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="187" spans="2:6">
-      <c r="B187" s="168"/>
-      <c r="C187" s="170"/>
-      <c r="D187" s="178"/>
-      <c r="E187" s="178"/>
+      <c r="B187" s="173"/>
+      <c r="C187" s="175"/>
+      <c r="D187" s="183"/>
+      <c r="E187" s="183"/>
     </row>
     <row r="188" spans="2:6" ht="135">
       <c r="B188" s="34" t="s">
@@ -9760,7 +9896,7 @@
         <v>603</v>
       </c>
       <c r="C191" s="159" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D191" s="36" t="s">
         <v>673</v>
@@ -9835,59 +9971,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14970EC7-1BC4-45AB-9851-5351B74C0381}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>835</v>
+      </c>
       <c r="B1" t="s">
-        <v>744</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="E1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G1" t="s">
-        <v>742</v>
-      </c>
-      <c r="H1" t="s">
         <v>743</v>
       </c>
-      <c r="I1" t="s">
-        <v>799</v>
-      </c>
-      <c r="J1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>724</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="H1" s="164" t="s">
+        <v>737</v>
+      </c>
+      <c r="I1" s="164" t="s">
+        <v>738</v>
+      </c>
+      <c r="J1" s="165" t="s">
+        <v>794</v>
+      </c>
+      <c r="K1" s="165" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="192" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>795</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -9898,192 +10041,707 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="154">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="154">
         <f>'CFF Clean Data'!F98</f>
         <v>0.186</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2" s="154">
+      <c r="I2" s="154">
         <f>'CFF Clean Data'!D176</f>
         <v>23.822000000000003</v>
       </c>
-      <c r="I2">
-        <f>(0.95*B2)+(0.05*C2)</f>
+      <c r="J2">
+        <f>(0.95*C2)+(0.05*D2)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="154">
-        <f>(0.54*D2)+(0.045*E2)+(0.415*F2)</f>
+      <c r="K2" s="154">
+        <f>(0.54*E2)+(0.045*F2)+(0.415*G2)</f>
         <v>7.7189999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>725</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:11">
+      <c r="A3" s="192"/>
+      <c r="B3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C3">
         <f>'CFF Clean Data'!C13</f>
         <v>1.331</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <f>'CFF Clean Data'!C28</f>
         <v>0.42699999999999999</v>
       </c>
-      <c r="D3" s="154">
+      <c r="E3" s="154">
         <f>'CFF Clean Data'!D68</f>
         <v>0.72699999999999998</v>
       </c>
-      <c r="E3" s="154">
+      <c r="F3" s="154">
         <f>'CFF Clean Data'!D83</f>
         <v>0.40467270881237499</v>
       </c>
-      <c r="F3" s="154">
+      <c r="G3" s="154">
         <f>'CFF Clean Data'!D98</f>
         <v>0.369760652920962</v>
       </c>
-      <c r="G3" s="154">
+      <c r="H3" s="154">
         <f>'CFF Clean Data'!C149</f>
         <v>7.63</v>
       </c>
-      <c r="H3" s="154">
+      <c r="I3" s="154">
         <f>'CFF Clean Data'!C176</f>
         <v>84.6</v>
       </c>
-      <c r="I3">
-        <f>(0.95*B3)+(0.05*C3)</f>
+      <c r="J3">
+        <f>(0.95*C3)+(0.05*D3)</f>
         <v>1.2857999999999998</v>
       </c>
-      <c r="J3" s="154">
-        <f>(0.54*D3)+(0.045*E3)+(0.415*F3)</f>
+      <c r="K3" s="154">
+        <f>(0.54*E3)+(0.045*F3)+(0.415*G3)</f>
         <v>0.56424094285875614</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>723</v>
-      </c>
-      <c r="B4" s="154">
+    <row r="4" spans="1:11">
+      <c r="A4" s="192"/>
+      <c r="B4" t="s">
+        <v>797</v>
+      </c>
+      <c r="C4" s="154">
         <f>'CFF Clean Data'!D13</f>
         <v>1.1809999999999999E-2</v>
       </c>
-      <c r="C4" s="154">
+      <c r="D4" s="154">
         <f>'CFF Clean Data'!D28</f>
         <v>5.6899999999999995E-4</v>
       </c>
-      <c r="D4" s="154">
+      <c r="E4" s="154">
         <f>'CFF Clean Data'!E68</f>
         <v>6.4535213032581498E-3</v>
       </c>
-      <c r="E4" s="154">
+      <c r="F4" s="154">
         <f>'CFF Clean Data'!E83</f>
         <v>5.3881952326901195E-4</v>
       </c>
-      <c r="F4" s="154">
+      <c r="G4" s="154">
         <f>'CFF Clean Data'!E98</f>
         <v>7.4501280068728498E-3</v>
       </c>
-      <c r="G4" s="154">
+      <c r="H4" s="154">
         <f>'CFF Clean Data'!D149</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="H4" s="154">
+      <c r="I4" s="154">
         <f>'CFF Clean Data'!F176</f>
         <v>0.81499999999999995</v>
       </c>
-      <c r="I4" s="154">
-        <f>(0.95*B4)+(0.05*C4)</f>
+      <c r="J4" s="154">
+        <f>(0.95*C4)+(0.05*D4)</f>
         <v>1.1247949999999998E-2</v>
       </c>
-      <c r="J4" s="154">
-        <f>(0.54*D4)+(0.045*E4)+(0.415*F4)</f>
+      <c r="K4" s="154">
+        <f>(0.54*E4)+(0.045*F4)+(0.415*G4)</f>
         <v>6.6009515051587394E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>727</v>
-      </c>
-      <c r="B5" s="154">
+    <row r="5" spans="1:11">
+      <c r="A5" s="192"/>
+      <c r="B5" t="s">
+        <v>798</v>
+      </c>
+      <c r="C5" s="154">
         <f>'CFF Clean Data'!E13</f>
         <v>62.7</v>
       </c>
-      <c r="C5" s="154">
+      <c r="D5" s="154">
         <f>'CFF Clean Data'!E28</f>
         <v>62.7</v>
       </c>
-      <c r="D5" s="154">
+      <c r="E5" s="154">
         <f>'CFF Clean Data'!C68</f>
         <v>37.14</v>
       </c>
-      <c r="E5" s="154">
+      <c r="F5" s="154">
         <f>'CFF Clean Data'!C83</f>
         <v>0.77300000000000002</v>
       </c>
-      <c r="F5" s="154">
+      <c r="G5" s="154">
         <f>'CFF Clean Data'!C98</f>
         <v>3.83</v>
       </c>
-      <c r="G5" s="154">
+      <c r="H5" s="154">
         <f>'CFF Clean Data'!E149</f>
         <v>156</v>
       </c>
-      <c r="H5" s="154">
+      <c r="I5" s="154">
         <f>'CFF Clean Data'!E176</f>
         <v>414</v>
       </c>
-      <c r="I5" s="154">
-        <f>(0.95*B5)+(0.05*C5)</f>
+      <c r="J5" s="154">
+        <f>(0.95*C5)+(0.05*D5)</f>
         <v>62.699999999999996</v>
       </c>
-      <c r="J5" s="154">
-        <f>(0.54*D5)+(0.045*E5)+(0.415*F5)</f>
+      <c r="K5" s="154">
+        <f>(0.54*E5)+(0.045*F5)+(0.415*G5)</f>
         <v>21.679835000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>726</v>
-      </c>
-      <c r="B6" s="154">
+    <row r="6" spans="1:11">
+      <c r="A6" s="192"/>
+      <c r="B6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C6" s="154">
         <f>'CFF Clean Data'!E13</f>
         <v>62.7</v>
       </c>
-      <c r="C6" s="154">
+      <c r="D6" s="154">
         <f>'CFF Clean Data'!E28</f>
         <v>62.7</v>
       </c>
-      <c r="D6" s="154">
+      <c r="E6" s="154">
         <f>'CFF Clean Data'!C68</f>
         <v>37.14</v>
       </c>
-      <c r="E6" s="154">
+      <c r="F6" s="154">
         <f>'CFF Clean Data'!C83</f>
         <v>0.77300000000000002</v>
       </c>
-      <c r="F6" s="154">
+      <c r="G6" s="154">
         <f>'CFF Clean Data'!C98</f>
         <v>3.83</v>
       </c>
-      <c r="G6" s="154">
+      <c r="H6" s="154">
         <f>'CFF Clean Data'!E149</f>
         <v>156</v>
       </c>
-      <c r="H6" s="154">
+      <c r="I6" s="154">
         <f>'CFF Clean Data'!E176</f>
         <v>414</v>
       </c>
-      <c r="I6" s="154">
-        <f>(0.95*B6)+(0.05*C6)</f>
+      <c r="J6" s="154">
+        <f>(0.95*C6)+(0.05*D6)</f>
         <v>62.699999999999996</v>
       </c>
-      <c r="J6" s="154">
-        <f>(0.54*D6)+(0.045*E6)+(0.415*F6)</f>
+      <c r="K6" s="154">
+        <f>(0.54*E6)+(0.045*F6)+(0.415*G6)</f>
         <v>21.679835000000001</v>
       </c>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="192" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>801</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="154">
+        <f>'CFF Clean Data'!D171</f>
+        <v>1.4869999999999999E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="192"/>
+      <c r="B8" t="s">
+        <v>800</v>
+      </c>
+      <c r="H8" s="154">
+        <f>'CFF Clean Data'!C144</f>
+        <v>9.2199999999999998E-6</v>
+      </c>
+      <c r="I8">
+        <f>'CFF Clean Data'!C171</f>
+        <v>7.2999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="192"/>
+      <c r="B9" t="s">
+        <v>814</v>
+      </c>
+      <c r="H9" s="154">
+        <f>'CFF Clean Data'!D144</f>
+        <v>3.8800000000000001E-6</v>
+      </c>
+      <c r="I9" s="154">
+        <f>'CFF Clean Data'!F171</f>
+        <v>3.0899999999999997E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="192"/>
+      <c r="B10" t="s">
+        <v>802</v>
+      </c>
+      <c r="H10" s="154">
+        <f>'CFF Clean Data'!E144</f>
+        <v>4.4900000000000002E-4</v>
+      </c>
+      <c r="I10" s="154">
+        <f>'CFF Clean Data'!E171</f>
+        <v>5.71E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="192"/>
+      <c r="B11" t="s">
+        <v>803</v>
+      </c>
+      <c r="H11" s="154">
+        <f>'CFF Clean Data'!E144</f>
+        <v>4.4900000000000002E-4</v>
+      </c>
+      <c r="I11" s="154">
+        <f>'CFF Clean Data'!E171</f>
+        <v>5.71E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="192" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" t="s">
+        <v>804</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="154">
+        <f>'CFF Clean Data'!D172</f>
+        <v>34.929999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="192"/>
+      <c r="B13" t="s">
+        <v>805</v>
+      </c>
+      <c r="H13" s="154">
+        <f>'CFF Clean Data'!C145</f>
+        <v>1030</v>
+      </c>
+      <c r="I13">
+        <f>'CFF Clean Data'!C172</f>
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="192"/>
+      <c r="B14" t="s">
+        <v>813</v>
+      </c>
+      <c r="H14" s="154">
+        <f>'CFF Clean Data'!D145</f>
+        <v>137</v>
+      </c>
+      <c r="I14" s="154">
+        <f>'CFF Clean Data'!F172</f>
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="192"/>
+      <c r="B15" t="s">
+        <v>806</v>
+      </c>
+      <c r="H15" s="154">
+        <f>'CFF Clean Data'!E145</f>
+        <v>1140</v>
+      </c>
+      <c r="I15" s="154">
+        <f>'CFF Clean Data'!E172</f>
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="192"/>
+      <c r="B16" t="s">
+        <v>807</v>
+      </c>
+      <c r="H16" s="154">
+        <f>'CFF Clean Data'!E145</f>
+        <v>1140</v>
+      </c>
+      <c r="I16" s="154">
+        <f>'CFF Clean Data'!E172</f>
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A17" s="192" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>808</v>
+      </c>
+      <c r="H17" s="154">
+        <v>0</v>
+      </c>
+      <c r="I17" s="154">
+        <f>'CFF Clean Data'!D173</f>
+        <v>4.2490000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="192"/>
+      <c r="B18" t="s">
+        <v>809</v>
+      </c>
+      <c r="H18" s="154">
+        <f>'CFF Clean Data'!C146</f>
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="I18">
+        <f>'CFF Clean Data'!C173</f>
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="192"/>
+      <c r="B19" t="s">
+        <v>810</v>
+      </c>
+      <c r="H19" s="154">
+        <f>'CFF Clean Data'!D146</f>
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="I19" s="154">
+        <f>'CFF Clean Data'!F173</f>
+        <v>4.8700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="192"/>
+      <c r="B20" t="s">
+        <v>811</v>
+      </c>
+      <c r="H20" s="154">
+        <f>'CFF Clean Data'!E146</f>
+        <v>0.108</v>
+      </c>
+      <c r="I20" s="154">
+        <f>'CFF Clean Data'!E173</f>
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="192"/>
+      <c r="B21" t="s">
+        <v>812</v>
+      </c>
+      <c r="H21" s="154">
+        <f>'CFF Clean Data'!E146</f>
+        <v>0.108</v>
+      </c>
+      <c r="I21" s="154">
+        <f>'CFF Clean Data'!E173</f>
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="192" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>815</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="154">
+        <f>'CFF Clean Data'!D174</f>
+        <v>2.1770000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="192"/>
+      <c r="B23" t="s">
+        <v>816</v>
+      </c>
+      <c r="H23" s="154">
+        <f>'CFF Clean Data'!C147</f>
+        <v>6.2300000000000003E-3</v>
+      </c>
+      <c r="I23" s="154">
+        <f>'CFF Clean Data'!C174</f>
+        <v>4.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="192"/>
+      <c r="B24" t="s">
+        <v>817</v>
+      </c>
+      <c r="H24" s="154">
+        <f>'CFF Clean Data'!D147</f>
+        <v>6.8500000000000002E-3</v>
+      </c>
+      <c r="I24" s="154">
+        <f>'CFF Clean Data'!F174</f>
+        <v>5.4600000000000004E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="192"/>
+      <c r="B25" t="s">
+        <v>818</v>
+      </c>
+      <c r="H25" s="154">
+        <f>'CFF Clean Data'!E147</f>
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="I25" s="154">
+        <f>'CFF Clean Data'!E174</f>
+        <v>8.6300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="192"/>
+      <c r="B26" t="s">
+        <v>819</v>
+      </c>
+      <c r="H26" s="154">
+        <f>'CFF Clean Data'!E147</f>
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="I26" s="154">
+        <f>'CFF Clean Data'!E174</f>
+        <v>8.6300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="192" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>820</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="154">
+        <f>'CFF Clean Data'!D178</f>
+        <v>7.7367600000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="192"/>
+      <c r="B28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H28" s="154">
+        <f>'CFF Clean Data'!C151</f>
+        <v>1.32</v>
+      </c>
+      <c r="I28">
+        <f>'CFF Clean Data'!C178</f>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="192"/>
+      <c r="B29" t="s">
+        <v>822</v>
+      </c>
+      <c r="H29" s="154">
+        <f>'CFF Clean Data'!D151</f>
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="I29" s="154">
+        <f>'CFF Clean Data'!F178</f>
+        <v>4.19E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="192"/>
+      <c r="B30" t="s">
+        <v>823</v>
+      </c>
+      <c r="H30" s="154">
+        <f>'CFF Clean Data'!E151</f>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="I30" s="154">
+        <f>'CFF Clean Data'!E178</f>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="192"/>
+      <c r="B31" t="s">
+        <v>824</v>
+      </c>
+      <c r="H31" s="154">
+        <f>'CFF Clean Data'!E151</f>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="I31" s="154">
+        <f>'CFF Clean Data'!E178</f>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="192" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" t="s">
+        <v>825</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="154">
+        <f>'CFF Clean Data'!D180</f>
+        <v>7.4988E-11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="192"/>
+      <c r="B33" t="s">
+        <v>826</v>
+      </c>
+      <c r="H33" s="154">
+        <f>'CFF Clean Data'!C153</f>
+        <v>6.2800000000000005E-11</v>
+      </c>
+      <c r="I33">
+        <f>'CFF Clean Data'!C180</f>
+        <v>2.8999999999999998E-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="192"/>
+      <c r="B34" t="s">
+        <v>827</v>
+      </c>
+      <c r="H34" s="154">
+        <f>'CFF Clean Data'!D153</f>
+        <v>3.0099999999999998E-11</v>
+      </c>
+      <c r="I34" s="154">
+        <f>'CFF Clean Data'!F180</f>
+        <v>2.3900000000000001E-12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="192"/>
+      <c r="B35" t="s">
+        <v>828</v>
+      </c>
+      <c r="H35" s="154">
+        <f>'CFF Clean Data'!E153</f>
+        <v>5.2700000000000004E-10</v>
+      </c>
+      <c r="I35" s="154">
+        <f>'CFF Clean Data'!E180</f>
+        <v>3.2599999999999999E-9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="192"/>
+      <c r="B36" t="s">
+        <v>829</v>
+      </c>
+      <c r="H36" s="154">
+        <f>'CFF Clean Data'!E153</f>
+        <v>5.2700000000000004E-10</v>
+      </c>
+      <c r="I36" s="154">
+        <f>'CFF Clean Data'!E180</f>
+        <v>3.2599999999999999E-9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="192" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" t="s">
+        <v>830</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="154">
+        <f>'CFF Clean Data'!D181</f>
+        <v>6.4800000000000003E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="192"/>
+      <c r="B38" t="s">
+        <v>831</v>
+      </c>
+      <c r="H38" s="154">
+        <f>'CFF Clean Data'!C154</f>
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="I38">
+        <f>'CFF Clean Data'!C181</f>
+        <v>4.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="192"/>
+      <c r="B39" t="s">
+        <v>832</v>
+      </c>
+      <c r="H39" s="154">
+        <f>'CFF Clean Data'!D154</f>
+        <v>4.7699999999999999E-3</v>
+      </c>
+      <c r="I39" s="154">
+        <f>'CFF Clean Data'!F181</f>
+        <v>3.8000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="192"/>
+      <c r="B40" t="s">
+        <v>833</v>
+      </c>
+      <c r="H40" s="154">
+        <f>'CFF Clean Data'!E154</f>
+        <v>9.3100000000000006E-3</v>
+      </c>
+      <c r="I40" s="154">
+        <f>'CFF Clean Data'!E181</f>
+        <v>4.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="192"/>
+      <c r="B41" t="s">
+        <v>834</v>
+      </c>
+      <c r="H41" s="154">
+        <f>'CFF Clean Data'!E154</f>
+        <v>9.3100000000000006E-3</v>
+      </c>
+      <c r="I41" s="154">
+        <f>'CFF Clean Data'!E181</f>
+        <v>4.2599999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10105,36 +10763,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="F1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D2">
         <f>'CFF Clean Data'!C39</f>
@@ -10143,13 +10801,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B3" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C3" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D3">
         <f>'CFF Clean Data'!C40</f>
@@ -10158,13 +10816,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B4" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D4">
         <v>0.76</v>
@@ -10178,13 +10836,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B5" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C5" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -10192,13 +10850,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="157" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B6" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C6" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D6">
         <v>0.9</v>
@@ -10215,13 +10873,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="157" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B7" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C7" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D7">
         <v>0.9</v>
@@ -10238,13 +10896,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B8" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C8" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D8">
         <v>0.2</v>
@@ -10252,13 +10910,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B9" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C9" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -10266,13 +10924,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="157" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B10" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C10" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D10">
         <v>0.81</v>
@@ -10286,13 +10944,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B11" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C11" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -10300,13 +10958,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="157" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B12" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C12" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D12">
         <v>0.9</v>
@@ -10320,13 +10978,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="157" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B13" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C13" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D13">
         <v>0.9</v>
@@ -10340,13 +10998,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B14" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C14" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D14">
         <v>0.2</v>
@@ -10354,13 +11012,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B15" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C15" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -10368,13 +11026,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B16" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C16" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D16">
         <v>0.76</v>
@@ -10388,24 +11046,24 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B17" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C17" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B18" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C18" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D18">
         <v>0.997</v>
@@ -10422,13 +11080,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B19" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C19" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D19">
         <v>0.9</v>
@@ -10445,13 +11103,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B20" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C20" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D20">
         <v>0.2</v>
@@ -10459,13 +11117,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B21" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C21" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -10473,13 +11131,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B22" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C22" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D22">
         <v>0.81</v>
@@ -10493,13 +11151,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B23" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C23" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -10507,13 +11165,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B24" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C24" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -10521,13 +11179,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B25" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C25" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -10535,13 +11193,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B26" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C26" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D26">
         <v>0.65</v>
@@ -10558,24 +11216,24 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B27" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C27" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B28" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C28" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -10589,24 +11247,24 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B29" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C29" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="157" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B30" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C30" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D30">
         <v>0.7</v>
@@ -10623,13 +11281,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B31" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C31" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D31">
         <v>0.6</v>
@@ -10646,13 +11304,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B32" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C32" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D32">
         <v>0.5</v>
@@ -10669,13 +11327,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B33" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C33" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -10683,13 +11341,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="157" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B34" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C34" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -10703,13 +11361,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B35" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C35" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -10717,13 +11375,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B36" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C36" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D36">
         <v>0.52</v>
@@ -10740,13 +11398,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B37" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C37" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D37">
         <v>0.85</v>
@@ -10763,13 +11421,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B38" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C38" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D38">
         <v>0.6</v>
@@ -10786,13 +11444,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B39" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C39" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D39">
         <v>0.6</v>
@@ -10809,13 +11467,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B40" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C40" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -10829,13 +11487,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B41" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C41" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -10843,13 +11501,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="157" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B42" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C42" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D42">
         <v>0.45</v>
@@ -10866,13 +11524,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="157" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B43" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C43" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D43">
         <v>0.75</v>
@@ -10921,94 +11579,94 @@
       <c r="B4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="194"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="200"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:7">
-      <c r="B6" s="195" t="s">
+      <c r="B6" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="197"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="203"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="200"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="206"/>
     </row>
     <row r="8" spans="2:7" ht="30.75" customHeight="1">
       <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="187" t="s">
+      <c r="C8" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="188"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="194"/>
     </row>
     <row r="9" spans="2:7" ht="36" customHeight="1">
       <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="193" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="188"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="194"/>
     </row>
     <row r="10" spans="2:7" ht="34.5" customHeight="1">
       <c r="B10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="187" t="s">
+      <c r="C10" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="188"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="194"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="189" t="s">
+      <c r="B11" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="190"/>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="191"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="197"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="204" t="s">
+      <c r="B12" s="210" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205" t="s">
+      <c r="C12" s="211"/>
+      <c r="D12" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="205"/>
-      <c r="F12" s="205" t="s">
+      <c r="E12" s="211"/>
+      <c r="F12" s="211" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="206"/>
+      <c r="G12" s="212"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="13" t="s">
@@ -11017,433 +11675,433 @@
       <c r="C13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="207"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="209"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="215"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="198"/>
-      <c r="C14" s="211"/>
+      <c r="B14" s="204"/>
+      <c r="C14" s="217"/>
       <c r="D14" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="210"/>
-      <c r="G14" s="200"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="206"/>
     </row>
     <row r="15" spans="2:7" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B15" s="212"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="215" t="s">
+      <c r="B15" s="218"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="220"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="221" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="216"/>
+      <c r="G15" s="222"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="20" spans="2:7" ht="37.5" customHeight="1" thickBot="1">
       <c r="B20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="194"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="200"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="22" spans="2:7">
-      <c r="B22" s="201" t="s">
+      <c r="B22" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="202"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="203"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="209"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="204" t="s">
+      <c r="B23" s="210" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="205"/>
-      <c r="D23" s="205" t="s">
+      <c r="C23" s="211"/>
+      <c r="D23" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="205"/>
-      <c r="F23" s="205" t="s">
+      <c r="E23" s="211"/>
+      <c r="F23" s="211" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="206"/>
+      <c r="G23" s="212"/>
     </row>
     <row r="24" spans="2:7" ht="39" customHeight="1">
-      <c r="B24" s="217" t="s">
+      <c r="B24" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="218"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="209"/>
+      <c r="C24" s="224"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="215"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="198"/>
-      <c r="C25" s="211"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="217"/>
       <c r="D25" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="F25" s="210"/>
-      <c r="G25" s="200"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="206"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="219"/>
-      <c r="C26" s="220"/>
-      <c r="D26" s="221"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="222" t="s">
+      <c r="B26" s="225"/>
+      <c r="C26" s="226"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="226"/>
+      <c r="F26" s="228" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="223"/>
+      <c r="G26" s="229"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="224" t="s">
+      <c r="B27" s="230" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="225"/>
-      <c r="D27" s="225"/>
-      <c r="E27" s="225"/>
-      <c r="F27" s="225"/>
-      <c r="G27" s="226"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="231"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="231"/>
+      <c r="G27" s="232"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B28" s="227"/>
-      <c r="C28" s="228"/>
-      <c r="D28" s="228"/>
-      <c r="E28" s="228"/>
-      <c r="F28" s="228"/>
-      <c r="G28" s="229"/>
+      <c r="B28" s="233"/>
+      <c r="C28" s="234"/>
+      <c r="D28" s="234"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="234"/>
+      <c r="G28" s="235"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="34" spans="2:11" ht="58.5" customHeight="1" thickBot="1">
       <c r="B34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="192" t="s">
+      <c r="C34" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="194"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="199"/>
+      <c r="G34" s="200"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="36" spans="2:11">
-      <c r="B36" s="201" t="s">
+      <c r="B36" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="202"/>
-      <c r="K36" s="203"/>
+      <c r="C36" s="208"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="208"/>
+      <c r="K36" s="209"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="204" t="s">
+      <c r="B37" s="210" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="205"/>
-      <c r="D37" s="205" t="s">
+      <c r="C37" s="211"/>
+      <c r="D37" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="205"/>
-      <c r="F37" s="205" t="s">
+      <c r="E37" s="211"/>
+      <c r="F37" s="211" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205" t="s">
+      <c r="G37" s="211"/>
+      <c r="H37" s="211" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205" t="s">
+      <c r="I37" s="211"/>
+      <c r="J37" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="206"/>
+      <c r="K37" s="212"/>
     </row>
     <row r="38" spans="2:11" ht="15" customHeight="1">
-      <c r="B38" s="230" t="s">
+      <c r="B38" s="236" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="231"/>
-      <c r="D38" s="207"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="208"/>
-      <c r="H38" s="207"/>
-      <c r="I38" s="208"/>
-      <c r="J38" s="207"/>
-      <c r="K38" s="209"/>
+      <c r="C38" s="237"/>
+      <c r="D38" s="213"/>
+      <c r="E38" s="214"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="213"/>
+      <c r="K38" s="215"/>
     </row>
     <row r="39" spans="2:11" ht="30">
-      <c r="B39" s="198"/>
-      <c r="C39" s="211"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="217"/>
       <c r="D39" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="210"/>
-      <c r="G39" s="211"/>
-      <c r="H39" s="210"/>
-      <c r="I39" s="211"/>
-      <c r="J39" s="210"/>
-      <c r="K39" s="200"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="217"/>
+      <c r="H39" s="216"/>
+      <c r="I39" s="217"/>
+      <c r="J39" s="216"/>
+      <c r="K39" s="206"/>
     </row>
     <row r="40" spans="2:11" ht="30">
-      <c r="B40" s="198"/>
-      <c r="C40" s="211"/>
-      <c r="D40" s="210"/>
-      <c r="E40" s="211"/>
+      <c r="B40" s="204"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="216"/>
+      <c r="E40" s="217"/>
       <c r="F40" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="210"/>
-      <c r="I40" s="211"/>
-      <c r="J40" s="210"/>
-      <c r="K40" s="200"/>
+      <c r="H40" s="216"/>
+      <c r="I40" s="217"/>
+      <c r="J40" s="216"/>
+      <c r="K40" s="206"/>
     </row>
     <row r="41" spans="2:11" ht="45">
-      <c r="B41" s="198"/>
-      <c r="C41" s="211"/>
-      <c r="D41" s="210"/>
-      <c r="E41" s="211"/>
-      <c r="F41" s="210"/>
-      <c r="G41" s="211"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="216"/>
+      <c r="E41" s="217"/>
+      <c r="F41" s="216"/>
+      <c r="G41" s="217"/>
       <c r="H41" s="14" t="s">
         <v>36</v>
       </c>
       <c r="I41" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="210"/>
-      <c r="K41" s="200"/>
+      <c r="J41" s="216"/>
+      <c r="K41" s="206"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="198"/>
-      <c r="C42" s="211"/>
-      <c r="D42" s="210"/>
-      <c r="E42" s="211"/>
-      <c r="F42" s="210"/>
-      <c r="G42" s="211"/>
-      <c r="H42" s="210"/>
-      <c r="I42" s="211"/>
-      <c r="J42" s="232" t="s">
+      <c r="B42" s="204"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="216"/>
+      <c r="E42" s="217"/>
+      <c r="F42" s="216"/>
+      <c r="G42" s="217"/>
+      <c r="H42" s="216"/>
+      <c r="I42" s="217"/>
+      <c r="J42" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="K42" s="233"/>
+      <c r="K42" s="239"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="198"/>
-      <c r="C43" s="211"/>
-      <c r="D43" s="210"/>
-      <c r="E43" s="211"/>
-      <c r="F43" s="210"/>
-      <c r="G43" s="211"/>
-      <c r="H43" s="210"/>
-      <c r="I43" s="211"/>
-      <c r="J43" s="232"/>
-      <c r="K43" s="233"/>
+      <c r="B43" s="204"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="216"/>
+      <c r="E43" s="217"/>
+      <c r="F43" s="216"/>
+      <c r="G43" s="217"/>
+      <c r="H43" s="216"/>
+      <c r="I43" s="217"/>
+      <c r="J43" s="238"/>
+      <c r="K43" s="239"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="198"/>
-      <c r="C44" s="211"/>
-      <c r="D44" s="210"/>
-      <c r="E44" s="211"/>
-      <c r="F44" s="210"/>
-      <c r="G44" s="211"/>
-      <c r="H44" s="210"/>
-      <c r="I44" s="211"/>
-      <c r="J44" s="232"/>
-      <c r="K44" s="233"/>
+      <c r="B44" s="204"/>
+      <c r="C44" s="217"/>
+      <c r="D44" s="216"/>
+      <c r="E44" s="217"/>
+      <c r="F44" s="216"/>
+      <c r="G44" s="217"/>
+      <c r="H44" s="216"/>
+      <c r="I44" s="217"/>
+      <c r="J44" s="238"/>
+      <c r="K44" s="239"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="198"/>
-      <c r="C45" s="211"/>
-      <c r="D45" s="210"/>
-      <c r="E45" s="211"/>
-      <c r="F45" s="210"/>
-      <c r="G45" s="211"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="211"/>
-      <c r="J45" s="232"/>
-      <c r="K45" s="233"/>
+      <c r="B45" s="204"/>
+      <c r="C45" s="217"/>
+      <c r="D45" s="216"/>
+      <c r="E45" s="217"/>
+      <c r="F45" s="216"/>
+      <c r="G45" s="217"/>
+      <c r="H45" s="216"/>
+      <c r="I45" s="217"/>
+      <c r="J45" s="238"/>
+      <c r="K45" s="239"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B46" s="212"/>
-      <c r="C46" s="213"/>
-      <c r="D46" s="214"/>
-      <c r="E46" s="213"/>
-      <c r="F46" s="214"/>
-      <c r="G46" s="213"/>
-      <c r="H46" s="214"/>
-      <c r="I46" s="213"/>
-      <c r="J46" s="234"/>
-      <c r="K46" s="216"/>
+      <c r="B46" s="218"/>
+      <c r="C46" s="219"/>
+      <c r="D46" s="220"/>
+      <c r="E46" s="219"/>
+      <c r="F46" s="220"/>
+      <c r="G46" s="219"/>
+      <c r="H46" s="220"/>
+      <c r="I46" s="219"/>
+      <c r="J46" s="240"/>
+      <c r="K46" s="222"/>
     </row>
     <row r="51" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="52" spans="2:13" ht="96.75" customHeight="1" thickBot="1">
       <c r="B52" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="192" t="s">
+      <c r="C52" s="198" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="193"/>
-      <c r="E52" s="193"/>
-      <c r="F52" s="193"/>
-      <c r="G52" s="193"/>
-      <c r="H52" s="193"/>
-      <c r="I52" s="193"/>
-      <c r="J52" s="193"/>
-      <c r="K52" s="194"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="199"/>
+      <c r="F52" s="199"/>
+      <c r="G52" s="199"/>
+      <c r="H52" s="199"/>
+      <c r="I52" s="199"/>
+      <c r="J52" s="199"/>
+      <c r="K52" s="200"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="54" spans="2:13">
-      <c r="B54" s="235" t="s">
+      <c r="B54" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="236"/>
-      <c r="D54" s="236"/>
-      <c r="E54" s="236"/>
-      <c r="F54" s="236"/>
-      <c r="G54" s="236"/>
-      <c r="H54" s="236"/>
-      <c r="I54" s="237"/>
+      <c r="C54" s="242"/>
+      <c r="D54" s="242"/>
+      <c r="E54" s="242"/>
+      <c r="F54" s="242"/>
+      <c r="G54" s="242"/>
+      <c r="H54" s="242"/>
+      <c r="I54" s="243"/>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="204" t="s">
+      <c r="B55" s="210" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="205"/>
-      <c r="D55" s="205" t="s">
+      <c r="C55" s="211"/>
+      <c r="D55" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="238"/>
-      <c r="F55" s="205" t="s">
+      <c r="E55" s="244"/>
+      <c r="F55" s="211" t="s">
         <v>35</v>
       </c>
-      <c r="G55" s="205"/>
-      <c r="H55" s="238" t="s">
+      <c r="G55" s="211"/>
+      <c r="H55" s="244" t="s">
         <v>50</v>
       </c>
-      <c r="I55" s="239"/>
+      <c r="I55" s="245"/>
     </row>
     <row r="56" spans="2:13" ht="55.5" customHeight="1">
-      <c r="B56" s="241" t="s">
+      <c r="B56" s="247" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="242"/>
-      <c r="D56" s="207"/>
-      <c r="E56" s="208"/>
-      <c r="F56" s="207"/>
-      <c r="G56" s="208"/>
-      <c r="H56" s="207"/>
-      <c r="I56" s="209"/>
+      <c r="C56" s="248"/>
+      <c r="D56" s="213"/>
+      <c r="E56" s="214"/>
+      <c r="F56" s="213"/>
+      <c r="G56" s="214"/>
+      <c r="H56" s="213"/>
+      <c r="I56" s="215"/>
     </row>
     <row r="57" spans="2:13" ht="38.25" customHeight="1">
-      <c r="B57" s="217" t="s">
+      <c r="B57" s="223" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="218"/>
-      <c r="D57" s="210"/>
-      <c r="E57" s="211"/>
-      <c r="F57" s="210"/>
-      <c r="G57" s="211"/>
-      <c r="H57" s="210"/>
-      <c r="I57" s="200"/>
+      <c r="C57" s="224"/>
+      <c r="D57" s="216"/>
+      <c r="E57" s="217"/>
+      <c r="F57" s="216"/>
+      <c r="G57" s="217"/>
+      <c r="H57" s="216"/>
+      <c r="I57" s="206"/>
     </row>
     <row r="58" spans="2:13" ht="22.5" customHeight="1">
-      <c r="B58" s="198"/>
-      <c r="C58" s="211"/>
-      <c r="D58" s="232" t="s">
+      <c r="B58" s="204"/>
+      <c r="C58" s="217"/>
+      <c r="D58" s="238" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="240"/>
-      <c r="F58" s="210"/>
-      <c r="G58" s="211"/>
-      <c r="H58" s="210"/>
-      <c r="I58" s="200"/>
+      <c r="E58" s="246"/>
+      <c r="F58" s="216"/>
+      <c r="G58" s="217"/>
+      <c r="H58" s="216"/>
+      <c r="I58" s="206"/>
     </row>
     <row r="59" spans="2:13" ht="99.75" customHeight="1">
-      <c r="B59" s="198"/>
-      <c r="C59" s="211"/>
-      <c r="D59" s="210"/>
-      <c r="E59" s="211"/>
-      <c r="F59" s="232" t="s">
+      <c r="B59" s="204"/>
+      <c r="C59" s="217"/>
+      <c r="D59" s="216"/>
+      <c r="E59" s="217"/>
+      <c r="F59" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="240"/>
-      <c r="H59" s="210"/>
-      <c r="I59" s="200"/>
+      <c r="G59" s="246"/>
+      <c r="H59" s="216"/>
+      <c r="I59" s="206"/>
       <c r="M59" s="23"/>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="198"/>
-      <c r="C60" s="211"/>
-      <c r="D60" s="210"/>
-      <c r="E60" s="211"/>
-      <c r="F60" s="210"/>
-      <c r="G60" s="211"/>
-      <c r="H60" s="218" t="s">
+      <c r="B60" s="204"/>
+      <c r="C60" s="217"/>
+      <c r="D60" s="216"/>
+      <c r="E60" s="217"/>
+      <c r="F60" s="216"/>
+      <c r="G60" s="217"/>
+      <c r="H60" s="224" t="s">
         <v>62</v>
       </c>
-      <c r="I60" s="233"/>
+      <c r="I60" s="239"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="198"/>
-      <c r="C61" s="211"/>
-      <c r="D61" s="210"/>
-      <c r="E61" s="211"/>
-      <c r="F61" s="210"/>
-      <c r="G61" s="211"/>
-      <c r="H61" s="218"/>
-      <c r="I61" s="233"/>
+      <c r="B61" s="204"/>
+      <c r="C61" s="217"/>
+      <c r="D61" s="216"/>
+      <c r="E61" s="217"/>
+      <c r="F61" s="216"/>
+      <c r="G61" s="217"/>
+      <c r="H61" s="224"/>
+      <c r="I61" s="239"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="198"/>
-      <c r="C62" s="211"/>
-      <c r="D62" s="210"/>
-      <c r="E62" s="211"/>
-      <c r="F62" s="210"/>
-      <c r="G62" s="211"/>
-      <c r="H62" s="218"/>
-      <c r="I62" s="233"/>
+      <c r="B62" s="204"/>
+      <c r="C62" s="217"/>
+      <c r="D62" s="216"/>
+      <c r="E62" s="217"/>
+      <c r="F62" s="216"/>
+      <c r="G62" s="217"/>
+      <c r="H62" s="224"/>
+      <c r="I62" s="239"/>
     </row>
     <row r="63" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B63" s="212"/>
-      <c r="C63" s="213"/>
-      <c r="D63" s="214"/>
-      <c r="E63" s="213"/>
-      <c r="F63" s="214"/>
-      <c r="G63" s="213"/>
-      <c r="H63" s="215"/>
-      <c r="I63" s="216"/>
+      <c r="B63" s="218"/>
+      <c r="C63" s="219"/>
+      <c r="D63" s="220"/>
+      <c r="E63" s="219"/>
+      <c r="F63" s="220"/>
+      <c r="G63" s="219"/>
+      <c r="H63" s="221"/>
+      <c r="I63" s="222"/>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
@@ -11554,14 +12212,14 @@
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="23" spans="2:5" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="276" t="s">
+      <c r="B23" s="284" t="s">
         <v>558</v>
       </c>
-      <c r="C23" s="277"/>
-      <c r="D23" s="278" t="s">
+      <c r="C23" s="285"/>
+      <c r="D23" s="286" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="279"/>
+      <c r="E23" s="287"/>
     </row>
     <row r="24" spans="2:5" ht="16.5" thickTop="1" thickBot="1">
       <c r="B24" s="26" t="s">
@@ -11606,10 +12264,10 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B27" s="280" t="s">
+      <c r="B27" s="288" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="283">
+      <c r="C27" s="291">
         <v>0.248</v>
       </c>
       <c r="D27" s="31" t="s">
@@ -11620,8 +12278,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B28" s="281"/>
-      <c r="C28" s="284"/>
+      <c r="B28" s="289"/>
+      <c r="C28" s="292"/>
       <c r="D28" s="28" t="s">
         <v>74</v>
       </c>
@@ -11630,8 +12288,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B29" s="281"/>
-      <c r="C29" s="284"/>
+      <c r="B29" s="289"/>
+      <c r="C29" s="292"/>
       <c r="D29" s="31" t="s">
         <v>75</v>
       </c>
@@ -11640,8 +12298,8 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B30" s="282"/>
-      <c r="C30" s="285"/>
+      <c r="B30" s="290"/>
+      <c r="C30" s="293"/>
       <c r="D30" s="28" t="s">
         <v>76</v>
       </c>
@@ -11686,20 +12344,20 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="266" t="s">
+      <c r="B35" s="274" t="s">
         <v>185</v>
       </c>
-      <c r="C35" s="267"/>
-      <c r="D35" s="267"/>
-      <c r="E35" s="267"/>
-      <c r="F35" s="267"/>
-      <c r="G35" s="267"/>
-      <c r="H35" s="267"/>
-      <c r="I35" s="267"/>
-      <c r="J35" s="267"/>
-      <c r="K35" s="267"/>
-      <c r="L35" s="267"/>
-      <c r="M35" s="268"/>
+      <c r="C35" s="275"/>
+      <c r="D35" s="275"/>
+      <c r="E35" s="275"/>
+      <c r="F35" s="275"/>
+      <c r="G35" s="275"/>
+      <c r="H35" s="275"/>
+      <c r="I35" s="275"/>
+      <c r="J35" s="275"/>
+      <c r="K35" s="275"/>
+      <c r="L35" s="275"/>
+      <c r="M35" s="276"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" t="s">
@@ -11719,74 +12377,74 @@
       <c r="B40" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="286" t="s">
+      <c r="C40" s="294" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="286"/>
-      <c r="E40" s="286"/>
-      <c r="F40" s="286"/>
-      <c r="G40" s="286"/>
-      <c r="H40" s="286"/>
-      <c r="I40" s="286"/>
-      <c r="J40" s="286"/>
-      <c r="K40" s="286"/>
-      <c r="L40" s="286"/>
-      <c r="M40" s="286"/>
+      <c r="D40" s="294"/>
+      <c r="E40" s="294"/>
+      <c r="F40" s="294"/>
+      <c r="G40" s="294"/>
+      <c r="H40" s="294"/>
+      <c r="I40" s="294"/>
+      <c r="J40" s="294"/>
+      <c r="K40" s="294"/>
+      <c r="L40" s="294"/>
+      <c r="M40" s="294"/>
     </row>
     <row r="41" spans="2:13" ht="18">
       <c r="B41" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="250" t="str">
+      <c r="C41" s="256" t="str">
         <f xml:space="preserve"> 'Case Study 2'!B164</f>
         <v>LCI:  Erec = 0 (as only primary materialsl and no secondary material is used for the conventional concrete product)</v>
       </c>
-      <c r="D41" s="250"/>
-      <c r="E41" s="250"/>
-      <c r="F41" s="250"/>
-      <c r="G41" s="250"/>
-      <c r="H41" s="250"/>
-      <c r="I41" s="250"/>
-      <c r="J41" s="250"/>
-      <c r="K41" s="250"/>
-      <c r="L41" s="250"/>
-      <c r="M41" s="250"/>
+      <c r="D41" s="256"/>
+      <c r="E41" s="256"/>
+      <c r="F41" s="256"/>
+      <c r="G41" s="256"/>
+      <c r="H41" s="256"/>
+      <c r="I41" s="256"/>
+      <c r="J41" s="256"/>
+      <c r="K41" s="256"/>
+      <c r="L41" s="256"/>
+      <c r="M41" s="256"/>
     </row>
     <row r="42" spans="2:13" ht="264" customHeight="1">
       <c r="B42" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="249" t="s">
+      <c r="C42" s="255" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="249"/>
-      <c r="E42" s="249"/>
-      <c r="F42" s="249"/>
-      <c r="G42" s="249"/>
-      <c r="H42" s="249"/>
-      <c r="I42" s="249"/>
-      <c r="J42" s="249"/>
-      <c r="K42" s="249"/>
-      <c r="L42" s="249"/>
-      <c r="M42" s="249"/>
+      <c r="D42" s="255"/>
+      <c r="E42" s="255"/>
+      <c r="F42" s="255"/>
+      <c r="G42" s="255"/>
+      <c r="H42" s="255"/>
+      <c r="I42" s="255"/>
+      <c r="J42" s="255"/>
+      <c r="K42" s="255"/>
+      <c r="L42" s="255"/>
+      <c r="M42" s="255"/>
     </row>
     <row r="43" spans="2:13" ht="83.25" customHeight="1">
       <c r="B43" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="249" t="s">
+      <c r="C43" s="255" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="287"/>
-      <c r="E43" s="287"/>
-      <c r="F43" s="287"/>
-      <c r="G43" s="287"/>
-      <c r="H43" s="287"/>
-      <c r="I43" s="287"/>
-      <c r="J43" s="287"/>
-      <c r="K43" s="287"/>
-      <c r="L43" s="287"/>
-      <c r="M43" s="287"/>
+      <c r="D43" s="295"/>
+      <c r="E43" s="295"/>
+      <c r="F43" s="295"/>
+      <c r="G43" s="295"/>
+      <c r="H43" s="295"/>
+      <c r="I43" s="295"/>
+      <c r="J43" s="295"/>
+      <c r="K43" s="295"/>
+      <c r="L43" s="295"/>
+      <c r="M43" s="295"/>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="38" t="s">
@@ -11794,174 +12452,174 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="253" t="s">
+      <c r="B47" s="259" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="254"/>
+      <c r="C47" s="260"/>
       <c r="D47" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="255" t="s">
+      <c r="E47" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="255"/>
+      <c r="F47" s="261"/>
       <c r="G47" s="49"/>
       <c r="H47" s="49"/>
     </row>
     <row r="48" spans="2:13" ht="53.25" customHeight="1">
-      <c r="B48" s="238"/>
-      <c r="C48" s="248"/>
+      <c r="B48" s="244"/>
+      <c r="C48" s="254"/>
       <c r="D48" s="34">
         <v>0.10125000000000001</v>
       </c>
-      <c r="E48" s="249" t="s">
+      <c r="E48" s="255" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="249"/>
+      <c r="F48" s="255"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
     </row>
     <row r="49" spans="2:8" ht="54" customHeight="1">
-      <c r="B49" s="238"/>
-      <c r="C49" s="248"/>
+      <c r="B49" s="244"/>
+      <c r="C49" s="254"/>
       <c r="D49" s="34">
         <v>0.15079000000000001</v>
       </c>
-      <c r="E49" s="249" t="s">
+      <c r="E49" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="250"/>
+      <c r="F49" s="256"/>
       <c r="G49" s="48"/>
       <c r="H49" s="48"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="251" t="s">
+      <c r="B50" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="252"/>
+      <c r="C50" s="258"/>
       <c r="D50" s="39">
         <v>0.126</v>
       </c>
-      <c r="E50" s="205"/>
-      <c r="F50" s="205"/>
+      <c r="E50" s="211"/>
+      <c r="F50" s="211"/>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="253" t="s">
+      <c r="B52" s="259" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="254"/>
+      <c r="C52" s="260"/>
       <c r="D52" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="255" t="s">
+      <c r="E52" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="255"/>
+      <c r="F52" s="261"/>
       <c r="G52" s="49"/>
       <c r="H52" s="49"/>
     </row>
     <row r="53" spans="2:8" ht="54.75" customHeight="1">
-      <c r="B53" s="238"/>
-      <c r="C53" s="248"/>
+      <c r="B53" s="244"/>
+      <c r="C53" s="254"/>
       <c r="D53" s="34">
         <v>1.44</v>
       </c>
-      <c r="E53" s="249" t="s">
+      <c r="E53" s="255" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="249"/>
+      <c r="F53" s="255"/>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
     </row>
     <row r="54" spans="2:8" ht="49.5" customHeight="1">
-      <c r="B54" s="238"/>
-      <c r="C54" s="248"/>
+      <c r="B54" s="244"/>
+      <c r="C54" s="254"/>
       <c r="D54" s="34">
         <v>2.88</v>
       </c>
-      <c r="E54" s="249" t="s">
+      <c r="E54" s="255" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="250"/>
+      <c r="F54" s="256"/>
       <c r="G54" s="48"/>
       <c r="H54" s="48"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="251" t="s">
+      <c r="B55" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="252"/>
+      <c r="C55" s="258"/>
       <c r="D55" s="39">
         <v>2.16</v>
       </c>
-      <c r="E55" s="205"/>
-      <c r="F55" s="205"/>
+      <c r="E55" s="211"/>
+      <c r="F55" s="211"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="253" t="s">
+      <c r="B57" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="254"/>
+      <c r="C57" s="260"/>
       <c r="D57" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="255" t="s">
+      <c r="E57" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="255"/>
+      <c r="F57" s="261"/>
       <c r="G57" s="49"/>
       <c r="H57" s="49"/>
     </row>
     <row r="58" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B58" s="238"/>
-      <c r="C58" s="248"/>
+      <c r="B58" s="244"/>
+      <c r="C58" s="254"/>
       <c r="D58" s="34">
         <v>11.7</v>
       </c>
-      <c r="E58" s="249" t="s">
+      <c r="E58" s="255" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="249"/>
+      <c r="F58" s="255"/>
       <c r="G58" s="24"/>
       <c r="H58" s="24"/>
     </row>
     <row r="59" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B59" s="238"/>
-      <c r="C59" s="248"/>
+      <c r="B59" s="244"/>
+      <c r="C59" s="254"/>
       <c r="D59" s="34">
         <v>19.7</v>
       </c>
-      <c r="E59" s="249" t="s">
+      <c r="E59" s="255" t="s">
         <v>100</v>
       </c>
-      <c r="F59" s="250"/>
+      <c r="F59" s="256"/>
       <c r="G59" s="48"/>
       <c r="H59" s="48"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="251" t="s">
+      <c r="B60" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="252"/>
+      <c r="C60" s="258"/>
       <c r="D60" s="39">
         <v>15.7</v>
       </c>
-      <c r="E60" s="205"/>
-      <c r="F60" s="205"/>
+      <c r="E60" s="211"/>
+      <c r="F60" s="211"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="245" t="s">
+      <c r="B63" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="245"/>
-      <c r="D63" s="245"/>
-      <c r="E63" s="245"/>
+      <c r="C63" s="251"/>
+      <c r="D63" s="251"/>
+      <c r="E63" s="251"/>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="42" t="s">
@@ -12118,12 +12776,12 @@
       </c>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="244" t="s">
+      <c r="B75" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="244"/>
-      <c r="D75" s="244"/>
-      <c r="E75" s="244"/>
+      <c r="C75" s="250"/>
+      <c r="D75" s="250"/>
+      <c r="E75" s="250"/>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="58" t="s">
@@ -12174,12 +12832,12 @@
       <c r="E79" s="58"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="245" t="s">
+      <c r="B81" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="C81" s="245"/>
-      <c r="D81" s="245"/>
-      <c r="E81" s="245"/>
+      <c r="C81" s="251"/>
+      <c r="D81" s="251"/>
+      <c r="E81" s="251"/>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="42" t="s">
@@ -12308,12 +12966,12 @@
       </c>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="244" t="s">
+      <c r="B91" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C91" s="244"/>
-      <c r="D91" s="244"/>
-      <c r="E91" s="244"/>
+      <c r="C91" s="250"/>
+      <c r="D91" s="250"/>
+      <c r="E91" s="250"/>
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="58" t="s">
@@ -12345,12 +13003,12 @@
       </c>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="245" t="s">
+      <c r="B98" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="245"/>
-      <c r="D98" s="245"/>
-      <c r="E98" s="245"/>
+      <c r="C98" s="251"/>
+      <c r="D98" s="251"/>
+      <c r="E98" s="251"/>
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="42" t="s">
@@ -12395,12 +13053,12 @@
       </c>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="265" t="s">
+      <c r="B102" s="273" t="s">
         <v>123</v>
       </c>
-      <c r="C102" s="265"/>
-      <c r="D102" s="265"/>
-      <c r="E102" s="265"/>
+      <c r="C102" s="273"/>
+      <c r="D102" s="273"/>
+      <c r="E102" s="273"/>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="1" t="s">
@@ -12423,12 +13081,12 @@
       <c r="E104" s="1"/>
     </row>
     <row r="106" spans="2:5">
-      <c r="B106" s="245" t="s">
+      <c r="B106" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="245"/>
-      <c r="D106" s="245"/>
-      <c r="E106" s="245"/>
+      <c r="C106" s="251"/>
+      <c r="D106" s="251"/>
+      <c r="E106" s="251"/>
     </row>
     <row r="107" spans="2:5">
       <c r="B107" s="42" t="s">
@@ -12459,12 +13117,12 @@
       </c>
     </row>
     <row r="109" spans="2:5">
-      <c r="B109" s="265" t="s">
+      <c r="B109" s="273" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="265"/>
-      <c r="D109" s="265"/>
-      <c r="E109" s="265"/>
+      <c r="C109" s="273"/>
+      <c r="D109" s="273"/>
+      <c r="E109" s="273"/>
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="1" t="s">
@@ -12482,12 +13140,12 @@
       </c>
     </row>
     <row r="115" spans="2:5">
-      <c r="B115" s="243" t="s">
+      <c r="B115" s="249" t="s">
         <v>216</v>
       </c>
-      <c r="C115" s="245"/>
-      <c r="D115" s="245"/>
-      <c r="E115" s="245"/>
+      <c r="C115" s="251"/>
+      <c r="D115" s="251"/>
+      <c r="E115" s="251"/>
     </row>
     <row r="116" spans="2:5">
       <c r="B116" s="1" t="s">
@@ -12672,12 +13330,12 @@
       </c>
     </row>
     <row r="130" spans="2:5">
-      <c r="B130" s="243" t="s">
+      <c r="B130" s="249" t="s">
         <v>215</v>
       </c>
-      <c r="C130" s="245"/>
-      <c r="D130" s="245"/>
-      <c r="E130" s="245"/>
+      <c r="C130" s="251"/>
+      <c r="D130" s="251"/>
+      <c r="E130" s="251"/>
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="1" t="s">
@@ -12871,17 +13529,17 @@
       </c>
     </row>
     <row r="149" spans="2:14">
-      <c r="B149" s="245" t="s">
+      <c r="B149" s="251" t="s">
         <v>188</v>
       </c>
-      <c r="C149" s="245"/>
-      <c r="D149" s="245"/>
-      <c r="E149" s="245"/>
-      <c r="F149" s="245"/>
-      <c r="G149" s="245"/>
-      <c r="H149" s="245"/>
-      <c r="I149" s="245"/>
-      <c r="J149" s="245"/>
+      <c r="C149" s="251"/>
+      <c r="D149" s="251"/>
+      <c r="E149" s="251"/>
+      <c r="F149" s="251"/>
+      <c r="G149" s="251"/>
+      <c r="H149" s="251"/>
+      <c r="I149" s="251"/>
+      <c r="J149" s="251"/>
       <c r="K149" s="47"/>
       <c r="L149" s="47"/>
       <c r="M149" s="47"/>
@@ -12903,10 +13561,10 @@
       <c r="F150" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G150" s="246" t="s">
+      <c r="G150" s="252" t="s">
         <v>559</v>
       </c>
-      <c r="H150" s="247"/>
+      <c r="H150" s="253"/>
       <c r="I150" s="119" t="s">
         <v>189</v>
       </c>
@@ -12919,57 +13577,57 @@
       <c r="N150" s="46"/>
     </row>
     <row r="151" spans="2:14" ht="44.25" customHeight="1">
-      <c r="B151" s="167" t="s">
+      <c r="B151" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="167" t="s">
+      <c r="C151" s="172" t="s">
         <v>191</v>
       </c>
-      <c r="D151" s="270"/>
-      <c r="E151" s="273"/>
-      <c r="F151" s="270"/>
+      <c r="D151" s="278"/>
+      <c r="E151" s="281"/>
+      <c r="F151" s="278"/>
       <c r="G151" s="123" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="H151" s="124" t="s">
-        <v>767</v>
-      </c>
-      <c r="I151" s="262">
+        <v>762</v>
+      </c>
+      <c r="I151" s="268">
         <v>0.2</v>
       </c>
-      <c r="J151" s="167" t="s">
+      <c r="J151" s="172" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="152" spans="2:14" ht="72" customHeight="1">
-      <c r="B152" s="269"/>
-      <c r="C152" s="269"/>
-      <c r="D152" s="271"/>
-      <c r="E152" s="274"/>
-      <c r="F152" s="271"/>
+      <c r="B152" s="277"/>
+      <c r="C152" s="277"/>
+      <c r="D152" s="279"/>
+      <c r="E152" s="282"/>
+      <c r="F152" s="279"/>
       <c r="G152" s="123" t="s">
         <v>681</v>
       </c>
       <c r="H152" s="124" t="s">
         <v>682</v>
       </c>
-      <c r="I152" s="263"/>
-      <c r="J152" s="269"/>
+      <c r="I152" s="269"/>
+      <c r="J152" s="277"/>
     </row>
     <row r="153" spans="2:14" ht="67.5" customHeight="1">
-      <c r="B153" s="168"/>
-      <c r="C153" s="168"/>
-      <c r="D153" s="272"/>
-      <c r="E153" s="275"/>
-      <c r="F153" s="272"/>
+      <c r="B153" s="173"/>
+      <c r="C153" s="173"/>
+      <c r="D153" s="280"/>
+      <c r="E153" s="283"/>
+      <c r="F153" s="280"/>
       <c r="G153" s="123" t="s">
         <v>684</v>
       </c>
       <c r="H153" s="124" t="s">
         <v>685</v>
       </c>
-      <c r="I153" s="264"/>
-      <c r="J153" s="168"/>
+      <c r="I153" s="270"/>
+      <c r="J153" s="173"/>
     </row>
     <row r="154" spans="2:14" ht="67.5" customHeight="1">
       <c r="B154" s="34" t="s">
@@ -12999,7 +13657,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="155" spans="2:14" ht="45">
+    <row r="155" spans="2:14" ht="30">
       <c r="B155" s="139" t="s">
         <v>181</v>
       </c>
@@ -13012,10 +13670,10 @@
       <c r="E155" s="126"/>
       <c r="F155" s="125"/>
       <c r="G155" s="123" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="H155" s="127" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="I155" s="120" t="s">
         <v>688</v>
@@ -13070,19 +13728,19 @@
         <v>299</v>
       </c>
       <c r="G157" s="36" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="H157" s="36" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="I157" s="160" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="J157" s="45" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="158" spans="2:14" ht="210">
+    <row r="158" spans="2:14" ht="150">
       <c r="B158" s="34" t="s">
         <v>184</v>
       </c>
@@ -13099,30 +13757,30 @@
         <v>299</v>
       </c>
       <c r="G158" s="36" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="H158" s="36" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="I158" s="160" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="J158" s="45" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="161" spans="2:13">
-      <c r="B161" s="245" t="s">
+      <c r="B161" s="251" t="s">
         <v>198</v>
       </c>
-      <c r="C161" s="245"/>
-      <c r="D161" s="245"/>
-      <c r="E161" s="245"/>
-      <c r="F161" s="245"/>
-      <c r="G161" s="245"/>
-      <c r="H161" s="245"/>
-      <c r="I161" s="245"/>
-      <c r="J161" s="245"/>
+      <c r="C161" s="251"/>
+      <c r="D161" s="251"/>
+      <c r="E161" s="251"/>
+      <c r="F161" s="251"/>
+      <c r="G161" s="251"/>
+      <c r="H161" s="251"/>
+      <c r="I161" s="251"/>
+      <c r="J161" s="251"/>
     </row>
     <row r="162" spans="2:13">
       <c r="B162" s="42" t="s">
@@ -13140,10 +13798,10 @@
       <c r="F162" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G162" s="246" t="s">
+      <c r="G162" s="252" t="s">
         <v>196</v>
       </c>
-      <c r="H162" s="247"/>
+      <c r="H162" s="253"/>
       <c r="I162" s="119" t="s">
         <v>189</v>
       </c>
@@ -13152,59 +13810,59 @@
       </c>
     </row>
     <row r="163" spans="2:13" ht="79.5" customHeight="1">
-      <c r="B163" s="288" t="s">
+      <c r="B163" s="296" t="s">
         <v>2</v>
       </c>
-      <c r="C163" s="167" t="s">
+      <c r="C163" s="172" t="s">
         <v>194</v>
       </c>
-      <c r="D163" s="167" t="s">
+      <c r="D163" s="172" t="s">
         <v>195</v>
       </c>
-      <c r="E163" s="288"/>
-      <c r="F163" s="167"/>
+      <c r="E163" s="296"/>
+      <c r="F163" s="172"/>
       <c r="G163" s="146" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="H163" s="124" t="s">
         <v>698</v>
       </c>
-      <c r="I163" s="262">
+      <c r="I163" s="268">
         <v>0.2</v>
       </c>
-      <c r="J163" s="167" t="s">
+      <c r="J163" s="172" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="164" spans="2:13" ht="31.5" customHeight="1">
-      <c r="B164" s="290"/>
-      <c r="C164" s="269"/>
-      <c r="D164" s="269"/>
-      <c r="E164" s="290"/>
-      <c r="F164" s="269"/>
+      <c r="B164" s="298"/>
+      <c r="C164" s="277"/>
+      <c r="D164" s="277"/>
+      <c r="E164" s="298"/>
+      <c r="F164" s="277"/>
       <c r="G164" s="145" t="s">
         <v>699</v>
       </c>
       <c r="H164" s="147" t="s">
         <v>683</v>
       </c>
-      <c r="I164" s="263"/>
-      <c r="J164" s="269"/>
+      <c r="I164" s="269"/>
+      <c r="J164" s="277"/>
     </row>
     <row r="165" spans="2:13" ht="45.75" customHeight="1">
-      <c r="B165" s="289"/>
-      <c r="C165" s="168"/>
-      <c r="D165" s="168"/>
-      <c r="E165" s="289"/>
-      <c r="F165" s="168"/>
+      <c r="B165" s="297"/>
+      <c r="C165" s="173"/>
+      <c r="D165" s="173"/>
+      <c r="E165" s="297"/>
+      <c r="F165" s="173"/>
       <c r="G165" s="145" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="H165" s="147" t="s">
-        <v>778</v>
-      </c>
-      <c r="I165" s="264"/>
-      <c r="J165" s="168"/>
+        <v>773</v>
+      </c>
+      <c r="I165" s="270"/>
+      <c r="J165" s="173"/>
     </row>
     <row r="166" spans="2:13" ht="67.5" customHeight="1">
       <c r="B166" s="34" t="s">
@@ -13232,46 +13890,46 @@
       </c>
     </row>
     <row r="167" spans="2:13" ht="99.75" customHeight="1">
-      <c r="B167" s="288" t="s">
+      <c r="B167" s="296" t="s">
         <v>181</v>
       </c>
-      <c r="C167" s="167" t="s">
+      <c r="C167" s="172" t="s">
         <v>569</v>
       </c>
-      <c r="D167" s="167" t="s">
+      <c r="D167" s="172" t="s">
         <v>202</v>
       </c>
-      <c r="E167" s="167" t="s">
+      <c r="E167" s="172" t="s">
         <v>702</v>
       </c>
-      <c r="F167" s="167"/>
+      <c r="F167" s="172"/>
       <c r="G167" s="146" t="s">
         <v>703</v>
       </c>
       <c r="H167" s="124" t="s">
         <v>704</v>
       </c>
-      <c r="I167" s="335" t="s">
-        <v>781</v>
-      </c>
-      <c r="J167" s="167" t="s">
+      <c r="I167" s="271" t="s">
+        <v>776</v>
+      </c>
+      <c r="J167" s="172" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="168" spans="2:13" ht="61.5" customHeight="1">
-      <c r="B168" s="289"/>
-      <c r="C168" s="168"/>
-      <c r="D168" s="168"/>
-      <c r="E168" s="168"/>
-      <c r="F168" s="168"/>
+      <c r="B168" s="297"/>
+      <c r="C168" s="173"/>
+      <c r="D168" s="173"/>
+      <c r="E168" s="173"/>
+      <c r="F168" s="173"/>
       <c r="G168" s="145" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="H168" s="147" t="s">
-        <v>780</v>
-      </c>
-      <c r="I168" s="336"/>
-      <c r="J168" s="168"/>
+        <v>775</v>
+      </c>
+      <c r="I168" s="272"/>
+      <c r="J168" s="173"/>
     </row>
     <row r="169" spans="2:13" ht="107.25" customHeight="1">
       <c r="B169" s="34" t="s">
@@ -13290,10 +13948,10 @@
         <v>299</v>
       </c>
       <c r="G169" s="36" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="H169" s="36" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="I169" s="120">
         <v>1</v>
@@ -13319,13 +13977,13 @@
         <v>299</v>
       </c>
       <c r="G170" s="36" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="H170" s="36" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="I170" s="160" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="J170" s="45" t="s">
         <v>564</v>
@@ -13348,13 +14006,13 @@
         <v>299</v>
       </c>
       <c r="G171" s="36" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="H171" s="36" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="I171" s="160" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="J171" s="45" t="s">
         <v>564</v>
@@ -13362,20 +14020,20 @@
     </row>
     <row r="172" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="173" spans="2:13">
-      <c r="B173" s="266" t="s">
+      <c r="B173" s="274" t="s">
         <v>432</v>
       </c>
-      <c r="C173" s="267"/>
-      <c r="D173" s="267"/>
-      <c r="E173" s="267"/>
-      <c r="F173" s="267"/>
-      <c r="G173" s="267"/>
-      <c r="H173" s="267"/>
-      <c r="I173" s="267"/>
-      <c r="J173" s="267"/>
-      <c r="K173" s="267"/>
-      <c r="L173" s="267"/>
-      <c r="M173" s="268"/>
+      <c r="C173" s="275"/>
+      <c r="D173" s="275"/>
+      <c r="E173" s="275"/>
+      <c r="F173" s="275"/>
+      <c r="G173" s="275"/>
+      <c r="H173" s="275"/>
+      <c r="I173" s="275"/>
+      <c r="J173" s="275"/>
+      <c r="K173" s="275"/>
+      <c r="L173" s="275"/>
+      <c r="M173" s="276"/>
     </row>
     <row r="174" spans="2:13">
       <c r="B174" t="s">
@@ -13397,12 +14055,12 @@
       </c>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="265" t="s">
+      <c r="B180" s="273" t="s">
         <v>101</v>
       </c>
-      <c r="C180" s="265"/>
-      <c r="D180" s="265"/>
-      <c r="E180" s="265"/>
+      <c r="C180" s="273"/>
+      <c r="D180" s="273"/>
+      <c r="E180" s="273"/>
     </row>
     <row r="181" spans="2:5">
       <c r="B181" s="42" t="s">
@@ -13449,12 +14107,12 @@
       </c>
     </row>
     <row r="184" spans="2:5">
-      <c r="B184" s="265" t="s">
+      <c r="B184" s="273" t="s">
         <v>123</v>
       </c>
-      <c r="C184" s="265"/>
-      <c r="D184" s="265"/>
-      <c r="E184" s="265"/>
+      <c r="C184" s="273"/>
+      <c r="D184" s="273"/>
+      <c r="E184" s="273"/>
     </row>
     <row r="185" spans="2:5">
       <c r="B185" s="1" t="s">
@@ -13477,12 +14135,12 @@
       <c r="E186" s="1"/>
     </row>
     <row r="188" spans="2:5">
-      <c r="B188" s="265" t="s">
+      <c r="B188" s="273" t="s">
         <v>101</v>
       </c>
-      <c r="C188" s="265"/>
-      <c r="D188" s="265"/>
-      <c r="E188" s="265"/>
+      <c r="C188" s="273"/>
+      <c r="D188" s="273"/>
+      <c r="E188" s="273"/>
     </row>
     <row r="189" spans="2:5">
       <c r="B189" s="42" t="s">
@@ -13514,12 +14172,12 @@
       </c>
     </row>
     <row r="191" spans="2:5">
-      <c r="B191" s="265" t="s">
+      <c r="B191" s="273" t="s">
         <v>123</v>
       </c>
-      <c r="C191" s="265"/>
-      <c r="D191" s="265"/>
-      <c r="E191" s="265"/>
+      <c r="C191" s="273"/>
+      <c r="D191" s="273"/>
+      <c r="E191" s="273"/>
     </row>
     <row r="192" spans="2:5">
       <c r="B192" s="1" t="s">
@@ -13532,12 +14190,12 @@
       <c r="E192" s="1"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="265" t="s">
+      <c r="B194" s="273" t="s">
         <v>101</v>
       </c>
-      <c r="C194" s="265"/>
-      <c r="D194" s="265"/>
-      <c r="E194" s="265"/>
+      <c r="C194" s="273"/>
+      <c r="D194" s="273"/>
+      <c r="E194" s="273"/>
     </row>
     <row r="195" spans="2:6">
       <c r="B195" s="42" t="s">
@@ -13582,12 +14240,12 @@
       </c>
     </row>
     <row r="198" spans="2:6">
-      <c r="B198" s="265" t="s">
+      <c r="B198" s="273" t="s">
         <v>123</v>
       </c>
-      <c r="C198" s="265"/>
-      <c r="D198" s="265"/>
-      <c r="E198" s="265"/>
+      <c r="C198" s="273"/>
+      <c r="D198" s="273"/>
+      <c r="E198" s="273"/>
     </row>
     <row r="199" spans="2:6">
       <c r="B199" s="1" t="s">
@@ -13616,307 +14274,307 @@
       </c>
     </row>
     <row r="204" spans="2:6">
-      <c r="B204" s="253" t="s">
+      <c r="B204" s="259" t="s">
         <v>441</v>
       </c>
-      <c r="C204" s="254"/>
+      <c r="C204" s="260"/>
       <c r="D204" s="41" t="s">
         <v>442</v>
       </c>
-      <c r="E204" s="255" t="s">
+      <c r="E204" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="F204" s="255"/>
+      <c r="F204" s="261"/>
     </row>
     <row r="205" spans="2:6">
-      <c r="B205" s="238"/>
-      <c r="C205" s="248"/>
+      <c r="B205" s="244"/>
+      <c r="C205" s="254"/>
       <c r="D205" s="34">
         <v>0.94199999999999995</v>
       </c>
-      <c r="E205" s="249" t="s">
+      <c r="E205" s="255" t="s">
         <v>443</v>
       </c>
-      <c r="F205" s="249"/>
+      <c r="F205" s="255"/>
     </row>
     <row r="206" spans="2:6" ht="32.25" customHeight="1">
-      <c r="B206" s="238"/>
-      <c r="C206" s="248"/>
+      <c r="B206" s="244"/>
+      <c r="C206" s="254"/>
       <c r="D206" s="34">
         <v>0.25</v>
       </c>
-      <c r="E206" s="256" t="s">
+      <c r="E206" s="262" t="s">
         <v>444</v>
       </c>
-      <c r="F206" s="259"/>
+      <c r="F206" s="265"/>
     </row>
     <row r="207" spans="2:6">
-      <c r="B207" s="238"/>
-      <c r="C207" s="248"/>
+      <c r="B207" s="244"/>
+      <c r="C207" s="254"/>
       <c r="D207" s="34">
         <v>0.09</v>
       </c>
-      <c r="E207" s="256" t="s">
+      <c r="E207" s="262" t="s">
         <v>445</v>
       </c>
-      <c r="F207" s="259"/>
+      <c r="F207" s="265"/>
     </row>
     <row r="208" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B208" s="238"/>
-      <c r="C208" s="248"/>
+      <c r="B208" s="244"/>
+      <c r="C208" s="254"/>
       <c r="D208" s="34">
         <v>0.11700000000000001</v>
       </c>
-      <c r="E208" s="256" t="s">
+      <c r="E208" s="262" t="s">
         <v>446</v>
       </c>
-      <c r="F208" s="259"/>
+      <c r="F208" s="265"/>
     </row>
     <row r="209" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B209" s="238"/>
-      <c r="C209" s="248"/>
+      <c r="B209" s="244"/>
+      <c r="C209" s="254"/>
       <c r="D209" s="34">
         <v>1.603E-3</v>
       </c>
-      <c r="E209" s="256" t="s">
+      <c r="E209" s="262" t="s">
         <v>447</v>
       </c>
-      <c r="F209" s="259"/>
+      <c r="F209" s="265"/>
     </row>
     <row r="210" spans="2:6" ht="57" customHeight="1">
-      <c r="B210" s="238"/>
-      <c r="C210" s="248"/>
+      <c r="B210" s="244"/>
+      <c r="C210" s="254"/>
       <c r="D210" s="34">
         <v>2.2680000000000001E-3</v>
       </c>
-      <c r="E210" s="249" t="s">
+      <c r="E210" s="255" t="s">
         <v>447</v>
       </c>
-      <c r="F210" s="250"/>
+      <c r="F210" s="256"/>
     </row>
     <row r="211" spans="2:6">
-      <c r="B211" s="251" t="s">
+      <c r="B211" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C211" s="252"/>
+      <c r="C211" s="258"/>
       <c r="D211" s="39">
         <v>0.23380000000000001</v>
       </c>
-      <c r="E211" s="205"/>
-      <c r="F211" s="205"/>
+      <c r="E211" s="211"/>
+      <c r="F211" s="211"/>
     </row>
     <row r="213" spans="2:6">
-      <c r="B213" s="253" t="s">
+      <c r="B213" s="259" t="s">
         <v>448</v>
       </c>
-      <c r="C213" s="254"/>
+      <c r="C213" s="260"/>
       <c r="D213" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="E213" s="255" t="s">
+      <c r="E213" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="F213" s="255"/>
+      <c r="F213" s="261"/>
     </row>
     <row r="214" spans="2:6" ht="51" customHeight="1">
-      <c r="B214" s="238"/>
-      <c r="C214" s="248"/>
+      <c r="B214" s="244"/>
+      <c r="C214" s="254"/>
       <c r="D214" s="34">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="E214" s="249" t="s">
+      <c r="E214" s="255" t="s">
         <v>450</v>
       </c>
-      <c r="F214" s="249"/>
+      <c r="F214" s="255"/>
     </row>
     <row r="215" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B215" s="238"/>
-      <c r="C215" s="248"/>
+      <c r="B215" s="244"/>
+      <c r="C215" s="254"/>
       <c r="D215" s="34">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E215" s="249" t="s">
+      <c r="E215" s="255" t="s">
         <v>451</v>
       </c>
-      <c r="F215" s="250"/>
+      <c r="F215" s="256"/>
     </row>
     <row r="216" spans="2:6">
-      <c r="B216" s="251" t="s">
+      <c r="B216" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C216" s="252"/>
+      <c r="C216" s="258"/>
       <c r="D216" s="39">
         <v>3.2750000000000001E-2</v>
       </c>
-      <c r="E216" s="205"/>
-      <c r="F216" s="205"/>
+      <c r="E216" s="211"/>
+      <c r="F216" s="211"/>
     </row>
     <row r="218" spans="2:6">
-      <c r="B218" s="253" t="s">
+      <c r="B218" s="259" t="s">
         <v>452</v>
       </c>
-      <c r="C218" s="254"/>
+      <c r="C218" s="260"/>
       <c r="D218" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="E218" s="255" t="s">
+      <c r="E218" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="F218" s="255"/>
+      <c r="F218" s="261"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="238"/>
-      <c r="C219" s="248"/>
+      <c r="B219" s="244"/>
+      <c r="C219" s="254"/>
       <c r="D219" s="34">
         <v>1.125E-2</v>
       </c>
-      <c r="E219" s="249" t="s">
+      <c r="E219" s="255" t="s">
         <v>454</v>
       </c>
-      <c r="F219" s="249"/>
+      <c r="F219" s="255"/>
     </row>
     <row r="220" spans="2:6" ht="31.5" customHeight="1">
-      <c r="B220" s="238"/>
-      <c r="C220" s="248"/>
+      <c r="B220" s="244"/>
+      <c r="C220" s="254"/>
       <c r="D220" s="34">
         <v>3.68</v>
       </c>
-      <c r="E220" s="256" t="s">
+      <c r="E220" s="262" t="s">
         <v>455</v>
       </c>
-      <c r="F220" s="259"/>
+      <c r="F220" s="265"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="238"/>
-      <c r="C221" s="248"/>
+      <c r="B221" s="244"/>
+      <c r="C221" s="254"/>
       <c r="D221" s="34">
         <v>4.2</v>
       </c>
-      <c r="E221" s="256" t="s">
+      <c r="E221" s="262" t="s">
         <v>456</v>
       </c>
-      <c r="F221" s="259"/>
+      <c r="F221" s="265"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="238"/>
-      <c r="C222" s="248"/>
+      <c r="B222" s="244"/>
+      <c r="C222" s="254"/>
       <c r="D222" s="34">
         <v>3.1248</v>
       </c>
-      <c r="E222" s="256" t="s">
+      <c r="E222" s="262" t="s">
         <v>456</v>
       </c>
-      <c r="F222" s="259"/>
+      <c r="F222" s="265"/>
     </row>
     <row r="223" spans="2:6">
-      <c r="B223" s="238"/>
-      <c r="C223" s="248"/>
+      <c r="B223" s="244"/>
+      <c r="C223" s="254"/>
       <c r="D223" s="34">
         <v>1.764</v>
       </c>
-      <c r="E223" s="256" t="s">
+      <c r="E223" s="262" t="s">
         <v>456</v>
       </c>
-      <c r="F223" s="259"/>
+      <c r="F223" s="265"/>
     </row>
     <row r="224" spans="2:6">
-      <c r="B224" s="238"/>
-      <c r="C224" s="248"/>
+      <c r="B224" s="244"/>
+      <c r="C224" s="254"/>
       <c r="D224" s="34">
         <v>1.3440000000000001</v>
       </c>
-      <c r="E224" s="249" t="s">
+      <c r="E224" s="255" t="s">
         <v>457</v>
       </c>
-      <c r="F224" s="250"/>
+      <c r="F224" s="256"/>
     </row>
     <row r="225" spans="2:6">
-      <c r="B225" s="251"/>
-      <c r="C225" s="252"/>
+      <c r="B225" s="257"/>
+      <c r="C225" s="258"/>
       <c r="D225" s="34">
         <v>1.1060000000000001</v>
       </c>
-      <c r="E225" s="249" t="s">
+      <c r="E225" s="255" t="s">
         <v>457</v>
       </c>
-      <c r="F225" s="250"/>
+      <c r="F225" s="256"/>
     </row>
     <row r="226" spans="2:6">
-      <c r="B226" s="260"/>
-      <c r="C226" s="261"/>
+      <c r="B226" s="266"/>
+      <c r="C226" s="267"/>
       <c r="D226" s="109">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E226" s="249" t="s">
+      <c r="E226" s="255" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="250"/>
+      <c r="F226" s="256"/>
     </row>
     <row r="227" spans="2:6">
-      <c r="B227" s="260"/>
-      <c r="C227" s="261"/>
+      <c r="B227" s="266"/>
+      <c r="C227" s="267"/>
       <c r="D227" s="109">
         <v>0.74199999999999999</v>
       </c>
-      <c r="E227" s="249" t="s">
+      <c r="E227" s="255" t="s">
         <v>457</v>
       </c>
-      <c r="F227" s="250"/>
+      <c r="F227" s="256"/>
     </row>
     <row r="228" spans="2:6">
-      <c r="B228" s="260"/>
-      <c r="C228" s="261"/>
+      <c r="B228" s="266"/>
+      <c r="C228" s="267"/>
       <c r="D228" s="109">
         <v>0.66779999999999995</v>
       </c>
-      <c r="E228" s="249" t="s">
+      <c r="E228" s="255" t="s">
         <v>457</v>
       </c>
-      <c r="F228" s="250"/>
+      <c r="F228" s="256"/>
     </row>
     <row r="229" spans="2:6">
-      <c r="B229" s="260"/>
-      <c r="C229" s="261"/>
+      <c r="B229" s="266"/>
+      <c r="C229" s="267"/>
       <c r="D229" s="109">
         <v>0.71399999999999997</v>
       </c>
-      <c r="E229" s="249" t="s">
+      <c r="E229" s="255" t="s">
         <v>457</v>
       </c>
-      <c r="F229" s="250"/>
+      <c r="F229" s="256"/>
     </row>
     <row r="230" spans="2:6">
-      <c r="B230" s="260"/>
-      <c r="C230" s="261"/>
+      <c r="B230" s="266"/>
+      <c r="C230" s="267"/>
       <c r="D230" s="109">
         <v>0.81200000000000006</v>
       </c>
-      <c r="E230" s="249" t="s">
+      <c r="E230" s="255" t="s">
         <v>457</v>
       </c>
-      <c r="F230" s="250"/>
+      <c r="F230" s="256"/>
     </row>
     <row r="231" spans="2:6">
-      <c r="B231" s="238"/>
-      <c r="C231" s="248"/>
+      <c r="B231" s="244"/>
+      <c r="C231" s="254"/>
       <c r="D231" s="34">
         <v>0.80500000000000005</v>
       </c>
-      <c r="E231" s="249" t="s">
+      <c r="E231" s="255" t="s">
         <v>457</v>
       </c>
-      <c r="F231" s="250"/>
+      <c r="F231" s="256"/>
     </row>
     <row r="232" spans="2:6">
-      <c r="B232" s="251" t="s">
+      <c r="B232" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C232" s="252"/>
+      <c r="C232" s="258"/>
       <c r="D232" s="39">
         <v>1.5271399999999999</v>
       </c>
-      <c r="E232" s="205"/>
-      <c r="F232" s="205"/>
+      <c r="E232" s="211"/>
+      <c r="F232" s="211"/>
     </row>
     <row r="233" spans="2:6">
       <c r="B233" s="111"/>
@@ -13926,116 +14584,116 @@
       <c r="F233" s="25"/>
     </row>
     <row r="234" spans="2:6">
-      <c r="B234" s="253" t="s">
+      <c r="B234" s="259" t="s">
         <v>458</v>
       </c>
-      <c r="C234" s="254"/>
+      <c r="C234" s="260"/>
       <c r="D234" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="E234" s="255" t="s">
+      <c r="E234" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="F234" s="255"/>
+      <c r="F234" s="261"/>
     </row>
     <row r="235" spans="2:6">
-      <c r="B235" s="238"/>
-      <c r="C235" s="248"/>
+      <c r="B235" s="244"/>
+      <c r="C235" s="254"/>
       <c r="D235" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E235" s="249" t="s">
+      <c r="E235" s="255" t="s">
         <v>460</v>
       </c>
-      <c r="F235" s="249"/>
+      <c r="F235" s="255"/>
     </row>
     <row r="236" spans="2:6">
-      <c r="B236" s="238"/>
-      <c r="C236" s="248"/>
+      <c r="B236" s="244"/>
+      <c r="C236" s="254"/>
       <c r="D236" s="34">
         <v>0.01</v>
       </c>
-      <c r="E236" s="256" t="s">
+      <c r="E236" s="262" t="s">
         <v>460</v>
       </c>
-      <c r="F236" s="259"/>
+      <c r="F236" s="265"/>
     </row>
     <row r="237" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B237" s="238"/>
-      <c r="C237" s="248"/>
+      <c r="B237" s="244"/>
+      <c r="C237" s="254"/>
       <c r="D237" s="34">
         <v>1.67E-3</v>
       </c>
-      <c r="E237" s="256" t="s">
+      <c r="E237" s="262" t="s">
         <v>461</v>
       </c>
-      <c r="F237" s="259"/>
+      <c r="F237" s="265"/>
     </row>
     <row r="238" spans="2:6" ht="54" customHeight="1">
-      <c r="B238" s="238"/>
-      <c r="C238" s="248"/>
+      <c r="B238" s="244"/>
+      <c r="C238" s="254"/>
       <c r="D238" s="34">
         <v>2.2499999999999998E-3</v>
       </c>
-      <c r="E238" s="256" t="s">
+      <c r="E238" s="262" t="s">
         <v>462</v>
       </c>
-      <c r="F238" s="259"/>
+      <c r="F238" s="265"/>
     </row>
     <row r="239" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B239" s="238"/>
-      <c r="C239" s="248"/>
+      <c r="B239" s="244"/>
+      <c r="C239" s="254"/>
       <c r="D239" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E239" s="256" t="s">
+      <c r="E239" s="262" t="s">
         <v>463</v>
       </c>
-      <c r="F239" s="259"/>
+      <c r="F239" s="265"/>
     </row>
     <row r="240" spans="2:6" ht="48.75" customHeight="1">
-      <c r="B240" s="238"/>
-      <c r="C240" s="248"/>
+      <c r="B240" s="244"/>
+      <c r="C240" s="254"/>
       <c r="D240" s="34">
         <v>1.67E-2</v>
       </c>
-      <c r="E240" s="249" t="s">
+      <c r="E240" s="255" t="s">
         <v>464</v>
       </c>
-      <c r="F240" s="250"/>
+      <c r="F240" s="256"/>
     </row>
     <row r="241" spans="2:6" ht="54.75" customHeight="1">
-      <c r="B241" s="251"/>
-      <c r="C241" s="252"/>
+      <c r="B241" s="257"/>
+      <c r="C241" s="258"/>
       <c r="D241" s="34">
         <v>1.4E-2</v>
       </c>
-      <c r="E241" s="249" t="s">
+      <c r="E241" s="255" t="s">
         <v>465</v>
       </c>
-      <c r="F241" s="250"/>
+      <c r="F241" s="256"/>
     </row>
     <row r="242" spans="2:6" ht="51.75" customHeight="1">
-      <c r="B242" s="260"/>
-      <c r="C242" s="261"/>
+      <c r="B242" s="266"/>
+      <c r="C242" s="267"/>
       <c r="D242" s="109">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E242" s="249" t="s">
+      <c r="E242" s="255" t="s">
         <v>466</v>
       </c>
-      <c r="F242" s="250"/>
+      <c r="F242" s="256"/>
     </row>
     <row r="243" spans="2:6">
-      <c r="B243" s="251" t="s">
+      <c r="B243" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C243" s="252"/>
+      <c r="C243" s="258"/>
       <c r="D243" s="39">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="E243" s="205"/>
-      <c r="F243" s="205"/>
+      <c r="E243" s="211"/>
+      <c r="F243" s="211"/>
     </row>
     <row r="244" spans="2:6">
       <c r="B244" s="111"/>
@@ -14045,149 +14703,149 @@
       <c r="F244" s="25"/>
     </row>
     <row r="245" spans="2:6">
-      <c r="B245" s="253" t="s">
+      <c r="B245" s="259" t="s">
         <v>467</v>
       </c>
-      <c r="C245" s="254"/>
+      <c r="C245" s="260"/>
       <c r="D245" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="E245" s="255" t="s">
+      <c r="E245" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="F245" s="255"/>
+      <c r="F245" s="261"/>
     </row>
     <row r="246" spans="2:6">
-      <c r="B246" s="238"/>
-      <c r="C246" s="248"/>
+      <c r="B246" s="244"/>
+      <c r="C246" s="254"/>
       <c r="D246" s="34">
         <v>0.75600000000000001</v>
       </c>
-      <c r="E246" s="249" t="s">
+      <c r="E246" s="255" t="s">
         <v>475</v>
       </c>
-      <c r="F246" s="249"/>
+      <c r="F246" s="255"/>
     </row>
     <row r="247" spans="2:6" ht="15" customHeight="1">
-      <c r="B247" s="238"/>
-      <c r="C247" s="248"/>
+      <c r="B247" s="244"/>
+      <c r="C247" s="254"/>
       <c r="D247" s="34">
         <v>0.64</v>
       </c>
-      <c r="E247" s="256" t="s">
+      <c r="E247" s="262" t="s">
         <v>474</v>
       </c>
-      <c r="F247" s="259"/>
+      <c r="F247" s="265"/>
     </row>
     <row r="248" spans="2:6">
-      <c r="B248" s="238"/>
-      <c r="C248" s="248"/>
+      <c r="B248" s="244"/>
+      <c r="C248" s="254"/>
       <c r="D248" s="34">
         <v>1</v>
       </c>
-      <c r="E248" s="256" t="s">
+      <c r="E248" s="262" t="s">
         <v>474</v>
       </c>
-      <c r="F248" s="259"/>
+      <c r="F248" s="265"/>
     </row>
     <row r="249" spans="2:6" ht="15" customHeight="1">
-      <c r="B249" s="238"/>
-      <c r="C249" s="248"/>
+      <c r="B249" s="244"/>
+      <c r="C249" s="254"/>
       <c r="D249" s="34">
         <v>0.97199999999999998</v>
       </c>
-      <c r="E249" s="256" t="s">
+      <c r="E249" s="262" t="s">
         <v>471</v>
       </c>
-      <c r="F249" s="259"/>
+      <c r="F249" s="265"/>
     </row>
     <row r="250" spans="2:6">
-      <c r="B250" s="238"/>
-      <c r="C250" s="248"/>
+      <c r="B250" s="244"/>
+      <c r="C250" s="254"/>
       <c r="D250" s="34">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E250" s="256" t="s">
+      <c r="E250" s="262" t="s">
         <v>471</v>
       </c>
-      <c r="F250" s="259"/>
+      <c r="F250" s="265"/>
     </row>
     <row r="251" spans="2:6">
-      <c r="B251" s="238"/>
-      <c r="C251" s="248"/>
+      <c r="B251" s="244"/>
+      <c r="C251" s="254"/>
       <c r="D251" s="34">
         <v>0.1008</v>
       </c>
-      <c r="E251" s="249" t="s">
+      <c r="E251" s="255" t="s">
         <v>473</v>
       </c>
-      <c r="F251" s="250"/>
+      <c r="F251" s="256"/>
     </row>
     <row r="252" spans="2:6">
-      <c r="B252" s="251"/>
-      <c r="C252" s="252"/>
+      <c r="B252" s="257"/>
+      <c r="C252" s="258"/>
       <c r="D252" s="34">
         <v>0.504</v>
       </c>
-      <c r="E252" s="249" t="s">
+      <c r="E252" s="255" t="s">
         <v>473</v>
       </c>
-      <c r="F252" s="250"/>
+      <c r="F252" s="256"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="260"/>
-      <c r="C253" s="261"/>
+      <c r="B253" s="266"/>
+      <c r="C253" s="267"/>
       <c r="D253" s="109">
         <v>1.512</v>
       </c>
-      <c r="E253" s="249" t="s">
+      <c r="E253" s="255" t="s">
         <v>472</v>
       </c>
-      <c r="F253" s="250"/>
+      <c r="F253" s="256"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="B254" s="260"/>
-      <c r="C254" s="261"/>
+      <c r="B254" s="266"/>
+      <c r="C254" s="267"/>
       <c r="D254" s="109">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E254" s="249" t="s">
+      <c r="E254" s="255" t="s">
         <v>472</v>
       </c>
-      <c r="F254" s="250"/>
+      <c r="F254" s="256"/>
     </row>
     <row r="255" spans="2:6">
-      <c r="B255" s="260"/>
-      <c r="C255" s="261"/>
+      <c r="B255" s="266"/>
+      <c r="C255" s="267"/>
       <c r="D255" s="109">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E255" s="249" t="s">
+      <c r="E255" s="255" t="s">
         <v>471</v>
       </c>
-      <c r="F255" s="250"/>
+      <c r="F255" s="256"/>
     </row>
     <row r="256" spans="2:6" ht="33.75" customHeight="1">
-      <c r="B256" s="260"/>
-      <c r="C256" s="261"/>
+      <c r="B256" s="266"/>
+      <c r="C256" s="267"/>
       <c r="D256" s="109">
         <v>1.288</v>
       </c>
-      <c r="E256" s="249" t="s">
+      <c r="E256" s="255" t="s">
         <v>470</v>
       </c>
-      <c r="F256" s="250"/>
+      <c r="F256" s="256"/>
     </row>
     <row r="257" spans="2:6" ht="30" customHeight="1">
-      <c r="B257" s="260"/>
-      <c r="C257" s="261"/>
+      <c r="B257" s="266"/>
+      <c r="C257" s="267"/>
       <c r="D257" s="109">
         <v>2.1</v>
       </c>
-      <c r="E257" s="249" t="s">
+      <c r="E257" s="255" t="s">
         <v>470</v>
       </c>
-      <c r="F257" s="250"/>
+      <c r="F257" s="256"/>
     </row>
     <row r="258" spans="2:6">
       <c r="B258" s="110"/>
@@ -14195,32 +14853,32 @@
       <c r="D258" s="34">
         <v>0.95399999999999996</v>
       </c>
-      <c r="E258" s="249" t="s">
+      <c r="E258" s="255" t="s">
         <v>469</v>
       </c>
-      <c r="F258" s="250"/>
+      <c r="F258" s="256"/>
     </row>
     <row r="259" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B259" s="238"/>
-      <c r="C259" s="248"/>
+      <c r="B259" s="244"/>
+      <c r="C259" s="254"/>
       <c r="D259" s="34">
         <v>1.8759999999999999</v>
       </c>
-      <c r="E259" s="249" t="s">
+      <c r="E259" s="255" t="s">
         <v>469</v>
       </c>
-      <c r="F259" s="250"/>
+      <c r="F259" s="256"/>
     </row>
     <row r="260" spans="2:6">
-      <c r="B260" s="251" t="s">
+      <c r="B260" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C260" s="252"/>
+      <c r="C260" s="258"/>
       <c r="D260" s="39">
         <v>1.1097999999999999</v>
       </c>
-      <c r="E260" s="205"/>
-      <c r="F260" s="205"/>
+      <c r="E260" s="211"/>
+      <c r="F260" s="211"/>
     </row>
     <row r="261" spans="2:6">
       <c r="B261" s="111"/>
@@ -14230,50 +14888,50 @@
       <c r="F261" s="25"/>
     </row>
     <row r="262" spans="2:6">
-      <c r="B262" s="253" t="s">
+      <c r="B262" s="259" t="s">
         <v>476</v>
       </c>
-      <c r="C262" s="254"/>
+      <c r="C262" s="260"/>
       <c r="D262" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="E262" s="255" t="s">
+      <c r="E262" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="F262" s="255"/>
+      <c r="F262" s="261"/>
     </row>
     <row r="263" spans="2:6">
-      <c r="B263" s="238"/>
-      <c r="C263" s="248"/>
+      <c r="B263" s="244"/>
+      <c r="C263" s="254"/>
       <c r="D263" s="34">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E263" s="249" t="s">
+      <c r="E263" s="255" t="s">
         <v>478</v>
       </c>
-      <c r="F263" s="249"/>
+      <c r="F263" s="255"/>
     </row>
     <row r="264" spans="2:6" ht="48.75" customHeight="1">
-      <c r="B264" s="238"/>
-      <c r="C264" s="248"/>
+      <c r="B264" s="244"/>
+      <c r="C264" s="254"/>
       <c r="D264" s="34">
         <v>0.2016</v>
       </c>
-      <c r="E264" s="256" t="s">
+      <c r="E264" s="262" t="s">
         <v>479</v>
       </c>
-      <c r="F264" s="259"/>
+      <c r="F264" s="265"/>
     </row>
     <row r="265" spans="2:6">
-      <c r="B265" s="251" t="s">
+      <c r="B265" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C265" s="252"/>
+      <c r="C265" s="258"/>
       <c r="D265" s="39">
         <v>0.32679999999999998</v>
       </c>
-      <c r="E265" s="205"/>
-      <c r="F265" s="205"/>
+      <c r="E265" s="211"/>
+      <c r="F265" s="211"/>
     </row>
     <row r="266" spans="2:6">
       <c r="B266" s="111"/>
@@ -14283,91 +14941,91 @@
       <c r="F266" s="25"/>
     </row>
     <row r="267" spans="2:6">
-      <c r="B267" s="253" t="s">
+      <c r="B267" s="259" t="s">
         <v>480</v>
       </c>
-      <c r="C267" s="254"/>
+      <c r="C267" s="260"/>
       <c r="D267" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="E267" s="255" t="s">
+      <c r="E267" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="F267" s="255"/>
+      <c r="F267" s="261"/>
     </row>
     <row r="268" spans="2:6">
-      <c r="B268" s="238"/>
-      <c r="C268" s="248"/>
+      <c r="B268" s="244"/>
+      <c r="C268" s="254"/>
       <c r="D268" s="34">
         <v>0.23699999999999999</v>
       </c>
-      <c r="E268" s="249" t="s">
+      <c r="E268" s="255" t="s">
         <v>482</v>
       </c>
-      <c r="F268" s="249"/>
+      <c r="F268" s="255"/>
     </row>
     <row r="269" spans="2:6">
-      <c r="B269" s="238"/>
-      <c r="C269" s="248"/>
+      <c r="B269" s="244"/>
+      <c r="C269" s="254"/>
       <c r="D269" s="34">
         <v>0.54</v>
       </c>
-      <c r="E269" s="250" t="s">
+      <c r="E269" s="256" t="s">
         <v>483</v>
       </c>
-      <c r="F269" s="250"/>
+      <c r="F269" s="256"/>
     </row>
     <row r="270" spans="2:6">
-      <c r="B270" s="238"/>
-      <c r="C270" s="248"/>
+      <c r="B270" s="244"/>
+      <c r="C270" s="254"/>
       <c r="D270" s="34">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E270" s="250" t="s">
+      <c r="E270" s="256" t="s">
         <v>483</v>
       </c>
-      <c r="F270" s="250"/>
+      <c r="F270" s="256"/>
     </row>
     <row r="271" spans="2:6">
-      <c r="B271" s="238"/>
-      <c r="C271" s="248"/>
+      <c r="B271" s="244"/>
+      <c r="C271" s="254"/>
       <c r="D271" s="34">
         <v>2.88</v>
       </c>
-      <c r="E271" s="250" t="s">
+      <c r="E271" s="256" t="s">
         <v>483</v>
       </c>
-      <c r="F271" s="250"/>
+      <c r="F271" s="256"/>
     </row>
     <row r="272" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B272" s="238"/>
-      <c r="C272" s="248"/>
+      <c r="B272" s="244"/>
+      <c r="C272" s="254"/>
       <c r="D272" s="34">
         <v>0.65500000000000003</v>
       </c>
-      <c r="E272" s="249" t="s">
+      <c r="E272" s="255" t="s">
         <v>484</v>
       </c>
-      <c r="F272" s="249"/>
+      <c r="F272" s="255"/>
     </row>
     <row r="273" spans="2:6">
-      <c r="B273" s="251" t="s">
+      <c r="B273" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C273" s="252"/>
+      <c r="C273" s="258"/>
       <c r="D273" s="39">
         <v>0.87680000000000002</v>
       </c>
-      <c r="E273" s="205"/>
-      <c r="F273" s="205"/>
+      <c r="E273" s="211"/>
+      <c r="F273" s="211"/>
     </row>
     <row r="275" spans="2:6">
-      <c r="B275" s="245" t="s">
+      <c r="B275" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="C275" s="245"/>
-      <c r="D275" s="245"/>
-      <c r="E275" s="245"/>
+      <c r="C275" s="251"/>
+      <c r="D275" s="251"/>
+      <c r="E275" s="251"/>
     </row>
     <row r="276" spans="2:6">
       <c r="B276" s="42" t="s">
@@ -14441,12 +15099,12 @@
       </c>
     </row>
     <row r="281" spans="2:6">
-      <c r="B281" s="244" t="s">
+      <c r="B281" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C281" s="244"/>
-      <c r="D281" s="244"/>
-      <c r="E281" s="244"/>
+      <c r="C281" s="250"/>
+      <c r="D281" s="250"/>
+      <c r="E281" s="250"/>
     </row>
     <row r="282" spans="2:6">
       <c r="B282" s="58" t="s">
@@ -14467,289 +15125,289 @@
       </c>
     </row>
     <row r="286" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B286" s="218" t="s">
+      <c r="B286" s="224" t="s">
         <v>496</v>
       </c>
-      <c r="C286" s="218"/>
-      <c r="D286" s="218"/>
-      <c r="E286" s="218"/>
-      <c r="F286" s="218"/>
+      <c r="C286" s="224"/>
+      <c r="D286" s="224"/>
+      <c r="E286" s="224"/>
+      <c r="F286" s="224"/>
     </row>
     <row r="287" spans="2:6">
-      <c r="B287" s="253" t="s">
+      <c r="B287" s="259" t="s">
         <v>498</v>
       </c>
-      <c r="C287" s="254"/>
+      <c r="C287" s="260"/>
       <c r="D287" s="41" t="s">
         <v>499</v>
       </c>
-      <c r="E287" s="255" t="s">
+      <c r="E287" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="F287" s="255"/>
+      <c r="F287" s="261"/>
     </row>
     <row r="288" spans="2:6">
-      <c r="B288" s="238"/>
-      <c r="C288" s="248"/>
+      <c r="B288" s="244"/>
+      <c r="C288" s="254"/>
       <c r="D288" s="34">
         <v>0.18</v>
       </c>
-      <c r="E288" s="249" t="s">
+      <c r="E288" s="255" t="s">
         <v>511</v>
       </c>
-      <c r="F288" s="249"/>
+      <c r="F288" s="255"/>
     </row>
     <row r="289" spans="2:6" ht="38.25" customHeight="1">
-      <c r="B289" s="238"/>
-      <c r="C289" s="248"/>
+      <c r="B289" s="244"/>
+      <c r="C289" s="254"/>
       <c r="D289" s="34">
         <v>1.93</v>
       </c>
-      <c r="E289" s="249" t="s">
+      <c r="E289" s="255" t="s">
         <v>510</v>
       </c>
-      <c r="F289" s="249"/>
+      <c r="F289" s="255"/>
     </row>
     <row r="290" spans="2:6">
-      <c r="B290" s="238"/>
-      <c r="C290" s="248"/>
+      <c r="B290" s="244"/>
+      <c r="C290" s="254"/>
       <c r="D290" s="34">
         <v>0.1</v>
       </c>
-      <c r="E290" s="256" t="s">
+      <c r="E290" s="262" t="s">
         <v>508</v>
       </c>
-      <c r="F290" s="259"/>
+      <c r="F290" s="265"/>
     </row>
     <row r="291" spans="2:6">
-      <c r="B291" s="238"/>
-      <c r="C291" s="248"/>
+      <c r="B291" s="244"/>
+      <c r="C291" s="254"/>
       <c r="D291" s="34">
         <v>4.8</v>
       </c>
-      <c r="E291" s="256" t="s">
+      <c r="E291" s="262" t="s">
         <v>508</v>
       </c>
-      <c r="F291" s="259"/>
+      <c r="F291" s="265"/>
     </row>
     <row r="292" spans="2:6">
-      <c r="B292" s="238"/>
-      <c r="C292" s="248"/>
+      <c r="B292" s="244"/>
+      <c r="C292" s="254"/>
       <c r="D292" s="34">
         <v>0.26</v>
       </c>
-      <c r="E292" s="258" t="s">
+      <c r="E292" s="264" t="s">
         <v>509</v>
       </c>
-      <c r="F292" s="257"/>
+      <c r="F292" s="263"/>
     </row>
     <row r="293" spans="2:6">
-      <c r="B293" s="238"/>
-      <c r="C293" s="248"/>
+      <c r="B293" s="244"/>
+      <c r="C293" s="254"/>
       <c r="D293" s="34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E293" s="256" t="s">
+      <c r="E293" s="262" t="s">
         <v>508</v>
       </c>
-      <c r="F293" s="259"/>
+      <c r="F293" s="265"/>
     </row>
     <row r="294" spans="2:6" ht="36" customHeight="1">
-      <c r="B294" s="238"/>
-      <c r="C294" s="248"/>
+      <c r="B294" s="244"/>
+      <c r="C294" s="254"/>
       <c r="D294" s="34">
         <v>6.7</v>
       </c>
-      <c r="E294" s="256" t="s">
+      <c r="E294" s="262" t="s">
         <v>507</v>
       </c>
-      <c r="F294" s="259"/>
+      <c r="F294" s="265"/>
     </row>
     <row r="295" spans="2:6">
-      <c r="B295" s="238"/>
-      <c r="C295" s="248"/>
+      <c r="B295" s="244"/>
+      <c r="C295" s="254"/>
       <c r="D295" s="34">
         <v>5.53</v>
       </c>
-      <c r="E295" s="258" t="s">
+      <c r="E295" s="264" t="s">
         <v>506</v>
       </c>
-      <c r="F295" s="257"/>
+      <c r="F295" s="263"/>
     </row>
     <row r="296" spans="2:6">
-      <c r="B296" s="238"/>
-      <c r="C296" s="248"/>
+      <c r="B296" s="244"/>
+      <c r="C296" s="254"/>
       <c r="D296" s="34">
         <v>1.03</v>
       </c>
-      <c r="E296" s="258" t="s">
+      <c r="E296" s="264" t="s">
         <v>506</v>
       </c>
-      <c r="F296" s="257"/>
+      <c r="F296" s="263"/>
     </row>
     <row r="297" spans="2:6">
-      <c r="B297" s="238"/>
-      <c r="C297" s="248"/>
+      <c r="B297" s="244"/>
+      <c r="C297" s="254"/>
       <c r="D297" s="34">
         <v>0.54</v>
       </c>
-      <c r="E297" s="258" t="s">
+      <c r="E297" s="264" t="s">
         <v>506</v>
       </c>
-      <c r="F297" s="257"/>
+      <c r="F297" s="263"/>
     </row>
     <row r="298" spans="2:6">
-      <c r="B298" s="238"/>
-      <c r="C298" s="248"/>
+      <c r="B298" s="244"/>
+      <c r="C298" s="254"/>
       <c r="D298" s="34">
         <v>0.37</v>
       </c>
-      <c r="E298" s="258" t="s">
+      <c r="E298" s="264" t="s">
         <v>506</v>
       </c>
-      <c r="F298" s="257"/>
+      <c r="F298" s="263"/>
     </row>
     <row r="299" spans="2:6" ht="47.25" customHeight="1">
-      <c r="B299" s="238"/>
-      <c r="C299" s="248"/>
+      <c r="B299" s="244"/>
+      <c r="C299" s="254"/>
       <c r="D299" s="34">
         <v>0.69</v>
       </c>
-      <c r="E299" s="256" t="s">
+      <c r="E299" s="262" t="s">
         <v>505</v>
       </c>
-      <c r="F299" s="259"/>
+      <c r="F299" s="265"/>
     </row>
     <row r="300" spans="2:6">
-      <c r="B300" s="238"/>
-      <c r="C300" s="248"/>
+      <c r="B300" s="244"/>
+      <c r="C300" s="254"/>
       <c r="D300" s="34">
         <v>0.27</v>
       </c>
-      <c r="E300" s="258" t="s">
+      <c r="E300" s="264" t="s">
         <v>504</v>
       </c>
-      <c r="F300" s="257"/>
+      <c r="F300" s="263"/>
     </row>
     <row r="301" spans="2:6">
-      <c r="B301" s="238"/>
-      <c r="C301" s="248"/>
+      <c r="B301" s="244"/>
+      <c r="C301" s="254"/>
       <c r="D301" s="34">
         <v>0.17</v>
       </c>
-      <c r="E301" s="258" t="s">
+      <c r="E301" s="264" t="s">
         <v>503</v>
       </c>
-      <c r="F301" s="257"/>
+      <c r="F301" s="263"/>
     </row>
     <row r="302" spans="2:6">
-      <c r="B302" s="238"/>
-      <c r="C302" s="248"/>
+      <c r="B302" s="244"/>
+      <c r="C302" s="254"/>
       <c r="D302" s="34">
         <v>0.27</v>
       </c>
-      <c r="E302" s="258" t="s">
+      <c r="E302" s="264" t="s">
         <v>503</v>
       </c>
-      <c r="F302" s="257"/>
+      <c r="F302" s="263"/>
     </row>
     <row r="303" spans="2:6">
-      <c r="B303" s="238"/>
-      <c r="C303" s="248"/>
+      <c r="B303" s="244"/>
+      <c r="C303" s="254"/>
       <c r="D303" s="34">
         <v>0.35</v>
       </c>
-      <c r="E303" s="258" t="s">
+      <c r="E303" s="264" t="s">
         <v>503</v>
       </c>
-      <c r="F303" s="257"/>
+      <c r="F303" s="263"/>
     </row>
     <row r="304" spans="2:6">
-      <c r="B304" s="238"/>
-      <c r="C304" s="248"/>
+      <c r="B304" s="244"/>
+      <c r="C304" s="254"/>
       <c r="D304" s="34">
         <v>4.75</v>
       </c>
-      <c r="E304" s="258" t="s">
+      <c r="E304" s="264" t="s">
         <v>503</v>
       </c>
-      <c r="F304" s="257"/>
+      <c r="F304" s="263"/>
     </row>
     <row r="305" spans="2:6">
-      <c r="B305" s="238"/>
-      <c r="C305" s="248"/>
+      <c r="B305" s="244"/>
+      <c r="C305" s="254"/>
       <c r="D305" s="34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E305" s="258" t="s">
+      <c r="E305" s="264" t="s">
         <v>503</v>
       </c>
-      <c r="F305" s="257"/>
+      <c r="F305" s="263"/>
     </row>
     <row r="306" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B306" s="238"/>
-      <c r="C306" s="248"/>
+      <c r="B306" s="244"/>
+      <c r="C306" s="254"/>
       <c r="D306" s="34">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E306" s="256" t="s">
+      <c r="E306" s="262" t="s">
         <v>502</v>
       </c>
-      <c r="F306" s="257"/>
+      <c r="F306" s="263"/>
     </row>
     <row r="307" spans="2:6">
-      <c r="B307" s="238"/>
-      <c r="C307" s="248"/>
+      <c r="B307" s="244"/>
+      <c r="C307" s="254"/>
       <c r="D307" s="34">
         <v>0.52</v>
       </c>
-      <c r="E307" s="249" t="s">
+      <c r="E307" s="255" t="s">
         <v>500</v>
       </c>
-      <c r="F307" s="249"/>
+      <c r="F307" s="255"/>
     </row>
     <row r="308" spans="2:6">
-      <c r="B308" s="238"/>
-      <c r="C308" s="248"/>
+      <c r="B308" s="244"/>
+      <c r="C308" s="254"/>
       <c r="D308" s="34">
         <v>0.33</v>
       </c>
-      <c r="E308" s="249" t="s">
+      <c r="E308" s="255" t="s">
         <v>500</v>
       </c>
-      <c r="F308" s="249"/>
+      <c r="F308" s="255"/>
     </row>
     <row r="309" spans="2:6">
-      <c r="B309" s="238"/>
-      <c r="C309" s="248"/>
+      <c r="B309" s="244"/>
+      <c r="C309" s="254"/>
       <c r="D309" s="34">
         <v>0.27</v>
       </c>
-      <c r="E309" s="249" t="s">
+      <c r="E309" s="255" t="s">
         <v>500</v>
       </c>
-      <c r="F309" s="249"/>
+      <c r="F309" s="255"/>
     </row>
     <row r="310" spans="2:6" ht="31.5" customHeight="1">
-      <c r="B310" s="251" t="s">
+      <c r="B310" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C310" s="252"/>
+      <c r="C310" s="258"/>
       <c r="D310" s="39">
         <v>1.649</v>
       </c>
-      <c r="E310" s="249" t="s">
+      <c r="E310" s="255" t="s">
         <v>501</v>
       </c>
-      <c r="F310" s="249"/>
+      <c r="F310" s="255"/>
     </row>
     <row r="312" spans="2:6">
-      <c r="B312" s="245" t="s">
+      <c r="B312" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="C312" s="245"/>
-      <c r="D312" s="245"/>
-      <c r="E312" s="245"/>
+      <c r="C312" s="251"/>
+      <c r="D312" s="251"/>
+      <c r="E312" s="251"/>
     </row>
     <row r="313" spans="2:6">
       <c r="B313" s="42" t="s">
@@ -14807,12 +15465,12 @@
       </c>
     </row>
     <row r="317" spans="2:6">
-      <c r="B317" s="244" t="s">
+      <c r="B317" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C317" s="244"/>
-      <c r="D317" s="244"/>
-      <c r="E317" s="244"/>
+      <c r="C317" s="250"/>
+      <c r="D317" s="250"/>
+      <c r="E317" s="250"/>
     </row>
     <row r="318" spans="2:6">
       <c r="B318" s="58" t="s">
@@ -14850,150 +15508,150 @@
       <c r="E320" s="58"/>
     </row>
     <row r="322" spans="2:6">
-      <c r="B322" s="253" t="s">
+      <c r="B322" s="259" t="s">
         <v>96</v>
       </c>
-      <c r="C322" s="254"/>
+      <c r="C322" s="260"/>
       <c r="D322" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E322" s="255" t="s">
+      <c r="E322" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="F322" s="255"/>
+      <c r="F322" s="261"/>
     </row>
     <row r="323" spans="2:6">
-      <c r="B323" s="238"/>
-      <c r="C323" s="248"/>
+      <c r="B323" s="244"/>
+      <c r="C323" s="254"/>
       <c r="D323" s="34">
         <v>0.10125000000000001</v>
       </c>
-      <c r="E323" s="249" t="s">
+      <c r="E323" s="255" t="s">
         <v>88</v>
       </c>
-      <c r="F323" s="249"/>
+      <c r="F323" s="255"/>
     </row>
     <row r="324" spans="2:6">
-      <c r="B324" s="238"/>
-      <c r="C324" s="248"/>
+      <c r="B324" s="244"/>
+      <c r="C324" s="254"/>
       <c r="D324" s="34">
         <v>0.15079000000000001</v>
       </c>
-      <c r="E324" s="249" t="s">
+      <c r="E324" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="F324" s="250"/>
+      <c r="F324" s="256"/>
     </row>
     <row r="325" spans="2:6">
-      <c r="B325" s="251" t="s">
+      <c r="B325" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C325" s="252"/>
+      <c r="C325" s="258"/>
       <c r="D325" s="39">
         <v>0.126</v>
       </c>
-      <c r="E325" s="205"/>
-      <c r="F325" s="205"/>
+      <c r="E325" s="211"/>
+      <c r="F325" s="211"/>
     </row>
     <row r="327" spans="2:6">
-      <c r="B327" s="253" t="s">
+      <c r="B327" s="259" t="s">
         <v>92</v>
       </c>
-      <c r="C327" s="254"/>
+      <c r="C327" s="260"/>
       <c r="D327" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E327" s="255" t="s">
+      <c r="E327" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="F327" s="255"/>
+      <c r="F327" s="261"/>
     </row>
     <row r="328" spans="2:6">
-      <c r="B328" s="238"/>
-      <c r="C328" s="248"/>
+      <c r="B328" s="244"/>
+      <c r="C328" s="254"/>
       <c r="D328" s="34">
         <v>1.44</v>
       </c>
-      <c r="E328" s="249" t="s">
+      <c r="E328" s="255" t="s">
         <v>94</v>
       </c>
-      <c r="F328" s="249"/>
+      <c r="F328" s="255"/>
     </row>
     <row r="329" spans="2:6">
-      <c r="B329" s="238"/>
-      <c r="C329" s="248"/>
+      <c r="B329" s="244"/>
+      <c r="C329" s="254"/>
       <c r="D329" s="34">
         <v>2.88</v>
       </c>
-      <c r="E329" s="249" t="s">
+      <c r="E329" s="255" t="s">
         <v>95</v>
       </c>
-      <c r="F329" s="250"/>
+      <c r="F329" s="256"/>
     </row>
     <row r="330" spans="2:6">
-      <c r="B330" s="251" t="s">
+      <c r="B330" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C330" s="252"/>
+      <c r="C330" s="258"/>
       <c r="D330" s="39">
         <v>2.16</v>
       </c>
-      <c r="E330" s="205"/>
-      <c r="F330" s="205"/>
+      <c r="E330" s="211"/>
+      <c r="F330" s="211"/>
     </row>
     <row r="332" spans="2:6">
-      <c r="B332" s="253" t="s">
+      <c r="B332" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="C332" s="254"/>
+      <c r="C332" s="260"/>
       <c r="D332" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E332" s="255" t="s">
+      <c r="E332" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="F332" s="255"/>
+      <c r="F332" s="261"/>
     </row>
     <row r="333" spans="2:6">
-      <c r="B333" s="238"/>
-      <c r="C333" s="248"/>
+      <c r="B333" s="244"/>
+      <c r="C333" s="254"/>
       <c r="D333" s="34">
         <v>11.7</v>
       </c>
-      <c r="E333" s="249" t="s">
+      <c r="E333" s="255" t="s">
         <v>100</v>
       </c>
-      <c r="F333" s="249"/>
+      <c r="F333" s="255"/>
     </row>
     <row r="334" spans="2:6">
-      <c r="B334" s="238"/>
-      <c r="C334" s="248"/>
+      <c r="B334" s="244"/>
+      <c r="C334" s="254"/>
       <c r="D334" s="34">
         <v>19.7</v>
       </c>
-      <c r="E334" s="249" t="s">
+      <c r="E334" s="255" t="s">
         <v>100</v>
       </c>
-      <c r="F334" s="250"/>
+      <c r="F334" s="256"/>
     </row>
     <row r="335" spans="2:6">
-      <c r="B335" s="251" t="s">
+      <c r="B335" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="C335" s="252"/>
+      <c r="C335" s="258"/>
       <c r="D335" s="39">
         <v>15.7</v>
       </c>
-      <c r="E335" s="205"/>
-      <c r="F335" s="205"/>
+      <c r="E335" s="211"/>
+      <c r="F335" s="211"/>
     </row>
     <row r="338" spans="2:5">
-      <c r="B338" s="245" t="s">
+      <c r="B338" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="C338" s="245"/>
-      <c r="D338" s="245"/>
-      <c r="E338" s="245"/>
+      <c r="C338" s="251"/>
+      <c r="D338" s="251"/>
+      <c r="E338" s="251"/>
     </row>
     <row r="339" spans="2:5">
       <c r="B339" s="42" t="s">
@@ -15158,12 +15816,12 @@
       </c>
     </row>
     <row r="350" spans="2:5">
-      <c r="B350" s="244" t="s">
+      <c r="B350" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C350" s="244"/>
-      <c r="D350" s="244"/>
-      <c r="E350" s="244"/>
+      <c r="C350" s="250"/>
+      <c r="D350" s="250"/>
+      <c r="E350" s="250"/>
     </row>
     <row r="351" spans="2:5">
       <c r="B351" s="58" t="s">
@@ -15218,12 +15876,12 @@
       <c r="E354" s="58"/>
     </row>
     <row r="356" spans="2:5">
-      <c r="B356" s="245" t="s">
+      <c r="B356" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="C356" s="245"/>
-      <c r="D356" s="245"/>
-      <c r="E356" s="245"/>
+      <c r="C356" s="251"/>
+      <c r="D356" s="251"/>
+      <c r="E356" s="251"/>
     </row>
     <row r="357" spans="2:5">
       <c r="B357" s="42" t="s">
@@ -15360,12 +16018,12 @@
       </c>
     </row>
     <row r="366" spans="2:5">
-      <c r="B366" s="244" t="s">
+      <c r="B366" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C366" s="244"/>
-      <c r="D366" s="244"/>
-      <c r="E366" s="244"/>
+      <c r="C366" s="250"/>
+      <c r="D366" s="250"/>
+      <c r="E366" s="250"/>
     </row>
     <row r="367" spans="2:5">
       <c r="B367" s="58" t="s">
@@ -15399,12 +16057,12 @@
       </c>
     </row>
     <row r="372" spans="2:5">
-      <c r="B372" s="245" t="s">
+      <c r="B372" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="C372" s="245"/>
-      <c r="D372" s="245"/>
-      <c r="E372" s="245"/>
+      <c r="C372" s="251"/>
+      <c r="D372" s="251"/>
+      <c r="E372" s="251"/>
     </row>
     <row r="373" spans="2:5">
       <c r="B373" s="42" t="s">
@@ -15436,12 +16094,12 @@
       </c>
     </row>
     <row r="375" spans="2:5">
-      <c r="B375" s="244" t="s">
+      <c r="B375" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C375" s="244"/>
-      <c r="D375" s="244"/>
-      <c r="E375" s="244"/>
+      <c r="C375" s="250"/>
+      <c r="D375" s="250"/>
+      <c r="E375" s="250"/>
     </row>
     <row r="376" spans="2:5">
       <c r="B376" s="58" t="s">
@@ -15460,12 +16118,12 @@
       </c>
     </row>
     <row r="380" spans="2:5">
-      <c r="B380" s="243" t="s">
+      <c r="B380" s="249" t="s">
         <v>531</v>
       </c>
-      <c r="C380" s="245"/>
-      <c r="D380" s="245"/>
-      <c r="E380" s="245"/>
+      <c r="C380" s="251"/>
+      <c r="D380" s="251"/>
+      <c r="E380" s="251"/>
     </row>
     <row r="381" spans="2:5">
       <c r="B381" s="1" t="s">
@@ -15650,12 +16308,12 @@
       </c>
     </row>
     <row r="395" spans="2:5">
-      <c r="B395" s="243" t="s">
+      <c r="B395" s="249" t="s">
         <v>532</v>
       </c>
-      <c r="C395" s="245"/>
-      <c r="D395" s="245"/>
-      <c r="E395" s="245"/>
+      <c r="C395" s="251"/>
+      <c r="D395" s="251"/>
+      <c r="E395" s="251"/>
     </row>
     <row r="396" spans="2:5">
       <c r="B396" s="1" t="s">
@@ -15840,13 +16498,13 @@
       </c>
     </row>
     <row r="410" spans="2:6">
-      <c r="B410" s="243" t="s">
+      <c r="B410" s="249" t="s">
         <v>528</v>
       </c>
-      <c r="C410" s="243"/>
-      <c r="D410" s="243"/>
-      <c r="E410" s="243"/>
-      <c r="F410" s="243"/>
+      <c r="C410" s="249"/>
+      <c r="D410" s="249"/>
+      <c r="E410" s="249"/>
+      <c r="F410" s="249"/>
     </row>
     <row r="411" spans="2:6">
       <c r="B411" s="115" t="s">
@@ -16079,43 +16737,43 @@
       </c>
     </row>
     <row r="427" spans="2:10">
-      <c r="B427" s="245" t="s">
+      <c r="B427" s="251" t="s">
         <v>552</v>
       </c>
-      <c r="C427" s="245"/>
-      <c r="D427" s="245"/>
-      <c r="E427" s="245"/>
-      <c r="F427" s="245"/>
-      <c r="G427" s="245"/>
-      <c r="H427" s="245"/>
-      <c r="I427" s="245"/>
-      <c r="J427" s="245"/>
+      <c r="C427" s="251"/>
+      <c r="D427" s="251"/>
+      <c r="E427" s="251"/>
+      <c r="F427" s="251"/>
+      <c r="G427" s="251"/>
+      <c r="H427" s="251"/>
+      <c r="I427" s="251"/>
+      <c r="J427" s="251"/>
     </row>
     <row r="428" spans="2:10">
-      <c r="B428" s="245" t="s">
+      <c r="B428" s="251" t="s">
         <v>553</v>
       </c>
-      <c r="C428" s="245"/>
-      <c r="D428" s="245"/>
-      <c r="E428" s="245"/>
-      <c r="F428" s="245"/>
-      <c r="G428" s="245"/>
-      <c r="H428" s="245"/>
-      <c r="I428" s="245"/>
-      <c r="J428" s="245"/>
+      <c r="C428" s="251"/>
+      <c r="D428" s="251"/>
+      <c r="E428" s="251"/>
+      <c r="F428" s="251"/>
+      <c r="G428" s="251"/>
+      <c r="H428" s="251"/>
+      <c r="I428" s="251"/>
+      <c r="J428" s="251"/>
     </row>
     <row r="429" spans="2:10">
-      <c r="B429" s="245" t="s">
+      <c r="B429" s="251" t="s">
         <v>554</v>
       </c>
-      <c r="C429" s="245"/>
-      <c r="D429" s="245"/>
-      <c r="E429" s="245"/>
-      <c r="F429" s="245"/>
-      <c r="G429" s="245"/>
-      <c r="H429" s="245"/>
-      <c r="I429" s="245"/>
-      <c r="J429" s="245"/>
+      <c r="C429" s="251"/>
+      <c r="D429" s="251"/>
+      <c r="E429" s="251"/>
+      <c r="F429" s="251"/>
+      <c r="G429" s="251"/>
+      <c r="H429" s="251"/>
+      <c r="I429" s="251"/>
+      <c r="J429" s="251"/>
     </row>
     <row r="430" spans="2:10">
       <c r="B430" s="42" t="s">
@@ -16133,10 +16791,10 @@
       <c r="F430" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G430" s="246" t="s">
+      <c r="G430" s="252" t="s">
         <v>196</v>
       </c>
-      <c r="H430" s="247"/>
+      <c r="H430" s="253"/>
       <c r="I430" s="119" t="s">
         <v>189</v>
       </c>
@@ -16159,10 +16817,10 @@
       </c>
       <c r="F431" s="37"/>
       <c r="G431" s="45" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="H431" s="45" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="I431" s="120" t="s">
         <v>556</v>
@@ -16171,7 +16829,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="432" spans="2:10" ht="45">
+    <row r="432" spans="2:10" ht="30">
       <c r="B432" s="34" t="s">
         <v>180</v>
       </c>
@@ -16213,10 +16871,10 @@
         <v>551</v>
       </c>
       <c r="G433" s="52" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="H433" s="53" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="I433" s="120" t="s">
         <v>555</v>
@@ -16271,10 +16929,10 @@
         <v>299</v>
       </c>
       <c r="G435" s="36" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H435" s="36" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="I435" s="120" t="s">
         <v>714</v>
@@ -16313,16 +16971,16 @@
       </c>
     </row>
     <row r="443" spans="2:10">
-      <c r="C443" s="218"/>
-      <c r="D443" s="218"/>
+      <c r="C443" s="224"/>
+      <c r="D443" s="224"/>
     </row>
     <row r="444" spans="2:10">
-      <c r="C444" s="218"/>
-      <c r="D444" s="218"/>
+      <c r="C444" s="224"/>
+      <c r="D444" s="224"/>
     </row>
     <row r="445" spans="2:10">
-      <c r="C445" s="218"/>
-      <c r="D445" s="218"/>
+      <c r="C445" s="224"/>
+      <c r="D445" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="294">
@@ -16658,14 +17316,14 @@
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="27" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B27" s="276" t="s">
+      <c r="B27" s="284" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="277"/>
-      <c r="D27" s="278" t="s">
+      <c r="C27" s="285"/>
+      <c r="D27" s="286" t="s">
         <v>205</v>
       </c>
-      <c r="E27" s="279"/>
+      <c r="E27" s="287"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B28" s="63" t="s">
@@ -16717,10 +17375,10 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="39" customHeight="1" thickBot="1">
-      <c r="B31" s="317" t="s">
+      <c r="B31" s="325" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="317">
+      <c r="C31" s="325">
         <v>160</v>
       </c>
       <c r="D31" s="31" t="s">
@@ -16731,8 +17389,8 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B32" s="318"/>
-      <c r="C32" s="318"/>
+      <c r="B32" s="326"/>
+      <c r="C32" s="326"/>
       <c r="D32" s="28" t="s">
         <v>610</v>
       </c>
@@ -16741,8 +17399,8 @@
       </c>
     </row>
     <row r="33" spans="2:13" ht="21" customHeight="1" thickBot="1">
-      <c r="B33" s="318"/>
-      <c r="C33" s="318"/>
+      <c r="B33" s="326"/>
+      <c r="C33" s="326"/>
       <c r="D33" s="31" t="s">
         <v>611</v>
       </c>
@@ -16751,8 +17409,8 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="21" customHeight="1" thickBot="1">
-      <c r="B34" s="318"/>
-      <c r="C34" s="318"/>
+      <c r="B34" s="326"/>
+      <c r="C34" s="326"/>
       <c r="D34" s="28" t="s">
         <v>612</v>
       </c>
@@ -16761,8 +17419,8 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="21" customHeight="1" thickBot="1">
-      <c r="B35" s="319"/>
-      <c r="C35" s="319"/>
+      <c r="B35" s="327"/>
+      <c r="C35" s="327"/>
       <c r="D35" s="31" t="s">
         <v>613</v>
       </c>
@@ -16772,20 +17430,20 @@
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="38" spans="2:13">
-      <c r="B38" s="266" t="s">
+      <c r="B38" s="274" t="s">
         <v>213</v>
       </c>
-      <c r="C38" s="267"/>
-      <c r="D38" s="267"/>
-      <c r="E38" s="267"/>
-      <c r="F38" s="267"/>
-      <c r="G38" s="267"/>
-      <c r="H38" s="267"/>
-      <c r="I38" s="267"/>
-      <c r="J38" s="267"/>
-      <c r="K38" s="267"/>
-      <c r="L38" s="267"/>
-      <c r="M38" s="268"/>
+      <c r="C38" s="275"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="275"/>
+      <c r="F38" s="275"/>
+      <c r="G38" s="275"/>
+      <c r="H38" s="275"/>
+      <c r="I38" s="275"/>
+      <c r="J38" s="275"/>
+      <c r="K38" s="275"/>
+      <c r="L38" s="275"/>
+      <c r="M38" s="276"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="40" spans="2:13" ht="18.75" thickBot="1">
@@ -16798,20 +17456,20 @@
     </row>
     <row r="41" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="42" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B42" s="304" t="s">
+      <c r="B42" s="312" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="305"/>
-      <c r="D42" s="305"/>
-      <c r="E42" s="306"/>
+      <c r="C42" s="313"/>
+      <c r="D42" s="313"/>
+      <c r="E42" s="314"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="245" t="s">
+      <c r="B44" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="245"/>
-      <c r="D44" s="245"/>
-      <c r="E44" s="245"/>
+      <c r="C44" s="251"/>
+      <c r="D44" s="251"/>
+      <c r="E44" s="251"/>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="42" t="s">
@@ -16839,7 +17497,7 @@
       <c r="D46" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="E46" s="320" t="s">
+      <c r="E46" s="328" t="s">
         <v>246</v>
       </c>
     </row>
@@ -16854,7 +17512,7 @@
       <c r="D47" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="E47" s="321"/>
+      <c r="E47" s="329"/>
       <c r="G47" s="66"/>
     </row>
     <row r="48" spans="2:13" ht="30">
@@ -16873,12 +17531,12 @@
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="244" t="s">
+      <c r="B49" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="244"/>
-      <c r="D49" s="244"/>
-      <c r="E49" s="244"/>
+      <c r="C49" s="250"/>
+      <c r="D49" s="250"/>
+      <c r="E49" s="250"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="59" t="s">
@@ -16912,12 +17570,12 @@
     </row>
     <row r="53" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="54" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B54" s="304" t="s">
+      <c r="B54" s="312" t="s">
         <v>248</v>
       </c>
-      <c r="C54" s="305"/>
-      <c r="D54" s="305"/>
-      <c r="E54" s="306"/>
+      <c r="C54" s="313"/>
+      <c r="D54" s="313"/>
+      <c r="E54" s="314"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="118" t="s">
@@ -16925,12 +17583,12 @@
       </c>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="244" t="s">
+      <c r="B57" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="244"/>
-      <c r="D57" s="244"/>
-      <c r="E57" s="244"/>
+      <c r="C57" s="250"/>
+      <c r="D57" s="250"/>
+      <c r="E57" s="250"/>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="73" t="s">
@@ -16992,12 +17650,12 @@
       <c r="F61" s="72"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="244" t="s">
+      <c r="B62" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="244"/>
-      <c r="D62" s="244"/>
-      <c r="E62" s="244"/>
+      <c r="C62" s="250"/>
+      <c r="D62" s="250"/>
+      <c r="E62" s="250"/>
       <c r="G62" t="s">
         <v>262</v>
       </c>
@@ -17047,20 +17705,20 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="33" customHeight="1">
-      <c r="B66" s="313" t="s">
+      <c r="B66" s="321" t="s">
         <v>533</v>
       </c>
-      <c r="C66" s="313"/>
-      <c r="D66" s="313"/>
-      <c r="E66" s="313"/>
+      <c r="C66" s="321"/>
+      <c r="D66" s="321"/>
+      <c r="E66" s="321"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="244" t="s">
+      <c r="B67" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="244"/>
-      <c r="D67" s="244"/>
-      <c r="E67" s="244"/>
+      <c r="C67" s="250"/>
+      <c r="D67" s="250"/>
+      <c r="E67" s="250"/>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="42" t="s">
@@ -17130,12 +17788,12 @@
       </c>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="244" t="s">
+      <c r="B73" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="244"/>
-      <c r="D73" s="244"/>
-      <c r="E73" s="244"/>
+      <c r="C73" s="250"/>
+      <c r="D73" s="250"/>
+      <c r="E73" s="250"/>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="59" t="s">
@@ -17194,20 +17852,20 @@
       <c r="E77" s="76"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="314" t="s">
+      <c r="B79" s="322" t="s">
         <v>274</v>
       </c>
-      <c r="C79" s="313"/>
-      <c r="D79" s="313"/>
-      <c r="E79" s="313"/>
+      <c r="C79" s="321"/>
+      <c r="D79" s="321"/>
+      <c r="E79" s="321"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="244" t="s">
+      <c r="B80" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="244"/>
-      <c r="D80" s="244"/>
-      <c r="E80" s="244"/>
+      <c r="C80" s="250"/>
+      <c r="D80" s="250"/>
+      <c r="E80" s="250"/>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="42" t="s">
@@ -17249,12 +17907,12 @@
       </c>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="244" t="s">
+      <c r="B84" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="244"/>
-      <c r="D84" s="244"/>
-      <c r="E84" s="244"/>
+      <c r="C84" s="250"/>
+      <c r="D84" s="250"/>
+      <c r="E84" s="250"/>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="59" t="s">
@@ -17284,20 +17942,20 @@
     </row>
     <row r="87" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="88" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B88" s="304" t="s">
+      <c r="B88" s="312" t="s">
         <v>277</v>
       </c>
-      <c r="C88" s="305"/>
-      <c r="D88" s="305"/>
-      <c r="E88" s="306"/>
+      <c r="C88" s="313"/>
+      <c r="D88" s="313"/>
+      <c r="E88" s="314"/>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="244" t="s">
+      <c r="B90" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="244"/>
-      <c r="D90" s="244"/>
-      <c r="E90" s="244"/>
+      <c r="C90" s="250"/>
+      <c r="D90" s="250"/>
+      <c r="E90" s="250"/>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="42" t="s">
@@ -17329,12 +17987,12 @@
       </c>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="244" t="s">
+      <c r="B93" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="244"/>
-      <c r="D93" s="244"/>
-      <c r="E93" s="244"/>
+      <c r="C93" s="250"/>
+      <c r="D93" s="250"/>
+      <c r="E93" s="250"/>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="59" t="s">
@@ -17350,12 +18008,12 @@
       <c r="E94" s="58"/>
     </row>
     <row r="96" spans="2:5">
-      <c r="B96" s="244" t="s">
+      <c r="B96" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="244"/>
-      <c r="D96" s="244"/>
-      <c r="E96" s="244"/>
+      <c r="C96" s="250"/>
+      <c r="D96" s="250"/>
+      <c r="E96" s="250"/>
     </row>
     <row r="97" spans="2:17">
       <c r="B97" s="42" t="s">
@@ -17387,10 +18045,10 @@
       </c>
     </row>
     <row r="99" spans="2:17">
-      <c r="B99" s="244"/>
-      <c r="C99" s="244"/>
-      <c r="D99" s="244"/>
-      <c r="E99" s="244"/>
+      <c r="B99" s="250"/>
+      <c r="C99" s="250"/>
+      <c r="D99" s="250"/>
+      <c r="E99" s="250"/>
     </row>
     <row r="100" spans="2:17">
       <c r="B100" s="59" t="s">
@@ -17407,33 +18065,33 @@
     </row>
     <row r="101" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="102" spans="2:17" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B102" s="304" t="s">
+      <c r="B102" s="312" t="s">
         <v>282</v>
       </c>
-      <c r="C102" s="305"/>
-      <c r="D102" s="305"/>
-      <c r="E102" s="306"/>
-      <c r="G102" s="315" t="s">
+      <c r="C102" s="313"/>
+      <c r="D102" s="313"/>
+      <c r="E102" s="314"/>
+      <c r="G102" s="323" t="s">
         <v>281</v>
       </c>
-      <c r="H102" s="316"/>
-      <c r="I102" s="316"/>
-      <c r="J102" s="316"/>
-      <c r="K102" s="316"/>
-      <c r="L102" s="316"/>
-      <c r="M102" s="316"/>
-      <c r="N102" s="316"/>
-      <c r="O102" s="316"/>
-      <c r="P102" s="316"/>
-      <c r="Q102" s="316"/>
+      <c r="H102" s="324"/>
+      <c r="I102" s="324"/>
+      <c r="J102" s="324"/>
+      <c r="K102" s="324"/>
+      <c r="L102" s="324"/>
+      <c r="M102" s="324"/>
+      <c r="N102" s="324"/>
+      <c r="O102" s="324"/>
+      <c r="P102" s="324"/>
+      <c r="Q102" s="324"/>
     </row>
     <row r="104" spans="2:17">
-      <c r="B104" s="244" t="s">
+      <c r="B104" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="244"/>
-      <c r="D104" s="244"/>
-      <c r="E104" s="244"/>
+      <c r="C104" s="250"/>
+      <c r="D104" s="250"/>
+      <c r="E104" s="250"/>
     </row>
     <row r="105" spans="2:17">
       <c r="B105" s="42" t="s">
@@ -17552,12 +18210,12 @@
       </c>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="244" t="s">
+      <c r="B113" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C113" s="244"/>
-      <c r="D113" s="244"/>
-      <c r="E113" s="244"/>
+      <c r="C113" s="250"/>
+      <c r="D113" s="250"/>
+      <c r="E113" s="250"/>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="59" t="s">
@@ -17578,12 +18236,12 @@
       </c>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="244" t="s">
+      <c r="B118" s="250" t="s">
         <v>213</v>
       </c>
-      <c r="C118" s="244"/>
-      <c r="D118" s="244"/>
-      <c r="E118" s="244"/>
+      <c r="C118" s="250"/>
+      <c r="D118" s="250"/>
+      <c r="E118" s="250"/>
       <c r="F118" s="107"/>
     </row>
     <row r="119" spans="2:6">
@@ -17826,17 +18484,17 @@
       </c>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" s="245" t="s">
+      <c r="B135" s="251" t="s">
         <v>213</v>
       </c>
-      <c r="C135" s="245"/>
-      <c r="D135" s="245"/>
-      <c r="E135" s="245"/>
-      <c r="F135" s="245"/>
-      <c r="G135" s="245"/>
-      <c r="H135" s="245"/>
-      <c r="I135" s="245"/>
-      <c r="J135" s="245"/>
+      <c r="C135" s="251"/>
+      <c r="D135" s="251"/>
+      <c r="E135" s="251"/>
+      <c r="F135" s="251"/>
+      <c r="G135" s="251"/>
+      <c r="H135" s="251"/>
+      <c r="I135" s="251"/>
+      <c r="J135" s="251"/>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="42" t="s">
@@ -17854,10 +18512,10 @@
       <c r="F136" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G136" s="246" t="s">
+      <c r="G136" s="252" t="s">
         <v>196</v>
       </c>
-      <c r="H136" s="247"/>
+      <c r="H136" s="253"/>
       <c r="I136" s="119" t="s">
         <v>189</v>
       </c>
@@ -17867,47 +18525,47 @@
       <c r="K136" s="1"/>
     </row>
     <row r="137" spans="2:11" ht="117" customHeight="1">
-      <c r="B137" s="182" t="s">
+      <c r="B137" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="177" t="s">
+      <c r="C137" s="182" t="s">
         <v>194</v>
       </c>
-      <c r="D137" s="177" t="s">
+      <c r="D137" s="182" t="s">
         <v>289</v>
       </c>
-      <c r="E137" s="177" t="s">
+      <c r="E137" s="182" t="s">
         <v>565</v>
       </c>
-      <c r="F137" s="182"/>
+      <c r="F137" s="187"/>
       <c r="G137" s="141" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H137" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="I137" s="262" t="s">
+      <c r="I137" s="268" t="s">
         <v>293</v>
       </c>
-      <c r="J137" s="177" t="s">
+      <c r="J137" s="182" t="s">
         <v>579</v>
       </c>
       <c r="K137" s="143"/>
     </row>
     <row r="138" spans="2:11" ht="45">
-      <c r="B138" s="183"/>
-      <c r="C138" s="178"/>
-      <c r="D138" s="178"/>
-      <c r="E138" s="178"/>
-      <c r="F138" s="183"/>
+      <c r="B138" s="188"/>
+      <c r="C138" s="183"/>
+      <c r="D138" s="183"/>
+      <c r="E138" s="183"/>
+      <c r="F138" s="188"/>
       <c r="G138" s="51" t="s">
         <v>660</v>
       </c>
       <c r="H138" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="I138" s="264"/>
-      <c r="J138" s="178"/>
+      <c r="I138" s="270"/>
+      <c r="J138" s="183"/>
       <c r="K138" s="1"/>
     </row>
     <row r="139" spans="2:11" ht="105">
@@ -17953,10 +18611,10 @@
         <v>551</v>
       </c>
       <c r="G140" s="24" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="H140" s="36" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="I140" s="121" t="s">
         <v>557</v>
@@ -17997,137 +18655,137 @@
       <c r="K141" s="1"/>
     </row>
     <row r="142" spans="2:11" ht="104.25" customHeight="1">
-      <c r="B142" s="182" t="s">
+      <c r="B142" s="187" t="s">
         <v>183</v>
       </c>
-      <c r="C142" s="177" t="s">
+      <c r="C142" s="182" t="s">
         <v>297</v>
       </c>
-      <c r="D142" s="177" t="s">
+      <c r="D142" s="182" t="s">
         <v>641</v>
       </c>
-      <c r="E142" s="177" t="s">
+      <c r="E142" s="182" t="s">
         <v>642</v>
       </c>
-      <c r="F142" s="177" t="s">
+      <c r="F142" s="182" t="s">
         <v>669</v>
       </c>
       <c r="G142" s="142"/>
       <c r="H142" s="80"/>
-      <c r="I142" s="307" t="s">
-        <v>763</v>
-      </c>
-      <c r="J142" s="177" t="s">
+      <c r="I142" s="315" t="s">
+        <v>758</v>
+      </c>
+      <c r="J142" s="182" t="s">
         <v>672</v>
       </c>
-      <c r="K142" s="310"/>
+      <c r="K142" s="318"/>
     </row>
     <row r="143" spans="2:11" ht="232.5" customHeight="1">
-      <c r="B143" s="295"/>
-      <c r="C143" s="291"/>
-      <c r="D143" s="291"/>
-      <c r="E143" s="291"/>
-      <c r="F143" s="291"/>
+      <c r="B143" s="303"/>
+      <c r="C143" s="299"/>
+      <c r="D143" s="299"/>
+      <c r="E143" s="299"/>
+      <c r="F143" s="299"/>
       <c r="G143" s="142" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="H143" s="156" t="s">
-        <v>760</v>
-      </c>
-      <c r="I143" s="308"/>
-      <c r="J143" s="291"/>
-      <c r="K143" s="310"/>
+        <v>755</v>
+      </c>
+      <c r="I143" s="316"/>
+      <c r="J143" s="299"/>
+      <c r="K143" s="318"/>
     </row>
     <row r="144" spans="2:11" ht="91.5" customHeight="1">
-      <c r="B144" s="295"/>
-      <c r="C144" s="291"/>
-      <c r="D144" s="291"/>
-      <c r="E144" s="291"/>
-      <c r="F144" s="291"/>
+      <c r="B144" s="303"/>
+      <c r="C144" s="299"/>
+      <c r="D144" s="299"/>
+      <c r="E144" s="299"/>
+      <c r="F144" s="299"/>
       <c r="G144" s="36" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="H144" s="80" t="s">
         <v>671</v>
       </c>
-      <c r="I144" s="308"/>
-      <c r="J144" s="291"/>
-      <c r="K144" s="310"/>
+      <c r="I144" s="316"/>
+      <c r="J144" s="299"/>
+      <c r="K144" s="318"/>
     </row>
     <row r="145" spans="2:13" ht="87.75" customHeight="1">
-      <c r="B145" s="183"/>
-      <c r="C145" s="178"/>
-      <c r="D145" s="178"/>
-      <c r="E145" s="178"/>
-      <c r="F145" s="178"/>
+      <c r="B145" s="188"/>
+      <c r="C145" s="183"/>
+      <c r="D145" s="183"/>
+      <c r="E145" s="183"/>
+      <c r="F145" s="183"/>
       <c r="G145" s="36"/>
       <c r="H145" s="80"/>
-      <c r="I145" s="309"/>
-      <c r="J145" s="178"/>
-      <c r="K145" s="310"/>
+      <c r="I145" s="317"/>
+      <c r="J145" s="183"/>
+      <c r="K145" s="318"/>
     </row>
     <row r="146" spans="2:13" ht="279" customHeight="1">
-      <c r="B146" s="182" t="s">
+      <c r="B146" s="187" t="s">
         <v>184</v>
       </c>
-      <c r="C146" s="177" t="s">
+      <c r="C146" s="182" t="s">
         <v>297</v>
       </c>
-      <c r="D146" s="177" t="s">
+      <c r="D146" s="182" t="s">
         <v>641</v>
       </c>
-      <c r="E146" s="177" t="s">
+      <c r="E146" s="182" t="s">
         <v>670</v>
       </c>
-      <c r="F146" s="177" t="s">
+      <c r="F146" s="182" t="s">
         <v>645</v>
       </c>
       <c r="G146" s="52" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="H146" s="36" t="s">
-        <v>764</v>
-      </c>
-      <c r="I146" s="302" t="s">
+        <v>759</v>
+      </c>
+      <c r="I146" s="310" t="s">
         <v>639</v>
       </c>
-      <c r="J146" s="177" t="s">
+      <c r="J146" s="182" t="s">
         <v>672</v>
       </c>
-      <c r="K146" s="311"/>
+      <c r="K146" s="319"/>
     </row>
     <row r="147" spans="2:13" ht="195.75" customHeight="1">
-      <c r="B147" s="183"/>
-      <c r="C147" s="178"/>
-      <c r="D147" s="178"/>
-      <c r="E147" s="178"/>
-      <c r="F147" s="178"/>
+      <c r="B147" s="188"/>
+      <c r="C147" s="183"/>
+      <c r="D147" s="183"/>
+      <c r="E147" s="183"/>
+      <c r="F147" s="183"/>
       <c r="G147" s="36" t="s">
         <v>674</v>
       </c>
       <c r="H147" s="80" t="s">
         <v>671</v>
       </c>
-      <c r="I147" s="303"/>
-      <c r="J147" s="178"/>
-      <c r="K147" s="312"/>
+      <c r="I147" s="311"/>
+      <c r="J147" s="183"/>
+      <c r="K147" s="320"/>
     </row>
     <row r="149" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="150" spans="2:13">
-      <c r="B150" s="266" t="s">
+      <c r="B150" s="274" t="s">
         <v>300</v>
       </c>
-      <c r="C150" s="267"/>
-      <c r="D150" s="267"/>
-      <c r="E150" s="267"/>
-      <c r="F150" s="267"/>
-      <c r="G150" s="267"/>
-      <c r="H150" s="267"/>
-      <c r="I150" s="267"/>
-      <c r="J150" s="267"/>
-      <c r="K150" s="267"/>
-      <c r="L150" s="267"/>
-      <c r="M150" s="268"/>
+      <c r="C150" s="275"/>
+      <c r="D150" s="275"/>
+      <c r="E150" s="275"/>
+      <c r="F150" s="275"/>
+      <c r="G150" s="275"/>
+      <c r="H150" s="275"/>
+      <c r="I150" s="275"/>
+      <c r="J150" s="275"/>
+      <c r="K150" s="275"/>
+      <c r="L150" s="275"/>
+      <c r="M150" s="276"/>
     </row>
     <row r="151" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="152" spans="2:13" ht="18.75" thickBot="1">
@@ -18140,20 +18798,20 @@
     </row>
     <row r="153" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="154" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B154" s="304" t="s">
+      <c r="B154" s="312" t="s">
         <v>282</v>
       </c>
-      <c r="C154" s="305"/>
-      <c r="D154" s="305"/>
-      <c r="E154" s="306"/>
+      <c r="C154" s="313"/>
+      <c r="D154" s="313"/>
+      <c r="E154" s="314"/>
     </row>
     <row r="156" spans="2:13">
-      <c r="B156" s="244" t="s">
+      <c r="B156" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="C156" s="244"/>
-      <c r="D156" s="244"/>
-      <c r="E156" s="244"/>
+      <c r="C156" s="250"/>
+      <c r="D156" s="250"/>
+      <c r="E156" s="250"/>
     </row>
     <row r="157" spans="2:13">
       <c r="B157" s="42" t="s">
@@ -18215,12 +18873,12 @@
       </c>
     </row>
     <row r="161" spans="2:5">
-      <c r="B161" s="244" t="s">
+      <c r="B161" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C161" s="244"/>
-      <c r="D161" s="244"/>
-      <c r="E161" s="244"/>
+      <c r="C161" s="250"/>
+      <c r="D161" s="250"/>
+      <c r="E161" s="250"/>
     </row>
     <row r="162" spans="2:5">
       <c r="B162" s="59" t="s">
@@ -18237,21 +18895,21 @@
     </row>
     <row r="163" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="164" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B164" s="304" t="s">
+      <c r="B164" s="312" t="s">
         <v>422</v>
       </c>
-      <c r="C164" s="305"/>
-      <c r="D164" s="305"/>
-      <c r="E164" s="306"/>
+      <c r="C164" s="313"/>
+      <c r="D164" s="313"/>
+      <c r="E164" s="314"/>
     </row>
     <row r="165" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="166" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B166" s="304" t="s">
+      <c r="B166" s="312" t="s">
         <v>248</v>
       </c>
-      <c r="C166" s="305"/>
-      <c r="D166" s="305"/>
-      <c r="E166" s="306"/>
+      <c r="C166" s="313"/>
+      <c r="D166" s="313"/>
+      <c r="E166" s="314"/>
     </row>
     <row r="168" spans="2:5">
       <c r="B168" s="118" t="s">
@@ -18259,12 +18917,12 @@
       </c>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="244" t="s">
+      <c r="B169" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="C169" s="244"/>
-      <c r="D169" s="244"/>
-      <c r="E169" s="244"/>
+      <c r="C169" s="250"/>
+      <c r="D169" s="250"/>
+      <c r="E169" s="250"/>
     </row>
     <row r="170" spans="2:5">
       <c r="B170" s="73" t="s">
@@ -18338,12 +18996,12 @@
       </c>
     </row>
     <row r="175" spans="2:5">
-      <c r="B175" s="244" t="s">
+      <c r="B175" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C175" s="244"/>
-      <c r="D175" s="244"/>
-      <c r="E175" s="244"/>
+      <c r="C175" s="250"/>
+      <c r="D175" s="250"/>
+      <c r="E175" s="250"/>
     </row>
     <row r="176" spans="2:5" ht="30">
       <c r="B176" s="59" t="s">
@@ -18373,20 +19031,20 @@
     </row>
     <row r="178" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="179" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B179" s="304" t="s">
+      <c r="B179" s="312" t="s">
         <v>277</v>
       </c>
-      <c r="C179" s="305"/>
-      <c r="D179" s="305"/>
-      <c r="E179" s="306"/>
+      <c r="C179" s="313"/>
+      <c r="D179" s="313"/>
+      <c r="E179" s="314"/>
     </row>
     <row r="181" spans="2:6">
-      <c r="B181" s="244" t="s">
+      <c r="B181" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="C181" s="244"/>
-      <c r="D181" s="244"/>
-      <c r="E181" s="244"/>
+      <c r="C181" s="250"/>
+      <c r="D181" s="250"/>
+      <c r="E181" s="250"/>
     </row>
     <row r="182" spans="2:6">
       <c r="B182" s="42" t="s">
@@ -18418,12 +19076,12 @@
       </c>
     </row>
     <row r="184" spans="2:6">
-      <c r="B184" s="244" t="s">
+      <c r="B184" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="C184" s="244"/>
-      <c r="D184" s="244"/>
-      <c r="E184" s="244"/>
+      <c r="C184" s="250"/>
+      <c r="D184" s="250"/>
+      <c r="E184" s="250"/>
     </row>
     <row r="185" spans="2:6">
       <c r="B185" s="59" t="s">
@@ -18444,12 +19102,12 @@
       </c>
     </row>
     <row r="189" spans="2:6">
-      <c r="B189" s="244" t="s">
+      <c r="B189" s="250" t="s">
         <v>300</v>
       </c>
-      <c r="C189" s="244"/>
-      <c r="D189" s="244"/>
-      <c r="E189" s="244"/>
+      <c r="C189" s="250"/>
+      <c r="D189" s="250"/>
+      <c r="E189" s="250"/>
       <c r="F189" s="105"/>
     </row>
     <row r="190" spans="2:6">
@@ -18645,17 +19303,17 @@
       </c>
     </row>
     <row r="206" spans="2:10">
-      <c r="B206" s="245" t="s">
+      <c r="B206" s="251" t="s">
         <v>300</v>
       </c>
-      <c r="C206" s="245"/>
-      <c r="D206" s="245"/>
-      <c r="E206" s="245"/>
-      <c r="F206" s="245"/>
-      <c r="G206" s="245"/>
-      <c r="H206" s="245"/>
-      <c r="I206" s="245"/>
-      <c r="J206" s="245"/>
+      <c r="C206" s="251"/>
+      <c r="D206" s="251"/>
+      <c r="E206" s="251"/>
+      <c r="F206" s="251"/>
+      <c r="G206" s="251"/>
+      <c r="H206" s="251"/>
+      <c r="I206" s="251"/>
+      <c r="J206" s="251"/>
     </row>
     <row r="207" spans="2:10">
       <c r="B207" s="42" t="s">
@@ -18673,10 +19331,10 @@
       <c r="F207" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G207" s="246" t="s">
+      <c r="G207" s="252" t="s">
         <v>196</v>
       </c>
-      <c r="H207" s="247"/>
+      <c r="H207" s="253"/>
       <c r="I207" s="119" t="s">
         <v>189</v>
       </c>
@@ -18685,125 +19343,125 @@
       </c>
     </row>
     <row r="208" spans="2:10" ht="87" customHeight="1">
-      <c r="B208" s="182" t="s">
+      <c r="B208" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C208" s="177" t="s">
+      <c r="C208" s="182" t="s">
         <v>194</v>
       </c>
-      <c r="D208" s="177" t="s">
+      <c r="D208" s="182" t="s">
         <v>289</v>
       </c>
-      <c r="E208" s="177" t="s">
+      <c r="E208" s="182" t="s">
         <v>565</v>
       </c>
-      <c r="F208" s="182"/>
-      <c r="G208" s="325" t="s">
+      <c r="F208" s="187"/>
+      <c r="G208" s="333" t="s">
         <v>634</v>
       </c>
-      <c r="H208" s="327" t="s">
+      <c r="H208" s="335" t="s">
         <v>635</v>
       </c>
-      <c r="I208" s="262">
+      <c r="I208" s="268">
         <v>0.5</v>
       </c>
-      <c r="J208" s="177" t="s">
+      <c r="J208" s="182" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="209" spans="2:11" ht="1.5" customHeight="1">
-      <c r="B209" s="183"/>
-      <c r="C209" s="178"/>
-      <c r="D209" s="178"/>
-      <c r="E209" s="178"/>
-      <c r="F209" s="183"/>
-      <c r="G209" s="326"/>
-      <c r="H209" s="328"/>
-      <c r="I209" s="264"/>
-      <c r="J209" s="178"/>
+      <c r="B209" s="188"/>
+      <c r="C209" s="183"/>
+      <c r="D209" s="183"/>
+      <c r="E209" s="183"/>
+      <c r="F209" s="188"/>
+      <c r="G209" s="334"/>
+      <c r="H209" s="336"/>
+      <c r="I209" s="270"/>
+      <c r="J209" s="183"/>
     </row>
     <row r="210" spans="2:11" ht="39.75" customHeight="1">
-      <c r="B210" s="182" t="s">
+      <c r="B210" s="187" t="s">
         <v>180</v>
       </c>
-      <c r="C210" s="177" t="s">
+      <c r="C210" s="182" t="s">
         <v>576</v>
       </c>
-      <c r="D210" s="177" t="s">
+      <c r="D210" s="182" t="s">
         <v>200</v>
       </c>
-      <c r="E210" s="177" t="s">
+      <c r="E210" s="182" t="s">
         <v>551</v>
       </c>
-      <c r="F210" s="180"/>
+      <c r="F210" s="185"/>
       <c r="G210" s="52" t="s">
         <v>637</v>
       </c>
       <c r="H210" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="I210" s="262">
+      <c r="I210" s="268">
         <v>0</v>
       </c>
-      <c r="J210" s="177" t="s">
+      <c r="J210" s="182" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="211" spans="2:11" ht="39.75" customHeight="1">
-      <c r="B211" s="183"/>
-      <c r="C211" s="178"/>
-      <c r="D211" s="178"/>
-      <c r="E211" s="178"/>
-      <c r="F211" s="181"/>
+      <c r="B211" s="188"/>
+      <c r="C211" s="183"/>
+      <c r="D211" s="183"/>
+      <c r="E211" s="183"/>
+      <c r="F211" s="186"/>
       <c r="G211" s="36" t="s">
         <v>636</v>
       </c>
       <c r="H211" s="34" t="s">
         <v>575</v>
       </c>
-      <c r="I211" s="264"/>
-      <c r="J211" s="178"/>
+      <c r="I211" s="270"/>
+      <c r="J211" s="183"/>
     </row>
     <row r="212" spans="2:11" ht="30" customHeight="1">
-      <c r="B212" s="182" t="s">
+      <c r="B212" s="187" t="s">
         <v>181</v>
       </c>
-      <c r="C212" s="177" t="s">
+      <c r="C212" s="182" t="s">
         <v>569</v>
       </c>
-      <c r="D212" s="177" t="s">
+      <c r="D212" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="E212" s="177" t="s">
+      <c r="E212" s="182" t="s">
         <v>296</v>
       </c>
-      <c r="F212" s="177" t="s">
+      <c r="F212" s="182" t="s">
         <v>551</v>
       </c>
-      <c r="G212" s="329" t="s">
-        <v>751</v>
-      </c>
-      <c r="H212" s="182" t="s">
-        <v>752</v>
-      </c>
-      <c r="I212" s="296" t="s">
-        <v>753</v>
-      </c>
-      <c r="J212" s="177" t="s">
+      <c r="G212" s="337" t="s">
+        <v>746</v>
+      </c>
+      <c r="H212" s="187" t="s">
+        <v>747</v>
+      </c>
+      <c r="I212" s="304" t="s">
+        <v>748</v>
+      </c>
+      <c r="J212" s="182" t="s">
         <v>638</v>
       </c>
       <c r="K212" s="77"/>
     </row>
     <row r="213" spans="2:11">
-      <c r="B213" s="183"/>
-      <c r="C213" s="178"/>
-      <c r="D213" s="178"/>
-      <c r="E213" s="178"/>
-      <c r="F213" s="178"/>
-      <c r="G213" s="330"/>
-      <c r="H213" s="183"/>
-      <c r="I213" s="298"/>
-      <c r="J213" s="178"/>
+      <c r="B213" s="188"/>
+      <c r="C213" s="183"/>
+      <c r="D213" s="183"/>
+      <c r="E213" s="183"/>
+      <c r="F213" s="183"/>
+      <c r="G213" s="338"/>
+      <c r="H213" s="188"/>
+      <c r="I213" s="306"/>
+      <c r="J213" s="183"/>
       <c r="K213" s="128"/>
     </row>
     <row r="214" spans="2:11" ht="120">
@@ -18836,73 +19494,73 @@
       </c>
     </row>
     <row r="215" spans="2:11" ht="157.5" customHeight="1">
-      <c r="B215" s="182" t="s">
+      <c r="B215" s="187" t="s">
         <v>183</v>
       </c>
-      <c r="C215" s="177" t="s">
+      <c r="C215" s="182" t="s">
         <v>640</v>
       </c>
-      <c r="D215" s="177" t="s">
+      <c r="D215" s="182" t="s">
         <v>641</v>
       </c>
-      <c r="E215" s="177" t="s">
+      <c r="E215" s="182" t="s">
         <v>298</v>
       </c>
-      <c r="F215" s="177" t="s">
+      <c r="F215" s="182" t="s">
         <v>645</v>
       </c>
-      <c r="G215" s="299" t="s">
+      <c r="G215" s="307" t="s">
         <v>646</v>
       </c>
-      <c r="H215" s="300" t="s">
+      <c r="H215" s="308" t="s">
         <v>647</v>
       </c>
-      <c r="I215" s="292">
+      <c r="I215" s="300">
         <v>0.52</v>
       </c>
-      <c r="J215" s="301" t="s">
+      <c r="J215" s="309" t="s">
         <v>648</v>
       </c>
-      <c r="K215" s="322"/>
+      <c r="K215" s="330"/>
     </row>
     <row r="216" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B216" s="295"/>
-      <c r="C216" s="291"/>
-      <c r="D216" s="291"/>
-      <c r="E216" s="291"/>
-      <c r="F216" s="291"/>
-      <c r="G216" s="299"/>
-      <c r="H216" s="300"/>
-      <c r="I216" s="293"/>
-      <c r="J216" s="291"/>
-      <c r="K216" s="323"/>
+      <c r="B216" s="303"/>
+      <c r="C216" s="299"/>
+      <c r="D216" s="299"/>
+      <c r="E216" s="299"/>
+      <c r="F216" s="299"/>
+      <c r="G216" s="307"/>
+      <c r="H216" s="308"/>
+      <c r="I216" s="301"/>
+      <c r="J216" s="299"/>
+      <c r="K216" s="331"/>
     </row>
     <row r="217" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B217" s="183"/>
-      <c r="C217" s="178"/>
-      <c r="D217" s="178"/>
-      <c r="E217" s="178"/>
-      <c r="F217" s="178"/>
-      <c r="G217" s="299"/>
-      <c r="H217" s="300"/>
-      <c r="I217" s="294"/>
-      <c r="J217" s="178"/>
-      <c r="K217" s="324"/>
+      <c r="B217" s="188"/>
+      <c r="C217" s="183"/>
+      <c r="D217" s="183"/>
+      <c r="E217" s="183"/>
+      <c r="F217" s="183"/>
+      <c r="G217" s="307"/>
+      <c r="H217" s="308"/>
+      <c r="I217" s="302"/>
+      <c r="J217" s="183"/>
+      <c r="K217" s="332"/>
     </row>
     <row r="218" spans="2:11" ht="30">
-      <c r="B218" s="182" t="s">
+      <c r="B218" s="187" t="s">
         <v>184</v>
       </c>
-      <c r="C218" s="177" t="s">
+      <c r="C218" s="182" t="s">
         <v>640</v>
       </c>
-      <c r="D218" s="177" t="s">
+      <c r="D218" s="182" t="s">
         <v>641</v>
       </c>
-      <c r="E218" s="177" t="s">
+      <c r="E218" s="182" t="s">
         <v>298</v>
       </c>
-      <c r="F218" s="177" t="s">
+      <c r="F218" s="182" t="s">
         <v>645</v>
       </c>
       <c r="G218" s="52" t="s">
@@ -18911,72 +19569,72 @@
       <c r="H218" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="I218" s="296" t="s">
+      <c r="I218" s="304" t="s">
         <v>639</v>
       </c>
-      <c r="J218" s="177" t="s">
+      <c r="J218" s="182" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="219" spans="2:11" ht="30">
-      <c r="B219" s="295"/>
-      <c r="C219" s="291"/>
-      <c r="D219" s="291"/>
-      <c r="E219" s="291"/>
-      <c r="F219" s="291"/>
+      <c r="B219" s="303"/>
+      <c r="C219" s="299"/>
+      <c r="D219" s="299"/>
+      <c r="E219" s="299"/>
+      <c r="F219" s="299"/>
       <c r="G219" s="69" t="s">
         <v>650</v>
       </c>
       <c r="H219" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="I219" s="297"/>
-      <c r="J219" s="291"/>
+      <c r="I219" s="305"/>
+      <c r="J219" s="299"/>
     </row>
     <row r="220" spans="2:11" ht="45">
-      <c r="B220" s="295"/>
-      <c r="C220" s="291"/>
-      <c r="D220" s="291"/>
-      <c r="E220" s="291"/>
-      <c r="F220" s="291"/>
+      <c r="B220" s="303"/>
+      <c r="C220" s="299"/>
+      <c r="D220" s="299"/>
+      <c r="E220" s="299"/>
+      <c r="F220" s="299"/>
       <c r="G220" s="69" t="s">
         <v>654</v>
       </c>
       <c r="H220" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="I220" s="297"/>
-      <c r="J220" s="291"/>
+      <c r="I220" s="305"/>
+      <c r="J220" s="299"/>
     </row>
     <row r="221" spans="2:11" ht="30">
-      <c r="B221" s="295"/>
-      <c r="C221" s="291"/>
-      <c r="D221" s="291"/>
-      <c r="E221" s="291"/>
-      <c r="F221" s="291"/>
+      <c r="B221" s="303"/>
+      <c r="C221" s="299"/>
+      <c r="D221" s="299"/>
+      <c r="E221" s="299"/>
+      <c r="F221" s="299"/>
       <c r="G221" s="69" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="H221" s="155" t="s">
-        <v>756</v>
-      </c>
-      <c r="I221" s="297"/>
-      <c r="J221" s="291"/>
+        <v>751</v>
+      </c>
+      <c r="I221" s="305"/>
+      <c r="J221" s="299"/>
     </row>
     <row r="222" spans="2:11" ht="30">
-      <c r="B222" s="183"/>
-      <c r="C222" s="178"/>
-      <c r="D222" s="178"/>
-      <c r="E222" s="178"/>
-      <c r="F222" s="178"/>
+      <c r="B222" s="188"/>
+      <c r="C222" s="183"/>
+      <c r="D222" s="183"/>
+      <c r="E222" s="183"/>
+      <c r="F222" s="183"/>
       <c r="G222" s="69" t="s">
         <v>655</v>
       </c>
       <c r="H222" s="78" t="s">
         <v>653</v>
       </c>
-      <c r="I222" s="298"/>
-      <c r="J222" s="178"/>
+      <c r="I222" s="306"/>
+      <c r="J222" s="183"/>
     </row>
     <row r="225" spans="2:4">
       <c r="B225" s="24"/>
@@ -19134,7 +19792,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75">
-      <c r="B3" s="334" t="s">
+      <c r="B3" s="342" t="s">
         <v>305</v>
       </c>
       <c r="C3" s="81" t="s">
@@ -19148,7 +19806,7 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="B4" s="334"/>
+      <c r="B4" s="342"/>
       <c r="C4" s="45" t="s">
         <v>308</v>
       </c>
@@ -19157,7 +19815,7 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="B5" s="334"/>
+      <c r="B5" s="342"/>
       <c r="C5" s="81" t="s">
         <v>309</v>
       </c>
@@ -19178,7 +19836,7 @@
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="B6" s="334"/>
+      <c r="B6" s="342"/>
       <c r="C6" s="37" t="s">
         <v>314</v>
       </c>
@@ -19203,7 +19861,7 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="B7" s="334"/>
+      <c r="B7" s="342"/>
       <c r="C7" s="88" t="s">
         <v>319</v>
       </c>
@@ -19219,7 +19877,7 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="334"/>
+      <c r="B8" s="342"/>
       <c r="C8" s="45" t="s">
         <v>322</v>
       </c>
@@ -19228,7 +19886,7 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="B9" s="334"/>
+      <c r="B9" s="342"/>
       <c r="C9" s="81" t="s">
         <v>323</v>
       </c>
@@ -19277,10 +19935,10 @@
       <c r="F12" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="G12" s="199" t="s">
+      <c r="G12" s="205" t="s">
         <v>328</v>
       </c>
-      <c r="H12" s="199"/>
+      <c r="H12" s="205"/>
       <c r="I12" s="25">
         <f>0.92*K10</f>
         <v>55.2</v>
@@ -19335,10 +19993,10 @@
       <c r="F17" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="G17" s="199" t="s">
+      <c r="G17" s="205" t="s">
         <v>334</v>
       </c>
-      <c r="H17" s="199"/>
+      <c r="H17" s="205"/>
       <c r="I17" s="25">
         <f>I12-I15</f>
         <v>46.2</v>
@@ -19588,10 +20246,10 @@
       <c r="H58" s="85" t="s">
         <v>375</v>
       </c>
-      <c r="I58" s="199" t="s">
+      <c r="I58" s="205" t="s">
         <v>376</v>
       </c>
-      <c r="J58" s="199"/>
+      <c r="J58" s="205"/>
       <c r="K58" s="25">
         <f>37+E58</f>
         <v>46</v>
@@ -19609,19 +20267,19 @@
       <c r="H61" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="I61" s="199" t="s">
+      <c r="I61" s="205" t="s">
         <v>378</v>
       </c>
-      <c r="J61" s="199"/>
+      <c r="J61" s="205"/>
     </row>
     <row r="62" spans="2:12">
       <c r="H62" s="85" t="s">
         <v>379</v>
       </c>
-      <c r="I62" s="199" t="s">
+      <c r="I62" s="205" t="s">
         <v>380</v>
       </c>
-      <c r="J62" s="199"/>
+      <c r="J62" s="205"/>
       <c r="K62" s="25">
         <f>K58/0.92</f>
         <v>50</v>
@@ -19770,10 +20428,10 @@
       <c r="Q82" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="R82" s="199" t="s">
+      <c r="R82" s="205" t="s">
         <v>402</v>
       </c>
-      <c r="S82" s="199"/>
+      <c r="S82" s="205"/>
       <c r="T82" s="87">
         <f>1-S74-S78</f>
         <v>0.73677419354838702</v>
@@ -19809,10 +20467,10 @@
       <c r="Q86" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="R86" s="199" t="s">
+      <c r="R86" s="205" t="s">
         <v>406</v>
       </c>
-      <c r="S86" s="199"/>
+      <c r="S86" s="205"/>
       <c r="T86" s="97">
         <f>T82*E35</f>
         <v>1915.6129032258063</v>
@@ -19841,7 +20499,7 @@
     <row r="88" spans="1:26">
       <c r="S88" s="25"/>
       <c r="V88" s="98"/>
-      <c r="W88" s="331" t="s">
+      <c r="W88" s="339" t="s">
         <v>305</v>
       </c>
       <c r="X88" s="99" t="s">
@@ -19857,7 +20515,7 @@
       </c>
       <c r="S89" s="25"/>
       <c r="V89" s="98"/>
-      <c r="W89" s="332"/>
+      <c r="W89" s="340"/>
       <c r="X89" s="45" t="s">
         <v>411</v>
       </c>
@@ -19873,7 +20531,7 @@
         <v>413</v>
       </c>
       <c r="V90" s="98"/>
-      <c r="W90" s="333"/>
+      <c r="W90" s="341"/>
       <c r="X90" s="102" t="s">
         <v>322</v>
       </c>
@@ -19885,10 +20543,10 @@
       <c r="Q91" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="R91" s="199" t="s">
+      <c r="R91" s="205" t="s">
         <v>414</v>
       </c>
-      <c r="S91" s="199"/>
+      <c r="S91" s="205"/>
       <c r="T91" s="25">
         <f>E53+S70+T87</f>
         <v>2400</v>

--- a/data/CFF Paper Data V10_Clean_SO.xlsx
+++ b/data/CFF Paper Data V10_Clean_SO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ostojic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ostojic\Desktop\cff-research\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CEA79D-F4BE-4F9D-A811-F466DCD6E035}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B87EA6-C317-419D-8EFB-2A1B4A8C1415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" tabRatio="697" activeTab="2" xr2:uid="{3204C202-7188-45B5-A184-A3CC4EC46C55}"/>
   </bookViews>
@@ -5131,6 +5131,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5143,22 +5170,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="81" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5167,33 +5191,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="81" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5209,15 +5350,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5227,294 +5359,258 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5524,18 +5620,9 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5544,93 +5631,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -7402,7 +7402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66CE6A8-B1CC-4913-BEDB-EA2901B5EEBE}">
   <dimension ref="B2:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -7610,8 +7610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1BA79A-6A5D-47BC-924A-434DAD144CA9}">
   <dimension ref="A1:M192"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView topLeftCell="A66" zoomScale="77" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -7635,12 +7635,12 @@
       <c r="A4" s="132" t="s">
         <v>582</v>
       </c>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="172" t="s">
         <v>583</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="178"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="174"/>
       <c r="F4" s="131"/>
       <c r="G4" s="131"/>
       <c r="H4" s="131"/>
@@ -7655,12 +7655,12 @@
       <c r="A6" s="133">
         <v>0.95</v>
       </c>
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="178" t="s">
         <v>586</v>
       </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="191"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="180"/>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="115" t="s">
@@ -7849,12 +7849,12 @@
       <c r="A21" s="133">
         <v>0.05</v>
       </c>
-      <c r="B21" s="189" t="s">
+      <c r="B21" s="178" t="s">
         <v>587</v>
       </c>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="191"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="180"/>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="115" t="s">
@@ -7881,7 +7881,7 @@
         <v>1.09E-10</v>
       </c>
       <c r="E23" s="44">
-        <v>1.7729999999999998E-5</v>
+        <v>1.1700000000000001E-8</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7895,7 +7895,7 @@
         <v>8.2400000000000008E-3</v>
       </c>
       <c r="E24" s="44">
-        <v>684</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7909,7 +7909,7 @@
         <v>1.5400000000000001E-6</v>
       </c>
       <c r="E25" s="44">
-        <v>0.1956</v>
+        <v>1.74E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7923,7 +7923,7 @@
         <v>1.6500000000000001E-7</v>
       </c>
       <c r="E26" s="44">
-        <v>1.489E-2</v>
+        <v>1.73E-4</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7937,7 +7937,7 @@
         <v>1.37E-6</v>
       </c>
       <c r="E27" s="44">
-        <v>0.313</v>
+        <v>1.0300000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7951,7 +7951,7 @@
         <v>5.6899999999999995E-4</v>
       </c>
       <c r="E28" s="151">
-        <v>62.7</v>
+        <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7965,7 +7965,7 @@
         <v>5.7600000000000001E-4</v>
       </c>
       <c r="E29" s="44">
-        <v>62.8</v>
+        <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7979,7 +7979,7 @@
         <v>1.66E-5</v>
       </c>
       <c r="E30" s="44">
-        <v>84.3</v>
+        <v>7.5899999999999995E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7993,7 +7993,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="E31" s="44">
-        <v>105900</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8007,7 +8007,7 @@
         <v>9.2700000000000007E-16</v>
       </c>
       <c r="E32" s="44">
-        <v>1.018E-10</v>
+        <v>6.8300000000000002E-13</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -8021,7 +8021,7 @@
         <v>1.42E-7</v>
       </c>
       <c r="E33" s="44">
-        <v>1.1679999999999999E-2</v>
+        <v>2.4399999999999999E-4</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -8035,17 +8035,17 @@
         <v>6.3300000000000004E-6</v>
       </c>
       <c r="E34" s="44">
-        <v>0.1172</v>
+        <v>5.9299999999999999E-4</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="37" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B37" s="179" t="s">
+      <c r="B37" s="175" t="s">
         <v>584</v>
       </c>
-      <c r="C37" s="180"/>
-      <c r="D37" s="180"/>
-      <c r="E37" s="181"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="177"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="73" t="s">
@@ -8062,10 +8062,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="60">
-      <c r="B39" s="172" t="s">
+      <c r="B39" s="181" t="s">
         <v>605</v>
       </c>
-      <c r="C39" s="174">
+      <c r="C39" s="183">
         <v>0.2</v>
       </c>
       <c r="D39" s="34" t="s">
@@ -8076,8 +8076,8 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="15" hidden="1" customHeight="1">
-      <c r="B40" s="173"/>
-      <c r="C40" s="175"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="184"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
@@ -8153,12 +8153,12 @@
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="47" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B47" s="179" t="s">
+      <c r="B47" s="175" t="s">
         <v>585</v>
       </c>
-      <c r="C47" s="180"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="181"/>
+      <c r="C47" s="176"/>
+      <c r="D47" s="176"/>
+      <c r="E47" s="177"/>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="73" t="s">
@@ -8175,10 +8175,10 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="B49" s="172" t="s">
+      <c r="B49" s="181" t="s">
         <v>605</v>
       </c>
-      <c r="C49" s="174">
+      <c r="C49" s="183">
         <v>0.2</v>
       </c>
       <c r="D49" s="185" t="s">
@@ -8189,8 +8189,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="4.5" customHeight="1">
-      <c r="B50" s="173"/>
-      <c r="C50" s="175"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="184"/>
       <c r="D50" s="186"/>
       <c r="E50" s="188"/>
     </row>
@@ -8269,24 +8269,24 @@
       <c r="A58" s="132" t="s">
         <v>582</v>
       </c>
-      <c r="B58" s="176" t="s">
+      <c r="B58" s="172" t="s">
         <v>432</v>
       </c>
-      <c r="C58" s="177"/>
-      <c r="D58" s="177"/>
-      <c r="E58" s="178"/>
+      <c r="C58" s="173"/>
+      <c r="D58" s="173"/>
+      <c r="E58" s="174"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="61" spans="1:5" ht="15.75" thickBot="1">
       <c r="A61" s="133">
         <v>0.54</v>
       </c>
-      <c r="B61" s="189" t="s">
+      <c r="B61" s="178" t="s">
         <v>586</v>
       </c>
-      <c r="C61" s="190"/>
-      <c r="D61" s="190"/>
-      <c r="E61" s="191"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="179"/>
+      <c r="E61" s="180"/>
     </row>
     <row r="62" spans="1:5">
       <c r="B62" s="1" t="s">
@@ -8475,12 +8475,12 @@
       <c r="A76" s="135">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="B76" s="189" t="s">
+      <c r="B76" s="178" t="s">
         <v>587</v>
       </c>
-      <c r="C76" s="190"/>
-      <c r="D76" s="190"/>
-      <c r="E76" s="191"/>
+      <c r="C76" s="179"/>
+      <c r="D76" s="179"/>
+      <c r="E76" s="180"/>
     </row>
     <row r="77" spans="1:5">
       <c r="B77" s="1" t="s">
@@ -8669,13 +8669,13 @@
       <c r="A91" s="135">
         <v>0.41499999999999998</v>
       </c>
-      <c r="B91" s="179" t="s">
+      <c r="B91" s="175" t="s">
         <v>588</v>
       </c>
-      <c r="C91" s="180"/>
-      <c r="D91" s="180"/>
-      <c r="E91" s="180"/>
-      <c r="F91" s="184"/>
+      <c r="C91" s="176"/>
+      <c r="D91" s="176"/>
+      <c r="E91" s="176"/>
+      <c r="F91" s="189"/>
     </row>
     <row r="92" spans="1:6">
       <c r="B92" s="115" t="s">
@@ -8900,12 +8900,12 @@
     </row>
     <row r="106" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="107" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B107" s="179" t="s">
+      <c r="B107" s="175" t="s">
         <v>584</v>
       </c>
-      <c r="C107" s="180"/>
-      <c r="D107" s="180"/>
-      <c r="E107" s="181"/>
+      <c r="C107" s="176"/>
+      <c r="D107" s="176"/>
+      <c r="E107" s="177"/>
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="73" t="s">
@@ -8922,10 +8922,10 @@
       </c>
     </row>
     <row r="109" spans="2:6" ht="60">
-      <c r="B109" s="172" t="s">
+      <c r="B109" s="181" t="s">
         <v>605</v>
       </c>
-      <c r="C109" s="174">
+      <c r="C109" s="183">
         <v>0.2</v>
       </c>
       <c r="D109" s="34" t="s">
@@ -8936,8 +8936,8 @@
       </c>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="173"/>
-      <c r="C110" s="175"/>
+      <c r="B110" s="182"/>
+      <c r="C110" s="184"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
@@ -9013,12 +9013,12 @@
     </row>
     <row r="116" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="117" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B117" s="179" t="s">
+      <c r="B117" s="175" t="s">
         <v>585</v>
       </c>
-      <c r="C117" s="180"/>
-      <c r="D117" s="180"/>
-      <c r="E117" s="181"/>
+      <c r="C117" s="176"/>
+      <c r="D117" s="176"/>
+      <c r="E117" s="177"/>
     </row>
     <row r="118" spans="2:5">
       <c r="B118" s="73" t="s">
@@ -9035,10 +9035,10 @@
       </c>
     </row>
     <row r="119" spans="2:5">
-      <c r="B119" s="172" t="s">
+      <c r="B119" s="181" t="s">
         <v>605</v>
       </c>
-      <c r="C119" s="174">
+      <c r="C119" s="183">
         <v>0.2</v>
       </c>
       <c r="D119" s="185" t="s">
@@ -9049,8 +9049,8 @@
       </c>
     </row>
     <row r="120" spans="2:5">
-      <c r="B120" s="173"/>
-      <c r="C120" s="175"/>
+      <c r="B120" s="182"/>
+      <c r="C120" s="184"/>
       <c r="D120" s="186"/>
       <c r="E120" s="188"/>
     </row>
@@ -9126,12 +9126,12 @@
     </row>
     <row r="126" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="127" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B127" s="179" t="s">
+      <c r="B127" s="175" t="s">
         <v>589</v>
       </c>
-      <c r="C127" s="180"/>
-      <c r="D127" s="180"/>
-      <c r="E127" s="181"/>
+      <c r="C127" s="176"/>
+      <c r="D127" s="176"/>
+      <c r="E127" s="177"/>
     </row>
     <row r="128" spans="2:5">
       <c r="B128" s="73" t="s">
@@ -9148,24 +9148,24 @@
       </c>
     </row>
     <row r="129" spans="2:5">
-      <c r="B129" s="172" t="s">
+      <c r="B129" s="181" t="s">
         <v>605</v>
       </c>
-      <c r="C129" s="174" t="s">
+      <c r="C129" s="183" t="s">
         <v>556</v>
       </c>
-      <c r="D129" s="182" t="s">
+      <c r="D129" s="190" t="s">
         <v>627</v>
       </c>
-      <c r="E129" s="182" t="s">
+      <c r="E129" s="190" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="41.25" customHeight="1">
-      <c r="B130" s="173"/>
-      <c r="C130" s="175"/>
-      <c r="D130" s="183"/>
-      <c r="E130" s="183"/>
+      <c r="B130" s="182"/>
+      <c r="C130" s="184"/>
+      <c r="D130" s="191"/>
+      <c r="E130" s="191"/>
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="34" t="s">
@@ -9245,21 +9245,21 @@
     </row>
     <row r="139" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="140" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B140" s="176" t="s">
+      <c r="B140" s="172" t="s">
         <v>300</v>
       </c>
-      <c r="C140" s="177"/>
-      <c r="D140" s="177"/>
-      <c r="E140" s="178"/>
+      <c r="C140" s="173"/>
+      <c r="D140" s="173"/>
+      <c r="E140" s="174"/>
     </row>
     <row r="141" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="142" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B142" s="176" t="s">
+      <c r="B142" s="172" t="s">
         <v>591</v>
       </c>
-      <c r="C142" s="177"/>
-      <c r="D142" s="177"/>
-      <c r="E142" s="178"/>
+      <c r="C142" s="173"/>
+      <c r="D142" s="173"/>
+      <c r="E142" s="174"/>
     </row>
     <row r="143" spans="2:5">
       <c r="B143" s="1" t="s">
@@ -9445,12 +9445,12 @@
     </row>
     <row r="156" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="157" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B157" s="179" t="s">
+      <c r="B157" s="175" t="s">
         <v>592</v>
       </c>
-      <c r="C157" s="180"/>
-      <c r="D157" s="180"/>
-      <c r="E157" s="181"/>
+      <c r="C157" s="176"/>
+      <c r="D157" s="176"/>
+      <c r="E157" s="177"/>
     </row>
     <row r="158" spans="2:5">
       <c r="B158" s="73" t="s">
@@ -9467,24 +9467,24 @@
       </c>
     </row>
     <row r="159" spans="2:5" ht="45" customHeight="1">
-      <c r="B159" s="172" t="s">
+      <c r="B159" s="181" t="s">
         <v>605</v>
       </c>
-      <c r="C159" s="174">
+      <c r="C159" s="183">
         <v>0.5</v>
       </c>
-      <c r="D159" s="182" t="s">
+      <c r="D159" s="190" t="s">
         <v>599</v>
       </c>
-      <c r="E159" s="182" t="s">
+      <c r="E159" s="190" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="160" spans="2:5">
-      <c r="B160" s="173"/>
-      <c r="C160" s="175"/>
-      <c r="D160" s="183"/>
-      <c r="E160" s="183"/>
+      <c r="B160" s="182"/>
+      <c r="C160" s="184"/>
+      <c r="D160" s="191"/>
+      <c r="E160" s="191"/>
     </row>
     <row r="161" spans="2:6" ht="30">
       <c r="B161" s="34" t="s">
@@ -9559,22 +9559,22 @@
     </row>
     <row r="166" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="167" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B167" s="176" t="s">
+      <c r="B167" s="172" t="s">
         <v>213</v>
       </c>
-      <c r="C167" s="177"/>
-      <c r="D167" s="177"/>
-      <c r="E167" s="178"/>
+      <c r="C167" s="173"/>
+      <c r="D167" s="173"/>
+      <c r="E167" s="174"/>
     </row>
     <row r="168" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="169" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B169" s="176" t="s">
+      <c r="B169" s="172" t="s">
         <v>593</v>
       </c>
-      <c r="C169" s="177"/>
-      <c r="D169" s="177"/>
-      <c r="E169" s="177"/>
-      <c r="F169" s="178"/>
+      <c r="C169" s="173"/>
+      <c r="D169" s="173"/>
+      <c r="E169" s="173"/>
+      <c r="F169" s="174"/>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="1" t="s">
@@ -9808,12 +9808,12 @@
     </row>
     <row r="183" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="184" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B184" s="179" t="s">
+      <c r="B184" s="175" t="s">
         <v>594</v>
       </c>
-      <c r="C184" s="180"/>
-      <c r="D184" s="180"/>
-      <c r="E184" s="181"/>
+      <c r="C184" s="176"/>
+      <c r="D184" s="176"/>
+      <c r="E184" s="177"/>
     </row>
     <row r="185" spans="2:6">
       <c r="B185" s="73" t="s">
@@ -9830,24 +9830,24 @@
       </c>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="172" t="s">
+      <c r="B186" s="181" t="s">
         <v>605</v>
       </c>
-      <c r="C186" s="174" t="s">
+      <c r="C186" s="183" t="s">
         <v>293</v>
       </c>
-      <c r="D186" s="182" t="s">
+      <c r="D186" s="190" t="s">
         <v>608</v>
       </c>
-      <c r="E186" s="182" t="s">
+      <c r="E186" s="190" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="187" spans="2:6">
-      <c r="B187" s="173"/>
-      <c r="C187" s="175"/>
-      <c r="D187" s="183"/>
-      <c r="E187" s="183"/>
+      <c r="B187" s="182"/>
+      <c r="C187" s="184"/>
+      <c r="D187" s="191"/>
+      <c r="E187" s="191"/>
     </row>
     <row r="188" spans="2:6" ht="135">
       <c r="B188" s="34" t="s">
@@ -9921,6 +9921,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="B47:E47"/>
@@ -9937,32 +9963,6 @@
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="B157:E157"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="E186:E187"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9973,17 +9973,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14970EC7-1BC4-45AB-9851-5351B74C0381}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
@@ -10159,7 +10161,7 @@
       </c>
       <c r="D5" s="154">
         <f>'CFF Clean Data'!E28</f>
-        <v>62.7</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="E5" s="154">
         <f>'CFF Clean Data'!C68</f>
@@ -10183,7 +10185,7 @@
       </c>
       <c r="J5" s="154">
         <f>(0.95*C5)+(0.05*D5)</f>
-        <v>62.699999999999996</v>
+        <v>59.605799999999995</v>
       </c>
       <c r="K5" s="154">
         <f>(0.54*E5)+(0.045*F5)+(0.415*G5)</f>
@@ -10201,7 +10203,7 @@
       </c>
       <c r="D6" s="154">
         <f>'CFF Clean Data'!E28</f>
-        <v>62.7</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="E6" s="154">
         <f>'CFF Clean Data'!C68</f>
@@ -10225,7 +10227,7 @@
       </c>
       <c r="J6" s="154">
         <f>(0.95*C6)+(0.05*D6)</f>
-        <v>62.699999999999996</v>
+        <v>59.605799999999995</v>
       </c>
       <c r="K6" s="154">
         <f>(0.54*E6)+(0.045*F6)+(0.415*G6)</f>
@@ -10239,12 +10241,36 @@
       <c r="B7" t="s">
         <v>801</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="154">
+        <f>'CFF Clean Data'!F93</f>
+        <v>1.8E-7</v>
+      </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="154">
         <f>'CFF Clean Data'!D171</f>
         <v>1.4869999999999999E-6</v>
+      </c>
+      <c r="J7" s="154">
+        <f>(0.95*C7)+(0.05*D7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="154">
+        <f t="shared" ref="K7:K41" si="0">(0.54*E7)+(0.045*F7)+(0.415*G7)</f>
+        <v>7.4700000000000001E-8</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -10252,6 +10278,26 @@
       <c r="B8" t="s">
         <v>800</v>
       </c>
+      <c r="C8">
+        <f>'CFF Clean Data'!C8</f>
+        <v>4.6599999999999994E-6</v>
+      </c>
+      <c r="D8">
+        <f>'CFF Clean Data'!C23</f>
+        <v>3.2300000000000002E-7</v>
+      </c>
+      <c r="E8" s="154">
+        <f>'CFF Clean Data'!D63</f>
+        <v>2.5474999999999997E-6</v>
+      </c>
+      <c r="F8" s="154">
+        <f>'CFF Clean Data'!D78</f>
+        <v>3.0667124555797766E-7</v>
+      </c>
+      <c r="G8" s="154">
+        <f>'CFF Clean Data'!D93</f>
+        <v>2.8738823024054981E-7</v>
+      </c>
       <c r="H8" s="154">
         <f>'CFF Clean Data'!C144</f>
         <v>9.2199999999999998E-6</v>
@@ -10259,6 +10305,14 @@
       <c r="I8">
         <f>'CFF Clean Data'!C171</f>
         <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="J8" s="154">
+        <f>(0.95*C8)+(0.05*D8)</f>
+        <v>4.4431499999999991E-6</v>
+      </c>
+      <c r="K8" s="154">
+        <f t="shared" si="0"/>
+        <v>1.5087163215999372E-6</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -10266,6 +10320,26 @@
       <c r="B9" t="s">
         <v>814</v>
       </c>
+      <c r="C9" s="154">
+        <f>'CFF Clean Data'!D8</f>
+        <v>2.2580000000000003E-9</v>
+      </c>
+      <c r="D9" s="154">
+        <f>'CFF Clean Data'!D23</f>
+        <v>1.09E-10</v>
+      </c>
+      <c r="E9" s="154">
+        <f>'CFF Clean Data'!E63</f>
+        <v>1.2376152882205513E-9</v>
+      </c>
+      <c r="F9" s="154">
+        <f>'CFF Clean Data'!E78</f>
+        <v>1.0336265607264472E-10</v>
+      </c>
+      <c r="G9" s="154">
+        <f>'CFF Clean Data'!E93</f>
+        <v>1.4460936426116838E-9</v>
+      </c>
       <c r="H9" s="154">
         <f>'CFF Clean Data'!D144</f>
         <v>3.8800000000000001E-6</v>
@@ -10273,6 +10347,14 @@
       <c r="I9" s="154">
         <f>'CFF Clean Data'!F171</f>
         <v>3.0899999999999997E-7</v>
+      </c>
+      <c r="J9" s="154">
+        <f t="shared" ref="J8:J41" si="1">(0.95*C9)+(0.05*D9)</f>
+        <v>2.1505499999999998E-9</v>
+      </c>
+      <c r="K9" s="154">
+        <f t="shared" si="0"/>
+        <v>1.2730924368462154E-9</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -10280,6 +10362,26 @@
       <c r="B10" t="s">
         <v>802</v>
       </c>
+      <c r="C10" s="154">
+        <f>'CFF Clean Data'!E8</f>
+        <v>1.7729999999999998E-5</v>
+      </c>
+      <c r="D10" s="154">
+        <f>'CFF Clean Data'!E23</f>
+        <v>1.1700000000000001E-8</v>
+      </c>
+      <c r="E10" s="154">
+        <f>'CFF Clean Data'!C63</f>
+        <v>1.0499999999999999E-5</v>
+      </c>
+      <c r="F10" s="154">
+        <f>'CFF Clean Data'!C78</f>
+        <v>1.11E-8</v>
+      </c>
+      <c r="G10" s="154">
+        <f>'CFF Clean Data'!C93</f>
+        <v>1.1346699999999999E-4</v>
+      </c>
       <c r="H10" s="154">
         <f>'CFF Clean Data'!E144</f>
         <v>4.4900000000000002E-4</v>
@@ -10287,6 +10389,14 @@
       <c r="I10" s="154">
         <f>'CFF Clean Data'!E171</f>
         <v>5.71E-4</v>
+      </c>
+      <c r="J10" s="154">
+        <f t="shared" si="1"/>
+        <v>1.6844084999999999E-5</v>
+      </c>
+      <c r="K10" s="154">
+        <f t="shared" si="0"/>
+        <v>5.2759304499999997E-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -10294,6 +10404,26 @@
       <c r="B11" t="s">
         <v>803</v>
       </c>
+      <c r="C11" s="154">
+        <f>'CFF Clean Data'!E8</f>
+        <v>1.7729999999999998E-5</v>
+      </c>
+      <c r="D11" s="154">
+        <f>'CFF Clean Data'!E23</f>
+        <v>1.1700000000000001E-8</v>
+      </c>
+      <c r="E11" s="154">
+        <f>'CFF Clean Data'!C63</f>
+        <v>1.0499999999999999E-5</v>
+      </c>
+      <c r="F11" s="154">
+        <f>'CFF Clean Data'!C78</f>
+        <v>1.11E-8</v>
+      </c>
+      <c r="G11" s="154">
+        <f>'CFF Clean Data'!C93</f>
+        <v>1.1346699999999999E-4</v>
+      </c>
       <c r="H11" s="154">
         <f>'CFF Clean Data'!E144</f>
         <v>4.4900000000000002E-4</v>
@@ -10302,6 +10432,14 @@
         <f>'CFF Clean Data'!E171</f>
         <v>5.71E-4</v>
       </c>
+      <c r="J11" s="154">
+        <f t="shared" si="1"/>
+        <v>1.6844084999999999E-5</v>
+      </c>
+      <c r="K11" s="154">
+        <f t="shared" si="0"/>
+        <v>5.2759304499999997E-5</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="192" t="s">
@@ -10310,12 +10448,36 @@
       <c r="B12" t="s">
         <v>804</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="154">
+        <f>'CFF Clean Data'!F94</f>
+        <v>1.88</v>
+      </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" s="154">
         <f>'CFF Clean Data'!D172</f>
         <v>34.929999999999993</v>
+      </c>
+      <c r="J12" s="154">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="154">
+        <f t="shared" si="0"/>
+        <v>0.78019999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -10323,6 +10485,26 @@
       <c r="B13" t="s">
         <v>805</v>
       </c>
+      <c r="C13">
+        <f>'CFF Clean Data'!C9</f>
+        <v>13.58</v>
+      </c>
+      <c r="D13">
+        <f>'CFF Clean Data'!C24</f>
+        <v>4.24</v>
+      </c>
+      <c r="E13" s="154">
+        <f>'CFF Clean Data'!D64</f>
+        <v>7.4266666666666659</v>
+      </c>
+      <c r="F13" s="154">
+        <f>'CFF Clean Data'!D79</f>
+        <v>4.0200600232926211</v>
+      </c>
+      <c r="G13" s="154">
+        <f>'CFF Clean Data'!D94</f>
+        <v>3.7250640034364264</v>
+      </c>
       <c r="H13" s="154">
         <f>'CFF Clean Data'!C145</f>
         <v>1030</v>
@@ -10330,6 +10512,14 @@
       <c r="I13">
         <f>'CFF Clean Data'!C172</f>
         <v>8470</v>
+      </c>
+      <c r="J13" s="154">
+        <f t="shared" si="1"/>
+        <v>13.113</v>
+      </c>
+      <c r="K13" s="154">
+        <f t="shared" si="0"/>
+        <v>5.7372042624742843</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -10337,6 +10527,26 @@
       <c r="B14" t="s">
         <v>813</v>
       </c>
+      <c r="C14" s="154">
+        <f>'CFF Clean Data'!D9</f>
+        <v>0.1709</v>
+      </c>
+      <c r="D14" s="154">
+        <f>'CFF Clean Data'!D24</f>
+        <v>8.2400000000000008E-3</v>
+      </c>
+      <c r="E14" s="154">
+        <f>'CFF Clean Data'!E64</f>
+        <v>9.346012531328321E-2</v>
+      </c>
+      <c r="F14" s="154">
+        <f>'CFF Clean Data'!E79</f>
+        <v>7.8022133938706016E-3</v>
+      </c>
+      <c r="G14" s="154">
+        <f>'CFF Clean Data'!E94</f>
+        <v>0.10799939862542955</v>
+      </c>
       <c r="H14" s="154">
         <f>'CFF Clean Data'!D145</f>
         <v>137</v>
@@ -10344,6 +10554,14 @@
       <c r="I14" s="154">
         <f>'CFF Clean Data'!F172</f>
         <v>10.9</v>
+      </c>
+      <c r="J14" s="154">
+        <f t="shared" si="1"/>
+        <v>0.162767</v>
+      </c>
+      <c r="K14" s="154">
+        <f t="shared" si="0"/>
+        <v>9.5639317701450371E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -10351,6 +10569,26 @@
       <c r="B15" t="s">
         <v>806</v>
       </c>
+      <c r="C15" s="154">
+        <f>'CFF Clean Data'!E9</f>
+        <v>684</v>
+      </c>
+      <c r="D15" s="154">
+        <f>'CFF Clean Data'!E24</f>
+        <v>7.3</v>
+      </c>
+      <c r="E15" s="154">
+        <f>'CFF Clean Data'!C64</f>
+        <v>405</v>
+      </c>
+      <c r="F15" s="154">
+        <f>'CFF Clean Data'!C79</f>
+        <v>6.91</v>
+      </c>
+      <c r="G15" s="154">
+        <f>'CFF Clean Data'!C94</f>
+        <v>98.300000000000011</v>
+      </c>
       <c r="H15" s="154">
         <f>'CFF Clean Data'!E145</f>
         <v>1140</v>
@@ -10358,6 +10596,14 @@
       <c r="I15" s="154">
         <f>'CFF Clean Data'!E172</f>
         <v>3970</v>
+      </c>
+      <c r="J15" s="154">
+        <f t="shared" si="1"/>
+        <v>650.16499999999996</v>
+      </c>
+      <c r="K15" s="154">
+        <f t="shared" si="0"/>
+        <v>259.80545000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -10365,6 +10611,26 @@
       <c r="B16" t="s">
         <v>807</v>
       </c>
+      <c r="C16" s="154">
+        <f>'CFF Clean Data'!E9</f>
+        <v>684</v>
+      </c>
+      <c r="D16" s="154">
+        <f>'CFF Clean Data'!E24</f>
+        <v>7.3</v>
+      </c>
+      <c r="E16" s="154">
+        <f>'CFF Clean Data'!C64</f>
+        <v>405</v>
+      </c>
+      <c r="F16" s="154">
+        <f>'CFF Clean Data'!C79</f>
+        <v>6.91</v>
+      </c>
+      <c r="G16" s="154">
+        <f>'CFF Clean Data'!C94</f>
+        <v>98.300000000000011</v>
+      </c>
       <c r="H16" s="154">
         <f>'CFF Clean Data'!E145</f>
         <v>1140</v>
@@ -10373,13 +10639,37 @@
         <f>'CFF Clean Data'!E172</f>
         <v>3970</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+      <c r="J16" s="154">
+        <f t="shared" si="1"/>
+        <v>650.16499999999996</v>
+      </c>
+      <c r="K16" s="154">
+        <f t="shared" si="0"/>
+        <v>259.80545000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="13.5" customHeight="1">
       <c r="A17" s="192" t="s">
         <v>165</v>
       </c>
       <c r="B17" t="s">
         <v>808</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="154">
+        <f>'CFF Clean Data'!F95</f>
+        <v>2.7399999999999999E-4</v>
       </c>
       <c r="H17" s="154">
         <v>0</v>
@@ -10388,12 +10678,40 @@
         <f>'CFF Clean Data'!D173</f>
         <v>4.2490000000000002E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="154">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="154">
+        <f t="shared" si="0"/>
+        <v>1.1370999999999999E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="192"/>
       <c r="B18" t="s">
         <v>809</v>
       </c>
+      <c r="C18">
+        <f>'CFF Clean Data'!C10</f>
+        <v>2.0109999999999998E-3</v>
+      </c>
+      <c r="D18">
+        <f>'CFF Clean Data'!C25</f>
+        <v>6.11E-4</v>
+      </c>
+      <c r="E18" s="154">
+        <f>'CFF Clean Data'!D65</f>
+        <v>1.0983333333333333E-3</v>
+      </c>
+      <c r="F18" s="154">
+        <f>'CFF Clean Data'!D80</f>
+        <v>5.7934198345626655E-4</v>
+      </c>
+      <c r="G18" s="154">
+        <f>'CFF Clean Data'!D95</f>
+        <v>5.4182749140893464E-4</v>
+      </c>
       <c r="H18" s="154">
         <f>'CFF Clean Data'!C146</f>
         <v>3.6299999999999999E-2</v>
@@ -10402,12 +10720,40 @@
         <f>'CFF Clean Data'!C173</f>
         <v>0.28899999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="154">
+        <f t="shared" si="1"/>
+        <v>1.9409999999999998E-3</v>
+      </c>
+      <c r="K18" s="154">
+        <f t="shared" si="0"/>
+        <v>8.4402879819023995E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="192"/>
       <c r="B19" t="s">
         <v>810</v>
       </c>
+      <c r="C19" s="154">
+        <f>'CFF Clean Data'!D10</f>
+        <v>3.1900000000000003E-5</v>
+      </c>
+      <c r="D19" s="154">
+        <f>'CFF Clean Data'!D25</f>
+        <v>1.5400000000000001E-6</v>
+      </c>
+      <c r="E19" s="154">
+        <f>'CFF Clean Data'!E65</f>
+        <v>1.7452694235588974E-5</v>
+      </c>
+      <c r="F19" s="154">
+        <f>'CFF Clean Data'!E80</f>
+        <v>1.4537457434733258E-6</v>
+      </c>
+      <c r="G19" s="154">
+        <f>'CFF Clean Data'!E95</f>
+        <v>1.9128707044673542E-5</v>
+      </c>
       <c r="H19" s="154">
         <f>'CFF Clean Data'!D146</f>
         <v>6.1199999999999997E-2</v>
@@ -10416,12 +10762,40 @@
         <f>'CFF Clean Data'!F173</f>
         <v>4.8700000000000002E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="154">
+        <f t="shared" si="1"/>
+        <v>3.0382000000000002E-5</v>
+      </c>
+      <c r="K19" s="154">
+        <f t="shared" si="0"/>
+        <v>1.7428286869213866E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="192"/>
       <c r="B20" t="s">
         <v>811</v>
       </c>
+      <c r="C20" s="154">
+        <f>'CFF Clean Data'!E10</f>
+        <v>0.1956</v>
+      </c>
+      <c r="D20" s="154">
+        <f>'CFF Clean Data'!E25</f>
+        <v>1.74E-3</v>
+      </c>
+      <c r="E20" s="154">
+        <f>'CFF Clean Data'!C65</f>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F20" s="154">
+        <f>'CFF Clean Data'!C80</f>
+        <v>1.65E-3</v>
+      </c>
+      <c r="G20" s="154">
+        <f>'CFF Clean Data'!C95</f>
+        <v>1.6309999999999998E-2</v>
+      </c>
       <c r="H20" s="154">
         <f>'CFF Clean Data'!E146</f>
         <v>0.108</v>
@@ -10430,12 +10804,40 @@
         <f>'CFF Clean Data'!E173</f>
         <v>0.441</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="154">
+        <f t="shared" si="1"/>
+        <v>0.18590699999999999</v>
+      </c>
+      <c r="K20" s="154">
+        <f t="shared" si="0"/>
+        <v>6.94829E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="192"/>
       <c r="B21" t="s">
         <v>812</v>
       </c>
+      <c r="C21" s="154">
+        <f>'CFF Clean Data'!E10</f>
+        <v>0.1956</v>
+      </c>
+      <c r="D21" s="154">
+        <f>'CFF Clean Data'!E25</f>
+        <v>1.74E-3</v>
+      </c>
+      <c r="E21" s="154">
+        <f>'CFF Clean Data'!C65</f>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F21" s="154">
+        <f>'CFF Clean Data'!C80</f>
+        <v>1.65E-3</v>
+      </c>
+      <c r="G21" s="154">
+        <f>'CFF Clean Data'!C95</f>
+        <v>1.6309999999999998E-2</v>
+      </c>
       <c r="H21" s="154">
         <f>'CFF Clean Data'!E146</f>
         <v>0.108</v>
@@ -10444,13 +10846,37 @@
         <f>'CFF Clean Data'!E173</f>
         <v>0.441</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="154">
+        <f t="shared" si="1"/>
+        <v>0.18590699999999999</v>
+      </c>
+      <c r="K21" s="154">
+        <f t="shared" si="0"/>
+        <v>6.94829E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="192" t="s">
         <v>166</v>
       </c>
       <c r="B22" t="s">
         <v>815</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="154">
+        <f>'CFF Clean Data'!F96</f>
+        <v>5.3699999999999997E-5</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -10459,12 +10885,40 @@
         <f>'CFF Clean Data'!D174</f>
         <v>2.1770000000000001E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="154">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="154">
+        <f t="shared" si="0"/>
+        <v>2.2285499999999999E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="192"/>
       <c r="B23" t="s">
         <v>816</v>
       </c>
+      <c r="C23">
+        <f>'CFF Clean Data'!C11</f>
+        <v>4.1200000000000004E-4</v>
+      </c>
+      <c r="D23">
+        <f>'CFF Clean Data'!C26</f>
+        <v>1.17E-4</v>
+      </c>
+      <c r="E23" s="154">
+        <f>'CFF Clean Data'!D66</f>
+        <v>2.253333333333333E-4</v>
+      </c>
+      <c r="F23" s="154">
+        <f>'CFF Clean Data'!D81</f>
+        <v>1.1066831904918326E-4</v>
+      </c>
+      <c r="G23" s="154">
+        <f>'CFF Clean Data'!D96</f>
+        <v>1.0342315292096219E-4</v>
+      </c>
       <c r="H23" s="154">
         <f>'CFF Clean Data'!C147</f>
         <v>6.2300000000000003E-3</v>
@@ -10473,12 +10927,40 @@
         <f>'CFF Clean Data'!C174</f>
         <v>4.9399999999999999E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="154">
+        <f t="shared" si="1"/>
+        <v>3.9725000000000003E-4</v>
+      </c>
+      <c r="K23" s="154">
+        <f t="shared" si="0"/>
+        <v>1.6958068281941254E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="192"/>
       <c r="B24" t="s">
         <v>817</v>
       </c>
+      <c r="C24" s="154">
+        <f>'CFF Clean Data'!D11</f>
+        <v>3.4300000000000002E-6</v>
+      </c>
+      <c r="D24" s="154">
+        <f>'CFF Clean Data'!D26</f>
+        <v>1.6500000000000001E-7</v>
+      </c>
+      <c r="E24" s="154">
+        <f>'CFF Clean Data'!E66</f>
+        <v>1.8730162907268171E-6</v>
+      </c>
+      <c r="F24" s="154">
+        <f>'CFF Clean Data'!E81</f>
+        <v>1.5604426787741203E-7</v>
+      </c>
+      <c r="G24" s="154">
+        <f>'CFF Clean Data'!E96</f>
+        <v>2.1142255154639176E-5</v>
+      </c>
       <c r="H24" s="154">
         <f>'CFF Clean Data'!D147</f>
         <v>6.8500000000000002E-3</v>
@@ -10487,12 +10969,40 @@
         <f>'CFF Clean Data'!F174</f>
         <v>5.4600000000000004E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="154">
+        <f t="shared" si="1"/>
+        <v>3.2667500000000001E-6</v>
+      </c>
+      <c r="K24" s="154">
+        <f t="shared" si="0"/>
+        <v>9.7924866782222216E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="192"/>
       <c r="B25" t="s">
         <v>818</v>
       </c>
+      <c r="C25" s="154">
+        <f>'CFF Clean Data'!E11</f>
+        <v>1.489E-2</v>
+      </c>
+      <c r="D25" s="154">
+        <f>'CFF Clean Data'!E26</f>
+        <v>1.73E-4</v>
+      </c>
+      <c r="E25" s="154">
+        <f>'CFF Clean Data'!C66</f>
+        <v>8.8100000000000001E-3</v>
+      </c>
+      <c r="F25" s="154">
+        <f>'CFF Clean Data'!C81</f>
+        <v>1.64E-4</v>
+      </c>
+      <c r="G25" s="154">
+        <f>'CFF Clean Data'!C96</f>
+        <v>1.0809999999999999E-3</v>
+      </c>
       <c r="H25" s="154">
         <f>'CFF Clean Data'!E147</f>
         <v>1.8100000000000002E-2</v>
@@ -10501,12 +11011,40 @@
         <f>'CFF Clean Data'!E174</f>
         <v>8.6300000000000002E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="154">
+        <f t="shared" si="1"/>
+        <v>1.4154150000000001E-2</v>
+      </c>
+      <c r="K25" s="154">
+        <f t="shared" si="0"/>
+        <v>5.2133950000000009E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="192"/>
       <c r="B26" t="s">
         <v>819</v>
       </c>
+      <c r="C26" s="154">
+        <f>'CFF Clean Data'!E11</f>
+        <v>1.489E-2</v>
+      </c>
+      <c r="D26" s="154">
+        <f>'CFF Clean Data'!E26</f>
+        <v>1.73E-4</v>
+      </c>
+      <c r="E26" s="154">
+        <f>'CFF Clean Data'!C66</f>
+        <v>8.8100000000000001E-3</v>
+      </c>
+      <c r="F26" s="154">
+        <f>'CFF Clean Data'!C81</f>
+        <v>1.64E-4</v>
+      </c>
+      <c r="G26" s="154">
+        <f>'CFF Clean Data'!C96</f>
+        <v>1.0809999999999999E-3</v>
+      </c>
       <c r="H26" s="154">
         <f>'CFF Clean Data'!E147</f>
         <v>1.8100000000000002E-2</v>
@@ -10515,13 +11053,37 @@
         <f>'CFF Clean Data'!E174</f>
         <v>8.6300000000000002E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="154">
+        <f t="shared" si="1"/>
+        <v>1.4154150000000001E-2</v>
+      </c>
+      <c r="K26" s="154">
+        <f t="shared" si="0"/>
+        <v>5.2133950000000009E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="192" t="s">
         <v>170</v>
       </c>
       <c r="B27" t="s">
         <v>820</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="154">
+        <f>'CFF Clean Data'!F100</f>
+        <v>7.4400000000000004E-3</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -10530,12 +11092,40 @@
         <f>'CFF Clean Data'!D178</f>
         <v>7.7367600000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="154">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="154">
+        <f t="shared" si="0"/>
+        <v>3.0876000000000002E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="192"/>
       <c r="B28" t="s">
         <v>821</v>
       </c>
+      <c r="C28">
+        <f>'CFF Clean Data'!C15</f>
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D28">
+        <f>'CFF Clean Data'!C30</f>
+        <v>1.67E-2</v>
+      </c>
+      <c r="E28" s="154">
+        <f>'CFF Clean Data'!D70</f>
+        <v>2.9199999999999997E-2</v>
+      </c>
+      <c r="F28" s="154">
+        <f>'CFF Clean Data'!D85</f>
+        <v>1.5800235912443634E-2</v>
+      </c>
+      <c r="G28" s="154">
+        <f>'CFF Clean Data'!D100</f>
+        <v>1.4827036082474225E-2</v>
+      </c>
       <c r="H28" s="154">
         <f>'CFF Clean Data'!C151</f>
         <v>1.32</v>
@@ -10544,12 +11134,40 @@
         <f>'CFF Clean Data'!C178</f>
         <v>10.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="154">
+        <f t="shared" si="1"/>
+        <v>5.1565E-2</v>
+      </c>
+      <c r="K28" s="154">
+        <f t="shared" si="0"/>
+        <v>2.2632230590286767E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="192"/>
       <c r="B29" t="s">
         <v>822</v>
       </c>
+      <c r="C29" s="154">
+        <f>'CFF Clean Data'!D15</f>
+        <v>3.4400000000000001E-4</v>
+      </c>
+      <c r="D29" s="154">
+        <f>'CFF Clean Data'!D30</f>
+        <v>1.66E-5</v>
+      </c>
+      <c r="E29" s="154">
+        <f>'CFF Clean Data'!E70</f>
+        <v>1.882967418546366E-4</v>
+      </c>
+      <c r="F29" s="154">
+        <f>'CFF Clean Data'!E85</f>
+        <v>1.56711123723042E-5</v>
+      </c>
+      <c r="G29" s="154">
+        <f>'CFF Clean Data'!E100</f>
+        <v>2.2057504295532645E-4</v>
+      </c>
       <c r="H29" s="154">
         <f>'CFF Clean Data'!D151</f>
         <v>0.52600000000000002</v>
@@ -10558,12 +11176,40 @@
         <f>'CFF Clean Data'!F178</f>
         <v>4.19E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="154">
+        <f t="shared" si="1"/>
+        <v>3.2762999999999998E-4</v>
+      </c>
+      <c r="K29" s="154">
+        <f t="shared" si="0"/>
+        <v>1.9392408348471794E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="192"/>
       <c r="B30" t="s">
         <v>823</v>
       </c>
+      <c r="C30" s="154">
+        <f>'CFF Clean Data'!E15</f>
+        <v>84.3</v>
+      </c>
+      <c r="D30" s="154">
+        <f>'CFF Clean Data'!E30</f>
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="E30" s="154">
+        <f>'CFF Clean Data'!C70</f>
+        <v>50</v>
+      </c>
+      <c r="F30" s="154">
+        <f>'CFF Clean Data'!C85</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G30" s="154">
+        <f>'CFF Clean Data'!C100</f>
+        <v>0.13740000000000002</v>
+      </c>
       <c r="H30" s="154">
         <f>'CFF Clean Data'!E151</f>
         <v>4.6100000000000003</v>
@@ -10572,12 +11218,40 @@
         <f>'CFF Clean Data'!E178</f>
         <v>12.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="154">
+        <f t="shared" si="1"/>
+        <v>80.08879499999999</v>
+      </c>
+      <c r="K30" s="154">
+        <f t="shared" si="0"/>
+        <v>27.060261000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="192"/>
       <c r="B31" t="s">
         <v>824</v>
       </c>
+      <c r="C31" s="154">
+        <f>'CFF Clean Data'!E15</f>
+        <v>84.3</v>
+      </c>
+      <c r="D31" s="154">
+        <f>'CFF Clean Data'!E30</f>
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="E31" s="154">
+        <f>'CFF Clean Data'!C70</f>
+        <v>50</v>
+      </c>
+      <c r="F31" s="154">
+        <f>'CFF Clean Data'!C85</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G31" s="154">
+        <f>'CFF Clean Data'!C100</f>
+        <v>0.13740000000000002</v>
+      </c>
       <c r="H31" s="154">
         <f>'CFF Clean Data'!E151</f>
         <v>4.6100000000000003</v>
@@ -10586,13 +11260,37 @@
         <f>'CFF Clean Data'!E178</f>
         <v>12.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="154">
+        <f t="shared" si="1"/>
+        <v>80.08879499999999</v>
+      </c>
+      <c r="K31" s="154">
+        <f t="shared" si="0"/>
+        <v>27.060261000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="192" t="s">
         <v>172</v>
       </c>
       <c r="B32" t="s">
         <v>825</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="154">
+        <f>'CFF Clean Data'!F102</f>
+        <v>7.4699999999999995E-12</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -10601,12 +11299,40 @@
         <f>'CFF Clean Data'!D180</f>
         <v>7.4988E-11</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="154">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="154">
+        <f t="shared" si="0"/>
+        <v>3.1000499999999995E-12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="192"/>
       <c r="B33" t="s">
         <v>826</v>
       </c>
+      <c r="C33">
+        <f>'CFF Clean Data'!C17</f>
+        <v>5.1799999999999998E-11</v>
+      </c>
+      <c r="D33">
+        <f>'CFF Clean Data'!C32</f>
+        <v>1.6999999999999999E-11</v>
+      </c>
+      <c r="E33" s="154">
+        <f>'CFF Clean Data'!D72</f>
+        <v>2.8349999999999998E-11</v>
+      </c>
+      <c r="F33" s="154">
+        <f>'CFF Clean Data'!D87</f>
+        <v>1.6066906560754917E-11</v>
+      </c>
+      <c r="G33" s="154">
+        <f>'CFF Clean Data'!D102</f>
+        <v>1.5101610824742272E-11</v>
+      </c>
       <c r="H33" s="154">
         <f>'CFF Clean Data'!C153</f>
         <v>6.2800000000000005E-11</v>
@@ -10615,12 +11341,40 @@
         <f>'CFF Clean Data'!C180</f>
         <v>2.8999999999999998E-10</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="154">
+        <f t="shared" si="1"/>
+        <v>5.006E-11</v>
+      </c>
+      <c r="K33" s="154">
+        <f t="shared" si="0"/>
+        <v>2.2299179287502016E-11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="192"/>
       <c r="B34" t="s">
         <v>827</v>
       </c>
+      <c r="C34" s="154">
+        <f>'CFF Clean Data'!D17</f>
+        <v>1.923E-14</v>
+      </c>
+      <c r="D34" s="154">
+        <f>'CFF Clean Data'!D32</f>
+        <v>9.2700000000000007E-16</v>
+      </c>
+      <c r="E34" s="154">
+        <f>'CFF Clean Data'!E72</f>
+        <v>1.0530538847117795E-14</v>
+      </c>
+      <c r="F34" s="154">
+        <f>'CFF Clean Data'!E87</f>
+        <v>8.8024971623155496E-16</v>
+      </c>
+      <c r="G34" s="154">
+        <f>'CFF Clean Data'!E102</f>
+        <v>1.2447388316151203E-14</v>
+      </c>
       <c r="H34" s="154">
         <f>'CFF Clean Data'!D153</f>
         <v>3.0099999999999998E-11</v>
@@ -10629,12 +11383,40 @@
         <f>'CFF Clean Data'!F180</f>
         <v>2.3900000000000001E-12</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="154">
+        <f t="shared" si="1"/>
+        <v>1.8314850000000001E-14</v>
+      </c>
+      <c r="K34" s="154">
+        <f t="shared" si="0"/>
+        <v>1.0891768365876779E-14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="192"/>
       <c r="B35" t="s">
         <v>828</v>
       </c>
+      <c r="C35" s="154">
+        <f>'CFF Clean Data'!E17</f>
+        <v>1.018E-10</v>
+      </c>
+      <c r="D35" s="154">
+        <f>'CFF Clean Data'!E32</f>
+        <v>6.8300000000000002E-13</v>
+      </c>
+      <c r="E35" s="154">
+        <f>'CFF Clean Data'!C72</f>
+        <v>6.0300000000000001E-11</v>
+      </c>
+      <c r="F35" s="154">
+        <f>'CFF Clean Data'!C87</f>
+        <v>6.4699999999999997E-13</v>
+      </c>
+      <c r="G35" s="154">
+        <f>'CFF Clean Data'!C102</f>
+        <v>2.8209999999999999E-11</v>
+      </c>
       <c r="H35" s="154">
         <f>'CFF Clean Data'!E153</f>
         <v>5.2700000000000004E-10</v>
@@ -10643,12 +11425,40 @@
         <f>'CFF Clean Data'!E180</f>
         <v>3.2599999999999999E-9</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="154">
+        <f t="shared" si="1"/>
+        <v>9.6744149999999998E-11</v>
+      </c>
+      <c r="K35" s="154">
+        <f t="shared" si="0"/>
+        <v>4.4298264999999998E-11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="192"/>
       <c r="B36" t="s">
         <v>829</v>
       </c>
+      <c r="C36" s="154">
+        <f>'CFF Clean Data'!E17</f>
+        <v>1.018E-10</v>
+      </c>
+      <c r="D36" s="154">
+        <f>'CFF Clean Data'!E32</f>
+        <v>6.8300000000000002E-13</v>
+      </c>
+      <c r="E36" s="154">
+        <f>'CFF Clean Data'!C72</f>
+        <v>6.0300000000000001E-11</v>
+      </c>
+      <c r="F36" s="154">
+        <f>'CFF Clean Data'!C87</f>
+        <v>6.4699999999999997E-13</v>
+      </c>
+      <c r="G36" s="154">
+        <f>'CFF Clean Data'!C102</f>
+        <v>2.8209999999999999E-11</v>
+      </c>
       <c r="H36" s="154">
         <f>'CFF Clean Data'!E153</f>
         <v>5.2700000000000004E-10</v>
@@ -10657,13 +11467,37 @@
         <f>'CFF Clean Data'!E180</f>
         <v>3.2599999999999999E-9</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="154">
+        <f t="shared" si="1"/>
+        <v>9.6744149999999998E-11</v>
+      </c>
+      <c r="K36" s="154">
+        <f t="shared" si="0"/>
+        <v>4.4298264999999998E-11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="192" t="s">
         <v>173</v>
       </c>
       <c r="B37" t="s">
         <v>830</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="154">
+        <f>'CFF Clean Data'!F103</f>
+        <v>1.8300000000000001E-5</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -10672,12 +11506,40 @@
         <f>'CFF Clean Data'!D181</f>
         <v>6.4800000000000003E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="154">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="154">
+        <f t="shared" si="0"/>
+        <v>7.5944999999999999E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="192"/>
       <c r="B38" t="s">
         <v>831</v>
       </c>
+      <c r="C38">
+        <f>'CFF Clean Data'!C18</f>
+        <v>1.3739999999999998E-4</v>
+      </c>
+      <c r="D38">
+        <f>'CFF Clean Data'!C33</f>
+        <v>4.0800000000000002E-5</v>
+      </c>
+      <c r="E38" s="154">
+        <f>'CFF Clean Data'!D73</f>
+        <v>7.5116666666666658E-5</v>
+      </c>
+      <c r="F38" s="154">
+        <f>'CFF Clean Data'!D88</f>
+        <v>3.86005763430585E-5</v>
+      </c>
+      <c r="G38" s="154">
+        <f>'CFF Clean Data'!D103</f>
+        <v>3.6060816151202756E-5</v>
+      </c>
       <c r="H38" s="154">
         <f>'CFF Clean Data'!C154</f>
         <v>5.4900000000000001E-3</v>
@@ -10686,12 +11548,40 @@
         <f>'CFF Clean Data'!C181</f>
         <v>4.4400000000000002E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="154">
+        <f t="shared" si="1"/>
+        <v>1.3256999999999999E-4</v>
+      </c>
+      <c r="K38" s="154">
+        <f t="shared" si="0"/>
+        <v>5.7265264638186773E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="192"/>
       <c r="B39" t="s">
         <v>832</v>
       </c>
+      <c r="C39" s="154">
+        <f>'CFF Clean Data'!D18</f>
+        <v>2.9400000000000002E-6</v>
+      </c>
+      <c r="D39" s="154">
+        <f>'CFF Clean Data'!D33</f>
+        <v>1.42E-7</v>
+      </c>
+      <c r="E39" s="154">
+        <f>'CFF Clean Data'!E73</f>
+        <v>1.608404761904762E-6</v>
+      </c>
+      <c r="F39" s="154">
+        <f>'CFF Clean Data'!E88</f>
+        <v>1.3403802497162316E-7</v>
+      </c>
+      <c r="G39" s="154">
+        <f>'CFF Clean Data'!E103</f>
+        <v>1.7481258591065291E-6</v>
+      </c>
       <c r="H39" s="154">
         <f>'CFF Clean Data'!D154</f>
         <v>4.7699999999999999E-3</v>
@@ -10700,12 +11590,40 @@
         <f>'CFF Clean Data'!F181</f>
         <v>3.8000000000000002E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="154">
+        <f t="shared" si="1"/>
+        <v>2.8001000000000001E-6</v>
+      </c>
+      <c r="K39" s="154">
+        <f t="shared" si="0"/>
+        <v>1.6000425140815042E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="192"/>
       <c r="B40" t="s">
         <v>833</v>
       </c>
+      <c r="C40" s="154">
+        <f>'CFF Clean Data'!E18</f>
+        <v>1.1679999999999999E-2</v>
+      </c>
+      <c r="D40" s="154">
+        <f>'CFF Clean Data'!E33</f>
+        <v>2.4399999999999999E-4</v>
+      </c>
+      <c r="E40" s="154">
+        <f>'CFF Clean Data'!C73</f>
+        <v>6.9100000000000003E-3</v>
+      </c>
+      <c r="F40" s="154">
+        <f>'CFF Clean Data'!C88</f>
+        <v>2.31E-4</v>
+      </c>
+      <c r="G40" s="154">
+        <f>'CFF Clean Data'!C103</f>
+        <v>1.1949999999999999E-3</v>
+      </c>
       <c r="H40" s="154">
         <f>'CFF Clean Data'!E154</f>
         <v>9.3100000000000006E-3</v>
@@ -10714,12 +11632,40 @@
         <f>'CFF Clean Data'!E181</f>
         <v>4.2599999999999999E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="154">
+        <f t="shared" si="1"/>
+        <v>1.1108199999999999E-2</v>
+      </c>
+      <c r="K40" s="154">
+        <f t="shared" si="0"/>
+        <v>4.2377200000000004E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="192"/>
       <c r="B41" t="s">
         <v>834</v>
       </c>
+      <c r="C41" s="154">
+        <f>'CFF Clean Data'!E18</f>
+        <v>1.1679999999999999E-2</v>
+      </c>
+      <c r="D41" s="154">
+        <f>'CFF Clean Data'!E33</f>
+        <v>2.4399999999999999E-4</v>
+      </c>
+      <c r="E41" s="154">
+        <f>'CFF Clean Data'!C73</f>
+        <v>6.9100000000000003E-3</v>
+      </c>
+      <c r="F41" s="154">
+        <f>'CFF Clean Data'!C88</f>
+        <v>2.31E-4</v>
+      </c>
+      <c r="G41" s="154">
+        <f>'CFF Clean Data'!C103</f>
+        <v>1.1949999999999999E-3</v>
+      </c>
       <c r="H41" s="154">
         <f>'CFF Clean Data'!E154</f>
         <v>9.3100000000000006E-3</v>
@@ -10727,6 +11673,14 @@
       <c r="I41" s="154">
         <f>'CFF Clean Data'!E181</f>
         <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="J41" s="154">
+        <f t="shared" si="1"/>
+        <v>1.1108199999999999E-2</v>
+      </c>
+      <c r="K41" s="154">
+        <f t="shared" si="0"/>
+        <v>4.2377200000000004E-3</v>
       </c>
     </row>
   </sheetData>
@@ -10750,7 +11704,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11555,7 +12509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA0106F-D974-4357-A130-9C7CA4052FF0}">
   <dimension ref="B2:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="112" workbookViewId="0">
+    <sheetView zoomScale="112" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -11579,94 +12533,94 @@
       <c r="B4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="198" t="s">
+      <c r="C4" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="200"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="214"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="2:7">
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="203"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="246"/>
+      <c r="F6" s="246"/>
+      <c r="G6" s="247"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="205" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="206"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
+      <c r="G7" s="202"/>
     </row>
     <row r="8" spans="2:7" ht="30.75" customHeight="1">
       <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="193" t="s">
+      <c r="C8" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="194"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="240"/>
+      <c r="F8" s="240"/>
+      <c r="G8" s="241"/>
     </row>
     <row r="9" spans="2:7" ht="36" customHeight="1">
       <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="194"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="241"/>
     </row>
     <row r="10" spans="2:7" ht="34.5" customHeight="1">
       <c r="B10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="193" t="s">
+      <c r="C10" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="194"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="241"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="195" t="s">
+      <c r="B11" s="242" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="197"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="244"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="210" t="s">
+      <c r="B12" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="211"/>
-      <c r="D12" s="211" t="s">
+      <c r="C12" s="219"/>
+      <c r="D12" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="211"/>
-      <c r="F12" s="211" t="s">
+      <c r="E12" s="219"/>
+      <c r="F12" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="212"/>
+      <c r="G12" s="234"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="13" t="s">
@@ -11675,433 +12629,433 @@
       <c r="C13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="213"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="215"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="201"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="204"/>
-      <c r="C14" s="217"/>
+      <c r="B14" s="205"/>
+      <c r="C14" s="200"/>
       <c r="D14" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="216"/>
-      <c r="G14" s="206"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="202"/>
     </row>
     <row r="15" spans="2:7" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B15" s="218"/>
-      <c r="C15" s="219"/>
-      <c r="D15" s="220"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="221" t="s">
+      <c r="B15" s="206"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="208"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="222"/>
+      <c r="G15" s="211"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="20" spans="2:7" ht="37.5" customHeight="1" thickBot="1">
       <c r="B20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="198" t="s">
+      <c r="C20" s="212" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="200"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="214"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="22" spans="2:7">
-      <c r="B22" s="207" t="s">
+      <c r="B22" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="208"/>
-      <c r="D22" s="208"/>
-      <c r="E22" s="208"/>
-      <c r="F22" s="208"/>
-      <c r="G22" s="209"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="233"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="210" t="s">
+      <c r="B23" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="211"/>
-      <c r="D23" s="211" t="s">
+      <c r="C23" s="219"/>
+      <c r="D23" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="211"/>
-      <c r="F23" s="211" t="s">
+      <c r="E23" s="219"/>
+      <c r="F23" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="212"/>
+      <c r="G23" s="234"/>
     </row>
     <row r="24" spans="2:7" ht="39" customHeight="1">
-      <c r="B24" s="223" t="s">
+      <c r="B24" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="224"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="214"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="215"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="201"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="204"/>
-      <c r="C25" s="217"/>
+      <c r="B25" s="205"/>
+      <c r="C25" s="200"/>
       <c r="D25" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="F25" s="216"/>
-      <c r="G25" s="206"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="202"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="225"/>
-      <c r="C26" s="226"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="226"/>
-      <c r="F26" s="228" t="s">
+      <c r="B26" s="235"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
+      <c r="E26" s="236"/>
+      <c r="F26" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="229"/>
+      <c r="G26" s="239"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="230" t="s">
+      <c r="B27" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="231"/>
-      <c r="D27" s="231"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="231"/>
-      <c r="G27" s="232"/>
+      <c r="C27" s="226"/>
+      <c r="D27" s="226"/>
+      <c r="E27" s="226"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="227"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B28" s="233"/>
-      <c r="C28" s="234"/>
-      <c r="D28" s="234"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="234"/>
-      <c r="G28" s="235"/>
+      <c r="B28" s="228"/>
+      <c r="C28" s="229"/>
+      <c r="D28" s="229"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="230"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="34" spans="2:11" ht="58.5" customHeight="1" thickBot="1">
       <c r="B34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="198" t="s">
+      <c r="C34" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="199"/>
-      <c r="E34" s="199"/>
-      <c r="F34" s="199"/>
-      <c r="G34" s="200"/>
+      <c r="D34" s="213"/>
+      <c r="E34" s="213"/>
+      <c r="F34" s="213"/>
+      <c r="G34" s="214"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="36" spans="2:11">
-      <c r="B36" s="207" t="s">
+      <c r="B36" s="231" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="208"/>
-      <c r="D36" s="208"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="208"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="208"/>
-      <c r="K36" s="209"/>
+      <c r="C36" s="232"/>
+      <c r="D36" s="232"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="232"/>
+      <c r="G36" s="232"/>
+      <c r="H36" s="232"/>
+      <c r="I36" s="232"/>
+      <c r="J36" s="232"/>
+      <c r="K36" s="233"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="210" t="s">
+      <c r="B37" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="211"/>
-      <c r="D37" s="211" t="s">
+      <c r="C37" s="219"/>
+      <c r="D37" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="211"/>
-      <c r="F37" s="211" t="s">
+      <c r="E37" s="219"/>
+      <c r="F37" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="211"/>
-      <c r="H37" s="211" t="s">
+      <c r="G37" s="219"/>
+      <c r="H37" s="219" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="211"/>
-      <c r="J37" s="211" t="s">
+      <c r="I37" s="219"/>
+      <c r="J37" s="219" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="212"/>
+      <c r="K37" s="234"/>
     </row>
     <row r="38" spans="2:11" ht="15" customHeight="1">
-      <c r="B38" s="236" t="s">
+      <c r="B38" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="237"/>
-      <c r="D38" s="213"/>
-      <c r="E38" s="214"/>
-      <c r="F38" s="213"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="213"/>
-      <c r="K38" s="215"/>
+      <c r="C38" s="223"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="198"/>
+      <c r="F38" s="197"/>
+      <c r="G38" s="198"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="198"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="201"/>
     </row>
     <row r="39" spans="2:11" ht="30">
-      <c r="B39" s="204"/>
-      <c r="C39" s="217"/>
+      <c r="B39" s="205"/>
+      <c r="C39" s="200"/>
       <c r="D39" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="216"/>
-      <c r="G39" s="217"/>
-      <c r="H39" s="216"/>
-      <c r="I39" s="217"/>
-      <c r="J39" s="216"/>
-      <c r="K39" s="206"/>
+      <c r="F39" s="199"/>
+      <c r="G39" s="200"/>
+      <c r="H39" s="199"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="199"/>
+      <c r="K39" s="202"/>
     </row>
     <row r="40" spans="2:11" ht="30">
-      <c r="B40" s="204"/>
-      <c r="C40" s="217"/>
-      <c r="D40" s="216"/>
-      <c r="E40" s="217"/>
+      <c r="B40" s="205"/>
+      <c r="C40" s="200"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="200"/>
       <c r="F40" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="216"/>
-      <c r="I40" s="217"/>
-      <c r="J40" s="216"/>
-      <c r="K40" s="206"/>
+      <c r="H40" s="199"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="199"/>
+      <c r="K40" s="202"/>
     </row>
     <row r="41" spans="2:11" ht="45">
-      <c r="B41" s="204"/>
-      <c r="C41" s="217"/>
-      <c r="D41" s="216"/>
-      <c r="E41" s="217"/>
-      <c r="F41" s="216"/>
-      <c r="G41" s="217"/>
+      <c r="B41" s="205"/>
+      <c r="C41" s="200"/>
+      <c r="D41" s="199"/>
+      <c r="E41" s="200"/>
+      <c r="F41" s="199"/>
+      <c r="G41" s="200"/>
       <c r="H41" s="14" t="s">
         <v>36</v>
       </c>
       <c r="I41" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="216"/>
-      <c r="K41" s="206"/>
+      <c r="J41" s="199"/>
+      <c r="K41" s="202"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="204"/>
-      <c r="C42" s="217"/>
-      <c r="D42" s="216"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="216"/>
-      <c r="G42" s="217"/>
-      <c r="H42" s="216"/>
-      <c r="I42" s="217"/>
-      <c r="J42" s="238" t="s">
+      <c r="B42" s="205"/>
+      <c r="C42" s="200"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="200"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="200"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="K42" s="239"/>
+      <c r="K42" s="209"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="204"/>
-      <c r="C43" s="217"/>
-      <c r="D43" s="216"/>
-      <c r="E43" s="217"/>
-      <c r="F43" s="216"/>
-      <c r="G43" s="217"/>
-      <c r="H43" s="216"/>
-      <c r="I43" s="217"/>
-      <c r="J43" s="238"/>
-      <c r="K43" s="239"/>
+      <c r="B43" s="205"/>
+      <c r="C43" s="200"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="200"/>
+      <c r="F43" s="199"/>
+      <c r="G43" s="200"/>
+      <c r="H43" s="199"/>
+      <c r="I43" s="200"/>
+      <c r="J43" s="193"/>
+      <c r="K43" s="209"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="204"/>
-      <c r="C44" s="217"/>
-      <c r="D44" s="216"/>
-      <c r="E44" s="217"/>
-      <c r="F44" s="216"/>
-      <c r="G44" s="217"/>
-      <c r="H44" s="216"/>
-      <c r="I44" s="217"/>
-      <c r="J44" s="238"/>
-      <c r="K44" s="239"/>
+      <c r="B44" s="205"/>
+      <c r="C44" s="200"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="199"/>
+      <c r="G44" s="200"/>
+      <c r="H44" s="199"/>
+      <c r="I44" s="200"/>
+      <c r="J44" s="193"/>
+      <c r="K44" s="209"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="204"/>
-      <c r="C45" s="217"/>
-      <c r="D45" s="216"/>
-      <c r="E45" s="217"/>
-      <c r="F45" s="216"/>
-      <c r="G45" s="217"/>
-      <c r="H45" s="216"/>
-      <c r="I45" s="217"/>
-      <c r="J45" s="238"/>
-      <c r="K45" s="239"/>
+      <c r="B45" s="205"/>
+      <c r="C45" s="200"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="200"/>
+      <c r="F45" s="199"/>
+      <c r="G45" s="200"/>
+      <c r="H45" s="199"/>
+      <c r="I45" s="200"/>
+      <c r="J45" s="193"/>
+      <c r="K45" s="209"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B46" s="218"/>
-      <c r="C46" s="219"/>
-      <c r="D46" s="220"/>
-      <c r="E46" s="219"/>
-      <c r="F46" s="220"/>
-      <c r="G46" s="219"/>
-      <c r="H46" s="220"/>
-      <c r="I46" s="219"/>
-      <c r="J46" s="240"/>
-      <c r="K46" s="222"/>
+      <c r="B46" s="206"/>
+      <c r="C46" s="207"/>
+      <c r="D46" s="208"/>
+      <c r="E46" s="207"/>
+      <c r="F46" s="208"/>
+      <c r="G46" s="207"/>
+      <c r="H46" s="208"/>
+      <c r="I46" s="207"/>
+      <c r="J46" s="224"/>
+      <c r="K46" s="211"/>
     </row>
     <row r="51" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="52" spans="2:13" ht="96.75" customHeight="1" thickBot="1">
       <c r="B52" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="198" t="s">
+      <c r="C52" s="212" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="199"/>
-      <c r="E52" s="199"/>
-      <c r="F52" s="199"/>
-      <c r="G52" s="199"/>
-      <c r="H52" s="199"/>
-      <c r="I52" s="199"/>
-      <c r="J52" s="199"/>
-      <c r="K52" s="200"/>
+      <c r="D52" s="213"/>
+      <c r="E52" s="213"/>
+      <c r="F52" s="213"/>
+      <c r="G52" s="213"/>
+      <c r="H52" s="213"/>
+      <c r="I52" s="213"/>
+      <c r="J52" s="213"/>
+      <c r="K52" s="214"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="54" spans="2:13">
-      <c r="B54" s="241" t="s">
+      <c r="B54" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="242"/>
-      <c r="D54" s="242"/>
-      <c r="E54" s="242"/>
-      <c r="F54" s="242"/>
-      <c r="G54" s="242"/>
-      <c r="H54" s="242"/>
-      <c r="I54" s="243"/>
+      <c r="C54" s="216"/>
+      <c r="D54" s="216"/>
+      <c r="E54" s="216"/>
+      <c r="F54" s="216"/>
+      <c r="G54" s="216"/>
+      <c r="H54" s="216"/>
+      <c r="I54" s="217"/>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="210" t="s">
+      <c r="B55" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="211"/>
-      <c r="D55" s="211" t="s">
+      <c r="C55" s="219"/>
+      <c r="D55" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="244"/>
-      <c r="F55" s="211" t="s">
+      <c r="E55" s="220"/>
+      <c r="F55" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="G55" s="211"/>
-      <c r="H55" s="244" t="s">
+      <c r="G55" s="219"/>
+      <c r="H55" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="I55" s="245"/>
+      <c r="I55" s="221"/>
     </row>
     <row r="56" spans="2:13" ht="55.5" customHeight="1">
-      <c r="B56" s="247" t="s">
+      <c r="B56" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="248"/>
-      <c r="D56" s="213"/>
-      <c r="E56" s="214"/>
-      <c r="F56" s="213"/>
-      <c r="G56" s="214"/>
-      <c r="H56" s="213"/>
-      <c r="I56" s="215"/>
+      <c r="C56" s="196"/>
+      <c r="D56" s="197"/>
+      <c r="E56" s="198"/>
+      <c r="F56" s="197"/>
+      <c r="G56" s="198"/>
+      <c r="H56" s="197"/>
+      <c r="I56" s="201"/>
     </row>
     <row r="57" spans="2:13" ht="38.25" customHeight="1">
-      <c r="B57" s="223" t="s">
+      <c r="B57" s="203" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="224"/>
-      <c r="D57" s="216"/>
-      <c r="E57" s="217"/>
-      <c r="F57" s="216"/>
-      <c r="G57" s="217"/>
-      <c r="H57" s="216"/>
-      <c r="I57" s="206"/>
+      <c r="C57" s="204"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="200"/>
+      <c r="F57" s="199"/>
+      <c r="G57" s="200"/>
+      <c r="H57" s="199"/>
+      <c r="I57" s="202"/>
     </row>
     <row r="58" spans="2:13" ht="22.5" customHeight="1">
-      <c r="B58" s="204"/>
-      <c r="C58" s="217"/>
-      <c r="D58" s="238" t="s">
+      <c r="B58" s="205"/>
+      <c r="C58" s="200"/>
+      <c r="D58" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="246"/>
-      <c r="F58" s="216"/>
-      <c r="G58" s="217"/>
-      <c r="H58" s="216"/>
-      <c r="I58" s="206"/>
+      <c r="E58" s="194"/>
+      <c r="F58" s="199"/>
+      <c r="G58" s="200"/>
+      <c r="H58" s="199"/>
+      <c r="I58" s="202"/>
     </row>
     <row r="59" spans="2:13" ht="99.75" customHeight="1">
-      <c r="B59" s="204"/>
-      <c r="C59" s="217"/>
-      <c r="D59" s="216"/>
-      <c r="E59" s="217"/>
-      <c r="F59" s="238" t="s">
+      <c r="B59" s="205"/>
+      <c r="C59" s="200"/>
+      <c r="D59" s="199"/>
+      <c r="E59" s="200"/>
+      <c r="F59" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="246"/>
-      <c r="H59" s="216"/>
-      <c r="I59" s="206"/>
+      <c r="G59" s="194"/>
+      <c r="H59" s="199"/>
+      <c r="I59" s="202"/>
       <c r="M59" s="23"/>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="204"/>
-      <c r="C60" s="217"/>
-      <c r="D60" s="216"/>
-      <c r="E60" s="217"/>
-      <c r="F60" s="216"/>
-      <c r="G60" s="217"/>
-      <c r="H60" s="224" t="s">
+      <c r="B60" s="205"/>
+      <c r="C60" s="200"/>
+      <c r="D60" s="199"/>
+      <c r="E60" s="200"/>
+      <c r="F60" s="199"/>
+      <c r="G60" s="200"/>
+      <c r="H60" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="I60" s="239"/>
+      <c r="I60" s="209"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="204"/>
-      <c r="C61" s="217"/>
-      <c r="D61" s="216"/>
-      <c r="E61" s="217"/>
-      <c r="F61" s="216"/>
-      <c r="G61" s="217"/>
-      <c r="H61" s="224"/>
-      <c r="I61" s="239"/>
+      <c r="B61" s="205"/>
+      <c r="C61" s="200"/>
+      <c r="D61" s="199"/>
+      <c r="E61" s="200"/>
+      <c r="F61" s="199"/>
+      <c r="G61" s="200"/>
+      <c r="H61" s="204"/>
+      <c r="I61" s="209"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="204"/>
-      <c r="C62" s="217"/>
-      <c r="D62" s="216"/>
-      <c r="E62" s="217"/>
-      <c r="F62" s="216"/>
-      <c r="G62" s="217"/>
-      <c r="H62" s="224"/>
-      <c r="I62" s="239"/>
+      <c r="B62" s="205"/>
+      <c r="C62" s="200"/>
+      <c r="D62" s="199"/>
+      <c r="E62" s="200"/>
+      <c r="F62" s="199"/>
+      <c r="G62" s="200"/>
+      <c r="H62" s="204"/>
+      <c r="I62" s="209"/>
     </row>
     <row r="63" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B63" s="218"/>
-      <c r="C63" s="219"/>
-      <c r="D63" s="220"/>
-      <c r="E63" s="219"/>
-      <c r="F63" s="220"/>
-      <c r="G63" s="219"/>
-      <c r="H63" s="221"/>
-      <c r="I63" s="222"/>
+      <c r="B63" s="206"/>
+      <c r="C63" s="207"/>
+      <c r="D63" s="208"/>
+      <c r="E63" s="207"/>
+      <c r="F63" s="208"/>
+      <c r="G63" s="207"/>
+      <c r="H63" s="210"/>
+      <c r="I63" s="211"/>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
@@ -12113,6 +13067,56 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B27:G28"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H38:I40"/>
+    <mergeCell ref="J38:K41"/>
+    <mergeCell ref="B39:C46"/>
+    <mergeCell ref="D40:E46"/>
+    <mergeCell ref="F41:G46"/>
+    <mergeCell ref="H42:I46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="J42:K46"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E57"/>
@@ -12124,56 +13128,6 @@
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="F60:G63"/>
     <mergeCell ref="H60:I63"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H38:I40"/>
-    <mergeCell ref="J38:K41"/>
-    <mergeCell ref="B39:C46"/>
-    <mergeCell ref="D40:E46"/>
-    <mergeCell ref="F41:G46"/>
-    <mergeCell ref="H42:I46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="J42:K46"/>
-    <mergeCell ref="B27:G28"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C66" r:id="rId1" xr:uid="{EA97AE77-DCF0-491D-81AF-63BECD5EB231}"/>
@@ -12188,8 +13142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E5B1F2-A65A-4BFB-B63A-780942F289F5}">
   <dimension ref="B2:N445"/>
   <sheetViews>
-    <sheetView topLeftCell="A304" zoomScale="62" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G437" sqref="G437"/>
+    <sheetView topLeftCell="B115" zoomScale="91" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132:E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -12212,14 +13166,14 @@
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="23" spans="2:5" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="284" t="s">
+      <c r="B23" s="268" t="s">
         <v>558</v>
       </c>
-      <c r="C23" s="285"/>
-      <c r="D23" s="286" t="s">
+      <c r="C23" s="269"/>
+      <c r="D23" s="270" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="287"/>
+      <c r="E23" s="271"/>
     </row>
     <row r="24" spans="2:5" ht="16.5" thickTop="1" thickBot="1">
       <c r="B24" s="26" t="s">
@@ -12264,10 +13218,10 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B27" s="288" t="s">
+      <c r="B27" s="272" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="291">
+      <c r="C27" s="275">
         <v>0.248</v>
       </c>
       <c r="D27" s="31" t="s">
@@ -12278,8 +13232,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B28" s="289"/>
-      <c r="C28" s="292"/>
+      <c r="B28" s="273"/>
+      <c r="C28" s="276"/>
       <c r="D28" s="28" t="s">
         <v>74</v>
       </c>
@@ -12288,8 +13242,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B29" s="289"/>
-      <c r="C29" s="292"/>
+      <c r="B29" s="273"/>
+      <c r="C29" s="276"/>
       <c r="D29" s="31" t="s">
         <v>75</v>
       </c>
@@ -12298,8 +13252,8 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B30" s="290"/>
-      <c r="C30" s="293"/>
+      <c r="B30" s="274"/>
+      <c r="C30" s="277"/>
       <c r="D30" s="28" t="s">
         <v>76</v>
       </c>
@@ -12344,20 +13298,20 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="274" t="s">
+      <c r="B35" s="278" t="s">
         <v>185</v>
       </c>
-      <c r="C35" s="275"/>
-      <c r="D35" s="275"/>
-      <c r="E35" s="275"/>
-      <c r="F35" s="275"/>
-      <c r="G35" s="275"/>
-      <c r="H35" s="275"/>
-      <c r="I35" s="275"/>
-      <c r="J35" s="275"/>
-      <c r="K35" s="275"/>
-      <c r="L35" s="275"/>
-      <c r="M35" s="276"/>
+      <c r="C35" s="279"/>
+      <c r="D35" s="279"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="279"/>
+      <c r="I35" s="279"/>
+      <c r="J35" s="279"/>
+      <c r="K35" s="279"/>
+      <c r="L35" s="279"/>
+      <c r="M35" s="280"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" t="s">
@@ -12377,74 +13331,74 @@
       <c r="B40" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="294" t="s">
+      <c r="C40" s="281" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="294"/>
-      <c r="E40" s="294"/>
-      <c r="F40" s="294"/>
-      <c r="G40" s="294"/>
-      <c r="H40" s="294"/>
-      <c r="I40" s="294"/>
-      <c r="J40" s="294"/>
-      <c r="K40" s="294"/>
-      <c r="L40" s="294"/>
-      <c r="M40" s="294"/>
+      <c r="D40" s="281"/>
+      <c r="E40" s="281"/>
+      <c r="F40" s="281"/>
+      <c r="G40" s="281"/>
+      <c r="H40" s="281"/>
+      <c r="I40" s="281"/>
+      <c r="J40" s="281"/>
+      <c r="K40" s="281"/>
+      <c r="L40" s="281"/>
+      <c r="M40" s="281"/>
     </row>
     <row r="41" spans="2:13" ht="18">
       <c r="B41" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="256" t="str">
+      <c r="C41" s="267" t="str">
         <f xml:space="preserve"> 'Case Study 2'!B164</f>
         <v>LCI:  Erec = 0 (as only primary materialsl and no secondary material is used for the conventional concrete product)</v>
       </c>
-      <c r="D41" s="256"/>
-      <c r="E41" s="256"/>
-      <c r="F41" s="256"/>
-      <c r="G41" s="256"/>
-      <c r="H41" s="256"/>
-      <c r="I41" s="256"/>
-      <c r="J41" s="256"/>
-      <c r="K41" s="256"/>
-      <c r="L41" s="256"/>
-      <c r="M41" s="256"/>
+      <c r="D41" s="267"/>
+      <c r="E41" s="267"/>
+      <c r="F41" s="267"/>
+      <c r="G41" s="267"/>
+      <c r="H41" s="267"/>
+      <c r="I41" s="267"/>
+      <c r="J41" s="267"/>
+      <c r="K41" s="267"/>
+      <c r="L41" s="267"/>
+      <c r="M41" s="267"/>
     </row>
     <row r="42" spans="2:13" ht="264" customHeight="1">
       <c r="B42" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="255" t="s">
+      <c r="C42" s="260" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="255"/>
-      <c r="E42" s="255"/>
-      <c r="F42" s="255"/>
-      <c r="G42" s="255"/>
-      <c r="H42" s="255"/>
-      <c r="I42" s="255"/>
-      <c r="J42" s="255"/>
-      <c r="K42" s="255"/>
-      <c r="L42" s="255"/>
-      <c r="M42" s="255"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="260"/>
+      <c r="F42" s="260"/>
+      <c r="G42" s="260"/>
+      <c r="H42" s="260"/>
+      <c r="I42" s="260"/>
+      <c r="J42" s="260"/>
+      <c r="K42" s="260"/>
+      <c r="L42" s="260"/>
+      <c r="M42" s="260"/>
     </row>
     <row r="43" spans="2:13" ht="83.25" customHeight="1">
       <c r="B43" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="255" t="s">
+      <c r="C43" s="260" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="295"/>
-      <c r="E43" s="295"/>
-      <c r="F43" s="295"/>
-      <c r="G43" s="295"/>
-      <c r="H43" s="295"/>
-      <c r="I43" s="295"/>
-      <c r="J43" s="295"/>
-      <c r="K43" s="295"/>
-      <c r="L43" s="295"/>
-      <c r="M43" s="295"/>
+      <c r="D43" s="282"/>
+      <c r="E43" s="282"/>
+      <c r="F43" s="282"/>
+      <c r="G43" s="282"/>
+      <c r="H43" s="282"/>
+      <c r="I43" s="282"/>
+      <c r="J43" s="282"/>
+      <c r="K43" s="282"/>
+      <c r="L43" s="282"/>
+      <c r="M43" s="282"/>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="38" t="s">
@@ -12452,174 +13406,174 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="259" t="s">
+      <c r="B47" s="261" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="260"/>
+      <c r="C47" s="262"/>
       <c r="D47" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="261" t="s">
+      <c r="E47" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="261"/>
+      <c r="F47" s="263"/>
       <c r="G47" s="49"/>
       <c r="H47" s="49"/>
     </row>
     <row r="48" spans="2:13" ht="53.25" customHeight="1">
-      <c r="B48" s="244"/>
-      <c r="C48" s="254"/>
+      <c r="B48" s="220"/>
+      <c r="C48" s="249"/>
       <c r="D48" s="34">
         <v>0.10125000000000001</v>
       </c>
-      <c r="E48" s="255" t="s">
+      <c r="E48" s="260" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="255"/>
+      <c r="F48" s="260"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
     </row>
     <row r="49" spans="2:8" ht="54" customHeight="1">
-      <c r="B49" s="244"/>
-      <c r="C49" s="254"/>
+      <c r="B49" s="220"/>
+      <c r="C49" s="249"/>
       <c r="D49" s="34">
         <v>0.15079000000000001</v>
       </c>
-      <c r="E49" s="255" t="s">
+      <c r="E49" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="256"/>
+      <c r="F49" s="267"/>
       <c r="G49" s="48"/>
       <c r="H49" s="48"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="257" t="s">
+      <c r="B50" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="258"/>
+      <c r="C50" s="251"/>
       <c r="D50" s="39">
         <v>0.126</v>
       </c>
-      <c r="E50" s="211"/>
-      <c r="F50" s="211"/>
+      <c r="E50" s="219"/>
+      <c r="F50" s="219"/>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="259" t="s">
+      <c r="B52" s="261" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="260"/>
+      <c r="C52" s="262"/>
       <c r="D52" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="261" t="s">
+      <c r="E52" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="261"/>
+      <c r="F52" s="263"/>
       <c r="G52" s="49"/>
       <c r="H52" s="49"/>
     </row>
     <row r="53" spans="2:8" ht="54.75" customHeight="1">
-      <c r="B53" s="244"/>
-      <c r="C53" s="254"/>
+      <c r="B53" s="220"/>
+      <c r="C53" s="249"/>
       <c r="D53" s="34">
         <v>1.44</v>
       </c>
-      <c r="E53" s="255" t="s">
+      <c r="E53" s="260" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="255"/>
+      <c r="F53" s="260"/>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
     </row>
     <row r="54" spans="2:8" ht="49.5" customHeight="1">
-      <c r="B54" s="244"/>
-      <c r="C54" s="254"/>
+      <c r="B54" s="220"/>
+      <c r="C54" s="249"/>
       <c r="D54" s="34">
         <v>2.88</v>
       </c>
-      <c r="E54" s="255" t="s">
+      <c r="E54" s="260" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="256"/>
+      <c r="F54" s="267"/>
       <c r="G54" s="48"/>
       <c r="H54" s="48"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="257" t="s">
+      <c r="B55" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="258"/>
+      <c r="C55" s="251"/>
       <c r="D55" s="39">
         <v>2.16</v>
       </c>
-      <c r="E55" s="211"/>
-      <c r="F55" s="211"/>
+      <c r="E55" s="219"/>
+      <c r="F55" s="219"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="259" t="s">
+      <c r="B57" s="261" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="260"/>
+      <c r="C57" s="262"/>
       <c r="D57" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="261" t="s">
+      <c r="E57" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="261"/>
+      <c r="F57" s="263"/>
       <c r="G57" s="49"/>
       <c r="H57" s="49"/>
     </row>
     <row r="58" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B58" s="244"/>
-      <c r="C58" s="254"/>
+      <c r="B58" s="220"/>
+      <c r="C58" s="249"/>
       <c r="D58" s="34">
         <v>11.7</v>
       </c>
-      <c r="E58" s="255" t="s">
+      <c r="E58" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="255"/>
+      <c r="F58" s="260"/>
       <c r="G58" s="24"/>
       <c r="H58" s="24"/>
     </row>
     <row r="59" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B59" s="244"/>
-      <c r="C59" s="254"/>
+      <c r="B59" s="220"/>
+      <c r="C59" s="249"/>
       <c r="D59" s="34">
         <v>19.7</v>
       </c>
-      <c r="E59" s="255" t="s">
+      <c r="E59" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="F59" s="256"/>
+      <c r="F59" s="267"/>
       <c r="G59" s="48"/>
       <c r="H59" s="48"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="257" t="s">
+      <c r="B60" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="258"/>
+      <c r="C60" s="251"/>
       <c r="D60" s="39">
         <v>15.7</v>
       </c>
-      <c r="E60" s="211"/>
-      <c r="F60" s="211"/>
+      <c r="E60" s="219"/>
+      <c r="F60" s="219"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="251" t="s">
+      <c r="B63" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="251"/>
-      <c r="D63" s="251"/>
-      <c r="E63" s="251"/>
+      <c r="C63" s="258"/>
+      <c r="D63" s="258"/>
+      <c r="E63" s="258"/>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="42" t="s">
@@ -12776,12 +13730,12 @@
       </c>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="250" t="s">
+      <c r="B75" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="250"/>
-      <c r="D75" s="250"/>
-      <c r="E75" s="250"/>
+      <c r="C75" s="264"/>
+      <c r="D75" s="264"/>
+      <c r="E75" s="264"/>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="58" t="s">
@@ -12832,12 +13786,12 @@
       <c r="E79" s="58"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="251" t="s">
+      <c r="B81" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="C81" s="251"/>
-      <c r="D81" s="251"/>
-      <c r="E81" s="251"/>
+      <c r="C81" s="258"/>
+      <c r="D81" s="258"/>
+      <c r="E81" s="258"/>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="42" t="s">
@@ -12966,12 +13920,12 @@
       </c>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="250" t="s">
+      <c r="B91" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C91" s="250"/>
-      <c r="D91" s="250"/>
-      <c r="E91" s="250"/>
+      <c r="C91" s="264"/>
+      <c r="D91" s="264"/>
+      <c r="E91" s="264"/>
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="58" t="s">
@@ -13003,12 +13957,12 @@
       </c>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="251" t="s">
+      <c r="B98" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="251"/>
-      <c r="D98" s="251"/>
-      <c r="E98" s="251"/>
+      <c r="C98" s="258"/>
+      <c r="D98" s="258"/>
+      <c r="E98" s="258"/>
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="42" t="s">
@@ -13053,12 +14007,12 @@
       </c>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="273" t="s">
+      <c r="B102" s="259" t="s">
         <v>123</v>
       </c>
-      <c r="C102" s="273"/>
-      <c r="D102" s="273"/>
-      <c r="E102" s="273"/>
+      <c r="C102" s="259"/>
+      <c r="D102" s="259"/>
+      <c r="E102" s="259"/>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="1" t="s">
@@ -13081,12 +14035,12 @@
       <c r="E104" s="1"/>
     </row>
     <row r="106" spans="2:5">
-      <c r="B106" s="251" t="s">
+      <c r="B106" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="251"/>
-      <c r="D106" s="251"/>
-      <c r="E106" s="251"/>
+      <c r="C106" s="258"/>
+      <c r="D106" s="258"/>
+      <c r="E106" s="258"/>
     </row>
     <row r="107" spans="2:5">
       <c r="B107" s="42" t="s">
@@ -13117,12 +14071,12 @@
       </c>
     </row>
     <row r="109" spans="2:5">
-      <c r="B109" s="273" t="s">
+      <c r="B109" s="259" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="273"/>
-      <c r="D109" s="273"/>
-      <c r="E109" s="273"/>
+      <c r="C109" s="259"/>
+      <c r="D109" s="259"/>
+      <c r="E109" s="259"/>
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="1" t="s">
@@ -13140,12 +14094,12 @@
       </c>
     </row>
     <row r="115" spans="2:5">
-      <c r="B115" s="249" t="s">
+      <c r="B115" s="283" t="s">
         <v>216</v>
       </c>
-      <c r="C115" s="251"/>
-      <c r="D115" s="251"/>
-      <c r="E115" s="251"/>
+      <c r="C115" s="258"/>
+      <c r="D115" s="258"/>
+      <c r="E115" s="258"/>
     </row>
     <row r="116" spans="2:5">
       <c r="B116" s="1" t="s">
@@ -13330,12 +14284,12 @@
       </c>
     </row>
     <row r="130" spans="2:5">
-      <c r="B130" s="249" t="s">
+      <c r="B130" s="283" t="s">
         <v>215</v>
       </c>
-      <c r="C130" s="251"/>
-      <c r="D130" s="251"/>
-      <c r="E130" s="251"/>
+      <c r="C130" s="258"/>
+      <c r="D130" s="258"/>
+      <c r="E130" s="258"/>
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="1" t="s">
@@ -13362,7 +14316,7 @@
         <v>1.09E-10</v>
       </c>
       <c r="E132" s="44">
-        <v>1.7729999999999998E-5</v>
+        <v>1.1700000000000001E-8</v>
       </c>
     </row>
     <row r="133" spans="2:5">
@@ -13376,7 +14330,7 @@
         <v>8.2400000000000008E-3</v>
       </c>
       <c r="E133" s="44">
-        <v>684</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="134" spans="2:5">
@@ -13390,7 +14344,7 @@
         <v>1.5400000000000001E-6</v>
       </c>
       <c r="E134" s="44">
-        <v>0.1956</v>
+        <v>1.74E-3</v>
       </c>
     </row>
     <row r="135" spans="2:5">
@@ -13404,7 +14358,7 @@
         <v>1.6500000000000001E-7</v>
       </c>
       <c r="E135" s="44">
-        <v>1.489E-2</v>
+        <v>1.73E-4</v>
       </c>
     </row>
     <row r="136" spans="2:5">
@@ -13418,7 +14372,7 @@
         <v>1.37E-6</v>
       </c>
       <c r="E136" s="44">
-        <v>0.313</v>
+        <v>1.0300000000000001E-3</v>
       </c>
     </row>
     <row r="137" spans="2:5">
@@ -13432,7 +14386,7 @@
         <v>5.6899999999999995E-4</v>
       </c>
       <c r="E137" s="44">
-        <v>62.7</v>
+        <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="138" spans="2:5">
@@ -13446,7 +14400,7 @@
         <v>5.7600000000000001E-4</v>
       </c>
       <c r="E138" s="44">
-        <v>62.8</v>
+        <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="139" spans="2:5">
@@ -13460,7 +14414,7 @@
         <v>1.66E-5</v>
       </c>
       <c r="E139" s="44">
-        <v>84.3</v>
+        <v>7.5899999999999995E-2</v>
       </c>
     </row>
     <row r="140" spans="2:5">
@@ -13474,7 +14428,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="E140" s="44">
-        <v>105900</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="141" spans="2:5">
@@ -13488,7 +14442,7 @@
         <v>9.2700000000000007E-16</v>
       </c>
       <c r="E141" s="44">
-        <v>1.018E-10</v>
+        <v>6.8300000000000002E-13</v>
       </c>
     </row>
     <row r="142" spans="2:5">
@@ -13502,7 +14456,7 @@
         <v>1.42E-7</v>
       </c>
       <c r="E142" s="44">
-        <v>1.1679999999999999E-2</v>
+        <v>2.4399999999999999E-4</v>
       </c>
     </row>
     <row r="143" spans="2:5">
@@ -13516,7 +14470,7 @@
         <v>6.3300000000000004E-6</v>
       </c>
       <c r="E143" s="44">
-        <v>0.1172</v>
+        <v>5.9299999999999999E-4</v>
       </c>
     </row>
     <row r="145" spans="2:14" ht="15.75" thickBot="1"/>
@@ -13529,17 +14483,17 @@
       </c>
     </row>
     <row r="149" spans="2:14">
-      <c r="B149" s="251" t="s">
+      <c r="B149" s="258" t="s">
         <v>188</v>
       </c>
-      <c r="C149" s="251"/>
-      <c r="D149" s="251"/>
-      <c r="E149" s="251"/>
-      <c r="F149" s="251"/>
-      <c r="G149" s="251"/>
-      <c r="H149" s="251"/>
-      <c r="I149" s="251"/>
-      <c r="J149" s="251"/>
+      <c r="C149" s="258"/>
+      <c r="D149" s="258"/>
+      <c r="E149" s="258"/>
+      <c r="F149" s="258"/>
+      <c r="G149" s="258"/>
+      <c r="H149" s="258"/>
+      <c r="I149" s="258"/>
+      <c r="J149" s="258"/>
       <c r="K149" s="47"/>
       <c r="L149" s="47"/>
       <c r="M149" s="47"/>
@@ -13561,10 +14515,10 @@
       <c r="F150" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G150" s="252" t="s">
+      <c r="G150" s="254" t="s">
         <v>559</v>
       </c>
-      <c r="H150" s="253"/>
+      <c r="H150" s="255"/>
       <c r="I150" s="119" t="s">
         <v>189</v>
       </c>
@@ -13577,57 +14531,57 @@
       <c r="N150" s="46"/>
     </row>
     <row r="151" spans="2:14" ht="44.25" customHeight="1">
-      <c r="B151" s="172" t="s">
+      <c r="B151" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="172" t="s">
+      <c r="C151" s="181" t="s">
         <v>191</v>
       </c>
-      <c r="D151" s="278"/>
-      <c r="E151" s="281"/>
-      <c r="F151" s="278"/>
+      <c r="D151" s="284"/>
+      <c r="E151" s="287"/>
+      <c r="F151" s="284"/>
       <c r="G151" s="123" t="s">
         <v>761</v>
       </c>
       <c r="H151" s="124" t="s">
         <v>762</v>
       </c>
-      <c r="I151" s="268">
+      <c r="I151" s="290">
         <v>0.2</v>
       </c>
-      <c r="J151" s="172" t="s">
+      <c r="J151" s="181" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="152" spans="2:14" ht="72" customHeight="1">
-      <c r="B152" s="277"/>
-      <c r="C152" s="277"/>
-      <c r="D152" s="279"/>
-      <c r="E152" s="282"/>
-      <c r="F152" s="279"/>
+      <c r="B152" s="257"/>
+      <c r="C152" s="257"/>
+      <c r="D152" s="285"/>
+      <c r="E152" s="288"/>
+      <c r="F152" s="285"/>
       <c r="G152" s="123" t="s">
         <v>681</v>
       </c>
       <c r="H152" s="124" t="s">
         <v>682</v>
       </c>
-      <c r="I152" s="269"/>
-      <c r="J152" s="277"/>
+      <c r="I152" s="291"/>
+      <c r="J152" s="257"/>
     </row>
     <row r="153" spans="2:14" ht="67.5" customHeight="1">
-      <c r="B153" s="173"/>
-      <c r="C153" s="173"/>
-      <c r="D153" s="280"/>
-      <c r="E153" s="283"/>
-      <c r="F153" s="280"/>
+      <c r="B153" s="182"/>
+      <c r="C153" s="182"/>
+      <c r="D153" s="286"/>
+      <c r="E153" s="289"/>
+      <c r="F153" s="286"/>
       <c r="G153" s="123" t="s">
         <v>684</v>
       </c>
       <c r="H153" s="124" t="s">
         <v>685</v>
       </c>
-      <c r="I153" s="270"/>
-      <c r="J153" s="173"/>
+      <c r="I153" s="292"/>
+      <c r="J153" s="182"/>
     </row>
     <row r="154" spans="2:14" ht="67.5" customHeight="1">
       <c r="B154" s="34" t="s">
@@ -13770,17 +14724,17 @@
       </c>
     </row>
     <row r="161" spans="2:13">
-      <c r="B161" s="251" t="s">
+      <c r="B161" s="258" t="s">
         <v>198</v>
       </c>
-      <c r="C161" s="251"/>
-      <c r="D161" s="251"/>
-      <c r="E161" s="251"/>
-      <c r="F161" s="251"/>
-      <c r="G161" s="251"/>
-      <c r="H161" s="251"/>
-      <c r="I161" s="251"/>
-      <c r="J161" s="251"/>
+      <c r="C161" s="258"/>
+      <c r="D161" s="258"/>
+      <c r="E161" s="258"/>
+      <c r="F161" s="258"/>
+      <c r="G161" s="258"/>
+      <c r="H161" s="258"/>
+      <c r="I161" s="258"/>
+      <c r="J161" s="258"/>
     </row>
     <row r="162" spans="2:13">
       <c r="B162" s="42" t="s">
@@ -13798,10 +14752,10 @@
       <c r="F162" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G162" s="252" t="s">
+      <c r="G162" s="254" t="s">
         <v>196</v>
       </c>
-      <c r="H162" s="253"/>
+      <c r="H162" s="255"/>
       <c r="I162" s="119" t="s">
         <v>189</v>
       </c>
@@ -13810,59 +14764,59 @@
       </c>
     </row>
     <row r="163" spans="2:13" ht="79.5" customHeight="1">
-      <c r="B163" s="296" t="s">
+      <c r="B163" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="C163" s="172" t="s">
+      <c r="C163" s="181" t="s">
         <v>194</v>
       </c>
-      <c r="D163" s="172" t="s">
+      <c r="D163" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="E163" s="296"/>
-      <c r="F163" s="172"/>
+      <c r="E163" s="252"/>
+      <c r="F163" s="181"/>
       <c r="G163" s="146" t="s">
         <v>771</v>
       </c>
       <c r="H163" s="124" t="s">
         <v>698</v>
       </c>
-      <c r="I163" s="268">
+      <c r="I163" s="290">
         <v>0.2</v>
       </c>
-      <c r="J163" s="172" t="s">
+      <c r="J163" s="181" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="164" spans="2:13" ht="31.5" customHeight="1">
-      <c r="B164" s="298"/>
-      <c r="C164" s="277"/>
-      <c r="D164" s="277"/>
-      <c r="E164" s="298"/>
-      <c r="F164" s="277"/>
+      <c r="B164" s="256"/>
+      <c r="C164" s="257"/>
+      <c r="D164" s="257"/>
+      <c r="E164" s="256"/>
+      <c r="F164" s="257"/>
       <c r="G164" s="145" t="s">
         <v>699</v>
       </c>
       <c r="H164" s="147" t="s">
         <v>683</v>
       </c>
-      <c r="I164" s="269"/>
-      <c r="J164" s="277"/>
+      <c r="I164" s="291"/>
+      <c r="J164" s="257"/>
     </row>
     <row r="165" spans="2:13" ht="45.75" customHeight="1">
-      <c r="B165" s="297"/>
-      <c r="C165" s="173"/>
-      <c r="D165" s="173"/>
-      <c r="E165" s="297"/>
-      <c r="F165" s="173"/>
+      <c r="B165" s="253"/>
+      <c r="C165" s="182"/>
+      <c r="D165" s="182"/>
+      <c r="E165" s="253"/>
+      <c r="F165" s="182"/>
       <c r="G165" s="145" t="s">
         <v>772</v>
       </c>
       <c r="H165" s="147" t="s">
         <v>773</v>
       </c>
-      <c r="I165" s="270"/>
-      <c r="J165" s="173"/>
+      <c r="I165" s="292"/>
+      <c r="J165" s="182"/>
     </row>
     <row r="166" spans="2:13" ht="67.5" customHeight="1">
       <c r="B166" s="34" t="s">
@@ -13890,46 +14844,46 @@
       </c>
     </row>
     <row r="167" spans="2:13" ht="99.75" customHeight="1">
-      <c r="B167" s="296" t="s">
+      <c r="B167" s="252" t="s">
         <v>181</v>
       </c>
-      <c r="C167" s="172" t="s">
+      <c r="C167" s="181" t="s">
         <v>569</v>
       </c>
-      <c r="D167" s="172" t="s">
+      <c r="D167" s="181" t="s">
         <v>202</v>
       </c>
-      <c r="E167" s="172" t="s">
+      <c r="E167" s="181" t="s">
         <v>702</v>
       </c>
-      <c r="F167" s="172"/>
+      <c r="F167" s="181"/>
       <c r="G167" s="146" t="s">
         <v>703</v>
       </c>
       <c r="H167" s="124" t="s">
         <v>704</v>
       </c>
-      <c r="I167" s="271" t="s">
+      <c r="I167" s="293" t="s">
         <v>776</v>
       </c>
-      <c r="J167" s="172" t="s">
+      <c r="J167" s="181" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="168" spans="2:13" ht="61.5" customHeight="1">
-      <c r="B168" s="297"/>
-      <c r="C168" s="173"/>
-      <c r="D168" s="173"/>
-      <c r="E168" s="173"/>
-      <c r="F168" s="173"/>
+      <c r="B168" s="253"/>
+      <c r="C168" s="182"/>
+      <c r="D168" s="182"/>
+      <c r="E168" s="182"/>
+      <c r="F168" s="182"/>
       <c r="G168" s="145" t="s">
         <v>774</v>
       </c>
       <c r="H168" s="147" t="s">
         <v>775</v>
       </c>
-      <c r="I168" s="272"/>
-      <c r="J168" s="173"/>
+      <c r="I168" s="294"/>
+      <c r="J168" s="182"/>
     </row>
     <row r="169" spans="2:13" ht="107.25" customHeight="1">
       <c r="B169" s="34" t="s">
@@ -14020,20 +14974,20 @@
     </row>
     <row r="172" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="173" spans="2:13">
-      <c r="B173" s="274" t="s">
+      <c r="B173" s="278" t="s">
         <v>432</v>
       </c>
-      <c r="C173" s="275"/>
-      <c r="D173" s="275"/>
-      <c r="E173" s="275"/>
-      <c r="F173" s="275"/>
-      <c r="G173" s="275"/>
-      <c r="H173" s="275"/>
-      <c r="I173" s="275"/>
-      <c r="J173" s="275"/>
-      <c r="K173" s="275"/>
-      <c r="L173" s="275"/>
-      <c r="M173" s="276"/>
+      <c r="C173" s="279"/>
+      <c r="D173" s="279"/>
+      <c r="E173" s="279"/>
+      <c r="F173" s="279"/>
+      <c r="G173" s="279"/>
+      <c r="H173" s="279"/>
+      <c r="I173" s="279"/>
+      <c r="J173" s="279"/>
+      <c r="K173" s="279"/>
+      <c r="L173" s="279"/>
+      <c r="M173" s="280"/>
     </row>
     <row r="174" spans="2:13">
       <c r="B174" t="s">
@@ -14055,12 +15009,12 @@
       </c>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="273" t="s">
+      <c r="B180" s="259" t="s">
         <v>101</v>
       </c>
-      <c r="C180" s="273"/>
-      <c r="D180" s="273"/>
-      <c r="E180" s="273"/>
+      <c r="C180" s="259"/>
+      <c r="D180" s="259"/>
+      <c r="E180" s="259"/>
     </row>
     <row r="181" spans="2:5">
       <c r="B181" s="42" t="s">
@@ -14107,12 +15061,12 @@
       </c>
     </row>
     <row r="184" spans="2:5">
-      <c r="B184" s="273" t="s">
+      <c r="B184" s="259" t="s">
         <v>123</v>
       </c>
-      <c r="C184" s="273"/>
-      <c r="D184" s="273"/>
-      <c r="E184" s="273"/>
+      <c r="C184" s="259"/>
+      <c r="D184" s="259"/>
+      <c r="E184" s="259"/>
     </row>
     <row r="185" spans="2:5">
       <c r="B185" s="1" t="s">
@@ -14135,12 +15089,12 @@
       <c r="E186" s="1"/>
     </row>
     <row r="188" spans="2:5">
-      <c r="B188" s="273" t="s">
+      <c r="B188" s="259" t="s">
         <v>101</v>
       </c>
-      <c r="C188" s="273"/>
-      <c r="D188" s="273"/>
-      <c r="E188" s="273"/>
+      <c r="C188" s="259"/>
+      <c r="D188" s="259"/>
+      <c r="E188" s="259"/>
     </row>
     <row r="189" spans="2:5">
       <c r="B189" s="42" t="s">
@@ -14172,12 +15126,12 @@
       </c>
     </row>
     <row r="191" spans="2:5">
-      <c r="B191" s="273" t="s">
+      <c r="B191" s="259" t="s">
         <v>123</v>
       </c>
-      <c r="C191" s="273"/>
-      <c r="D191" s="273"/>
-      <c r="E191" s="273"/>
+      <c r="C191" s="259"/>
+      <c r="D191" s="259"/>
+      <c r="E191" s="259"/>
     </row>
     <row r="192" spans="2:5">
       <c r="B192" s="1" t="s">
@@ -14190,12 +15144,12 @@
       <c r="E192" s="1"/>
     </row>
     <row r="194" spans="2:6">
-      <c r="B194" s="273" t="s">
+      <c r="B194" s="259" t="s">
         <v>101</v>
       </c>
-      <c r="C194" s="273"/>
-      <c r="D194" s="273"/>
-      <c r="E194" s="273"/>
+      <c r="C194" s="259"/>
+      <c r="D194" s="259"/>
+      <c r="E194" s="259"/>
     </row>
     <row r="195" spans="2:6">
       <c r="B195" s="42" t="s">
@@ -14240,12 +15194,12 @@
       </c>
     </row>
     <row r="198" spans="2:6">
-      <c r="B198" s="273" t="s">
+      <c r="B198" s="259" t="s">
         <v>123</v>
       </c>
-      <c r="C198" s="273"/>
-      <c r="D198" s="273"/>
-      <c r="E198" s="273"/>
+      <c r="C198" s="259"/>
+      <c r="D198" s="259"/>
+      <c r="E198" s="259"/>
     </row>
     <row r="199" spans="2:6">
       <c r="B199" s="1" t="s">
@@ -14274,307 +15228,307 @@
       </c>
     </row>
     <row r="204" spans="2:6">
-      <c r="B204" s="259" t="s">
+      <c r="B204" s="261" t="s">
         <v>441</v>
       </c>
-      <c r="C204" s="260"/>
+      <c r="C204" s="262"/>
       <c r="D204" s="41" t="s">
         <v>442</v>
       </c>
-      <c r="E204" s="261" t="s">
+      <c r="E204" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="F204" s="261"/>
+      <c r="F204" s="263"/>
     </row>
     <row r="205" spans="2:6">
-      <c r="B205" s="244"/>
-      <c r="C205" s="254"/>
+      <c r="B205" s="220"/>
+      <c r="C205" s="249"/>
       <c r="D205" s="34">
         <v>0.94199999999999995</v>
       </c>
-      <c r="E205" s="255" t="s">
+      <c r="E205" s="260" t="s">
         <v>443</v>
       </c>
-      <c r="F205" s="255"/>
+      <c r="F205" s="260"/>
     </row>
     <row r="206" spans="2:6" ht="32.25" customHeight="1">
-      <c r="B206" s="244"/>
-      <c r="C206" s="254"/>
+      <c r="B206" s="220"/>
+      <c r="C206" s="249"/>
       <c r="D206" s="34">
         <v>0.25</v>
       </c>
-      <c r="E206" s="262" t="s">
+      <c r="E206" s="265" t="s">
         <v>444</v>
       </c>
-      <c r="F206" s="265"/>
+      <c r="F206" s="266"/>
     </row>
     <row r="207" spans="2:6">
-      <c r="B207" s="244"/>
-      <c r="C207" s="254"/>
+      <c r="B207" s="220"/>
+      <c r="C207" s="249"/>
       <c r="D207" s="34">
         <v>0.09</v>
       </c>
-      <c r="E207" s="262" t="s">
+      <c r="E207" s="265" t="s">
         <v>445</v>
       </c>
-      <c r="F207" s="265"/>
+      <c r="F207" s="266"/>
     </row>
     <row r="208" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B208" s="244"/>
-      <c r="C208" s="254"/>
+      <c r="B208" s="220"/>
+      <c r="C208" s="249"/>
       <c r="D208" s="34">
         <v>0.11700000000000001</v>
       </c>
-      <c r="E208" s="262" t="s">
+      <c r="E208" s="265" t="s">
         <v>446</v>
       </c>
-      <c r="F208" s="265"/>
+      <c r="F208" s="266"/>
     </row>
     <row r="209" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B209" s="244"/>
-      <c r="C209" s="254"/>
+      <c r="B209" s="220"/>
+      <c r="C209" s="249"/>
       <c r="D209" s="34">
         <v>1.603E-3</v>
       </c>
-      <c r="E209" s="262" t="s">
+      <c r="E209" s="265" t="s">
         <v>447</v>
       </c>
-      <c r="F209" s="265"/>
+      <c r="F209" s="266"/>
     </row>
     <row r="210" spans="2:6" ht="57" customHeight="1">
-      <c r="B210" s="244"/>
-      <c r="C210" s="254"/>
+      <c r="B210" s="220"/>
+      <c r="C210" s="249"/>
       <c r="D210" s="34">
         <v>2.2680000000000001E-3</v>
       </c>
-      <c r="E210" s="255" t="s">
+      <c r="E210" s="260" t="s">
         <v>447</v>
       </c>
-      <c r="F210" s="256"/>
+      <c r="F210" s="267"/>
     </row>
     <row r="211" spans="2:6">
-      <c r="B211" s="257" t="s">
+      <c r="B211" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C211" s="258"/>
+      <c r="C211" s="251"/>
       <c r="D211" s="39">
         <v>0.23380000000000001</v>
       </c>
-      <c r="E211" s="211"/>
-      <c r="F211" s="211"/>
+      <c r="E211" s="219"/>
+      <c r="F211" s="219"/>
     </row>
     <row r="213" spans="2:6">
-      <c r="B213" s="259" t="s">
+      <c r="B213" s="261" t="s">
         <v>448</v>
       </c>
-      <c r="C213" s="260"/>
+      <c r="C213" s="262"/>
       <c r="D213" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="E213" s="261" t="s">
+      <c r="E213" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="F213" s="261"/>
+      <c r="F213" s="263"/>
     </row>
     <row r="214" spans="2:6" ht="51" customHeight="1">
-      <c r="B214" s="244"/>
-      <c r="C214" s="254"/>
+      <c r="B214" s="220"/>
+      <c r="C214" s="249"/>
       <c r="D214" s="34">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="E214" s="255" t="s">
+      <c r="E214" s="260" t="s">
         <v>450</v>
       </c>
-      <c r="F214" s="255"/>
+      <c r="F214" s="260"/>
     </row>
     <row r="215" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B215" s="244"/>
-      <c r="C215" s="254"/>
+      <c r="B215" s="220"/>
+      <c r="C215" s="249"/>
       <c r="D215" s="34">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E215" s="255" t="s">
+      <c r="E215" s="260" t="s">
         <v>451</v>
       </c>
-      <c r="F215" s="256"/>
+      <c r="F215" s="267"/>
     </row>
     <row r="216" spans="2:6">
-      <c r="B216" s="257" t="s">
+      <c r="B216" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C216" s="258"/>
+      <c r="C216" s="251"/>
       <c r="D216" s="39">
         <v>3.2750000000000001E-2</v>
       </c>
-      <c r="E216" s="211"/>
-      <c r="F216" s="211"/>
+      <c r="E216" s="219"/>
+      <c r="F216" s="219"/>
     </row>
     <row r="218" spans="2:6">
-      <c r="B218" s="259" t="s">
+      <c r="B218" s="261" t="s">
         <v>452</v>
       </c>
-      <c r="C218" s="260"/>
+      <c r="C218" s="262"/>
       <c r="D218" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="E218" s="261" t="s">
+      <c r="E218" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="F218" s="261"/>
+      <c r="F218" s="263"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="244"/>
-      <c r="C219" s="254"/>
+      <c r="B219" s="220"/>
+      <c r="C219" s="249"/>
       <c r="D219" s="34">
         <v>1.125E-2</v>
       </c>
-      <c r="E219" s="255" t="s">
+      <c r="E219" s="260" t="s">
         <v>454</v>
       </c>
-      <c r="F219" s="255"/>
+      <c r="F219" s="260"/>
     </row>
     <row r="220" spans="2:6" ht="31.5" customHeight="1">
-      <c r="B220" s="244"/>
-      <c r="C220" s="254"/>
+      <c r="B220" s="220"/>
+      <c r="C220" s="249"/>
       <c r="D220" s="34">
         <v>3.68</v>
       </c>
-      <c r="E220" s="262" t="s">
+      <c r="E220" s="265" t="s">
         <v>455</v>
       </c>
-      <c r="F220" s="265"/>
+      <c r="F220" s="266"/>
     </row>
     <row r="221" spans="2:6">
-      <c r="B221" s="244"/>
-      <c r="C221" s="254"/>
+      <c r="B221" s="220"/>
+      <c r="C221" s="249"/>
       <c r="D221" s="34">
         <v>4.2</v>
       </c>
-      <c r="E221" s="262" t="s">
+      <c r="E221" s="265" t="s">
         <v>456</v>
       </c>
-      <c r="F221" s="265"/>
+      <c r="F221" s="266"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="244"/>
-      <c r="C222" s="254"/>
+      <c r="B222" s="220"/>
+      <c r="C222" s="249"/>
       <c r="D222" s="34">
         <v>3.1248</v>
       </c>
-      <c r="E222" s="262" t="s">
+      <c r="E222" s="265" t="s">
         <v>456</v>
       </c>
-      <c r="F222" s="265"/>
+      <c r="F222" s="266"/>
     </row>
     <row r="223" spans="2:6">
-      <c r="B223" s="244"/>
-      <c r="C223" s="254"/>
+      <c r="B223" s="220"/>
+      <c r="C223" s="249"/>
       <c r="D223" s="34">
         <v>1.764</v>
       </c>
-      <c r="E223" s="262" t="s">
+      <c r="E223" s="265" t="s">
         <v>456</v>
       </c>
-      <c r="F223" s="265"/>
+      <c r="F223" s="266"/>
     </row>
     <row r="224" spans="2:6">
-      <c r="B224" s="244"/>
-      <c r="C224" s="254"/>
+      <c r="B224" s="220"/>
+      <c r="C224" s="249"/>
       <c r="D224" s="34">
         <v>1.3440000000000001</v>
       </c>
-      <c r="E224" s="255" t="s">
+      <c r="E224" s="260" t="s">
         <v>457</v>
       </c>
-      <c r="F224" s="256"/>
+      <c r="F224" s="267"/>
     </row>
     <row r="225" spans="2:6">
-      <c r="B225" s="257"/>
-      <c r="C225" s="258"/>
+      <c r="B225" s="250"/>
+      <c r="C225" s="251"/>
       <c r="D225" s="34">
         <v>1.1060000000000001</v>
       </c>
-      <c r="E225" s="255" t="s">
+      <c r="E225" s="260" t="s">
         <v>457</v>
       </c>
-      <c r="F225" s="256"/>
+      <c r="F225" s="267"/>
     </row>
     <row r="226" spans="2:6">
-      <c r="B226" s="266"/>
-      <c r="C226" s="267"/>
+      <c r="B226" s="295"/>
+      <c r="C226" s="296"/>
       <c r="D226" s="109">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E226" s="255" t="s">
+      <c r="E226" s="260" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="256"/>
+      <c r="F226" s="267"/>
     </row>
     <row r="227" spans="2:6">
-      <c r="B227" s="266"/>
-      <c r="C227" s="267"/>
+      <c r="B227" s="295"/>
+      <c r="C227" s="296"/>
       <c r="D227" s="109">
         <v>0.74199999999999999</v>
       </c>
-      <c r="E227" s="255" t="s">
+      <c r="E227" s="260" t="s">
         <v>457</v>
       </c>
-      <c r="F227" s="256"/>
+      <c r="F227" s="267"/>
     </row>
     <row r="228" spans="2:6">
-      <c r="B228" s="266"/>
-      <c r="C228" s="267"/>
+      <c r="B228" s="295"/>
+      <c r="C228" s="296"/>
       <c r="D228" s="109">
         <v>0.66779999999999995</v>
       </c>
-      <c r="E228" s="255" t="s">
+      <c r="E228" s="260" t="s">
         <v>457</v>
       </c>
-      <c r="F228" s="256"/>
+      <c r="F228" s="267"/>
     </row>
     <row r="229" spans="2:6">
-      <c r="B229" s="266"/>
-      <c r="C229" s="267"/>
+      <c r="B229" s="295"/>
+      <c r="C229" s="296"/>
       <c r="D229" s="109">
         <v>0.71399999999999997</v>
       </c>
-      <c r="E229" s="255" t="s">
+      <c r="E229" s="260" t="s">
         <v>457</v>
       </c>
-      <c r="F229" s="256"/>
+      <c r="F229" s="267"/>
     </row>
     <row r="230" spans="2:6">
-      <c r="B230" s="266"/>
-      <c r="C230" s="267"/>
+      <c r="B230" s="295"/>
+      <c r="C230" s="296"/>
       <c r="D230" s="109">
         <v>0.81200000000000006</v>
       </c>
-      <c r="E230" s="255" t="s">
+      <c r="E230" s="260" t="s">
         <v>457</v>
       </c>
-      <c r="F230" s="256"/>
+      <c r="F230" s="267"/>
     </row>
     <row r="231" spans="2:6">
-      <c r="B231" s="244"/>
-      <c r="C231" s="254"/>
+      <c r="B231" s="220"/>
+      <c r="C231" s="249"/>
       <c r="D231" s="34">
         <v>0.80500000000000005</v>
       </c>
-      <c r="E231" s="255" t="s">
+      <c r="E231" s="260" t="s">
         <v>457</v>
       </c>
-      <c r="F231" s="256"/>
+      <c r="F231" s="267"/>
     </row>
     <row r="232" spans="2:6">
-      <c r="B232" s="257" t="s">
+      <c r="B232" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C232" s="258"/>
+      <c r="C232" s="251"/>
       <c r="D232" s="39">
         <v>1.5271399999999999</v>
       </c>
-      <c r="E232" s="211"/>
-      <c r="F232" s="211"/>
+      <c r="E232" s="219"/>
+      <c r="F232" s="219"/>
     </row>
     <row r="233" spans="2:6">
       <c r="B233" s="111"/>
@@ -14584,116 +15538,116 @@
       <c r="F233" s="25"/>
     </row>
     <row r="234" spans="2:6">
-      <c r="B234" s="259" t="s">
+      <c r="B234" s="261" t="s">
         <v>458</v>
       </c>
-      <c r="C234" s="260"/>
+      <c r="C234" s="262"/>
       <c r="D234" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="E234" s="261" t="s">
+      <c r="E234" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="F234" s="261"/>
+      <c r="F234" s="263"/>
     </row>
     <row r="235" spans="2:6">
-      <c r="B235" s="244"/>
-      <c r="C235" s="254"/>
+      <c r="B235" s="220"/>
+      <c r="C235" s="249"/>
       <c r="D235" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E235" s="255" t="s">
+      <c r="E235" s="260" t="s">
         <v>460</v>
       </c>
-      <c r="F235" s="255"/>
+      <c r="F235" s="260"/>
     </row>
     <row r="236" spans="2:6">
-      <c r="B236" s="244"/>
-      <c r="C236" s="254"/>
+      <c r="B236" s="220"/>
+      <c r="C236" s="249"/>
       <c r="D236" s="34">
         <v>0.01</v>
       </c>
-      <c r="E236" s="262" t="s">
+      <c r="E236" s="265" t="s">
         <v>460</v>
       </c>
-      <c r="F236" s="265"/>
+      <c r="F236" s="266"/>
     </row>
     <row r="237" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B237" s="244"/>
-      <c r="C237" s="254"/>
+      <c r="B237" s="220"/>
+      <c r="C237" s="249"/>
       <c r="D237" s="34">
         <v>1.67E-3</v>
       </c>
-      <c r="E237" s="262" t="s">
+      <c r="E237" s="265" t="s">
         <v>461</v>
       </c>
-      <c r="F237" s="265"/>
+      <c r="F237" s="266"/>
     </row>
     <row r="238" spans="2:6" ht="54" customHeight="1">
-      <c r="B238" s="244"/>
-      <c r="C238" s="254"/>
+      <c r="B238" s="220"/>
+      <c r="C238" s="249"/>
       <c r="D238" s="34">
         <v>2.2499999999999998E-3</v>
       </c>
-      <c r="E238" s="262" t="s">
+      <c r="E238" s="265" t="s">
         <v>462</v>
       </c>
-      <c r="F238" s="265"/>
+      <c r="F238" s="266"/>
     </row>
     <row r="239" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B239" s="244"/>
-      <c r="C239" s="254"/>
+      <c r="B239" s="220"/>
+      <c r="C239" s="249"/>
       <c r="D239" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E239" s="262" t="s">
+      <c r="E239" s="265" t="s">
         <v>463</v>
       </c>
-      <c r="F239" s="265"/>
+      <c r="F239" s="266"/>
     </row>
     <row r="240" spans="2:6" ht="48.75" customHeight="1">
-      <c r="B240" s="244"/>
-      <c r="C240" s="254"/>
+      <c r="B240" s="220"/>
+      <c r="C240" s="249"/>
       <c r="D240" s="34">
         <v>1.67E-2</v>
       </c>
-      <c r="E240" s="255" t="s">
+      <c r="E240" s="260" t="s">
         <v>464</v>
       </c>
-      <c r="F240" s="256"/>
+      <c r="F240" s="267"/>
     </row>
     <row r="241" spans="2:6" ht="54.75" customHeight="1">
-      <c r="B241" s="257"/>
-      <c r="C241" s="258"/>
+      <c r="B241" s="250"/>
+      <c r="C241" s="251"/>
       <c r="D241" s="34">
         <v>1.4E-2</v>
       </c>
-      <c r="E241" s="255" t="s">
+      <c r="E241" s="260" t="s">
         <v>465</v>
       </c>
-      <c r="F241" s="256"/>
+      <c r="F241" s="267"/>
     </row>
     <row r="242" spans="2:6" ht="51.75" customHeight="1">
-      <c r="B242" s="266"/>
-      <c r="C242" s="267"/>
+      <c r="B242" s="295"/>
+      <c r="C242" s="296"/>
       <c r="D242" s="109">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E242" s="255" t="s">
+      <c r="E242" s="260" t="s">
         <v>466</v>
       </c>
-      <c r="F242" s="256"/>
+      <c r="F242" s="267"/>
     </row>
     <row r="243" spans="2:6">
-      <c r="B243" s="257" t="s">
+      <c r="B243" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C243" s="258"/>
+      <c r="C243" s="251"/>
       <c r="D243" s="39">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="E243" s="211"/>
-      <c r="F243" s="211"/>
+      <c r="E243" s="219"/>
+      <c r="F243" s="219"/>
     </row>
     <row r="244" spans="2:6">
       <c r="B244" s="111"/>
@@ -14703,149 +15657,149 @@
       <c r="F244" s="25"/>
     </row>
     <row r="245" spans="2:6">
-      <c r="B245" s="259" t="s">
+      <c r="B245" s="261" t="s">
         <v>467</v>
       </c>
-      <c r="C245" s="260"/>
+      <c r="C245" s="262"/>
       <c r="D245" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="E245" s="261" t="s">
+      <c r="E245" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="F245" s="261"/>
+      <c r="F245" s="263"/>
     </row>
     <row r="246" spans="2:6">
-      <c r="B246" s="244"/>
-      <c r="C246" s="254"/>
+      <c r="B246" s="220"/>
+      <c r="C246" s="249"/>
       <c r="D246" s="34">
         <v>0.75600000000000001</v>
       </c>
-      <c r="E246" s="255" t="s">
+      <c r="E246" s="260" t="s">
         <v>475</v>
       </c>
-      <c r="F246" s="255"/>
+      <c r="F246" s="260"/>
     </row>
     <row r="247" spans="2:6" ht="15" customHeight="1">
-      <c r="B247" s="244"/>
-      <c r="C247" s="254"/>
+      <c r="B247" s="220"/>
+      <c r="C247" s="249"/>
       <c r="D247" s="34">
         <v>0.64</v>
       </c>
-      <c r="E247" s="262" t="s">
+      <c r="E247" s="265" t="s">
         <v>474</v>
       </c>
-      <c r="F247" s="265"/>
+      <c r="F247" s="266"/>
     </row>
     <row r="248" spans="2:6">
-      <c r="B248" s="244"/>
-      <c r="C248" s="254"/>
+      <c r="B248" s="220"/>
+      <c r="C248" s="249"/>
       <c r="D248" s="34">
         <v>1</v>
       </c>
-      <c r="E248" s="262" t="s">
+      <c r="E248" s="265" t="s">
         <v>474</v>
       </c>
-      <c r="F248" s="265"/>
+      <c r="F248" s="266"/>
     </row>
     <row r="249" spans="2:6" ht="15" customHeight="1">
-      <c r="B249" s="244"/>
-      <c r="C249" s="254"/>
+      <c r="B249" s="220"/>
+      <c r="C249" s="249"/>
       <c r="D249" s="34">
         <v>0.97199999999999998</v>
       </c>
-      <c r="E249" s="262" t="s">
+      <c r="E249" s="265" t="s">
         <v>471</v>
       </c>
-      <c r="F249" s="265"/>
+      <c r="F249" s="266"/>
     </row>
     <row r="250" spans="2:6">
-      <c r="B250" s="244"/>
-      <c r="C250" s="254"/>
+      <c r="B250" s="220"/>
+      <c r="C250" s="249"/>
       <c r="D250" s="34">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E250" s="262" t="s">
+      <c r="E250" s="265" t="s">
         <v>471</v>
       </c>
-      <c r="F250" s="265"/>
+      <c r="F250" s="266"/>
     </row>
     <row r="251" spans="2:6">
-      <c r="B251" s="244"/>
-      <c r="C251" s="254"/>
+      <c r="B251" s="220"/>
+      <c r="C251" s="249"/>
       <c r="D251" s="34">
         <v>0.1008</v>
       </c>
-      <c r="E251" s="255" t="s">
+      <c r="E251" s="260" t="s">
         <v>473</v>
       </c>
-      <c r="F251" s="256"/>
+      <c r="F251" s="267"/>
     </row>
     <row r="252" spans="2:6">
-      <c r="B252" s="257"/>
-      <c r="C252" s="258"/>
+      <c r="B252" s="250"/>
+      <c r="C252" s="251"/>
       <c r="D252" s="34">
         <v>0.504</v>
       </c>
-      <c r="E252" s="255" t="s">
+      <c r="E252" s="260" t="s">
         <v>473</v>
       </c>
-      <c r="F252" s="256"/>
+      <c r="F252" s="267"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="266"/>
-      <c r="C253" s="267"/>
+      <c r="B253" s="295"/>
+      <c r="C253" s="296"/>
       <c r="D253" s="109">
         <v>1.512</v>
       </c>
-      <c r="E253" s="255" t="s">
+      <c r="E253" s="260" t="s">
         <v>472</v>
       </c>
-      <c r="F253" s="256"/>
+      <c r="F253" s="267"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="B254" s="266"/>
-      <c r="C254" s="267"/>
+      <c r="B254" s="295"/>
+      <c r="C254" s="296"/>
       <c r="D254" s="109">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E254" s="255" t="s">
+      <c r="E254" s="260" t="s">
         <v>472</v>
       </c>
-      <c r="F254" s="256"/>
+      <c r="F254" s="267"/>
     </row>
     <row r="255" spans="2:6">
-      <c r="B255" s="266"/>
-      <c r="C255" s="267"/>
+      <c r="B255" s="295"/>
+      <c r="C255" s="296"/>
       <c r="D255" s="109">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E255" s="255" t="s">
+      <c r="E255" s="260" t="s">
         <v>471</v>
       </c>
-      <c r="F255" s="256"/>
+      <c r="F255" s="267"/>
     </row>
     <row r="256" spans="2:6" ht="33.75" customHeight="1">
-      <c r="B256" s="266"/>
-      <c r="C256" s="267"/>
+      <c r="B256" s="295"/>
+      <c r="C256" s="296"/>
       <c r="D256" s="109">
         <v>1.288</v>
       </c>
-      <c r="E256" s="255" t="s">
+      <c r="E256" s="260" t="s">
         <v>470</v>
       </c>
-      <c r="F256" s="256"/>
+      <c r="F256" s="267"/>
     </row>
     <row r="257" spans="2:6" ht="30" customHeight="1">
-      <c r="B257" s="266"/>
-      <c r="C257" s="267"/>
+      <c r="B257" s="295"/>
+      <c r="C257" s="296"/>
       <c r="D257" s="109">
         <v>2.1</v>
       </c>
-      <c r="E257" s="255" t="s">
+      <c r="E257" s="260" t="s">
         <v>470</v>
       </c>
-      <c r="F257" s="256"/>
+      <c r="F257" s="267"/>
     </row>
     <row r="258" spans="2:6">
       <c r="B258" s="110"/>
@@ -14853,32 +15807,32 @@
       <c r="D258" s="34">
         <v>0.95399999999999996</v>
       </c>
-      <c r="E258" s="255" t="s">
+      <c r="E258" s="260" t="s">
         <v>469</v>
       </c>
-      <c r="F258" s="256"/>
+      <c r="F258" s="267"/>
     </row>
     <row r="259" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B259" s="244"/>
-      <c r="C259" s="254"/>
+      <c r="B259" s="220"/>
+      <c r="C259" s="249"/>
       <c r="D259" s="34">
         <v>1.8759999999999999</v>
       </c>
-      <c r="E259" s="255" t="s">
+      <c r="E259" s="260" t="s">
         <v>469</v>
       </c>
-      <c r="F259" s="256"/>
+      <c r="F259" s="267"/>
     </row>
     <row r="260" spans="2:6">
-      <c r="B260" s="257" t="s">
+      <c r="B260" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C260" s="258"/>
+      <c r="C260" s="251"/>
       <c r="D260" s="39">
         <v>1.1097999999999999</v>
       </c>
-      <c r="E260" s="211"/>
-      <c r="F260" s="211"/>
+      <c r="E260" s="219"/>
+      <c r="F260" s="219"/>
     </row>
     <row r="261" spans="2:6">
       <c r="B261" s="111"/>
@@ -14888,50 +15842,50 @@
       <c r="F261" s="25"/>
     </row>
     <row r="262" spans="2:6">
-      <c r="B262" s="259" t="s">
+      <c r="B262" s="261" t="s">
         <v>476</v>
       </c>
-      <c r="C262" s="260"/>
+      <c r="C262" s="262"/>
       <c r="D262" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="E262" s="261" t="s">
+      <c r="E262" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="F262" s="261"/>
+      <c r="F262" s="263"/>
     </row>
     <row r="263" spans="2:6">
-      <c r="B263" s="244"/>
-      <c r="C263" s="254"/>
+      <c r="B263" s="220"/>
+      <c r="C263" s="249"/>
       <c r="D263" s="34">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E263" s="255" t="s">
+      <c r="E263" s="260" t="s">
         <v>478</v>
       </c>
-      <c r="F263" s="255"/>
+      <c r="F263" s="260"/>
     </row>
     <row r="264" spans="2:6" ht="48.75" customHeight="1">
-      <c r="B264" s="244"/>
-      <c r="C264" s="254"/>
+      <c r="B264" s="220"/>
+      <c r="C264" s="249"/>
       <c r="D264" s="34">
         <v>0.2016</v>
       </c>
-      <c r="E264" s="262" t="s">
+      <c r="E264" s="265" t="s">
         <v>479</v>
       </c>
-      <c r="F264" s="265"/>
+      <c r="F264" s="266"/>
     </row>
     <row r="265" spans="2:6">
-      <c r="B265" s="257" t="s">
+      <c r="B265" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C265" s="258"/>
+      <c r="C265" s="251"/>
       <c r="D265" s="39">
         <v>0.32679999999999998</v>
       </c>
-      <c r="E265" s="211"/>
-      <c r="F265" s="211"/>
+      <c r="E265" s="219"/>
+      <c r="F265" s="219"/>
     </row>
     <row r="266" spans="2:6">
       <c r="B266" s="111"/>
@@ -14941,91 +15895,91 @@
       <c r="F266" s="25"/>
     </row>
     <row r="267" spans="2:6">
-      <c r="B267" s="259" t="s">
+      <c r="B267" s="261" t="s">
         <v>480</v>
       </c>
-      <c r="C267" s="260"/>
+      <c r="C267" s="262"/>
       <c r="D267" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="E267" s="261" t="s">
+      <c r="E267" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="F267" s="261"/>
+      <c r="F267" s="263"/>
     </row>
     <row r="268" spans="2:6">
-      <c r="B268" s="244"/>
-      <c r="C268" s="254"/>
+      <c r="B268" s="220"/>
+      <c r="C268" s="249"/>
       <c r="D268" s="34">
         <v>0.23699999999999999</v>
       </c>
-      <c r="E268" s="255" t="s">
+      <c r="E268" s="260" t="s">
         <v>482</v>
       </c>
-      <c r="F268" s="255"/>
+      <c r="F268" s="260"/>
     </row>
     <row r="269" spans="2:6">
-      <c r="B269" s="244"/>
-      <c r="C269" s="254"/>
+      <c r="B269" s="220"/>
+      <c r="C269" s="249"/>
       <c r="D269" s="34">
         <v>0.54</v>
       </c>
-      <c r="E269" s="256" t="s">
+      <c r="E269" s="267" t="s">
         <v>483</v>
       </c>
-      <c r="F269" s="256"/>
+      <c r="F269" s="267"/>
     </row>
     <row r="270" spans="2:6">
-      <c r="B270" s="244"/>
-      <c r="C270" s="254"/>
+      <c r="B270" s="220"/>
+      <c r="C270" s="249"/>
       <c r="D270" s="34">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E270" s="256" t="s">
+      <c r="E270" s="267" t="s">
         <v>483</v>
       </c>
-      <c r="F270" s="256"/>
+      <c r="F270" s="267"/>
     </row>
     <row r="271" spans="2:6">
-      <c r="B271" s="244"/>
-      <c r="C271" s="254"/>
+      <c r="B271" s="220"/>
+      <c r="C271" s="249"/>
       <c r="D271" s="34">
         <v>2.88</v>
       </c>
-      <c r="E271" s="256" t="s">
+      <c r="E271" s="267" t="s">
         <v>483</v>
       </c>
-      <c r="F271" s="256"/>
+      <c r="F271" s="267"/>
     </row>
     <row r="272" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B272" s="244"/>
-      <c r="C272" s="254"/>
+      <c r="B272" s="220"/>
+      <c r="C272" s="249"/>
       <c r="D272" s="34">
         <v>0.65500000000000003</v>
       </c>
-      <c r="E272" s="255" t="s">
+      <c r="E272" s="260" t="s">
         <v>484</v>
       </c>
-      <c r="F272" s="255"/>
+      <c r="F272" s="260"/>
     </row>
     <row r="273" spans="2:6">
-      <c r="B273" s="257" t="s">
+      <c r="B273" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C273" s="258"/>
+      <c r="C273" s="251"/>
       <c r="D273" s="39">
         <v>0.87680000000000002</v>
       </c>
-      <c r="E273" s="211"/>
-      <c r="F273" s="211"/>
+      <c r="E273" s="219"/>
+      <c r="F273" s="219"/>
     </row>
     <row r="275" spans="2:6">
-      <c r="B275" s="251" t="s">
+      <c r="B275" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="C275" s="251"/>
-      <c r="D275" s="251"/>
-      <c r="E275" s="251"/>
+      <c r="C275" s="258"/>
+      <c r="D275" s="258"/>
+      <c r="E275" s="258"/>
     </row>
     <row r="276" spans="2:6">
       <c r="B276" s="42" t="s">
@@ -15099,12 +16053,12 @@
       </c>
     </row>
     <row r="281" spans="2:6">
-      <c r="B281" s="250" t="s">
+      <c r="B281" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C281" s="250"/>
-      <c r="D281" s="250"/>
-      <c r="E281" s="250"/>
+      <c r="C281" s="264"/>
+      <c r="D281" s="264"/>
+      <c r="E281" s="264"/>
     </row>
     <row r="282" spans="2:6">
       <c r="B282" s="58" t="s">
@@ -15125,289 +16079,289 @@
       </c>
     </row>
     <row r="286" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B286" s="224" t="s">
+      <c r="B286" s="204" t="s">
         <v>496</v>
       </c>
-      <c r="C286" s="224"/>
-      <c r="D286" s="224"/>
-      <c r="E286" s="224"/>
-      <c r="F286" s="224"/>
+      <c r="C286" s="204"/>
+      <c r="D286" s="204"/>
+      <c r="E286" s="204"/>
+      <c r="F286" s="204"/>
     </row>
     <row r="287" spans="2:6">
-      <c r="B287" s="259" t="s">
+      <c r="B287" s="261" t="s">
         <v>498</v>
       </c>
-      <c r="C287" s="260"/>
+      <c r="C287" s="262"/>
       <c r="D287" s="41" t="s">
         <v>499</v>
       </c>
-      <c r="E287" s="261" t="s">
+      <c r="E287" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="F287" s="261"/>
+      <c r="F287" s="263"/>
     </row>
     <row r="288" spans="2:6">
-      <c r="B288" s="244"/>
-      <c r="C288" s="254"/>
+      <c r="B288" s="220"/>
+      <c r="C288" s="249"/>
       <c r="D288" s="34">
         <v>0.18</v>
       </c>
-      <c r="E288" s="255" t="s">
+      <c r="E288" s="260" t="s">
         <v>511</v>
       </c>
-      <c r="F288" s="255"/>
+      <c r="F288" s="260"/>
     </row>
     <row r="289" spans="2:6" ht="38.25" customHeight="1">
-      <c r="B289" s="244"/>
-      <c r="C289" s="254"/>
+      <c r="B289" s="220"/>
+      <c r="C289" s="249"/>
       <c r="D289" s="34">
         <v>1.93</v>
       </c>
-      <c r="E289" s="255" t="s">
+      <c r="E289" s="260" t="s">
         <v>510</v>
       </c>
-      <c r="F289" s="255"/>
+      <c r="F289" s="260"/>
     </row>
     <row r="290" spans="2:6">
-      <c r="B290" s="244"/>
-      <c r="C290" s="254"/>
+      <c r="B290" s="220"/>
+      <c r="C290" s="249"/>
       <c r="D290" s="34">
         <v>0.1</v>
       </c>
-      <c r="E290" s="262" t="s">
+      <c r="E290" s="265" t="s">
         <v>508</v>
       </c>
-      <c r="F290" s="265"/>
+      <c r="F290" s="266"/>
     </row>
     <row r="291" spans="2:6">
-      <c r="B291" s="244"/>
-      <c r="C291" s="254"/>
+      <c r="B291" s="220"/>
+      <c r="C291" s="249"/>
       <c r="D291" s="34">
         <v>4.8</v>
       </c>
-      <c r="E291" s="262" t="s">
+      <c r="E291" s="265" t="s">
         <v>508</v>
       </c>
-      <c r="F291" s="265"/>
+      <c r="F291" s="266"/>
     </row>
     <row r="292" spans="2:6">
-      <c r="B292" s="244"/>
-      <c r="C292" s="254"/>
+      <c r="B292" s="220"/>
+      <c r="C292" s="249"/>
       <c r="D292" s="34">
         <v>0.26</v>
       </c>
-      <c r="E292" s="264" t="s">
+      <c r="E292" s="297" t="s">
         <v>509</v>
       </c>
-      <c r="F292" s="263"/>
+      <c r="F292" s="298"/>
     </row>
     <row r="293" spans="2:6">
-      <c r="B293" s="244"/>
-      <c r="C293" s="254"/>
+      <c r="B293" s="220"/>
+      <c r="C293" s="249"/>
       <c r="D293" s="34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E293" s="262" t="s">
+      <c r="E293" s="265" t="s">
         <v>508</v>
       </c>
-      <c r="F293" s="265"/>
+      <c r="F293" s="266"/>
     </row>
     <row r="294" spans="2:6" ht="36" customHeight="1">
-      <c r="B294" s="244"/>
-      <c r="C294" s="254"/>
+      <c r="B294" s="220"/>
+      <c r="C294" s="249"/>
       <c r="D294" s="34">
         <v>6.7</v>
       </c>
-      <c r="E294" s="262" t="s">
+      <c r="E294" s="265" t="s">
         <v>507</v>
       </c>
-      <c r="F294" s="265"/>
+      <c r="F294" s="266"/>
     </row>
     <row r="295" spans="2:6">
-      <c r="B295" s="244"/>
-      <c r="C295" s="254"/>
+      <c r="B295" s="220"/>
+      <c r="C295" s="249"/>
       <c r="D295" s="34">
         <v>5.53</v>
       </c>
-      <c r="E295" s="264" t="s">
+      <c r="E295" s="297" t="s">
         <v>506</v>
       </c>
-      <c r="F295" s="263"/>
+      <c r="F295" s="298"/>
     </row>
     <row r="296" spans="2:6">
-      <c r="B296" s="244"/>
-      <c r="C296" s="254"/>
+      <c r="B296" s="220"/>
+      <c r="C296" s="249"/>
       <c r="D296" s="34">
         <v>1.03</v>
       </c>
-      <c r="E296" s="264" t="s">
+      <c r="E296" s="297" t="s">
         <v>506</v>
       </c>
-      <c r="F296" s="263"/>
+      <c r="F296" s="298"/>
     </row>
     <row r="297" spans="2:6">
-      <c r="B297" s="244"/>
-      <c r="C297" s="254"/>
+      <c r="B297" s="220"/>
+      <c r="C297" s="249"/>
       <c r="D297" s="34">
         <v>0.54</v>
       </c>
-      <c r="E297" s="264" t="s">
+      <c r="E297" s="297" t="s">
         <v>506</v>
       </c>
-      <c r="F297" s="263"/>
+      <c r="F297" s="298"/>
     </row>
     <row r="298" spans="2:6">
-      <c r="B298" s="244"/>
-      <c r="C298" s="254"/>
+      <c r="B298" s="220"/>
+      <c r="C298" s="249"/>
       <c r="D298" s="34">
         <v>0.37</v>
       </c>
-      <c r="E298" s="264" t="s">
+      <c r="E298" s="297" t="s">
         <v>506</v>
       </c>
-      <c r="F298" s="263"/>
+      <c r="F298" s="298"/>
     </row>
     <row r="299" spans="2:6" ht="47.25" customHeight="1">
-      <c r="B299" s="244"/>
-      <c r="C299" s="254"/>
+      <c r="B299" s="220"/>
+      <c r="C299" s="249"/>
       <c r="D299" s="34">
         <v>0.69</v>
       </c>
-      <c r="E299" s="262" t="s">
+      <c r="E299" s="265" t="s">
         <v>505</v>
       </c>
-      <c r="F299" s="265"/>
+      <c r="F299" s="266"/>
     </row>
     <row r="300" spans="2:6">
-      <c r="B300" s="244"/>
-      <c r="C300" s="254"/>
+      <c r="B300" s="220"/>
+      <c r="C300" s="249"/>
       <c r="D300" s="34">
         <v>0.27</v>
       </c>
-      <c r="E300" s="264" t="s">
+      <c r="E300" s="297" t="s">
         <v>504</v>
       </c>
-      <c r="F300" s="263"/>
+      <c r="F300" s="298"/>
     </row>
     <row r="301" spans="2:6">
-      <c r="B301" s="244"/>
-      <c r="C301" s="254"/>
+      <c r="B301" s="220"/>
+      <c r="C301" s="249"/>
       <c r="D301" s="34">
         <v>0.17</v>
       </c>
-      <c r="E301" s="264" t="s">
+      <c r="E301" s="297" t="s">
         <v>503</v>
       </c>
-      <c r="F301" s="263"/>
+      <c r="F301" s="298"/>
     </row>
     <row r="302" spans="2:6">
-      <c r="B302" s="244"/>
-      <c r="C302" s="254"/>
+      <c r="B302" s="220"/>
+      <c r="C302" s="249"/>
       <c r="D302" s="34">
         <v>0.27</v>
       </c>
-      <c r="E302" s="264" t="s">
+      <c r="E302" s="297" t="s">
         <v>503</v>
       </c>
-      <c r="F302" s="263"/>
+      <c r="F302" s="298"/>
     </row>
     <row r="303" spans="2:6">
-      <c r="B303" s="244"/>
-      <c r="C303" s="254"/>
+      <c r="B303" s="220"/>
+      <c r="C303" s="249"/>
       <c r="D303" s="34">
         <v>0.35</v>
       </c>
-      <c r="E303" s="264" t="s">
+      <c r="E303" s="297" t="s">
         <v>503</v>
       </c>
-      <c r="F303" s="263"/>
+      <c r="F303" s="298"/>
     </row>
     <row r="304" spans="2:6">
-      <c r="B304" s="244"/>
-      <c r="C304" s="254"/>
+      <c r="B304" s="220"/>
+      <c r="C304" s="249"/>
       <c r="D304" s="34">
         <v>4.75</v>
       </c>
-      <c r="E304" s="264" t="s">
+      <c r="E304" s="297" t="s">
         <v>503</v>
       </c>
-      <c r="F304" s="263"/>
+      <c r="F304" s="298"/>
     </row>
     <row r="305" spans="2:6">
-      <c r="B305" s="244"/>
-      <c r="C305" s="254"/>
+      <c r="B305" s="220"/>
+      <c r="C305" s="249"/>
       <c r="D305" s="34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E305" s="264" t="s">
+      <c r="E305" s="297" t="s">
         <v>503</v>
       </c>
-      <c r="F305" s="263"/>
+      <c r="F305" s="298"/>
     </row>
     <row r="306" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B306" s="244"/>
-      <c r="C306" s="254"/>
+      <c r="B306" s="220"/>
+      <c r="C306" s="249"/>
       <c r="D306" s="34">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E306" s="262" t="s">
+      <c r="E306" s="265" t="s">
         <v>502</v>
       </c>
-      <c r="F306" s="263"/>
+      <c r="F306" s="298"/>
     </row>
     <row r="307" spans="2:6">
-      <c r="B307" s="244"/>
-      <c r="C307" s="254"/>
+      <c r="B307" s="220"/>
+      <c r="C307" s="249"/>
       <c r="D307" s="34">
         <v>0.52</v>
       </c>
-      <c r="E307" s="255" t="s">
+      <c r="E307" s="260" t="s">
         <v>500</v>
       </c>
-      <c r="F307" s="255"/>
+      <c r="F307" s="260"/>
     </row>
     <row r="308" spans="2:6">
-      <c r="B308" s="244"/>
-      <c r="C308" s="254"/>
+      <c r="B308" s="220"/>
+      <c r="C308" s="249"/>
       <c r="D308" s="34">
         <v>0.33</v>
       </c>
-      <c r="E308" s="255" t="s">
+      <c r="E308" s="260" t="s">
         <v>500</v>
       </c>
-      <c r="F308" s="255"/>
+      <c r="F308" s="260"/>
     </row>
     <row r="309" spans="2:6">
-      <c r="B309" s="244"/>
-      <c r="C309" s="254"/>
+      <c r="B309" s="220"/>
+      <c r="C309" s="249"/>
       <c r="D309" s="34">
         <v>0.27</v>
       </c>
-      <c r="E309" s="255" t="s">
+      <c r="E309" s="260" t="s">
         <v>500</v>
       </c>
-      <c r="F309" s="255"/>
+      <c r="F309" s="260"/>
     </row>
     <row r="310" spans="2:6" ht="31.5" customHeight="1">
-      <c r="B310" s="257" t="s">
+      <c r="B310" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C310" s="258"/>
+      <c r="C310" s="251"/>
       <c r="D310" s="39">
         <v>1.649</v>
       </c>
-      <c r="E310" s="255" t="s">
+      <c r="E310" s="260" t="s">
         <v>501</v>
       </c>
-      <c r="F310" s="255"/>
+      <c r="F310" s="260"/>
     </row>
     <row r="312" spans="2:6">
-      <c r="B312" s="251" t="s">
+      <c r="B312" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="C312" s="251"/>
-      <c r="D312" s="251"/>
-      <c r="E312" s="251"/>
+      <c r="C312" s="258"/>
+      <c r="D312" s="258"/>
+      <c r="E312" s="258"/>
     </row>
     <row r="313" spans="2:6">
       <c r="B313" s="42" t="s">
@@ -15465,12 +16419,12 @@
       </c>
     </row>
     <row r="317" spans="2:6">
-      <c r="B317" s="250" t="s">
+      <c r="B317" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C317" s="250"/>
-      <c r="D317" s="250"/>
-      <c r="E317" s="250"/>
+      <c r="C317" s="264"/>
+      <c r="D317" s="264"/>
+      <c r="E317" s="264"/>
     </row>
     <row r="318" spans="2:6">
       <c r="B318" s="58" t="s">
@@ -15508,150 +16462,150 @@
       <c r="E320" s="58"/>
     </row>
     <row r="322" spans="2:6">
-      <c r="B322" s="259" t="s">
+      <c r="B322" s="261" t="s">
         <v>96</v>
       </c>
-      <c r="C322" s="260"/>
+      <c r="C322" s="262"/>
       <c r="D322" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E322" s="261" t="s">
+      <c r="E322" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="F322" s="261"/>
+      <c r="F322" s="263"/>
     </row>
     <row r="323" spans="2:6">
-      <c r="B323" s="244"/>
-      <c r="C323" s="254"/>
+      <c r="B323" s="220"/>
+      <c r="C323" s="249"/>
       <c r="D323" s="34">
         <v>0.10125000000000001</v>
       </c>
-      <c r="E323" s="255" t="s">
+      <c r="E323" s="260" t="s">
         <v>88</v>
       </c>
-      <c r="F323" s="255"/>
+      <c r="F323" s="260"/>
     </row>
     <row r="324" spans="2:6">
-      <c r="B324" s="244"/>
-      <c r="C324" s="254"/>
+      <c r="B324" s="220"/>
+      <c r="C324" s="249"/>
       <c r="D324" s="34">
         <v>0.15079000000000001</v>
       </c>
-      <c r="E324" s="255" t="s">
+      <c r="E324" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="F324" s="256"/>
+      <c r="F324" s="267"/>
     </row>
     <row r="325" spans="2:6">
-      <c r="B325" s="257" t="s">
+      <c r="B325" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C325" s="258"/>
+      <c r="C325" s="251"/>
       <c r="D325" s="39">
         <v>0.126</v>
       </c>
-      <c r="E325" s="211"/>
-      <c r="F325" s="211"/>
+      <c r="E325" s="219"/>
+      <c r="F325" s="219"/>
     </row>
     <row r="327" spans="2:6">
-      <c r="B327" s="259" t="s">
+      <c r="B327" s="261" t="s">
         <v>92</v>
       </c>
-      <c r="C327" s="260"/>
+      <c r="C327" s="262"/>
       <c r="D327" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E327" s="261" t="s">
+      <c r="E327" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="F327" s="261"/>
+      <c r="F327" s="263"/>
     </row>
     <row r="328" spans="2:6">
-      <c r="B328" s="244"/>
-      <c r="C328" s="254"/>
+      <c r="B328" s="220"/>
+      <c r="C328" s="249"/>
       <c r="D328" s="34">
         <v>1.44</v>
       </c>
-      <c r="E328" s="255" t="s">
+      <c r="E328" s="260" t="s">
         <v>94</v>
       </c>
-      <c r="F328" s="255"/>
+      <c r="F328" s="260"/>
     </row>
     <row r="329" spans="2:6">
-      <c r="B329" s="244"/>
-      <c r="C329" s="254"/>
+      <c r="B329" s="220"/>
+      <c r="C329" s="249"/>
       <c r="D329" s="34">
         <v>2.88</v>
       </c>
-      <c r="E329" s="255" t="s">
+      <c r="E329" s="260" t="s">
         <v>95</v>
       </c>
-      <c r="F329" s="256"/>
+      <c r="F329" s="267"/>
     </row>
     <row r="330" spans="2:6">
-      <c r="B330" s="257" t="s">
+      <c r="B330" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C330" s="258"/>
+      <c r="C330" s="251"/>
       <c r="D330" s="39">
         <v>2.16</v>
       </c>
-      <c r="E330" s="211"/>
-      <c r="F330" s="211"/>
+      <c r="E330" s="219"/>
+      <c r="F330" s="219"/>
     </row>
     <row r="332" spans="2:6">
-      <c r="B332" s="259" t="s">
+      <c r="B332" s="261" t="s">
         <v>98</v>
       </c>
-      <c r="C332" s="260"/>
+      <c r="C332" s="262"/>
       <c r="D332" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E332" s="261" t="s">
+      <c r="E332" s="263" t="s">
         <v>87</v>
       </c>
-      <c r="F332" s="261"/>
+      <c r="F332" s="263"/>
     </row>
     <row r="333" spans="2:6">
-      <c r="B333" s="244"/>
-      <c r="C333" s="254"/>
+      <c r="B333" s="220"/>
+      <c r="C333" s="249"/>
       <c r="D333" s="34">
         <v>11.7</v>
       </c>
-      <c r="E333" s="255" t="s">
+      <c r="E333" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="F333" s="255"/>
+      <c r="F333" s="260"/>
     </row>
     <row r="334" spans="2:6">
-      <c r="B334" s="244"/>
-      <c r="C334" s="254"/>
+      <c r="B334" s="220"/>
+      <c r="C334" s="249"/>
       <c r="D334" s="34">
         <v>19.7</v>
       </c>
-      <c r="E334" s="255" t="s">
+      <c r="E334" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="F334" s="256"/>
+      <c r="F334" s="267"/>
     </row>
     <row r="335" spans="2:6">
-      <c r="B335" s="257" t="s">
+      <c r="B335" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="C335" s="258"/>
+      <c r="C335" s="251"/>
       <c r="D335" s="39">
         <v>15.7</v>
       </c>
-      <c r="E335" s="211"/>
-      <c r="F335" s="211"/>
+      <c r="E335" s="219"/>
+      <c r="F335" s="219"/>
     </row>
     <row r="338" spans="2:5">
-      <c r="B338" s="251" t="s">
+      <c r="B338" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="C338" s="251"/>
-      <c r="D338" s="251"/>
-      <c r="E338" s="251"/>
+      <c r="C338" s="258"/>
+      <c r="D338" s="258"/>
+      <c r="E338" s="258"/>
     </row>
     <row r="339" spans="2:5">
       <c r="B339" s="42" t="s">
@@ -15816,12 +16770,12 @@
       </c>
     </row>
     <row r="350" spans="2:5">
-      <c r="B350" s="250" t="s">
+      <c r="B350" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C350" s="250"/>
-      <c r="D350" s="250"/>
-      <c r="E350" s="250"/>
+      <c r="C350" s="264"/>
+      <c r="D350" s="264"/>
+      <c r="E350" s="264"/>
     </row>
     <row r="351" spans="2:5">
       <c r="B351" s="58" t="s">
@@ -15876,12 +16830,12 @@
       <c r="E354" s="58"/>
     </row>
     <row r="356" spans="2:5">
-      <c r="B356" s="251" t="s">
+      <c r="B356" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="C356" s="251"/>
-      <c r="D356" s="251"/>
-      <c r="E356" s="251"/>
+      <c r="C356" s="258"/>
+      <c r="D356" s="258"/>
+      <c r="E356" s="258"/>
     </row>
     <row r="357" spans="2:5">
       <c r="B357" s="42" t="s">
@@ -16018,12 +16972,12 @@
       </c>
     </row>
     <row r="366" spans="2:5">
-      <c r="B366" s="250" t="s">
+      <c r="B366" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C366" s="250"/>
-      <c r="D366" s="250"/>
-      <c r="E366" s="250"/>
+      <c r="C366" s="264"/>
+      <c r="D366" s="264"/>
+      <c r="E366" s="264"/>
     </row>
     <row r="367" spans="2:5">
       <c r="B367" s="58" t="s">
@@ -16057,12 +17011,12 @@
       </c>
     </row>
     <row r="372" spans="2:5">
-      <c r="B372" s="251" t="s">
+      <c r="B372" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="C372" s="251"/>
-      <c r="D372" s="251"/>
-      <c r="E372" s="251"/>
+      <c r="C372" s="258"/>
+      <c r="D372" s="258"/>
+      <c r="E372" s="258"/>
     </row>
     <row r="373" spans="2:5">
       <c r="B373" s="42" t="s">
@@ -16094,12 +17048,12 @@
       </c>
     </row>
     <row r="375" spans="2:5">
-      <c r="B375" s="250" t="s">
+      <c r="B375" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C375" s="250"/>
-      <c r="D375" s="250"/>
-      <c r="E375" s="250"/>
+      <c r="C375" s="264"/>
+      <c r="D375" s="264"/>
+      <c r="E375" s="264"/>
     </row>
     <row r="376" spans="2:5">
       <c r="B376" s="58" t="s">
@@ -16118,12 +17072,12 @@
       </c>
     </row>
     <row r="380" spans="2:5">
-      <c r="B380" s="249" t="s">
+      <c r="B380" s="283" t="s">
         <v>531</v>
       </c>
-      <c r="C380" s="251"/>
-      <c r="D380" s="251"/>
-      <c r="E380" s="251"/>
+      <c r="C380" s="258"/>
+      <c r="D380" s="258"/>
+      <c r="E380" s="258"/>
     </row>
     <row r="381" spans="2:5">
       <c r="B381" s="1" t="s">
@@ -16308,12 +17262,12 @@
       </c>
     </row>
     <row r="395" spans="2:5">
-      <c r="B395" s="249" t="s">
+      <c r="B395" s="283" t="s">
         <v>532</v>
       </c>
-      <c r="C395" s="251"/>
-      <c r="D395" s="251"/>
-      <c r="E395" s="251"/>
+      <c r="C395" s="258"/>
+      <c r="D395" s="258"/>
+      <c r="E395" s="258"/>
     </row>
     <row r="396" spans="2:5">
       <c r="B396" s="1" t="s">
@@ -16498,13 +17452,13 @@
       </c>
     </row>
     <row r="410" spans="2:6">
-      <c r="B410" s="249" t="s">
+      <c r="B410" s="283" t="s">
         <v>528</v>
       </c>
-      <c r="C410" s="249"/>
-      <c r="D410" s="249"/>
-      <c r="E410" s="249"/>
-      <c r="F410" s="249"/>
+      <c r="C410" s="283"/>
+      <c r="D410" s="283"/>
+      <c r="E410" s="283"/>
+      <c r="F410" s="283"/>
     </row>
     <row r="411" spans="2:6">
       <c r="B411" s="115" t="s">
@@ -16737,43 +17691,43 @@
       </c>
     </row>
     <row r="427" spans="2:10">
-      <c r="B427" s="251" t="s">
+      <c r="B427" s="258" t="s">
         <v>552</v>
       </c>
-      <c r="C427" s="251"/>
-      <c r="D427" s="251"/>
-      <c r="E427" s="251"/>
-      <c r="F427" s="251"/>
-      <c r="G427" s="251"/>
-      <c r="H427" s="251"/>
-      <c r="I427" s="251"/>
-      <c r="J427" s="251"/>
+      <c r="C427" s="258"/>
+      <c r="D427" s="258"/>
+      <c r="E427" s="258"/>
+      <c r="F427" s="258"/>
+      <c r="G427" s="258"/>
+      <c r="H427" s="258"/>
+      <c r="I427" s="258"/>
+      <c r="J427" s="258"/>
     </row>
     <row r="428" spans="2:10">
-      <c r="B428" s="251" t="s">
+      <c r="B428" s="258" t="s">
         <v>553</v>
       </c>
-      <c r="C428" s="251"/>
-      <c r="D428" s="251"/>
-      <c r="E428" s="251"/>
-      <c r="F428" s="251"/>
-      <c r="G428" s="251"/>
-      <c r="H428" s="251"/>
-      <c r="I428" s="251"/>
-      <c r="J428" s="251"/>
+      <c r="C428" s="258"/>
+      <c r="D428" s="258"/>
+      <c r="E428" s="258"/>
+      <c r="F428" s="258"/>
+      <c r="G428" s="258"/>
+      <c r="H428" s="258"/>
+      <c r="I428" s="258"/>
+      <c r="J428" s="258"/>
     </row>
     <row r="429" spans="2:10">
-      <c r="B429" s="251" t="s">
+      <c r="B429" s="258" t="s">
         <v>554</v>
       </c>
-      <c r="C429" s="251"/>
-      <c r="D429" s="251"/>
-      <c r="E429" s="251"/>
-      <c r="F429" s="251"/>
-      <c r="G429" s="251"/>
-      <c r="H429" s="251"/>
-      <c r="I429" s="251"/>
-      <c r="J429" s="251"/>
+      <c r="C429" s="258"/>
+      <c r="D429" s="258"/>
+      <c r="E429" s="258"/>
+      <c r="F429" s="258"/>
+      <c r="G429" s="258"/>
+      <c r="H429" s="258"/>
+      <c r="I429" s="258"/>
+      <c r="J429" s="258"/>
     </row>
     <row r="430" spans="2:10">
       <c r="B430" s="42" t="s">
@@ -16791,10 +17745,10 @@
       <c r="F430" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G430" s="252" t="s">
+      <c r="G430" s="254" t="s">
         <v>196</v>
       </c>
-      <c r="H430" s="253"/>
+      <c r="H430" s="255"/>
       <c r="I430" s="119" t="s">
         <v>189</v>
       </c>
@@ -16971,35 +17925,273 @@
       </c>
     </row>
     <row r="443" spans="2:10">
-      <c r="C443" s="224"/>
-      <c r="D443" s="224"/>
+      <c r="C443" s="204"/>
+      <c r="D443" s="204"/>
     </row>
     <row r="444" spans="2:10">
-      <c r="C444" s="224"/>
-      <c r="D444" s="224"/>
+      <c r="C444" s="204"/>
+      <c r="D444" s="204"/>
     </row>
     <row r="445" spans="2:10">
-      <c r="C445" s="224"/>
-      <c r="D445" s="224"/>
+      <c r="C445" s="204"/>
+      <c r="D445" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="294">
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="E163:E165"/>
-    <mergeCell ref="F163:F165"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B375:E375"/>
+    <mergeCell ref="B380:E380"/>
+    <mergeCell ref="B395:E395"/>
+    <mergeCell ref="B429:J429"/>
+    <mergeCell ref="G430:H430"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="E334:F334"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="E335:F335"/>
+    <mergeCell ref="B338:E338"/>
+    <mergeCell ref="B350:E350"/>
+    <mergeCell ref="B356:E356"/>
+    <mergeCell ref="B366:E366"/>
+    <mergeCell ref="B372:E372"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="E328:F328"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="E329:F329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="E330:F330"/>
+    <mergeCell ref="B332:C332"/>
+    <mergeCell ref="E332:F332"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="E322:F322"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="E323:F323"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="E324:F324"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="E325:F325"/>
+    <mergeCell ref="B327:C327"/>
+    <mergeCell ref="E327:F327"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="B312:E312"/>
+    <mergeCell ref="B317:E317"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="E309:F309"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="E310:F310"/>
+    <mergeCell ref="E308:F308"/>
+    <mergeCell ref="E307:F307"/>
+    <mergeCell ref="E306:F306"/>
+    <mergeCell ref="E305:F305"/>
+    <mergeCell ref="E304:F304"/>
+    <mergeCell ref="E303:F303"/>
+    <mergeCell ref="E302:F302"/>
+    <mergeCell ref="E294:F294"/>
+    <mergeCell ref="E293:F293"/>
+    <mergeCell ref="E292:F292"/>
+    <mergeCell ref="E291:F291"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="E295:F295"/>
+    <mergeCell ref="E301:F301"/>
+    <mergeCell ref="E300:F300"/>
+    <mergeCell ref="E299:F299"/>
+    <mergeCell ref="E298:F298"/>
+    <mergeCell ref="E297:F297"/>
+    <mergeCell ref="E296:F296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="E287:F287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="E288:F288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="E289:F289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="E290:F290"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="E265:F265"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="E269:F269"/>
+    <mergeCell ref="E270:F270"/>
+    <mergeCell ref="E271:F271"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="E267:F267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="E268:F268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E272:F272"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="E262:F262"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="E254:F254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="E249:F249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="E250:F250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="E251:F251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="E252:F252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="E245:F245"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="E246:F246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="E247:F247"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="E243:F243"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="E248:F248"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="E240:F240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="E241:F241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="E242:F242"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="E235:F235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="E236:F236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="E237:F237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="E238:F238"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="E239:F239"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="I163:I165"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B173:M173"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="B188:E188"/>
+    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="J163:J165"/>
+    <mergeCell ref="B149:J149"/>
+    <mergeCell ref="B161:J161"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="E151:E153"/>
+    <mergeCell ref="F151:F153"/>
+    <mergeCell ref="J151:J153"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="I151:I153"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="E226:F226"/>
     <mergeCell ref="C443:C445"/>
     <mergeCell ref="D443:D445"/>
     <mergeCell ref="B428:J428"/>
@@ -17024,260 +18216,22 @@
     <mergeCell ref="E205:F205"/>
     <mergeCell ref="B210:C210"/>
     <mergeCell ref="E210:F210"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B35:M35"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="B149:J149"/>
-    <mergeCell ref="B161:J161"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="E151:E153"/>
-    <mergeCell ref="F151:F153"/>
-    <mergeCell ref="J151:J153"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="I151:I153"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="I163:I165"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B173:M173"/>
-    <mergeCell ref="B180:E180"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="B188:E188"/>
-    <mergeCell ref="B191:E191"/>
-    <mergeCell ref="J163:J165"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="E230:F230"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="E239:F239"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="E231:F231"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="E227:F227"/>
-    <mergeCell ref="E228:F228"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="E240:F240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="E241:F241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="E242:F242"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="E234:F234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="E235:F235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="E236:F236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="E237:F237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="E238:F238"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="E245:F245"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="E246:F246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="E247:F247"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="E243:F243"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="E248:F248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="E249:F249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="E250:F250"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="E251:F251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="E252:F252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="E253:F253"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="E254:F254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="E255:F255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="E258:F258"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="E262:F262"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="E264:F264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="E265:F265"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="E269:F269"/>
-    <mergeCell ref="E270:F270"/>
-    <mergeCell ref="E271:F271"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="E273:F273"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="E267:F267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="E268:F268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E272:F272"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="E287:F287"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="E288:F288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="E289:F289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="E290:F290"/>
-    <mergeCell ref="E301:F301"/>
-    <mergeCell ref="E300:F300"/>
-    <mergeCell ref="E299:F299"/>
-    <mergeCell ref="E298:F298"/>
-    <mergeCell ref="E297:F297"/>
-    <mergeCell ref="E296:F296"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="E294:F294"/>
-    <mergeCell ref="E293:F293"/>
-    <mergeCell ref="E292:F292"/>
-    <mergeCell ref="E291:F291"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="E295:F295"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="B306:C306"/>
-    <mergeCell ref="B307:C307"/>
-    <mergeCell ref="B308:C308"/>
-    <mergeCell ref="B312:E312"/>
-    <mergeCell ref="B317:E317"/>
-    <mergeCell ref="B309:C309"/>
-    <mergeCell ref="E309:F309"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="E310:F310"/>
-    <mergeCell ref="E308:F308"/>
-    <mergeCell ref="E307:F307"/>
-    <mergeCell ref="E306:F306"/>
-    <mergeCell ref="E305:F305"/>
-    <mergeCell ref="E304:F304"/>
-    <mergeCell ref="E303:F303"/>
-    <mergeCell ref="E302:F302"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="E322:F322"/>
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="E323:F323"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="E324:F324"/>
-    <mergeCell ref="B325:C325"/>
-    <mergeCell ref="E325:F325"/>
-    <mergeCell ref="B327:C327"/>
-    <mergeCell ref="E327:F327"/>
-    <mergeCell ref="B328:C328"/>
-    <mergeCell ref="E328:F328"/>
-    <mergeCell ref="B329:C329"/>
-    <mergeCell ref="E329:F329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="E330:F330"/>
-    <mergeCell ref="B332:C332"/>
-    <mergeCell ref="E332:F332"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="E333:F333"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B375:E375"/>
-    <mergeCell ref="B380:E380"/>
-    <mergeCell ref="B395:E395"/>
-    <mergeCell ref="B429:J429"/>
-    <mergeCell ref="G430:H430"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="E334:F334"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="E335:F335"/>
-    <mergeCell ref="B338:E338"/>
-    <mergeCell ref="B350:E350"/>
-    <mergeCell ref="B356:E356"/>
-    <mergeCell ref="B366:E366"/>
-    <mergeCell ref="B372:E372"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="E163:E165"/>
+    <mergeCell ref="F163:F165"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17290,7 +18244,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:Q251"/>
   <sheetViews>
-    <sheetView topLeftCell="C298" zoomScale="46" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView zoomScale="46" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
@@ -17316,14 +18270,14 @@
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="27" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B27" s="284" t="s">
+      <c r="B27" s="268" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="285"/>
-      <c r="D27" s="286" t="s">
+      <c r="C27" s="269"/>
+      <c r="D27" s="270" t="s">
         <v>205</v>
       </c>
-      <c r="E27" s="287"/>
+      <c r="E27" s="271"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B28" s="63" t="s">
@@ -17375,10 +18329,10 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="39" customHeight="1" thickBot="1">
-      <c r="B31" s="325" t="s">
+      <c r="B31" s="310" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="325">
+      <c r="C31" s="310">
         <v>160</v>
       </c>
       <c r="D31" s="31" t="s">
@@ -17389,8 +18343,8 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B32" s="326"/>
-      <c r="C32" s="326"/>
+      <c r="B32" s="311"/>
+      <c r="C32" s="311"/>
       <c r="D32" s="28" t="s">
         <v>610</v>
       </c>
@@ -17399,8 +18353,8 @@
       </c>
     </row>
     <row r="33" spans="2:13" ht="21" customHeight="1" thickBot="1">
-      <c r="B33" s="326"/>
-      <c r="C33" s="326"/>
+      <c r="B33" s="311"/>
+      <c r="C33" s="311"/>
       <c r="D33" s="31" t="s">
         <v>611</v>
       </c>
@@ -17409,8 +18363,8 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="21" customHeight="1" thickBot="1">
-      <c r="B34" s="326"/>
-      <c r="C34" s="326"/>
+      <c r="B34" s="311"/>
+      <c r="C34" s="311"/>
       <c r="D34" s="28" t="s">
         <v>612</v>
       </c>
@@ -17419,8 +18373,8 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="21" customHeight="1" thickBot="1">
-      <c r="B35" s="327"/>
-      <c r="C35" s="327"/>
+      <c r="B35" s="312"/>
+      <c r="C35" s="312"/>
       <c r="D35" s="31" t="s">
         <v>613</v>
       </c>
@@ -17430,20 +18384,20 @@
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="38" spans="2:13">
-      <c r="B38" s="274" t="s">
+      <c r="B38" s="278" t="s">
         <v>213</v>
       </c>
-      <c r="C38" s="275"/>
-      <c r="D38" s="275"/>
-      <c r="E38" s="275"/>
-      <c r="F38" s="275"/>
-      <c r="G38" s="275"/>
-      <c r="H38" s="275"/>
-      <c r="I38" s="275"/>
-      <c r="J38" s="275"/>
-      <c r="K38" s="275"/>
-      <c r="L38" s="275"/>
-      <c r="M38" s="276"/>
+      <c r="C38" s="279"/>
+      <c r="D38" s="279"/>
+      <c r="E38" s="279"/>
+      <c r="F38" s="279"/>
+      <c r="G38" s="279"/>
+      <c r="H38" s="279"/>
+      <c r="I38" s="279"/>
+      <c r="J38" s="279"/>
+      <c r="K38" s="279"/>
+      <c r="L38" s="279"/>
+      <c r="M38" s="280"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="40" spans="2:13" ht="18.75" thickBot="1">
@@ -17456,20 +18410,20 @@
     </row>
     <row r="41" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="42" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B42" s="312" t="s">
+      <c r="B42" s="313" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="313"/>
-      <c r="D42" s="313"/>
-      <c r="E42" s="314"/>
+      <c r="C42" s="314"/>
+      <c r="D42" s="314"/>
+      <c r="E42" s="315"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="251" t="s">
+      <c r="B44" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="251"/>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
+      <c r="C44" s="258"/>
+      <c r="D44" s="258"/>
+      <c r="E44" s="258"/>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="42" t="s">
@@ -17497,7 +18451,7 @@
       <c r="D46" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="E46" s="328" t="s">
+      <c r="E46" s="316" t="s">
         <v>246</v>
       </c>
     </row>
@@ -17512,7 +18466,7 @@
       <c r="D47" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="E47" s="329"/>
+      <c r="E47" s="317"/>
       <c r="G47" s="66"/>
     </row>
     <row r="48" spans="2:13" ht="30">
@@ -17531,12 +18485,12 @@
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="250" t="s">
+      <c r="B49" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="250"/>
-      <c r="D49" s="250"/>
-      <c r="E49" s="250"/>
+      <c r="C49" s="264"/>
+      <c r="D49" s="264"/>
+      <c r="E49" s="264"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="59" t="s">
@@ -17570,12 +18524,12 @@
     </row>
     <row r="53" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="54" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B54" s="312" t="s">
+      <c r="B54" s="313" t="s">
         <v>248</v>
       </c>
-      <c r="C54" s="313"/>
-      <c r="D54" s="313"/>
-      <c r="E54" s="314"/>
+      <c r="C54" s="314"/>
+      <c r="D54" s="314"/>
+      <c r="E54" s="315"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="118" t="s">
@@ -17583,12 +18537,12 @@
       </c>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="250" t="s">
+      <c r="B57" s="264" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="250"/>
-      <c r="D57" s="250"/>
-      <c r="E57" s="250"/>
+      <c r="C57" s="264"/>
+      <c r="D57" s="264"/>
+      <c r="E57" s="264"/>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="73" t="s">
@@ -17650,12 +18604,12 @@
       <c r="F61" s="72"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="250" t="s">
+      <c r="B62" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="250"/>
-      <c r="D62" s="250"/>
-      <c r="E62" s="250"/>
+      <c r="C62" s="264"/>
+      <c r="D62" s="264"/>
+      <c r="E62" s="264"/>
       <c r="G62" t="s">
         <v>262</v>
       </c>
@@ -17705,20 +18659,20 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="33" customHeight="1">
-      <c r="B66" s="321" t="s">
+      <c r="B66" s="318" t="s">
         <v>533</v>
       </c>
-      <c r="C66" s="321"/>
-      <c r="D66" s="321"/>
-      <c r="E66" s="321"/>
+      <c r="C66" s="318"/>
+      <c r="D66" s="318"/>
+      <c r="E66" s="318"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="250" t="s">
+      <c r="B67" s="264" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="250"/>
-      <c r="D67" s="250"/>
-      <c r="E67" s="250"/>
+      <c r="C67" s="264"/>
+      <c r="D67" s="264"/>
+      <c r="E67" s="264"/>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="42" t="s">
@@ -17788,12 +18742,12 @@
       </c>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="250" t="s">
+      <c r="B73" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="250"/>
-      <c r="D73" s="250"/>
-      <c r="E73" s="250"/>
+      <c r="C73" s="264"/>
+      <c r="D73" s="264"/>
+      <c r="E73" s="264"/>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="59" t="s">
@@ -17852,20 +18806,20 @@
       <c r="E77" s="76"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="322" t="s">
+      <c r="B79" s="319" t="s">
         <v>274</v>
       </c>
-      <c r="C79" s="321"/>
-      <c r="D79" s="321"/>
-      <c r="E79" s="321"/>
+      <c r="C79" s="318"/>
+      <c r="D79" s="318"/>
+      <c r="E79" s="318"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="250" t="s">
+      <c r="B80" s="264" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="250"/>
-      <c r="D80" s="250"/>
-      <c r="E80" s="250"/>
+      <c r="C80" s="264"/>
+      <c r="D80" s="264"/>
+      <c r="E80" s="264"/>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="42" t="s">
@@ -17907,12 +18861,12 @@
       </c>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="250" t="s">
+      <c r="B84" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="250"/>
-      <c r="D84" s="250"/>
-      <c r="E84" s="250"/>
+      <c r="C84" s="264"/>
+      <c r="D84" s="264"/>
+      <c r="E84" s="264"/>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="59" t="s">
@@ -17942,20 +18896,20 @@
     </row>
     <row r="87" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="88" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B88" s="312" t="s">
+      <c r="B88" s="313" t="s">
         <v>277</v>
       </c>
-      <c r="C88" s="313"/>
-      <c r="D88" s="313"/>
-      <c r="E88" s="314"/>
+      <c r="C88" s="314"/>
+      <c r="D88" s="314"/>
+      <c r="E88" s="315"/>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="250" t="s">
+      <c r="B90" s="264" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="250"/>
-      <c r="D90" s="250"/>
-      <c r="E90" s="250"/>
+      <c r="C90" s="264"/>
+      <c r="D90" s="264"/>
+      <c r="E90" s="264"/>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="42" t="s">
@@ -17987,12 +18941,12 @@
       </c>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="250" t="s">
+      <c r="B93" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="250"/>
-      <c r="D93" s="250"/>
-      <c r="E93" s="250"/>
+      <c r="C93" s="264"/>
+      <c r="D93" s="264"/>
+      <c r="E93" s="264"/>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="59" t="s">
@@ -18008,12 +18962,12 @@
       <c r="E94" s="58"/>
     </row>
     <row r="96" spans="2:5">
-      <c r="B96" s="250" t="s">
+      <c r="B96" s="264" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="250"/>
-      <c r="D96" s="250"/>
-      <c r="E96" s="250"/>
+      <c r="C96" s="264"/>
+      <c r="D96" s="264"/>
+      <c r="E96" s="264"/>
     </row>
     <row r="97" spans="2:17">
       <c r="B97" s="42" t="s">
@@ -18045,10 +18999,10 @@
       </c>
     </row>
     <row r="99" spans="2:17">
-      <c r="B99" s="250"/>
-      <c r="C99" s="250"/>
-      <c r="D99" s="250"/>
-      <c r="E99" s="250"/>
+      <c r="B99" s="264"/>
+      <c r="C99" s="264"/>
+      <c r="D99" s="264"/>
+      <c r="E99" s="264"/>
     </row>
     <row r="100" spans="2:17">
       <c r="B100" s="59" t="s">
@@ -18065,33 +19019,33 @@
     </row>
     <row r="101" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="102" spans="2:17" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B102" s="312" t="s">
+      <c r="B102" s="313" t="s">
         <v>282</v>
       </c>
-      <c r="C102" s="313"/>
-      <c r="D102" s="313"/>
-      <c r="E102" s="314"/>
-      <c r="G102" s="323" t="s">
+      <c r="C102" s="314"/>
+      <c r="D102" s="314"/>
+      <c r="E102" s="315"/>
+      <c r="G102" s="320" t="s">
         <v>281</v>
       </c>
-      <c r="H102" s="324"/>
-      <c r="I102" s="324"/>
-      <c r="J102" s="324"/>
-      <c r="K102" s="324"/>
-      <c r="L102" s="324"/>
-      <c r="M102" s="324"/>
-      <c r="N102" s="324"/>
-      <c r="O102" s="324"/>
-      <c r="P102" s="324"/>
-      <c r="Q102" s="324"/>
+      <c r="H102" s="321"/>
+      <c r="I102" s="321"/>
+      <c r="J102" s="321"/>
+      <c r="K102" s="321"/>
+      <c r="L102" s="321"/>
+      <c r="M102" s="321"/>
+      <c r="N102" s="321"/>
+      <c r="O102" s="321"/>
+      <c r="P102" s="321"/>
+      <c r="Q102" s="321"/>
     </row>
     <row r="104" spans="2:17">
-      <c r="B104" s="250" t="s">
+      <c r="B104" s="264" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="250"/>
-      <c r="D104" s="250"/>
-      <c r="E104" s="250"/>
+      <c r="C104" s="264"/>
+      <c r="D104" s="264"/>
+      <c r="E104" s="264"/>
     </row>
     <row r="105" spans="2:17">
       <c r="B105" s="42" t="s">
@@ -18210,12 +19164,12 @@
       </c>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="250" t="s">
+      <c r="B113" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C113" s="250"/>
-      <c r="D113" s="250"/>
-      <c r="E113" s="250"/>
+      <c r="C113" s="264"/>
+      <c r="D113" s="264"/>
+      <c r="E113" s="264"/>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="59" t="s">
@@ -18236,12 +19190,12 @@
       </c>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="250" t="s">
+      <c r="B118" s="264" t="s">
         <v>213</v>
       </c>
-      <c r="C118" s="250"/>
-      <c r="D118" s="250"/>
-      <c r="E118" s="250"/>
+      <c r="C118" s="264"/>
+      <c r="D118" s="264"/>
+      <c r="E118" s="264"/>
       <c r="F118" s="107"/>
     </row>
     <row r="119" spans="2:6">
@@ -18484,17 +19438,17 @@
       </c>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" s="251" t="s">
+      <c r="B135" s="258" t="s">
         <v>213</v>
       </c>
-      <c r="C135" s="251"/>
-      <c r="D135" s="251"/>
-      <c r="E135" s="251"/>
-      <c r="F135" s="251"/>
-      <c r="G135" s="251"/>
-      <c r="H135" s="251"/>
-      <c r="I135" s="251"/>
-      <c r="J135" s="251"/>
+      <c r="C135" s="258"/>
+      <c r="D135" s="258"/>
+      <c r="E135" s="258"/>
+      <c r="F135" s="258"/>
+      <c r="G135" s="258"/>
+      <c r="H135" s="258"/>
+      <c r="I135" s="258"/>
+      <c r="J135" s="258"/>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="42" t="s">
@@ -18512,10 +19466,10 @@
       <c r="F136" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G136" s="252" t="s">
+      <c r="G136" s="254" t="s">
         <v>196</v>
       </c>
-      <c r="H136" s="253"/>
+      <c r="H136" s="255"/>
       <c r="I136" s="119" t="s">
         <v>189</v>
       </c>
@@ -18528,13 +19482,13 @@
       <c r="B137" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="182" t="s">
+      <c r="C137" s="190" t="s">
         <v>194</v>
       </c>
-      <c r="D137" s="182" t="s">
+      <c r="D137" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="E137" s="182" t="s">
+      <c r="E137" s="190" t="s">
         <v>565</v>
       </c>
       <c r="F137" s="187"/>
@@ -18544,19 +19498,19 @@
       <c r="H137" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="I137" s="268" t="s">
+      <c r="I137" s="290" t="s">
         <v>293</v>
       </c>
-      <c r="J137" s="182" t="s">
+      <c r="J137" s="190" t="s">
         <v>579</v>
       </c>
       <c r="K137" s="143"/>
     </row>
     <row r="138" spans="2:11" ht="45">
       <c r="B138" s="188"/>
-      <c r="C138" s="183"/>
-      <c r="D138" s="183"/>
-      <c r="E138" s="183"/>
+      <c r="C138" s="191"/>
+      <c r="D138" s="191"/>
+      <c r="E138" s="191"/>
       <c r="F138" s="188"/>
       <c r="G138" s="51" t="s">
         <v>660</v>
@@ -18564,8 +19518,8 @@
       <c r="H138" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="I138" s="270"/>
-      <c r="J138" s="183"/>
+      <c r="I138" s="292"/>
+      <c r="J138" s="191"/>
       <c r="K138" s="1"/>
     </row>
     <row r="139" spans="2:11" ht="105">
@@ -18658,86 +19612,86 @@
       <c r="B142" s="187" t="s">
         <v>183</v>
       </c>
-      <c r="C142" s="182" t="s">
+      <c r="C142" s="190" t="s">
         <v>297</v>
       </c>
-      <c r="D142" s="182" t="s">
+      <c r="D142" s="190" t="s">
         <v>641</v>
       </c>
-      <c r="E142" s="182" t="s">
+      <c r="E142" s="190" t="s">
         <v>642</v>
       </c>
-      <c r="F142" s="182" t="s">
+      <c r="F142" s="190" t="s">
         <v>669</v>
       </c>
       <c r="G142" s="142"/>
       <c r="H142" s="80"/>
-      <c r="I142" s="315" t="s">
+      <c r="I142" s="323" t="s">
         <v>758</v>
       </c>
-      <c r="J142" s="182" t="s">
+      <c r="J142" s="190" t="s">
         <v>672</v>
       </c>
-      <c r="K142" s="318"/>
+      <c r="K142" s="327"/>
     </row>
     <row r="143" spans="2:11" ht="232.5" customHeight="1">
-      <c r="B143" s="303"/>
-      <c r="C143" s="299"/>
-      <c r="D143" s="299"/>
-      <c r="E143" s="299"/>
-      <c r="F143" s="299"/>
+      <c r="B143" s="326"/>
+      <c r="C143" s="322"/>
+      <c r="D143" s="322"/>
+      <c r="E143" s="322"/>
+      <c r="F143" s="322"/>
       <c r="G143" s="142" t="s">
         <v>757</v>
       </c>
       <c r="H143" s="156" t="s">
         <v>755</v>
       </c>
-      <c r="I143" s="316"/>
-      <c r="J143" s="299"/>
-      <c r="K143" s="318"/>
+      <c r="I143" s="324"/>
+      <c r="J143" s="322"/>
+      <c r="K143" s="327"/>
     </row>
     <row r="144" spans="2:11" ht="91.5" customHeight="1">
-      <c r="B144" s="303"/>
-      <c r="C144" s="299"/>
-      <c r="D144" s="299"/>
-      <c r="E144" s="299"/>
-      <c r="F144" s="299"/>
+      <c r="B144" s="326"/>
+      <c r="C144" s="322"/>
+      <c r="D144" s="322"/>
+      <c r="E144" s="322"/>
+      <c r="F144" s="322"/>
       <c r="G144" s="36" t="s">
         <v>756</v>
       </c>
       <c r="H144" s="80" t="s">
         <v>671</v>
       </c>
-      <c r="I144" s="316"/>
-      <c r="J144" s="299"/>
-      <c r="K144" s="318"/>
+      <c r="I144" s="324"/>
+      <c r="J144" s="322"/>
+      <c r="K144" s="327"/>
     </row>
     <row r="145" spans="2:13" ht="87.75" customHeight="1">
       <c r="B145" s="188"/>
-      <c r="C145" s="183"/>
-      <c r="D145" s="183"/>
-      <c r="E145" s="183"/>
-      <c r="F145" s="183"/>
+      <c r="C145" s="191"/>
+      <c r="D145" s="191"/>
+      <c r="E145" s="191"/>
+      <c r="F145" s="191"/>
       <c r="G145" s="36"/>
       <c r="H145" s="80"/>
-      <c r="I145" s="317"/>
-      <c r="J145" s="183"/>
-      <c r="K145" s="318"/>
+      <c r="I145" s="325"/>
+      <c r="J145" s="191"/>
+      <c r="K145" s="327"/>
     </row>
     <row r="146" spans="2:13" ht="279" customHeight="1">
       <c r="B146" s="187" t="s">
         <v>184</v>
       </c>
-      <c r="C146" s="182" t="s">
+      <c r="C146" s="190" t="s">
         <v>297</v>
       </c>
-      <c r="D146" s="182" t="s">
+      <c r="D146" s="190" t="s">
         <v>641</v>
       </c>
-      <c r="E146" s="182" t="s">
+      <c r="E146" s="190" t="s">
         <v>670</v>
       </c>
-      <c r="F146" s="182" t="s">
+      <c r="F146" s="190" t="s">
         <v>645</v>
       </c>
       <c r="G146" s="52" t="s">
@@ -18746,46 +19700,46 @@
       <c r="H146" s="36" t="s">
         <v>759</v>
       </c>
-      <c r="I146" s="310" t="s">
+      <c r="I146" s="330" t="s">
         <v>639</v>
       </c>
-      <c r="J146" s="182" t="s">
+      <c r="J146" s="190" t="s">
         <v>672</v>
       </c>
-      <c r="K146" s="319"/>
+      <c r="K146" s="328"/>
     </row>
     <row r="147" spans="2:13" ht="195.75" customHeight="1">
       <c r="B147" s="188"/>
-      <c r="C147" s="183"/>
-      <c r="D147" s="183"/>
-      <c r="E147" s="183"/>
-      <c r="F147" s="183"/>
+      <c r="C147" s="191"/>
+      <c r="D147" s="191"/>
+      <c r="E147" s="191"/>
+      <c r="F147" s="191"/>
       <c r="G147" s="36" t="s">
         <v>674</v>
       </c>
       <c r="H147" s="80" t="s">
         <v>671</v>
       </c>
-      <c r="I147" s="311"/>
-      <c r="J147" s="183"/>
-      <c r="K147" s="320"/>
+      <c r="I147" s="331"/>
+      <c r="J147" s="191"/>
+      <c r="K147" s="329"/>
     </row>
     <row r="149" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="150" spans="2:13">
-      <c r="B150" s="274" t="s">
+      <c r="B150" s="278" t="s">
         <v>300</v>
       </c>
-      <c r="C150" s="275"/>
-      <c r="D150" s="275"/>
-      <c r="E150" s="275"/>
-      <c r="F150" s="275"/>
-      <c r="G150" s="275"/>
-      <c r="H150" s="275"/>
-      <c r="I150" s="275"/>
-      <c r="J150" s="275"/>
-      <c r="K150" s="275"/>
-      <c r="L150" s="275"/>
-      <c r="M150" s="276"/>
+      <c r="C150" s="279"/>
+      <c r="D150" s="279"/>
+      <c r="E150" s="279"/>
+      <c r="F150" s="279"/>
+      <c r="G150" s="279"/>
+      <c r="H150" s="279"/>
+      <c r="I150" s="279"/>
+      <c r="J150" s="279"/>
+      <c r="K150" s="279"/>
+      <c r="L150" s="279"/>
+      <c r="M150" s="280"/>
     </row>
     <row r="151" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="152" spans="2:13" ht="18.75" thickBot="1">
@@ -18798,20 +19752,20 @@
     </row>
     <row r="153" spans="2:13" ht="15.75" thickBot="1"/>
     <row r="154" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B154" s="312" t="s">
+      <c r="B154" s="313" t="s">
         <v>282</v>
       </c>
-      <c r="C154" s="313"/>
-      <c r="D154" s="313"/>
-      <c r="E154" s="314"/>
+      <c r="C154" s="314"/>
+      <c r="D154" s="314"/>
+      <c r="E154" s="315"/>
     </row>
     <row r="156" spans="2:13">
-      <c r="B156" s="250" t="s">
+      <c r="B156" s="264" t="s">
         <v>101</v>
       </c>
-      <c r="C156" s="250"/>
-      <c r="D156" s="250"/>
-      <c r="E156" s="250"/>
+      <c r="C156" s="264"/>
+      <c r="D156" s="264"/>
+      <c r="E156" s="264"/>
     </row>
     <row r="157" spans="2:13">
       <c r="B157" s="42" t="s">
@@ -18873,12 +19827,12 @@
       </c>
     </row>
     <row r="161" spans="2:5">
-      <c r="B161" s="250" t="s">
+      <c r="B161" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C161" s="250"/>
-      <c r="D161" s="250"/>
-      <c r="E161" s="250"/>
+      <c r="C161" s="264"/>
+      <c r="D161" s="264"/>
+      <c r="E161" s="264"/>
     </row>
     <row r="162" spans="2:5">
       <c r="B162" s="59" t="s">
@@ -18895,21 +19849,21 @@
     </row>
     <row r="163" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="164" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B164" s="312" t="s">
+      <c r="B164" s="313" t="s">
         <v>422</v>
       </c>
-      <c r="C164" s="313"/>
-      <c r="D164" s="313"/>
-      <c r="E164" s="314"/>
+      <c r="C164" s="314"/>
+      <c r="D164" s="314"/>
+      <c r="E164" s="315"/>
     </row>
     <row r="165" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="166" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B166" s="312" t="s">
+      <c r="B166" s="313" t="s">
         <v>248</v>
       </c>
-      <c r="C166" s="313"/>
-      <c r="D166" s="313"/>
-      <c r="E166" s="314"/>
+      <c r="C166" s="314"/>
+      <c r="D166" s="314"/>
+      <c r="E166" s="315"/>
     </row>
     <row r="168" spans="2:5">
       <c r="B168" s="118" t="s">
@@ -18917,12 +19871,12 @@
       </c>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="250" t="s">
+      <c r="B169" s="264" t="s">
         <v>101</v>
       </c>
-      <c r="C169" s="250"/>
-      <c r="D169" s="250"/>
-      <c r="E169" s="250"/>
+      <c r="C169" s="264"/>
+      <c r="D169" s="264"/>
+      <c r="E169" s="264"/>
     </row>
     <row r="170" spans="2:5">
       <c r="B170" s="73" t="s">
@@ -18996,12 +19950,12 @@
       </c>
     </row>
     <row r="175" spans="2:5">
-      <c r="B175" s="250" t="s">
+      <c r="B175" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C175" s="250"/>
-      <c r="D175" s="250"/>
-      <c r="E175" s="250"/>
+      <c r="C175" s="264"/>
+      <c r="D175" s="264"/>
+      <c r="E175" s="264"/>
     </row>
     <row r="176" spans="2:5" ht="30">
       <c r="B176" s="59" t="s">
@@ -19031,20 +19985,20 @@
     </row>
     <row r="178" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="179" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B179" s="312" t="s">
+      <c r="B179" s="313" t="s">
         <v>277</v>
       </c>
-      <c r="C179" s="313"/>
-      <c r="D179" s="313"/>
-      <c r="E179" s="314"/>
+      <c r="C179" s="314"/>
+      <c r="D179" s="314"/>
+      <c r="E179" s="315"/>
     </row>
     <row r="181" spans="2:6">
-      <c r="B181" s="250" t="s">
+      <c r="B181" s="264" t="s">
         <v>101</v>
       </c>
-      <c r="C181" s="250"/>
-      <c r="D181" s="250"/>
-      <c r="E181" s="250"/>
+      <c r="C181" s="264"/>
+      <c r="D181" s="264"/>
+      <c r="E181" s="264"/>
     </row>
     <row r="182" spans="2:6">
       <c r="B182" s="42" t="s">
@@ -19076,12 +20030,12 @@
       </c>
     </row>
     <row r="184" spans="2:6">
-      <c r="B184" s="250" t="s">
+      <c r="B184" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C184" s="250"/>
-      <c r="D184" s="250"/>
-      <c r="E184" s="250"/>
+      <c r="C184" s="264"/>
+      <c r="D184" s="264"/>
+      <c r="E184" s="264"/>
     </row>
     <row r="185" spans="2:6">
       <c r="B185" s="59" t="s">
@@ -19102,12 +20056,12 @@
       </c>
     </row>
     <row r="189" spans="2:6">
-      <c r="B189" s="250" t="s">
+      <c r="B189" s="264" t="s">
         <v>300</v>
       </c>
-      <c r="C189" s="250"/>
-      <c r="D189" s="250"/>
-      <c r="E189" s="250"/>
+      <c r="C189" s="264"/>
+      <c r="D189" s="264"/>
+      <c r="E189" s="264"/>
       <c r="F189" s="105"/>
     </row>
     <row r="190" spans="2:6">
@@ -19303,17 +20257,17 @@
       </c>
     </row>
     <row r="206" spans="2:10">
-      <c r="B206" s="251" t="s">
+      <c r="B206" s="258" t="s">
         <v>300</v>
       </c>
-      <c r="C206" s="251"/>
-      <c r="D206" s="251"/>
-      <c r="E206" s="251"/>
-      <c r="F206" s="251"/>
-      <c r="G206" s="251"/>
-      <c r="H206" s="251"/>
-      <c r="I206" s="251"/>
-      <c r="J206" s="251"/>
+      <c r="C206" s="258"/>
+      <c r="D206" s="258"/>
+      <c r="E206" s="258"/>
+      <c r="F206" s="258"/>
+      <c r="G206" s="258"/>
+      <c r="H206" s="258"/>
+      <c r="I206" s="258"/>
+      <c r="J206" s="258"/>
     </row>
     <row r="207" spans="2:10">
       <c r="B207" s="42" t="s">
@@ -19331,10 +20285,10 @@
       <c r="F207" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G207" s="252" t="s">
+      <c r="G207" s="254" t="s">
         <v>196</v>
       </c>
-      <c r="H207" s="253"/>
+      <c r="H207" s="255"/>
       <c r="I207" s="119" t="s">
         <v>189</v>
       </c>
@@ -19346,51 +20300,51 @@
       <c r="B208" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C208" s="182" t="s">
+      <c r="C208" s="190" t="s">
         <v>194</v>
       </c>
-      <c r="D208" s="182" t="s">
+      <c r="D208" s="190" t="s">
         <v>289</v>
       </c>
-      <c r="E208" s="182" t="s">
+      <c r="E208" s="190" t="s">
         <v>565</v>
       </c>
       <c r="F208" s="187"/>
-      <c r="G208" s="333" t="s">
+      <c r="G208" s="302" t="s">
         <v>634</v>
       </c>
-      <c r="H208" s="335" t="s">
+      <c r="H208" s="304" t="s">
         <v>635</v>
       </c>
-      <c r="I208" s="268">
+      <c r="I208" s="290">
         <v>0.5</v>
       </c>
-      <c r="J208" s="182" t="s">
+      <c r="J208" s="190" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="209" spans="2:11" ht="1.5" customHeight="1">
       <c r="B209" s="188"/>
-      <c r="C209" s="183"/>
-      <c r="D209" s="183"/>
-      <c r="E209" s="183"/>
+      <c r="C209" s="191"/>
+      <c r="D209" s="191"/>
+      <c r="E209" s="191"/>
       <c r="F209" s="188"/>
-      <c r="G209" s="334"/>
-      <c r="H209" s="336"/>
-      <c r="I209" s="270"/>
-      <c r="J209" s="183"/>
+      <c r="G209" s="303"/>
+      <c r="H209" s="305"/>
+      <c r="I209" s="292"/>
+      <c r="J209" s="191"/>
     </row>
     <row r="210" spans="2:11" ht="39.75" customHeight="1">
       <c r="B210" s="187" t="s">
         <v>180</v>
       </c>
-      <c r="C210" s="182" t="s">
+      <c r="C210" s="190" t="s">
         <v>576</v>
       </c>
-      <c r="D210" s="182" t="s">
+      <c r="D210" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="E210" s="182" t="s">
+      <c r="E210" s="190" t="s">
         <v>551</v>
       </c>
       <c r="F210" s="185"/>
@@ -19400,18 +20354,18 @@
       <c r="H210" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="I210" s="268">
+      <c r="I210" s="290">
         <v>0</v>
       </c>
-      <c r="J210" s="182" t="s">
+      <c r="J210" s="190" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="211" spans="2:11" ht="39.75" customHeight="1">
       <c r="B211" s="188"/>
-      <c r="C211" s="183"/>
-      <c r="D211" s="183"/>
-      <c r="E211" s="183"/>
+      <c r="C211" s="191"/>
+      <c r="D211" s="191"/>
+      <c r="E211" s="191"/>
       <c r="F211" s="186"/>
       <c r="G211" s="36" t="s">
         <v>636</v>
@@ -19419,49 +20373,49 @@
       <c r="H211" s="34" t="s">
         <v>575</v>
       </c>
-      <c r="I211" s="270"/>
-      <c r="J211" s="183"/>
+      <c r="I211" s="292"/>
+      <c r="J211" s="191"/>
     </row>
     <row r="212" spans="2:11" ht="30" customHeight="1">
       <c r="B212" s="187" t="s">
         <v>181</v>
       </c>
-      <c r="C212" s="182" t="s">
+      <c r="C212" s="190" t="s">
         <v>569</v>
       </c>
-      <c r="D212" s="182" t="s">
+      <c r="D212" s="190" t="s">
         <v>202</v>
       </c>
-      <c r="E212" s="182" t="s">
+      <c r="E212" s="190" t="s">
         <v>296</v>
       </c>
-      <c r="F212" s="182" t="s">
+      <c r="F212" s="190" t="s">
         <v>551</v>
       </c>
-      <c r="G212" s="337" t="s">
+      <c r="G212" s="308" t="s">
         <v>746</v>
       </c>
       <c r="H212" s="187" t="s">
         <v>747</v>
       </c>
-      <c r="I212" s="304" t="s">
+      <c r="I212" s="306" t="s">
         <v>748</v>
       </c>
-      <c r="J212" s="182" t="s">
+      <c r="J212" s="190" t="s">
         <v>638</v>
       </c>
       <c r="K212" s="77"/>
     </row>
     <row r="213" spans="2:11">
       <c r="B213" s="188"/>
-      <c r="C213" s="183"/>
-      <c r="D213" s="183"/>
-      <c r="E213" s="183"/>
-      <c r="F213" s="183"/>
-      <c r="G213" s="338"/>
+      <c r="C213" s="191"/>
+      <c r="D213" s="191"/>
+      <c r="E213" s="191"/>
+      <c r="F213" s="191"/>
+      <c r="G213" s="309"/>
       <c r="H213" s="188"/>
-      <c r="I213" s="306"/>
-      <c r="J213" s="183"/>
+      <c r="I213" s="307"/>
+      <c r="J213" s="191"/>
       <c r="K213" s="128"/>
     </row>
     <row r="214" spans="2:11" ht="120">
@@ -19497,70 +20451,70 @@
       <c r="B215" s="187" t="s">
         <v>183</v>
       </c>
-      <c r="C215" s="182" t="s">
+      <c r="C215" s="190" t="s">
         <v>640</v>
       </c>
-      <c r="D215" s="182" t="s">
+      <c r="D215" s="190" t="s">
         <v>641</v>
       </c>
-      <c r="E215" s="182" t="s">
+      <c r="E215" s="190" t="s">
         <v>298</v>
       </c>
-      <c r="F215" s="182" t="s">
+      <c r="F215" s="190" t="s">
         <v>645</v>
       </c>
-      <c r="G215" s="307" t="s">
+      <c r="G215" s="336" t="s">
         <v>646</v>
       </c>
-      <c r="H215" s="308" t="s">
+      <c r="H215" s="337" t="s">
         <v>647</v>
       </c>
-      <c r="I215" s="300">
+      <c r="I215" s="332">
         <v>0.52</v>
       </c>
-      <c r="J215" s="309" t="s">
+      <c r="J215" s="338" t="s">
         <v>648</v>
       </c>
-      <c r="K215" s="330"/>
+      <c r="K215" s="299"/>
     </row>
     <row r="216" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B216" s="303"/>
-      <c r="C216" s="299"/>
-      <c r="D216" s="299"/>
-      <c r="E216" s="299"/>
-      <c r="F216" s="299"/>
-      <c r="G216" s="307"/>
-      <c r="H216" s="308"/>
-      <c r="I216" s="301"/>
-      <c r="J216" s="299"/>
-      <c r="K216" s="331"/>
+      <c r="B216" s="326"/>
+      <c r="C216" s="322"/>
+      <c r="D216" s="322"/>
+      <c r="E216" s="322"/>
+      <c r="F216" s="322"/>
+      <c r="G216" s="336"/>
+      <c r="H216" s="337"/>
+      <c r="I216" s="333"/>
+      <c r="J216" s="322"/>
+      <c r="K216" s="300"/>
     </row>
     <row r="217" spans="2:11" ht="15.75" customHeight="1">
       <c r="B217" s="188"/>
-      <c r="C217" s="183"/>
-      <c r="D217" s="183"/>
-      <c r="E217" s="183"/>
-      <c r="F217" s="183"/>
-      <c r="G217" s="307"/>
-      <c r="H217" s="308"/>
-      <c r="I217" s="302"/>
-      <c r="J217" s="183"/>
-      <c r="K217" s="332"/>
+      <c r="C217" s="191"/>
+      <c r="D217" s="191"/>
+      <c r="E217" s="191"/>
+      <c r="F217" s="191"/>
+      <c r="G217" s="336"/>
+      <c r="H217" s="337"/>
+      <c r="I217" s="334"/>
+      <c r="J217" s="191"/>
+      <c r="K217" s="301"/>
     </row>
     <row r="218" spans="2:11" ht="30">
       <c r="B218" s="187" t="s">
         <v>184</v>
       </c>
-      <c r="C218" s="182" t="s">
+      <c r="C218" s="190" t="s">
         <v>640</v>
       </c>
-      <c r="D218" s="182" t="s">
+      <c r="D218" s="190" t="s">
         <v>641</v>
       </c>
-      <c r="E218" s="182" t="s">
+      <c r="E218" s="190" t="s">
         <v>298</v>
       </c>
-      <c r="F218" s="182" t="s">
+      <c r="F218" s="190" t="s">
         <v>645</v>
       </c>
       <c r="G218" s="52" t="s">
@@ -19569,72 +20523,72 @@
       <c r="H218" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="I218" s="304" t="s">
+      <c r="I218" s="306" t="s">
         <v>639</v>
       </c>
-      <c r="J218" s="182" t="s">
+      <c r="J218" s="190" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="219" spans="2:11" ht="30">
-      <c r="B219" s="303"/>
-      <c r="C219" s="299"/>
-      <c r="D219" s="299"/>
-      <c r="E219" s="299"/>
-      <c r="F219" s="299"/>
+      <c r="B219" s="326"/>
+      <c r="C219" s="322"/>
+      <c r="D219" s="322"/>
+      <c r="E219" s="322"/>
+      <c r="F219" s="322"/>
       <c r="G219" s="69" t="s">
         <v>650</v>
       </c>
       <c r="H219" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="I219" s="305"/>
-      <c r="J219" s="299"/>
+      <c r="I219" s="335"/>
+      <c r="J219" s="322"/>
     </row>
     <row r="220" spans="2:11" ht="45">
-      <c r="B220" s="303"/>
-      <c r="C220" s="299"/>
-      <c r="D220" s="299"/>
-      <c r="E220" s="299"/>
-      <c r="F220" s="299"/>
+      <c r="B220" s="326"/>
+      <c r="C220" s="322"/>
+      <c r="D220" s="322"/>
+      <c r="E220" s="322"/>
+      <c r="F220" s="322"/>
       <c r="G220" s="69" t="s">
         <v>654</v>
       </c>
       <c r="H220" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="I220" s="305"/>
-      <c r="J220" s="299"/>
+      <c r="I220" s="335"/>
+      <c r="J220" s="322"/>
     </row>
     <row r="221" spans="2:11" ht="30">
-      <c r="B221" s="303"/>
-      <c r="C221" s="299"/>
-      <c r="D221" s="299"/>
-      <c r="E221" s="299"/>
-      <c r="F221" s="299"/>
+      <c r="B221" s="326"/>
+      <c r="C221" s="322"/>
+      <c r="D221" s="322"/>
+      <c r="E221" s="322"/>
+      <c r="F221" s="322"/>
       <c r="G221" s="69" t="s">
         <v>750</v>
       </c>
       <c r="H221" s="155" t="s">
         <v>751</v>
       </c>
-      <c r="I221" s="305"/>
-      <c r="J221" s="299"/>
+      <c r="I221" s="335"/>
+      <c r="J221" s="322"/>
     </row>
     <row r="222" spans="2:11" ht="30">
       <c r="B222" s="188"/>
-      <c r="C222" s="183"/>
-      <c r="D222" s="183"/>
-      <c r="E222" s="183"/>
-      <c r="F222" s="183"/>
+      <c r="C222" s="191"/>
+      <c r="D222" s="191"/>
+      <c r="E222" s="191"/>
+      <c r="F222" s="191"/>
       <c r="G222" s="69" t="s">
         <v>655</v>
       </c>
       <c r="H222" s="78" t="s">
         <v>653</v>
       </c>
-      <c r="I222" s="306"/>
-      <c r="J222" s="183"/>
+      <c r="I222" s="307"/>
+      <c r="J222" s="191"/>
     </row>
     <row r="225" spans="2:4">
       <c r="B225" s="24"/>
@@ -19660,6 +20614,96 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="109">
+    <mergeCell ref="J218:J222"/>
+    <mergeCell ref="I215:I217"/>
+    <mergeCell ref="B218:B222"/>
+    <mergeCell ref="C218:C222"/>
+    <mergeCell ref="D218:D222"/>
+    <mergeCell ref="E218:E222"/>
+    <mergeCell ref="F218:F222"/>
+    <mergeCell ref="I218:I222"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="D215:D217"/>
+    <mergeCell ref="E215:E217"/>
+    <mergeCell ref="F215:F217"/>
+    <mergeCell ref="G215:G217"/>
+    <mergeCell ref="H215:H217"/>
+    <mergeCell ref="J215:J217"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B206:J206"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="I208:I209"/>
+    <mergeCell ref="J208:J209"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="I146:I147"/>
+    <mergeCell ref="J146:J147"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:E181"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="B166:E166"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="F142:F145"/>
+    <mergeCell ref="B150:M150"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="K142:K145"/>
+    <mergeCell ref="K146:K147"/>
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="B135:J135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="G102:Q102"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="E46:E47"/>
     <mergeCell ref="K215:K217"/>
     <mergeCell ref="G208:G209"/>
     <mergeCell ref="H208:H209"/>
@@ -19679,96 +20723,6 @@
     <mergeCell ref="J212:J213"/>
     <mergeCell ref="G212:G213"/>
     <mergeCell ref="H212:H213"/>
-    <mergeCell ref="B38:M38"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="G102:Q102"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="B135:J135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="J137:J138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="F142:F145"/>
-    <mergeCell ref="B150:M150"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="K142:K145"/>
-    <mergeCell ref="K146:K147"/>
-    <mergeCell ref="J142:J145"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="I146:I147"/>
-    <mergeCell ref="J146:J147"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:E181"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="B164:E164"/>
-    <mergeCell ref="B166:E166"/>
-    <mergeCell ref="B169:E169"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B189:E189"/>
-    <mergeCell ref="B206:J206"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="I208:I209"/>
-    <mergeCell ref="J208:J209"/>
-    <mergeCell ref="J218:J222"/>
-    <mergeCell ref="I215:I217"/>
-    <mergeCell ref="B218:B222"/>
-    <mergeCell ref="C218:C222"/>
-    <mergeCell ref="D218:D222"/>
-    <mergeCell ref="E218:E222"/>
-    <mergeCell ref="F218:F222"/>
-    <mergeCell ref="I218:I222"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="D215:D217"/>
-    <mergeCell ref="E215:E217"/>
-    <mergeCell ref="F215:F217"/>
-    <mergeCell ref="G215:G217"/>
-    <mergeCell ref="H215:H217"/>
-    <mergeCell ref="J215:J217"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19935,10 +20889,10 @@
       <c r="F12" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="G12" s="205" t="s">
+      <c r="G12" s="248" t="s">
         <v>328</v>
       </c>
-      <c r="H12" s="205"/>
+      <c r="H12" s="248"/>
       <c r="I12" s="25">
         <f>0.92*K10</f>
         <v>55.2</v>
@@ -19993,10 +20947,10 @@
       <c r="F17" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="G17" s="205" t="s">
+      <c r="G17" s="248" t="s">
         <v>334</v>
       </c>
-      <c r="H17" s="205"/>
+      <c r="H17" s="248"/>
       <c r="I17" s="25">
         <f>I12-I15</f>
         <v>46.2</v>
@@ -20246,10 +21200,10 @@
       <c r="H58" s="85" t="s">
         <v>375</v>
       </c>
-      <c r="I58" s="205" t="s">
+      <c r="I58" s="248" t="s">
         <v>376</v>
       </c>
-      <c r="J58" s="205"/>
+      <c r="J58" s="248"/>
       <c r="K58" s="25">
         <f>37+E58</f>
         <v>46</v>
@@ -20267,19 +21221,19 @@
       <c r="H61" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="I61" s="205" t="s">
+      <c r="I61" s="248" t="s">
         <v>378</v>
       </c>
-      <c r="J61" s="205"/>
+      <c r="J61" s="248"/>
     </row>
     <row r="62" spans="2:12">
       <c r="H62" s="85" t="s">
         <v>379</v>
       </c>
-      <c r="I62" s="205" t="s">
+      <c r="I62" s="248" t="s">
         <v>380</v>
       </c>
-      <c r="J62" s="205"/>
+      <c r="J62" s="248"/>
       <c r="K62" s="25">
         <f>K58/0.92</f>
         <v>50</v>
@@ -20428,10 +21382,10 @@
       <c r="Q82" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="R82" s="205" t="s">
+      <c r="R82" s="248" t="s">
         <v>402</v>
       </c>
-      <c r="S82" s="205"/>
+      <c r="S82" s="248"/>
       <c r="T82" s="87">
         <f>1-S74-S78</f>
         <v>0.73677419354838702</v>
@@ -20467,10 +21421,10 @@
       <c r="Q86" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="R86" s="205" t="s">
+      <c r="R86" s="248" t="s">
         <v>406</v>
       </c>
-      <c r="S86" s="205"/>
+      <c r="S86" s="248"/>
       <c r="T86" s="97">
         <f>T82*E35</f>
         <v>1915.6129032258063</v>
@@ -20543,10 +21497,10 @@
       <c r="Q91" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="R91" s="205" t="s">
+      <c r="R91" s="248" t="s">
         <v>414</v>
       </c>
-      <c r="S91" s="205"/>
+      <c r="S91" s="248"/>
       <c r="T91" s="25">
         <f>E53+S70+T87</f>
         <v>2400</v>

--- a/data/CFF Paper Data V10_Clean_SO.xlsx
+++ b/data/CFF Paper Data V10_Clean_SO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\repositories\cff-research\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECF0896-AAE6-43BE-A620-75BB6D2ACFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38F0213-8CDC-4031-A559-E73A7741B9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-2904" windowWidth="30936" windowHeight="16776" tabRatio="697" activeTab="3" xr2:uid="{3204C202-7188-45B5-A184-A3CC4EC46C55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="697" activeTab="3" xr2:uid="{3204C202-7188-45B5-A184-A3CC4EC46C55}"/>
   </bookViews>
   <sheets>
     <sheet name="CFF" sheetId="1" r:id="rId1"/>
@@ -4860,7 +4860,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5268,6 +5268,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5286,6 +5298,21 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="81" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5295,36 +5322,165 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="81" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5334,305 +5490,218 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5655,12 +5724,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5673,69 +5736,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5748,6 +5748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -7714,7 +7715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1BA79A-6A5D-47BC-924A-434DAD144CA9}">
   <dimension ref="A1:M192"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B143" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
@@ -7739,12 +7740,12 @@
       <c r="A4" s="131" t="s">
         <v>577</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="173" t="s">
         <v>578</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="175"/>
       <c r="F4" s="130"/>
       <c r="G4" s="130"/>
       <c r="H4" s="130"/>
@@ -7759,12 +7760,12 @@
       <c r="A6" s="132">
         <v>0.95</v>
       </c>
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="184" t="s">
         <v>581</v>
       </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="177"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="186"/>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="115" t="s">
@@ -7953,12 +7954,12 @@
       <c r="A21" s="132">
         <v>0.05</v>
       </c>
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="184" t="s">
         <v>582</v>
       </c>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="177"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="186"/>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="115" t="s">
@@ -8144,12 +8145,12 @@
     </row>
     <row r="36" spans="2:6" ht="15" thickBot="1"/>
     <row r="37" spans="2:6" ht="15" thickBot="1">
-      <c r="B37" s="172" t="s">
+      <c r="B37" s="176" t="s">
         <v>579</v>
       </c>
-      <c r="C37" s="173"/>
-      <c r="D37" s="173"/>
-      <c r="E37" s="174"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="178"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="73" t="s">
@@ -8166,10 +8167,10 @@
       </c>
     </row>
     <row r="39" spans="2:6" ht="29">
-      <c r="B39" s="178" t="s">
+      <c r="B39" s="169" t="s">
         <v>600</v>
       </c>
-      <c r="C39" s="180">
+      <c r="C39" s="171">
         <v>0.2</v>
       </c>
       <c r="D39" s="34" t="s">
@@ -8180,8 +8181,8 @@
       </c>
     </row>
     <row r="40" spans="2:6" ht="15" hidden="1" customHeight="1">
-      <c r="B40" s="179"/>
-      <c r="C40" s="181"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="172"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
@@ -8260,12 +8261,12 @@
     </row>
     <row r="46" spans="2:6" ht="15" thickBot="1"/>
     <row r="47" spans="2:6" ht="15" thickBot="1">
-      <c r="B47" s="172" t="s">
+      <c r="B47" s="176" t="s">
         <v>580</v>
       </c>
-      <c r="C47" s="173"/>
-      <c r="D47" s="173"/>
-      <c r="E47" s="174"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="177"/>
+      <c r="E47" s="178"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="73" t="s">
@@ -8282,24 +8283,24 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="30.75" customHeight="1">
-      <c r="B49" s="178" t="s">
+      <c r="B49" s="169" t="s">
         <v>600</v>
       </c>
-      <c r="C49" s="180">
+      <c r="C49" s="171">
         <v>0.2</v>
       </c>
       <c r="D49" s="182" t="s">
         <v>800</v>
       </c>
-      <c r="E49" s="184" t="s">
+      <c r="E49" s="179" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="4.5" customHeight="1">
-      <c r="B50" s="179"/>
-      <c r="C50" s="181"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="172"/>
       <c r="D50" s="183"/>
-      <c r="E50" s="185"/>
+      <c r="E50" s="180"/>
     </row>
     <row r="51" spans="1:5" ht="29">
       <c r="B51" s="34" t="s">
@@ -8376,24 +8377,24 @@
       <c r="A58" s="131" t="s">
         <v>577</v>
       </c>
-      <c r="B58" s="169" t="s">
+      <c r="B58" s="173" t="s">
         <v>432</v>
       </c>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
-      <c r="E58" s="171"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
+      <c r="E58" s="175"/>
     </row>
     <row r="60" spans="1:5" ht="15" thickBot="1"/>
     <row r="61" spans="1:5" ht="15" thickBot="1">
       <c r="A61" s="132">
         <v>0.54</v>
       </c>
-      <c r="B61" s="175" t="s">
+      <c r="B61" s="184" t="s">
         <v>581</v>
       </c>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="177"/>
+      <c r="C61" s="185"/>
+      <c r="D61" s="185"/>
+      <c r="E61" s="186"/>
     </row>
     <row r="62" spans="1:5">
       <c r="B62" s="1" t="s">
@@ -8582,12 +8583,12 @@
       <c r="A76" s="134">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="B76" s="175" t="s">
+      <c r="B76" s="184" t="s">
         <v>582</v>
       </c>
-      <c r="C76" s="176"/>
-      <c r="D76" s="176"/>
-      <c r="E76" s="177"/>
+      <c r="C76" s="185"/>
+      <c r="D76" s="185"/>
+      <c r="E76" s="186"/>
     </row>
     <row r="77" spans="1:5">
       <c r="B77" s="1" t="s">
@@ -8776,13 +8777,13 @@
       <c r="A91" s="134">
         <v>0.41499999999999998</v>
       </c>
-      <c r="B91" s="172" t="s">
+      <c r="B91" s="176" t="s">
         <v>583</v>
       </c>
-      <c r="C91" s="173"/>
-      <c r="D91" s="173"/>
-      <c r="E91" s="173"/>
-      <c r="F91" s="186"/>
+      <c r="C91" s="177"/>
+      <c r="D91" s="177"/>
+      <c r="E91" s="177"/>
+      <c r="F91" s="181"/>
     </row>
     <row r="92" spans="1:6">
       <c r="B92" s="115" t="s">
@@ -9007,12 +9008,12 @@
     </row>
     <row r="106" spans="2:6" ht="15" thickBot="1"/>
     <row r="107" spans="2:6" ht="15" thickBot="1">
-      <c r="B107" s="172" t="s">
+      <c r="B107" s="176" t="s">
         <v>579</v>
       </c>
-      <c r="C107" s="173"/>
-      <c r="D107" s="173"/>
-      <c r="E107" s="174"/>
+      <c r="C107" s="177"/>
+      <c r="D107" s="177"/>
+      <c r="E107" s="178"/>
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="73" t="s">
@@ -9029,10 +9030,10 @@
       </c>
     </row>
     <row r="109" spans="2:6" ht="30.75" customHeight="1">
-      <c r="B109" s="178" t="s">
+      <c r="B109" s="169" t="s">
         <v>600</v>
       </c>
-      <c r="C109" s="180">
+      <c r="C109" s="171">
         <v>0.2</v>
       </c>
       <c r="D109" s="34" t="s">
@@ -9043,8 +9044,8 @@
       </c>
     </row>
     <row r="110" spans="2:6" ht="0.75" customHeight="1">
-      <c r="B110" s="179"/>
-      <c r="C110" s="181"/>
+      <c r="B110" s="170"/>
+      <c r="C110" s="172"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
@@ -9120,12 +9121,12 @@
     </row>
     <row r="116" spans="2:5" ht="15" thickBot="1"/>
     <row r="117" spans="2:5" ht="15" thickBot="1">
-      <c r="B117" s="172" t="s">
+      <c r="B117" s="176" t="s">
         <v>580</v>
       </c>
-      <c r="C117" s="173"/>
-      <c r="D117" s="173"/>
-      <c r="E117" s="174"/>
+      <c r="C117" s="177"/>
+      <c r="D117" s="177"/>
+      <c r="E117" s="178"/>
     </row>
     <row r="118" spans="2:5">
       <c r="B118" s="73" t="s">
@@ -9142,24 +9143,24 @@
       </c>
     </row>
     <row r="119" spans="2:5" ht="15" customHeight="1">
-      <c r="B119" s="178" t="s">
+      <c r="B119" s="169" t="s">
         <v>600</v>
       </c>
-      <c r="C119" s="180">
+      <c r="C119" s="171">
         <v>0.2</v>
       </c>
       <c r="D119" s="182" t="s">
         <v>800</v>
       </c>
-      <c r="E119" s="184" t="s">
+      <c r="E119" s="179" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="120" spans="2:5">
-      <c r="B120" s="179"/>
-      <c r="C120" s="181"/>
+      <c r="B120" s="170"/>
+      <c r="C120" s="172"/>
       <c r="D120" s="183"/>
-      <c r="E120" s="185"/>
+      <c r="E120" s="180"/>
     </row>
     <row r="121" spans="2:5" ht="29">
       <c r="B121" s="34" t="s">
@@ -9233,12 +9234,12 @@
     </row>
     <row r="126" spans="2:5" ht="15" thickBot="1"/>
     <row r="127" spans="2:5" ht="15" thickBot="1">
-      <c r="B127" s="172" t="s">
+      <c r="B127" s="176" t="s">
         <v>584</v>
       </c>
-      <c r="C127" s="173"/>
-      <c r="D127" s="173"/>
-      <c r="E127" s="174"/>
+      <c r="C127" s="177"/>
+      <c r="D127" s="177"/>
+      <c r="E127" s="178"/>
     </row>
     <row r="128" spans="2:5">
       <c r="B128" s="73" t="s">
@@ -9255,24 +9256,24 @@
       </c>
     </row>
     <row r="129" spans="2:5" ht="15" customHeight="1">
-      <c r="B129" s="178" t="s">
+      <c r="B129" s="169" t="s">
         <v>600</v>
       </c>
-      <c r="C129" s="180" t="s">
+      <c r="C129" s="171" t="s">
         <v>554</v>
       </c>
-      <c r="D129" s="184" t="s">
+      <c r="D129" s="179" t="s">
         <v>812</v>
       </c>
-      <c r="E129" s="184" t="s">
+      <c r="E129" s="179" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="48.75" customHeight="1">
-      <c r="B130" s="179"/>
-      <c r="C130" s="181"/>
-      <c r="D130" s="185"/>
-      <c r="E130" s="185"/>
+      <c r="B130" s="170"/>
+      <c r="C130" s="172"/>
+      <c r="D130" s="180"/>
+      <c r="E130" s="180"/>
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="34" t="s">
@@ -9352,21 +9353,21 @@
     </row>
     <row r="139" spans="2:5" ht="15" thickBot="1"/>
     <row r="140" spans="2:5" ht="15" thickBot="1">
-      <c r="B140" s="169" t="s">
+      <c r="B140" s="173" t="s">
         <v>300</v>
       </c>
-      <c r="C140" s="170"/>
-      <c r="D140" s="170"/>
-      <c r="E140" s="171"/>
+      <c r="C140" s="174"/>
+      <c r="D140" s="174"/>
+      <c r="E140" s="175"/>
     </row>
     <row r="141" spans="2:5" ht="15" thickBot="1"/>
     <row r="142" spans="2:5" ht="15" thickBot="1">
-      <c r="B142" s="169" t="s">
+      <c r="B142" s="173" t="s">
         <v>586</v>
       </c>
-      <c r="C142" s="170"/>
-      <c r="D142" s="170"/>
-      <c r="E142" s="171"/>
+      <c r="C142" s="174"/>
+      <c r="D142" s="174"/>
+      <c r="E142" s="175"/>
     </row>
     <row r="143" spans="2:5">
       <c r="B143" s="1" t="s">
@@ -9552,12 +9553,12 @@
     </row>
     <row r="156" spans="2:5" ht="15" thickBot="1"/>
     <row r="157" spans="2:5" ht="15" thickBot="1">
-      <c r="B157" s="172" t="s">
+      <c r="B157" s="176" t="s">
         <v>587</v>
       </c>
-      <c r="C157" s="173"/>
-      <c r="D157" s="173"/>
-      <c r="E157" s="174"/>
+      <c r="C157" s="177"/>
+      <c r="D157" s="177"/>
+      <c r="E157" s="178"/>
     </row>
     <row r="158" spans="2:5">
       <c r="B158" s="73" t="s">
@@ -9574,24 +9575,24 @@
       </c>
     </row>
     <row r="159" spans="2:5" ht="45" customHeight="1">
-      <c r="B159" s="178" t="s">
+      <c r="B159" s="169" t="s">
         <v>600</v>
       </c>
-      <c r="C159" s="180">
+      <c r="C159" s="171">
         <v>0.5</v>
       </c>
-      <c r="D159" s="184" t="s">
+      <c r="D159" s="179" t="s">
         <v>594</v>
       </c>
-      <c r="E159" s="184" t="s">
+      <c r="E159" s="179" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="160" spans="2:5">
-      <c r="B160" s="179"/>
-      <c r="C160" s="181"/>
-      <c r="D160" s="185"/>
-      <c r="E160" s="185"/>
+      <c r="B160" s="170"/>
+      <c r="C160" s="172"/>
+      <c r="D160" s="180"/>
+      <c r="E160" s="180"/>
     </row>
     <row r="161" spans="2:6">
       <c r="B161" s="34" t="s">
@@ -9666,22 +9667,22 @@
     </row>
     <row r="166" spans="2:6" ht="15" thickBot="1"/>
     <row r="167" spans="2:6" ht="15" thickBot="1">
-      <c r="B167" s="169" t="s">
+      <c r="B167" s="173" t="s">
         <v>213</v>
       </c>
-      <c r="C167" s="170"/>
-      <c r="D167" s="170"/>
-      <c r="E167" s="171"/>
+      <c r="C167" s="174"/>
+      <c r="D167" s="174"/>
+      <c r="E167" s="175"/>
     </row>
     <row r="168" spans="2:6" ht="15" thickBot="1"/>
     <row r="169" spans="2:6" ht="15" thickBot="1">
-      <c r="B169" s="169" t="s">
+      <c r="B169" s="173" t="s">
         <v>588</v>
       </c>
-      <c r="C169" s="170"/>
-      <c r="D169" s="170"/>
-      <c r="E169" s="170"/>
-      <c r="F169" s="171"/>
+      <c r="C169" s="174"/>
+      <c r="D169" s="174"/>
+      <c r="E169" s="174"/>
+      <c r="F169" s="175"/>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" s="1" t="s">
@@ -9915,12 +9916,12 @@
     </row>
     <row r="183" spans="2:6" ht="15" thickBot="1"/>
     <row r="184" spans="2:6" ht="15" thickBot="1">
-      <c r="B184" s="172" t="s">
+      <c r="B184" s="176" t="s">
         <v>589</v>
       </c>
-      <c r="C184" s="173"/>
-      <c r="D184" s="173"/>
-      <c r="E184" s="174"/>
+      <c r="C184" s="177"/>
+      <c r="D184" s="177"/>
+      <c r="E184" s="178"/>
     </row>
     <row r="185" spans="2:6">
       <c r="B185" s="73" t="s">
@@ -9937,24 +9938,24 @@
       </c>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="178" t="s">
+      <c r="B186" s="169" t="s">
         <v>600</v>
       </c>
-      <c r="C186" s="180" t="s">
+      <c r="C186" s="171" t="s">
         <v>293</v>
       </c>
-      <c r="D186" s="184" t="s">
+      <c r="D186" s="179" t="s">
         <v>847</v>
       </c>
-      <c r="E186" s="184" t="s">
+      <c r="E186" s="179" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="187" spans="2:6">
-      <c r="B187" s="179"/>
-      <c r="C187" s="181"/>
-      <c r="D187" s="185"/>
-      <c r="E187" s="185"/>
+      <c r="B187" s="170"/>
+      <c r="C187" s="172"/>
+      <c r="D187" s="180"/>
+      <c r="E187" s="180"/>
     </row>
     <row r="188" spans="2:6" ht="58">
       <c r="B188" s="34" t="s">
@@ -10028,32 +10029,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="B157:E157"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="B47:E47"/>
@@ -10070,6 +10045,32 @@
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="E186:E187"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10078,10 +10079,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14970EC7-1BC4-45AB-9851-5351B74C0381}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B1" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -10098,7 +10099,7 @@
     <col min="10" max="10" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -10130,7 +10131,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>699</v>
       </c>
@@ -10165,8 +10166,9 @@
         <f>(0.54*D2)+(0.045*E2)+(0.415*F2)</f>
         <v>7.7189999999999995E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="329"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>700</v>
       </c>
@@ -10206,8 +10208,9 @@
         <f>(0.54*D3)+(0.045*E3)+(0.415*F3)</f>
         <v>0.56424094285875614</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="329"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>701</v>
       </c>
@@ -10247,8 +10250,9 @@
         <f>(0.54*D4)+(0.045*E4)+(0.415*F4)</f>
         <v>6.6009515051587394E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="329"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>702</v>
       </c>
@@ -10288,8 +10292,9 @@
         <f>(0.54*D5)+(0.045*E5)+(0.415*F5)</f>
         <v>21.679835000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="329"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>703</v>
       </c>
@@ -10329,8 +10334,9 @@
         <f>(0.54*D6)+(0.045*E6)+(0.415*F6)</f>
         <v>21.679835000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="329"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>705</v>
       </c>
@@ -10366,7 +10372,7 @@
         <v>7.4700000000000001E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>704</v>
       </c>
@@ -10407,7 +10413,7 @@
         <v>1.5087163215999372E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>718</v>
       </c>
@@ -10448,7 +10454,7 @@
         <v>1.2730924368462154E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>706</v>
       </c>
@@ -10489,7 +10495,7 @@
         <v>5.2759304499999997E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>707</v>
       </c>
@@ -10530,7 +10536,7 @@
         <v>5.2759304499999997E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>708</v>
       </c>
@@ -10566,7 +10572,7 @@
         <v>0.78019999999999989</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>709</v>
       </c>
@@ -10607,7 +10613,7 @@
         <v>5.7372042624742843</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>717</v>
       </c>
@@ -10648,7 +10654,7 @@
         <v>9.5639317701450371E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>710</v>
       </c>
@@ -10689,7 +10695,7 @@
         <v>259.80545000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>711</v>
       </c>
@@ -11740,8 +11746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2958BDAB-D449-4866-B4F7-C008E6F54453}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -12591,94 +12597,94 @@
       <c r="B4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="206" t="s">
+      <c r="C4" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="208"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
     </row>
     <row r="5" spans="2:7" ht="15" thickBot="1"/>
     <row r="6" spans="2:7">
-      <c r="B6" s="239" t="s">
+      <c r="B6" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="240"/>
-      <c r="G6" s="241"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="197"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
-      <c r="E7" s="242"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="196"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="200"/>
     </row>
     <row r="8" spans="2:7" ht="30.75" customHeight="1">
       <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="234" t="s">
+      <c r="C8" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="234"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="235"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="188"/>
     </row>
     <row r="9" spans="2:7" ht="36" customHeight="1">
       <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="234" t="s">
+      <c r="C9" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="235"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="188"/>
     </row>
     <row r="10" spans="2:7" ht="34.5" customHeight="1">
       <c r="B10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="234" t="s">
+      <c r="C10" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="235"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="188"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="236" t="s">
+      <c r="B11" s="189" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="237"/>
-      <c r="D11" s="237"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="238"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="191"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="213"/>
-      <c r="D12" s="213" t="s">
+      <c r="C12" s="205"/>
+      <c r="D12" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="213"/>
-      <c r="F12" s="213" t="s">
+      <c r="E12" s="205"/>
+      <c r="F12" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="228"/>
+      <c r="G12" s="206"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="13" t="s">
@@ -12687,433 +12693,433 @@
       <c r="C13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="191"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="191"/>
-      <c r="G13" s="195"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="209"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="199"/>
-      <c r="C14" s="194"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="211"/>
       <c r="D14" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="193"/>
-      <c r="G14" s="196"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="200"/>
     </row>
     <row r="15" spans="2:7" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B15" s="200"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="204" t="s">
+      <c r="B15" s="212"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="205"/>
+      <c r="G15" s="216"/>
     </row>
     <row r="19" spans="2:7" ht="15" thickBot="1"/>
     <row r="20" spans="2:7" ht="37.5" customHeight="1" thickBot="1">
       <c r="B20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="206" t="s">
+      <c r="C20" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="207"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="208"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="194"/>
     </row>
     <row r="21" spans="2:7" ht="15" thickBot="1"/>
     <row r="22" spans="2:7">
-      <c r="B22" s="225" t="s">
+      <c r="B22" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="226"/>
-      <c r="D22" s="226"/>
-      <c r="E22" s="226"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="227"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="203"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="212" t="s">
+      <c r="B23" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="213"/>
-      <c r="D23" s="213" t="s">
+      <c r="C23" s="205"/>
+      <c r="D23" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="213"/>
-      <c r="F23" s="213" t="s">
+      <c r="E23" s="205"/>
+      <c r="F23" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="228"/>
+      <c r="G23" s="206"/>
     </row>
     <row r="24" spans="2:7" ht="39" customHeight="1">
-      <c r="B24" s="197" t="s">
+      <c r="B24" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="198"/>
-      <c r="D24" s="191"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="195"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="209"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="199"/>
-      <c r="C25" s="194"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="211"/>
       <c r="D25" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="F25" s="193"/>
-      <c r="G25" s="196"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="200"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="229"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="231"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="232" t="s">
+      <c r="B26" s="219"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="221"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="233"/>
+      <c r="G26" s="223"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="219" t="s">
+      <c r="B27" s="224" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="220"/>
-      <c r="D27" s="220"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="221"/>
+      <c r="C27" s="225"/>
+      <c r="D27" s="225"/>
+      <c r="E27" s="225"/>
+      <c r="F27" s="225"/>
+      <c r="G27" s="226"/>
     </row>
     <row r="28" spans="2:7" ht="15" thickBot="1">
-      <c r="B28" s="222"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="224"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="229"/>
     </row>
     <row r="33" spans="2:11" ht="15" thickBot="1"/>
     <row r="34" spans="2:11" ht="58.5" customHeight="1" thickBot="1">
       <c r="B34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="206" t="s">
+      <c r="C34" s="192" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="207"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="208"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="194"/>
     </row>
     <row r="35" spans="2:11" ht="15" thickBot="1"/>
     <row r="36" spans="2:11">
-      <c r="B36" s="225" t="s">
+      <c r="B36" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="226"/>
-      <c r="D36" s="226"/>
-      <c r="E36" s="226"/>
-      <c r="F36" s="226"/>
-      <c r="G36" s="226"/>
-      <c r="H36" s="226"/>
-      <c r="I36" s="226"/>
-      <c r="J36" s="226"/>
-      <c r="K36" s="227"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="202"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="202"/>
+      <c r="J36" s="202"/>
+      <c r="K36" s="203"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="212" t="s">
+      <c r="B37" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="213"/>
-      <c r="D37" s="213" t="s">
+      <c r="C37" s="205"/>
+      <c r="D37" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="213"/>
-      <c r="F37" s="213" t="s">
+      <c r="E37" s="205"/>
+      <c r="F37" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213" t="s">
+      <c r="G37" s="205"/>
+      <c r="H37" s="205" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213" t="s">
+      <c r="I37" s="205"/>
+      <c r="J37" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="228"/>
+      <c r="K37" s="206"/>
     </row>
     <row r="38" spans="2:11" ht="15" customHeight="1">
-      <c r="B38" s="216" t="s">
+      <c r="B38" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="191"/>
-      <c r="I38" s="192"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="195"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="209"/>
     </row>
     <row r="39" spans="2:11" ht="29">
-      <c r="B39" s="199"/>
-      <c r="C39" s="194"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="211"/>
       <c r="D39" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="193"/>
-      <c r="G39" s="194"/>
-      <c r="H39" s="193"/>
-      <c r="I39" s="194"/>
-      <c r="J39" s="193"/>
-      <c r="K39" s="196"/>
+      <c r="F39" s="210"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="210"/>
+      <c r="I39" s="211"/>
+      <c r="J39" s="210"/>
+      <c r="K39" s="200"/>
     </row>
     <row r="40" spans="2:11" ht="29">
-      <c r="B40" s="199"/>
-      <c r="C40" s="194"/>
-      <c r="D40" s="193"/>
-      <c r="E40" s="194"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="211"/>
+      <c r="D40" s="210"/>
+      <c r="E40" s="211"/>
       <c r="F40" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="193"/>
-      <c r="I40" s="194"/>
-      <c r="J40" s="193"/>
-      <c r="K40" s="196"/>
+      <c r="H40" s="210"/>
+      <c r="I40" s="211"/>
+      <c r="J40" s="210"/>
+      <c r="K40" s="200"/>
     </row>
     <row r="41" spans="2:11" ht="29">
-      <c r="B41" s="199"/>
-      <c r="C41" s="194"/>
-      <c r="D41" s="193"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="194"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="211"/>
+      <c r="D41" s="210"/>
+      <c r="E41" s="211"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="211"/>
       <c r="H41" s="14" t="s">
         <v>36</v>
       </c>
       <c r="I41" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="193"/>
-      <c r="K41" s="196"/>
+      <c r="J41" s="210"/>
+      <c r="K41" s="200"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="199"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="193"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="194"/>
-      <c r="J42" s="187" t="s">
+      <c r="B42" s="198"/>
+      <c r="C42" s="211"/>
+      <c r="D42" s="210"/>
+      <c r="E42" s="211"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="211"/>
+      <c r="H42" s="210"/>
+      <c r="I42" s="211"/>
+      <c r="J42" s="232" t="s">
         <v>56</v>
       </c>
-      <c r="K42" s="203"/>
+      <c r="K42" s="233"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="199"/>
-      <c r="C43" s="194"/>
-      <c r="D43" s="193"/>
-      <c r="E43" s="194"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="193"/>
-      <c r="I43" s="194"/>
-      <c r="J43" s="187"/>
-      <c r="K43" s="203"/>
+      <c r="B43" s="198"/>
+      <c r="C43" s="211"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="211"/>
+      <c r="F43" s="210"/>
+      <c r="G43" s="211"/>
+      <c r="H43" s="210"/>
+      <c r="I43" s="211"/>
+      <c r="J43" s="232"/>
+      <c r="K43" s="233"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="199"/>
-      <c r="C44" s="194"/>
-      <c r="D44" s="193"/>
-      <c r="E44" s="194"/>
-      <c r="F44" s="193"/>
-      <c r="G44" s="194"/>
-      <c r="H44" s="193"/>
-      <c r="I44" s="194"/>
-      <c r="J44" s="187"/>
-      <c r="K44" s="203"/>
+      <c r="B44" s="198"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="210"/>
+      <c r="E44" s="211"/>
+      <c r="F44" s="210"/>
+      <c r="G44" s="211"/>
+      <c r="H44" s="210"/>
+      <c r="I44" s="211"/>
+      <c r="J44" s="232"/>
+      <c r="K44" s="233"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="199"/>
-      <c r="C45" s="194"/>
-      <c r="D45" s="193"/>
-      <c r="E45" s="194"/>
-      <c r="F45" s="193"/>
-      <c r="G45" s="194"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="194"/>
-      <c r="J45" s="187"/>
-      <c r="K45" s="203"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="211"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="211"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="211"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="211"/>
+      <c r="J45" s="232"/>
+      <c r="K45" s="233"/>
     </row>
     <row r="46" spans="2:11" ht="15" thickBot="1">
-      <c r="B46" s="200"/>
-      <c r="C46" s="201"/>
-      <c r="D46" s="202"/>
-      <c r="E46" s="201"/>
-      <c r="F46" s="202"/>
-      <c r="G46" s="201"/>
-      <c r="H46" s="202"/>
-      <c r="I46" s="201"/>
-      <c r="J46" s="218"/>
-      <c r="K46" s="205"/>
+      <c r="B46" s="212"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="214"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="214"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="214"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="234"/>
+      <c r="K46" s="216"/>
     </row>
     <row r="51" spans="2:13" ht="15" thickBot="1"/>
     <row r="52" spans="2:13" ht="96.75" customHeight="1" thickBot="1">
       <c r="B52" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="206" t="s">
+      <c r="C52" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="207"/>
-      <c r="E52" s="207"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="207"/>
-      <c r="H52" s="207"/>
-      <c r="I52" s="207"/>
-      <c r="J52" s="207"/>
-      <c r="K52" s="208"/>
+      <c r="D52" s="193"/>
+      <c r="E52" s="193"/>
+      <c r="F52" s="193"/>
+      <c r="G52" s="193"/>
+      <c r="H52" s="193"/>
+      <c r="I52" s="193"/>
+      <c r="J52" s="193"/>
+      <c r="K52" s="194"/>
     </row>
     <row r="53" spans="2:13" ht="15" thickBot="1"/>
     <row r="54" spans="2:13">
-      <c r="B54" s="209" t="s">
+      <c r="B54" s="235" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="210"/>
-      <c r="D54" s="210"/>
-      <c r="E54" s="210"/>
-      <c r="F54" s="210"/>
-      <c r="G54" s="210"/>
-      <c r="H54" s="210"/>
-      <c r="I54" s="211"/>
+      <c r="C54" s="236"/>
+      <c r="D54" s="236"/>
+      <c r="E54" s="236"/>
+      <c r="F54" s="236"/>
+      <c r="G54" s="236"/>
+      <c r="H54" s="236"/>
+      <c r="I54" s="237"/>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="212" t="s">
+      <c r="B55" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="213"/>
-      <c r="D55" s="213" t="s">
+      <c r="C55" s="205"/>
+      <c r="D55" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="214"/>
-      <c r="F55" s="213" t="s">
+      <c r="E55" s="238"/>
+      <c r="F55" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="G55" s="213"/>
-      <c r="H55" s="214" t="s">
+      <c r="G55" s="205"/>
+      <c r="H55" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="I55" s="215"/>
+      <c r="I55" s="239"/>
     </row>
     <row r="56" spans="2:13" ht="55.5" customHeight="1">
-      <c r="B56" s="189" t="s">
+      <c r="B56" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="190"/>
-      <c r="D56" s="191"/>
-      <c r="E56" s="192"/>
-      <c r="F56" s="191"/>
-      <c r="G56" s="192"/>
-      <c r="H56" s="191"/>
-      <c r="I56" s="195"/>
+      <c r="C56" s="242"/>
+      <c r="D56" s="207"/>
+      <c r="E56" s="208"/>
+      <c r="F56" s="207"/>
+      <c r="G56" s="208"/>
+      <c r="H56" s="207"/>
+      <c r="I56" s="209"/>
     </row>
     <row r="57" spans="2:13" ht="38.25" customHeight="1">
-      <c r="B57" s="197" t="s">
+      <c r="B57" s="217" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="198"/>
-      <c r="D57" s="193"/>
-      <c r="E57" s="194"/>
-      <c r="F57" s="193"/>
-      <c r="G57" s="194"/>
-      <c r="H57" s="193"/>
-      <c r="I57" s="196"/>
+      <c r="C57" s="218"/>
+      <c r="D57" s="210"/>
+      <c r="E57" s="211"/>
+      <c r="F57" s="210"/>
+      <c r="G57" s="211"/>
+      <c r="H57" s="210"/>
+      <c r="I57" s="200"/>
     </row>
     <row r="58" spans="2:13" ht="22.5" customHeight="1">
-      <c r="B58" s="199"/>
-      <c r="C58" s="194"/>
-      <c r="D58" s="187" t="s">
+      <c r="B58" s="198"/>
+      <c r="C58" s="211"/>
+      <c r="D58" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="188"/>
-      <c r="F58" s="193"/>
-      <c r="G58" s="194"/>
-      <c r="H58" s="193"/>
-      <c r="I58" s="196"/>
+      <c r="E58" s="240"/>
+      <c r="F58" s="210"/>
+      <c r="G58" s="211"/>
+      <c r="H58" s="210"/>
+      <c r="I58" s="200"/>
     </row>
     <row r="59" spans="2:13" ht="99.75" customHeight="1">
-      <c r="B59" s="199"/>
-      <c r="C59" s="194"/>
-      <c r="D59" s="193"/>
-      <c r="E59" s="194"/>
-      <c r="F59" s="187" t="s">
+      <c r="B59" s="198"/>
+      <c r="C59" s="211"/>
+      <c r="D59" s="210"/>
+      <c r="E59" s="211"/>
+      <c r="F59" s="232" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="188"/>
-      <c r="H59" s="193"/>
-      <c r="I59" s="196"/>
+      <c r="G59" s="240"/>
+      <c r="H59" s="210"/>
+      <c r="I59" s="200"/>
       <c r="M59" s="23"/>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="199"/>
-      <c r="C60" s="194"/>
-      <c r="D60" s="193"/>
-      <c r="E60" s="194"/>
-      <c r="F60" s="193"/>
-      <c r="G60" s="194"/>
-      <c r="H60" s="198" t="s">
+      <c r="B60" s="198"/>
+      <c r="C60" s="211"/>
+      <c r="D60" s="210"/>
+      <c r="E60" s="211"/>
+      <c r="F60" s="210"/>
+      <c r="G60" s="211"/>
+      <c r="H60" s="218" t="s">
         <v>62</v>
       </c>
-      <c r="I60" s="203"/>
+      <c r="I60" s="233"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="199"/>
-      <c r="C61" s="194"/>
-      <c r="D61" s="193"/>
-      <c r="E61" s="194"/>
-      <c r="F61" s="193"/>
-      <c r="G61" s="194"/>
-      <c r="H61" s="198"/>
-      <c r="I61" s="203"/>
+      <c r="B61" s="198"/>
+      <c r="C61" s="211"/>
+      <c r="D61" s="210"/>
+      <c r="E61" s="211"/>
+      <c r="F61" s="210"/>
+      <c r="G61" s="211"/>
+      <c r="H61" s="218"/>
+      <c r="I61" s="233"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="199"/>
-      <c r="C62" s="194"/>
-      <c r="D62" s="193"/>
-      <c r="E62" s="194"/>
-      <c r="F62" s="193"/>
-      <c r="G62" s="194"/>
-      <c r="H62" s="198"/>
-      <c r="I62" s="203"/>
+      <c r="B62" s="198"/>
+      <c r="C62" s="211"/>
+      <c r="D62" s="210"/>
+      <c r="E62" s="211"/>
+      <c r="F62" s="210"/>
+      <c r="G62" s="211"/>
+      <c r="H62" s="218"/>
+      <c r="I62" s="233"/>
     </row>
     <row r="63" spans="2:13" ht="15" thickBot="1">
-      <c r="B63" s="200"/>
-      <c r="C63" s="201"/>
-      <c r="D63" s="202"/>
-      <c r="E63" s="201"/>
-      <c r="F63" s="202"/>
-      <c r="G63" s="201"/>
-      <c r="H63" s="204"/>
-      <c r="I63" s="205"/>
+      <c r="B63" s="212"/>
+      <c r="C63" s="213"/>
+      <c r="D63" s="214"/>
+      <c r="E63" s="213"/>
+      <c r="F63" s="214"/>
+      <c r="G63" s="213"/>
+      <c r="H63" s="215"/>
+      <c r="I63" s="216"/>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
@@ -13125,56 +13131,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B27:G28"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="H38:I40"/>
-    <mergeCell ref="J38:K41"/>
-    <mergeCell ref="B39:C46"/>
-    <mergeCell ref="D40:E46"/>
-    <mergeCell ref="F41:G46"/>
-    <mergeCell ref="H42:I46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="J42:K46"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E57"/>
@@ -13186,6 +13142,56 @@
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="F60:G63"/>
     <mergeCell ref="H60:I63"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H38:I40"/>
+    <mergeCell ref="J38:K41"/>
+    <mergeCell ref="B39:C46"/>
+    <mergeCell ref="D40:E46"/>
+    <mergeCell ref="F41:G46"/>
+    <mergeCell ref="H42:I46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="J42:K46"/>
+    <mergeCell ref="B27:G28"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C66" r:id="rId1" xr:uid="{EA97AE77-DCF0-491D-81AF-63BECD5EB231}"/>
@@ -13224,14 +13230,14 @@
     </row>
     <row r="22" spans="2:5" ht="15" thickBot="1"/>
     <row r="23" spans="2:5" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="262" t="s">
+      <c r="B23" s="276" t="s">
         <v>555</v>
       </c>
-      <c r="C23" s="263"/>
-      <c r="D23" s="264" t="s">
+      <c r="C23" s="277"/>
+      <c r="D23" s="278" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="265"/>
+      <c r="E23" s="279"/>
     </row>
     <row r="24" spans="2:5" ht="15.5" thickTop="1" thickBot="1">
       <c r="B24" s="26" t="s">
@@ -13276,10 +13282,10 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="15" thickBot="1">
-      <c r="B27" s="266" t="s">
+      <c r="B27" s="280" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="269">
+      <c r="C27" s="283">
         <v>0.248</v>
       </c>
       <c r="D27" s="31" t="s">
@@ -13290,8 +13296,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="15" thickBot="1">
-      <c r="B28" s="267"/>
-      <c r="C28" s="270"/>
+      <c r="B28" s="281"/>
+      <c r="C28" s="284"/>
       <c r="D28" s="28" t="s">
         <v>74</v>
       </c>
@@ -13300,8 +13306,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="15" thickBot="1">
-      <c r="B29" s="267"/>
-      <c r="C29" s="270"/>
+      <c r="B29" s="281"/>
+      <c r="C29" s="284"/>
       <c r="D29" s="31" t="s">
         <v>75</v>
       </c>
@@ -13310,8 +13316,8 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="15" thickBot="1">
-      <c r="B30" s="268"/>
-      <c r="C30" s="271"/>
+      <c r="B30" s="282"/>
+      <c r="C30" s="285"/>
       <c r="D30" s="28" t="s">
         <v>76</v>
       </c>
@@ -13356,20 +13362,20 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="272" t="s">
+      <c r="B35" s="266" t="s">
         <v>185</v>
       </c>
-      <c r="C35" s="273"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="273"/>
-      <c r="F35" s="273"/>
-      <c r="G35" s="273"/>
-      <c r="H35" s="273"/>
-      <c r="I35" s="273"/>
-      <c r="J35" s="273"/>
-      <c r="K35" s="273"/>
-      <c r="L35" s="273"/>
-      <c r="M35" s="274"/>
+      <c r="C35" s="267"/>
+      <c r="D35" s="267"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="267"/>
+      <c r="G35" s="267"/>
+      <c r="H35" s="267"/>
+      <c r="I35" s="267"/>
+      <c r="J35" s="267"/>
+      <c r="K35" s="267"/>
+      <c r="L35" s="267"/>
+      <c r="M35" s="268"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" t="s">
@@ -13389,74 +13395,74 @@
       <c r="B40" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="275" t="s">
+      <c r="C40" s="286" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="275"/>
-      <c r="E40" s="275"/>
-      <c r="F40" s="275"/>
-      <c r="G40" s="275"/>
-      <c r="H40" s="275"/>
-      <c r="I40" s="275"/>
-      <c r="J40" s="275"/>
-      <c r="K40" s="275"/>
-      <c r="L40" s="275"/>
-      <c r="M40" s="275"/>
+      <c r="D40" s="286"/>
+      <c r="E40" s="286"/>
+      <c r="F40" s="286"/>
+      <c r="G40" s="286"/>
+      <c r="H40" s="286"/>
+      <c r="I40" s="286"/>
+      <c r="J40" s="286"/>
+      <c r="K40" s="286"/>
+      <c r="L40" s="286"/>
+      <c r="M40" s="286"/>
     </row>
     <row r="41" spans="2:13" ht="16.5">
       <c r="B41" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="261" t="str">
+      <c r="C41" s="250" t="str">
         <f xml:space="preserve"> 'Case Study 2'!B170</f>
         <v>LCI:  Erec = 0 (as only primary materialsl and no secondary material is used for the conventional concrete product)</v>
       </c>
-      <c r="D41" s="261"/>
-      <c r="E41" s="261"/>
-      <c r="F41" s="261"/>
-      <c r="G41" s="261"/>
-      <c r="H41" s="261"/>
-      <c r="I41" s="261"/>
-      <c r="J41" s="261"/>
-      <c r="K41" s="261"/>
-      <c r="L41" s="261"/>
-      <c r="M41" s="261"/>
+      <c r="D41" s="250"/>
+      <c r="E41" s="250"/>
+      <c r="F41" s="250"/>
+      <c r="G41" s="250"/>
+      <c r="H41" s="250"/>
+      <c r="I41" s="250"/>
+      <c r="J41" s="250"/>
+      <c r="K41" s="250"/>
+      <c r="L41" s="250"/>
+      <c r="M41" s="250"/>
     </row>
     <row r="42" spans="2:13" ht="264" customHeight="1">
       <c r="B42" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="254" t="s">
+      <c r="C42" s="249" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="254"/>
-      <c r="E42" s="254"/>
-      <c r="F42" s="254"/>
-      <c r="G42" s="254"/>
-      <c r="H42" s="254"/>
-      <c r="I42" s="254"/>
-      <c r="J42" s="254"/>
-      <c r="K42" s="254"/>
-      <c r="L42" s="254"/>
-      <c r="M42" s="254"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="249"/>
+      <c r="G42" s="249"/>
+      <c r="H42" s="249"/>
+      <c r="I42" s="249"/>
+      <c r="J42" s="249"/>
+      <c r="K42" s="249"/>
+      <c r="L42" s="249"/>
+      <c r="M42" s="249"/>
     </row>
     <row r="43" spans="2:13" ht="83.25" customHeight="1">
       <c r="B43" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="254" t="s">
+      <c r="C43" s="249" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="276"/>
-      <c r="E43" s="276"/>
-      <c r="F43" s="276"/>
-      <c r="G43" s="276"/>
-      <c r="H43" s="276"/>
-      <c r="I43" s="276"/>
-      <c r="J43" s="276"/>
-      <c r="K43" s="276"/>
-      <c r="L43" s="276"/>
-      <c r="M43" s="276"/>
+      <c r="D43" s="287"/>
+      <c r="E43" s="287"/>
+      <c r="F43" s="287"/>
+      <c r="G43" s="287"/>
+      <c r="H43" s="287"/>
+      <c r="I43" s="287"/>
+      <c r="J43" s="287"/>
+      <c r="K43" s="287"/>
+      <c r="L43" s="287"/>
+      <c r="M43" s="287"/>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="38" t="s">
@@ -13464,174 +13470,174 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="255" t="s">
+      <c r="B47" s="253" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="256"/>
+      <c r="C47" s="254"/>
       <c r="D47" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="257" t="s">
+      <c r="E47" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="257"/>
+      <c r="F47" s="255"/>
       <c r="G47" s="49"/>
       <c r="H47" s="49"/>
     </row>
     <row r="48" spans="2:13" ht="53.25" customHeight="1">
-      <c r="B48" s="214"/>
-      <c r="C48" s="243"/>
+      <c r="B48" s="238"/>
+      <c r="C48" s="248"/>
       <c r="D48" s="34">
         <v>0.10125000000000001</v>
       </c>
-      <c r="E48" s="254" t="s">
+      <c r="E48" s="249" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="254"/>
+      <c r="F48" s="249"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
     </row>
     <row r="49" spans="2:8" ht="54" customHeight="1">
-      <c r="B49" s="214"/>
-      <c r="C49" s="243"/>
+      <c r="B49" s="238"/>
+      <c r="C49" s="248"/>
       <c r="D49" s="34">
         <v>0.15079000000000001</v>
       </c>
-      <c r="E49" s="254" t="s">
+      <c r="E49" s="249" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="261"/>
+      <c r="F49" s="250"/>
       <c r="G49" s="48"/>
       <c r="H49" s="48"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="244" t="s">
+      <c r="B50" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="245"/>
+      <c r="C50" s="252"/>
       <c r="D50" s="39">
         <v>0.126</v>
       </c>
-      <c r="E50" s="213"/>
-      <c r="F50" s="213"/>
+      <c r="E50" s="205"/>
+      <c r="F50" s="205"/>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="255" t="s">
+      <c r="B52" s="253" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="256"/>
+      <c r="C52" s="254"/>
       <c r="D52" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="257" t="s">
+      <c r="E52" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="257"/>
+      <c r="F52" s="255"/>
       <c r="G52" s="49"/>
       <c r="H52" s="49"/>
     </row>
     <row r="53" spans="2:8" ht="54.75" customHeight="1">
-      <c r="B53" s="214"/>
-      <c r="C53" s="243"/>
+      <c r="B53" s="238"/>
+      <c r="C53" s="248"/>
       <c r="D53" s="34">
         <v>1.44</v>
       </c>
-      <c r="E53" s="254" t="s">
+      <c r="E53" s="249" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="254"/>
+      <c r="F53" s="249"/>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
     </row>
     <row r="54" spans="2:8" ht="49.5" customHeight="1">
-      <c r="B54" s="214"/>
-      <c r="C54" s="243"/>
+      <c r="B54" s="238"/>
+      <c r="C54" s="248"/>
       <c r="D54" s="34">
         <v>2.88</v>
       </c>
-      <c r="E54" s="254" t="s">
+      <c r="E54" s="249" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="261"/>
+      <c r="F54" s="250"/>
       <c r="G54" s="48"/>
       <c r="H54" s="48"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="244" t="s">
+      <c r="B55" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="245"/>
+      <c r="C55" s="252"/>
       <c r="D55" s="39">
         <v>2.16</v>
       </c>
-      <c r="E55" s="213"/>
-      <c r="F55" s="213"/>
+      <c r="E55" s="205"/>
+      <c r="F55" s="205"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="255" t="s">
+      <c r="B57" s="253" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="256"/>
+      <c r="C57" s="254"/>
       <c r="D57" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="257" t="s">
+      <c r="E57" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="257"/>
+      <c r="F57" s="255"/>
       <c r="G57" s="49"/>
       <c r="H57" s="49"/>
     </row>
     <row r="58" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B58" s="214"/>
-      <c r="C58" s="243"/>
+      <c r="B58" s="238"/>
+      <c r="C58" s="248"/>
       <c r="D58" s="34">
         <v>11.7</v>
       </c>
-      <c r="E58" s="254" t="s">
+      <c r="E58" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="254"/>
+      <c r="F58" s="249"/>
       <c r="G58" s="24"/>
       <c r="H58" s="24"/>
     </row>
     <row r="59" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B59" s="214"/>
-      <c r="C59" s="243"/>
+      <c r="B59" s="238"/>
+      <c r="C59" s="248"/>
       <c r="D59" s="34">
         <v>19.7</v>
       </c>
-      <c r="E59" s="254" t="s">
+      <c r="E59" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="F59" s="261"/>
+      <c r="F59" s="250"/>
       <c r="G59" s="48"/>
       <c r="H59" s="48"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="244" t="s">
+      <c r="B60" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="245"/>
+      <c r="C60" s="252"/>
       <c r="D60" s="39">
         <v>15.7</v>
       </c>
-      <c r="E60" s="213"/>
-      <c r="F60" s="213"/>
+      <c r="E60" s="205"/>
+      <c r="F60" s="205"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="252" t="s">
+      <c r="B63" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="252"/>
-      <c r="D63" s="252"/>
-      <c r="E63" s="252"/>
+      <c r="C63" s="245"/>
+      <c r="D63" s="245"/>
+      <c r="E63" s="245"/>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="42" t="s">
@@ -13788,12 +13794,12 @@
       </c>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="258" t="s">
+      <c r="B75" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="258"/>
-      <c r="D75" s="258"/>
-      <c r="E75" s="258"/>
+      <c r="C75" s="244"/>
+      <c r="D75" s="244"/>
+      <c r="E75" s="244"/>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="58" t="s">
@@ -13844,12 +13850,12 @@
       <c r="E79" s="58"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="252" t="s">
+      <c r="B81" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C81" s="252"/>
-      <c r="D81" s="252"/>
-      <c r="E81" s="252"/>
+      <c r="C81" s="245"/>
+      <c r="D81" s="245"/>
+      <c r="E81" s="245"/>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="42" t="s">
@@ -13978,12 +13984,12 @@
       </c>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="258" t="s">
+      <c r="B91" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C91" s="258"/>
-      <c r="D91" s="258"/>
-      <c r="E91" s="258"/>
+      <c r="C91" s="244"/>
+      <c r="D91" s="244"/>
+      <c r="E91" s="244"/>
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="58" t="s">
@@ -14015,12 +14021,12 @@
       </c>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="252" t="s">
+      <c r="B98" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="252"/>
-      <c r="D98" s="252"/>
-      <c r="E98" s="252"/>
+      <c r="C98" s="245"/>
+      <c r="D98" s="245"/>
+      <c r="E98" s="245"/>
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="42" t="s">
@@ -14065,12 +14071,12 @@
       </c>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="253" t="s">
+      <c r="B102" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="C102" s="253"/>
-      <c r="D102" s="253"/>
-      <c r="E102" s="253"/>
+      <c r="C102" s="265"/>
+      <c r="D102" s="265"/>
+      <c r="E102" s="265"/>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="1" t="s">
@@ -14093,12 +14099,12 @@
       <c r="E104" s="1"/>
     </row>
     <row r="106" spans="2:5">
-      <c r="B106" s="252" t="s">
+      <c r="B106" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="252"/>
-      <c r="D106" s="252"/>
-      <c r="E106" s="252"/>
+      <c r="C106" s="245"/>
+      <c r="D106" s="245"/>
+      <c r="E106" s="245"/>
     </row>
     <row r="107" spans="2:5">
       <c r="B107" s="42" t="s">
@@ -14129,12 +14135,12 @@
       </c>
     </row>
     <row r="109" spans="2:5">
-      <c r="B109" s="253" t="s">
+      <c r="B109" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="253"/>
-      <c r="D109" s="253"/>
-      <c r="E109" s="253"/>
+      <c r="C109" s="265"/>
+      <c r="D109" s="265"/>
+      <c r="E109" s="265"/>
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="1" t="s">
@@ -14152,12 +14158,12 @@
       </c>
     </row>
     <row r="115" spans="2:5">
-      <c r="B115" s="277" t="s">
+      <c r="B115" s="243" t="s">
         <v>216</v>
       </c>
-      <c r="C115" s="252"/>
-      <c r="D115" s="252"/>
-      <c r="E115" s="252"/>
+      <c r="C115" s="245"/>
+      <c r="D115" s="245"/>
+      <c r="E115" s="245"/>
     </row>
     <row r="116" spans="2:5">
       <c r="B116" s="1" t="s">
@@ -14342,12 +14348,12 @@
       </c>
     </row>
     <row r="130" spans="2:5">
-      <c r="B130" s="277" t="s">
+      <c r="B130" s="243" t="s">
         <v>215</v>
       </c>
-      <c r="C130" s="252"/>
-      <c r="D130" s="252"/>
-      <c r="E130" s="252"/>
+      <c r="C130" s="245"/>
+      <c r="D130" s="245"/>
+      <c r="E130" s="245"/>
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="1" t="s">
@@ -14541,17 +14547,17 @@
       </c>
     </row>
     <row r="149" spans="2:14">
-      <c r="B149" s="252" t="s">
+      <c r="B149" s="245" t="s">
         <v>188</v>
       </c>
-      <c r="C149" s="252"/>
-      <c r="D149" s="252"/>
-      <c r="E149" s="252"/>
-      <c r="F149" s="252"/>
-      <c r="G149" s="252"/>
-      <c r="H149" s="252"/>
-      <c r="I149" s="252"/>
-      <c r="J149" s="252"/>
+      <c r="C149" s="245"/>
+      <c r="D149" s="245"/>
+      <c r="E149" s="245"/>
+      <c r="F149" s="245"/>
+      <c r="G149" s="245"/>
+      <c r="H149" s="245"/>
+      <c r="I149" s="245"/>
+      <c r="J149" s="245"/>
       <c r="K149" s="47"/>
       <c r="L149" s="47"/>
       <c r="M149" s="47"/>
@@ -14573,10 +14579,10 @@
       <c r="F150" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G150" s="248" t="s">
+      <c r="G150" s="246" t="s">
         <v>556</v>
       </c>
-      <c r="H150" s="249"/>
+      <c r="H150" s="247"/>
       <c r="I150" s="119" t="s">
         <v>189</v>
       </c>
@@ -14589,72 +14595,72 @@
       <c r="N150" s="46"/>
     </row>
     <row r="151" spans="2:14" ht="44.25" customHeight="1">
-      <c r="B151" s="178" t="s">
+      <c r="B151" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="178" t="s">
+      <c r="C151" s="169" t="s">
         <v>191</v>
       </c>
-      <c r="D151" s="278"/>
-      <c r="E151" s="281"/>
-      <c r="F151" s="278"/>
+      <c r="D151" s="270"/>
+      <c r="E151" s="273"/>
+      <c r="F151" s="270"/>
       <c r="G151" s="122" t="s">
         <v>685</v>
       </c>
       <c r="H151" s="123" t="s">
         <v>686</v>
       </c>
-      <c r="I151" s="284">
+      <c r="I151" s="262">
         <v>0.2</v>
       </c>
-      <c r="J151" s="178" t="s">
+      <c r="J151" s="169" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="152" spans="2:14" ht="72" customHeight="1">
-      <c r="B152" s="251"/>
-      <c r="C152" s="251"/>
-      <c r="D152" s="279"/>
-      <c r="E152" s="282"/>
-      <c r="F152" s="279"/>
+      <c r="B152" s="269"/>
+      <c r="C152" s="269"/>
+      <c r="D152" s="271"/>
+      <c r="E152" s="274"/>
+      <c r="F152" s="271"/>
       <c r="G152" s="122" t="s">
         <v>634</v>
       </c>
       <c r="H152" s="123" t="s">
         <v>635</v>
       </c>
-      <c r="I152" s="285"/>
-      <c r="J152" s="251"/>
+      <c r="I152" s="263"/>
+      <c r="J152" s="269"/>
     </row>
     <row r="153" spans="2:14" ht="72" customHeight="1">
-      <c r="B153" s="251"/>
-      <c r="C153" s="251"/>
-      <c r="D153" s="279"/>
-      <c r="E153" s="282"/>
-      <c r="F153" s="279"/>
+      <c r="B153" s="269"/>
+      <c r="C153" s="269"/>
+      <c r="D153" s="271"/>
+      <c r="E153" s="274"/>
+      <c r="F153" s="271"/>
       <c r="G153" s="122" t="s">
         <v>759</v>
       </c>
       <c r="H153" s="123" t="s">
         <v>760</v>
       </c>
-      <c r="I153" s="285"/>
-      <c r="J153" s="251"/>
+      <c r="I153" s="263"/>
+      <c r="J153" s="269"/>
     </row>
     <row r="154" spans="2:14" ht="67.5" customHeight="1">
-      <c r="B154" s="179"/>
-      <c r="C154" s="179"/>
-      <c r="D154" s="280"/>
-      <c r="E154" s="283"/>
-      <c r="F154" s="280"/>
+      <c r="B154" s="170"/>
+      <c r="C154" s="170"/>
+      <c r="D154" s="272"/>
+      <c r="E154" s="275"/>
+      <c r="F154" s="272"/>
       <c r="G154" s="122" t="s">
         <v>637</v>
       </c>
       <c r="H154" s="123" t="s">
         <v>638</v>
       </c>
-      <c r="I154" s="286"/>
-      <c r="J154" s="179"/>
+      <c r="I154" s="264"/>
+      <c r="J154" s="170"/>
     </row>
     <row r="155" spans="2:14" ht="67.5" customHeight="1">
       <c r="B155" s="34" t="s">
@@ -14797,17 +14803,17 @@
       </c>
     </row>
     <row r="162" spans="2:13">
-      <c r="B162" s="252" t="s">
+      <c r="B162" s="245" t="s">
         <v>198</v>
       </c>
-      <c r="C162" s="252"/>
-      <c r="D162" s="252"/>
-      <c r="E162" s="252"/>
-      <c r="F162" s="252"/>
-      <c r="G162" s="252"/>
-      <c r="H162" s="252"/>
-      <c r="I162" s="252"/>
-      <c r="J162" s="252"/>
+      <c r="C162" s="245"/>
+      <c r="D162" s="245"/>
+      <c r="E162" s="245"/>
+      <c r="F162" s="245"/>
+      <c r="G162" s="245"/>
+      <c r="H162" s="245"/>
+      <c r="I162" s="245"/>
+      <c r="J162" s="245"/>
     </row>
     <row r="163" spans="2:13">
       <c r="B163" s="42" t="s">
@@ -14825,10 +14831,10 @@
       <c r="F163" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G163" s="248" t="s">
+      <c r="G163" s="246" t="s">
         <v>196</v>
       </c>
-      <c r="H163" s="249"/>
+      <c r="H163" s="247"/>
       <c r="I163" s="119" t="s">
         <v>189</v>
       </c>
@@ -14837,59 +14843,59 @@
       </c>
     </row>
     <row r="164" spans="2:13" ht="79.5" customHeight="1">
-      <c r="B164" s="246" t="s">
+      <c r="B164" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="C164" s="178" t="s">
+      <c r="C164" s="169" t="s">
         <v>194</v>
       </c>
-      <c r="D164" s="178" t="s">
+      <c r="D164" s="169" t="s">
         <v>195</v>
       </c>
-      <c r="E164" s="246"/>
-      <c r="F164" s="178"/>
+      <c r="E164" s="288"/>
+      <c r="F164" s="169"/>
       <c r="G164" s="145" t="s">
         <v>690</v>
       </c>
       <c r="H164" s="123" t="s">
         <v>645</v>
       </c>
-      <c r="I164" s="284">
+      <c r="I164" s="262">
         <v>0.2</v>
       </c>
-      <c r="J164" s="178" t="s">
+      <c r="J164" s="169" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="165" spans="2:13" ht="31.5" customHeight="1">
-      <c r="B165" s="250"/>
-      <c r="C165" s="251"/>
-      <c r="D165" s="251"/>
-      <c r="E165" s="250"/>
-      <c r="F165" s="251"/>
+      <c r="B165" s="290"/>
+      <c r="C165" s="269"/>
+      <c r="D165" s="269"/>
+      <c r="E165" s="290"/>
+      <c r="F165" s="269"/>
       <c r="G165" s="144" t="s">
         <v>646</v>
       </c>
       <c r="H165" s="146" t="s">
         <v>636</v>
       </c>
-      <c r="I165" s="285"/>
-      <c r="J165" s="251"/>
+      <c r="I165" s="263"/>
+      <c r="J165" s="269"/>
     </row>
     <row r="166" spans="2:13" ht="45.75" customHeight="1">
-      <c r="B166" s="247"/>
-      <c r="C166" s="179"/>
-      <c r="D166" s="179"/>
-      <c r="E166" s="247"/>
-      <c r="F166" s="179"/>
+      <c r="B166" s="289"/>
+      <c r="C166" s="170"/>
+      <c r="D166" s="170"/>
+      <c r="E166" s="289"/>
+      <c r="F166" s="170"/>
       <c r="G166" s="144" t="s">
         <v>691</v>
       </c>
       <c r="H166" s="146" t="s">
         <v>692</v>
       </c>
-      <c r="I166" s="286"/>
-      <c r="J166" s="179"/>
+      <c r="I166" s="264"/>
+      <c r="J166" s="170"/>
     </row>
     <row r="167" spans="2:13" ht="67.5" customHeight="1">
       <c r="B167" s="34" t="s">
@@ -14917,19 +14923,19 @@
       </c>
     </row>
     <row r="168" spans="2:13" ht="99.75" customHeight="1">
-      <c r="B168" s="246" t="s">
+      <c r="B168" s="288" t="s">
         <v>181</v>
       </c>
-      <c r="C168" s="178" t="s">
+      <c r="C168" s="169" t="s">
         <v>566</v>
       </c>
-      <c r="D168" s="178" t="s">
+      <c r="D168" s="169" t="s">
         <v>202</v>
       </c>
-      <c r="E168" s="178" t="s">
+      <c r="E168" s="169" t="s">
         <v>649</v>
       </c>
-      <c r="F168" s="178"/>
+      <c r="F168" s="169"/>
       <c r="G168" s="145" t="s">
         <v>768</v>
       </c>
@@ -14939,16 +14945,16 @@
       <c r="I168" s="120" t="s">
         <v>771</v>
       </c>
-      <c r="J168" s="178" t="s">
+      <c r="J168" s="169" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="169" spans="2:13" ht="61.5" customHeight="1">
-      <c r="B169" s="247"/>
-      <c r="C169" s="179"/>
-      <c r="D169" s="179"/>
-      <c r="E169" s="179"/>
-      <c r="F169" s="179"/>
+      <c r="B169" s="289"/>
+      <c r="C169" s="170"/>
+      <c r="D169" s="170"/>
+      <c r="E169" s="170"/>
+      <c r="F169" s="170"/>
       <c r="G169" s="144" t="s">
         <v>767</v>
       </c>
@@ -14956,7 +14962,7 @@
         <v>770</v>
       </c>
       <c r="I169" s="120"/>
-      <c r="J169" s="179"/>
+      <c r="J169" s="170"/>
     </row>
     <row r="170" spans="2:13" ht="107.25" customHeight="1">
       <c r="B170" s="34" t="s">
@@ -15047,20 +15053,20 @@
     </row>
     <row r="173" spans="2:13" ht="15" thickBot="1"/>
     <row r="174" spans="2:13">
-      <c r="B174" s="272" t="s">
+      <c r="B174" s="266" t="s">
         <v>432</v>
       </c>
-      <c r="C174" s="273"/>
-      <c r="D174" s="273"/>
-      <c r="E174" s="273"/>
-      <c r="F174" s="273"/>
-      <c r="G174" s="273"/>
-      <c r="H174" s="273"/>
-      <c r="I174" s="273"/>
-      <c r="J174" s="273"/>
-      <c r="K174" s="273"/>
-      <c r="L174" s="273"/>
-      <c r="M174" s="274"/>
+      <c r="C174" s="267"/>
+      <c r="D174" s="267"/>
+      <c r="E174" s="267"/>
+      <c r="F174" s="267"/>
+      <c r="G174" s="267"/>
+      <c r="H174" s="267"/>
+      <c r="I174" s="267"/>
+      <c r="J174" s="267"/>
+      <c r="K174" s="267"/>
+      <c r="L174" s="267"/>
+      <c r="M174" s="268"/>
     </row>
     <row r="175" spans="2:13">
       <c r="B175" t="s">
@@ -15082,12 +15088,12 @@
       </c>
     </row>
     <row r="181" spans="2:5">
-      <c r="B181" s="253" t="s">
+      <c r="B181" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="C181" s="253"/>
-      <c r="D181" s="253"/>
-      <c r="E181" s="253"/>
+      <c r="C181" s="265"/>
+      <c r="D181" s="265"/>
+      <c r="E181" s="265"/>
     </row>
     <row r="182" spans="2:5">
       <c r="B182" s="42" t="s">
@@ -15134,12 +15140,12 @@
       </c>
     </row>
     <row r="185" spans="2:5">
-      <c r="B185" s="253" t="s">
+      <c r="B185" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="C185" s="253"/>
-      <c r="D185" s="253"/>
-      <c r="E185" s="253"/>
+      <c r="C185" s="265"/>
+      <c r="D185" s="265"/>
+      <c r="E185" s="265"/>
     </row>
     <row r="186" spans="2:5">
       <c r="B186" s="1" t="s">
@@ -15162,12 +15168,12 @@
       <c r="E187" s="1"/>
     </row>
     <row r="189" spans="2:5">
-      <c r="B189" s="253" t="s">
+      <c r="B189" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="C189" s="253"/>
-      <c r="D189" s="253"/>
-      <c r="E189" s="253"/>
+      <c r="C189" s="265"/>
+      <c r="D189" s="265"/>
+      <c r="E189" s="265"/>
     </row>
     <row r="190" spans="2:5">
       <c r="B190" s="42" t="s">
@@ -15199,12 +15205,12 @@
       </c>
     </row>
     <row r="192" spans="2:5">
-      <c r="B192" s="253" t="s">
+      <c r="B192" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="C192" s="253"/>
-      <c r="D192" s="253"/>
-      <c r="E192" s="253"/>
+      <c r="C192" s="265"/>
+      <c r="D192" s="265"/>
+      <c r="E192" s="265"/>
     </row>
     <row r="193" spans="2:6">
       <c r="B193" s="1" t="s">
@@ -15217,12 +15223,12 @@
       <c r="E193" s="1"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="253" t="s">
+      <c r="B195" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="C195" s="253"/>
-      <c r="D195" s="253"/>
-      <c r="E195" s="253"/>
+      <c r="C195" s="265"/>
+      <c r="D195" s="265"/>
+      <c r="E195" s="265"/>
     </row>
     <row r="196" spans="2:6">
       <c r="B196" s="42" t="s">
@@ -15267,12 +15273,12 @@
       </c>
     </row>
     <row r="199" spans="2:6">
-      <c r="B199" s="253" t="s">
+      <c r="B199" s="265" t="s">
         <v>123</v>
       </c>
-      <c r="C199" s="253"/>
-      <c r="D199" s="253"/>
-      <c r="E199" s="253"/>
+      <c r="C199" s="265"/>
+      <c r="D199" s="265"/>
+      <c r="E199" s="265"/>
     </row>
     <row r="200" spans="2:6">
       <c r="B200" s="1" t="s">
@@ -15301,307 +15307,307 @@
       </c>
     </row>
     <row r="205" spans="2:6">
-      <c r="B205" s="255" t="s">
+      <c r="B205" s="253" t="s">
         <v>441</v>
       </c>
-      <c r="C205" s="256"/>
+      <c r="C205" s="254"/>
       <c r="D205" s="41" t="s">
         <v>442</v>
       </c>
-      <c r="E205" s="257" t="s">
+      <c r="E205" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F205" s="257"/>
+      <c r="F205" s="255"/>
     </row>
     <row r="206" spans="2:6">
-      <c r="B206" s="214"/>
-      <c r="C206" s="243"/>
+      <c r="B206" s="238"/>
+      <c r="C206" s="248"/>
       <c r="D206" s="34">
         <v>0.94199999999999995</v>
       </c>
-      <c r="E206" s="254" t="s">
+      <c r="E206" s="249" t="s">
         <v>443</v>
       </c>
-      <c r="F206" s="254"/>
+      <c r="F206" s="249"/>
     </row>
     <row r="207" spans="2:6" ht="32.25" customHeight="1">
-      <c r="B207" s="214"/>
-      <c r="C207" s="243"/>
+      <c r="B207" s="238"/>
+      <c r="C207" s="248"/>
       <c r="D207" s="34">
         <v>0.25</v>
       </c>
-      <c r="E207" s="259" t="s">
+      <c r="E207" s="256" t="s">
         <v>444</v>
       </c>
-      <c r="F207" s="260"/>
+      <c r="F207" s="259"/>
     </row>
     <row r="208" spans="2:6">
-      <c r="B208" s="214"/>
-      <c r="C208" s="243"/>
+      <c r="B208" s="238"/>
+      <c r="C208" s="248"/>
       <c r="D208" s="34">
         <v>0.09</v>
       </c>
-      <c r="E208" s="259" t="s">
+      <c r="E208" s="256" t="s">
         <v>445</v>
       </c>
-      <c r="F208" s="260"/>
+      <c r="F208" s="259"/>
     </row>
     <row r="209" spans="2:6" ht="18.75" customHeight="1">
-      <c r="B209" s="214"/>
-      <c r="C209" s="243"/>
+      <c r="B209" s="238"/>
+      <c r="C209" s="248"/>
       <c r="D209" s="34">
         <v>0.11700000000000001</v>
       </c>
-      <c r="E209" s="259" t="s">
+      <c r="E209" s="256" t="s">
         <v>446</v>
       </c>
-      <c r="F209" s="260"/>
+      <c r="F209" s="259"/>
     </row>
     <row r="210" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B210" s="214"/>
-      <c r="C210" s="243"/>
+      <c r="B210" s="238"/>
+      <c r="C210" s="248"/>
       <c r="D210" s="34">
         <v>1.603E-3</v>
       </c>
-      <c r="E210" s="259" t="s">
+      <c r="E210" s="256" t="s">
         <v>447</v>
       </c>
-      <c r="F210" s="260"/>
+      <c r="F210" s="259"/>
     </row>
     <row r="211" spans="2:6" ht="57" customHeight="1">
-      <c r="B211" s="214"/>
-      <c r="C211" s="243"/>
+      <c r="B211" s="238"/>
+      <c r="C211" s="248"/>
       <c r="D211" s="34">
         <v>2.2680000000000001E-3</v>
       </c>
-      <c r="E211" s="254" t="s">
+      <c r="E211" s="249" t="s">
         <v>447</v>
       </c>
-      <c r="F211" s="261"/>
+      <c r="F211" s="250"/>
     </row>
     <row r="212" spans="2:6">
-      <c r="B212" s="244" t="s">
+      <c r="B212" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C212" s="245"/>
+      <c r="C212" s="252"/>
       <c r="D212" s="39">
         <v>0.23380000000000001</v>
       </c>
-      <c r="E212" s="213"/>
-      <c r="F212" s="213"/>
+      <c r="E212" s="205"/>
+      <c r="F212" s="205"/>
     </row>
     <row r="214" spans="2:6">
-      <c r="B214" s="255" t="s">
+      <c r="B214" s="253" t="s">
         <v>448</v>
       </c>
-      <c r="C214" s="256"/>
+      <c r="C214" s="254"/>
       <c r="D214" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="E214" s="257" t="s">
+      <c r="E214" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F214" s="257"/>
+      <c r="F214" s="255"/>
     </row>
     <row r="215" spans="2:6" ht="51" customHeight="1">
-      <c r="B215" s="214"/>
-      <c r="C215" s="243"/>
+      <c r="B215" s="238"/>
+      <c r="C215" s="248"/>
       <c r="D215" s="34">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="E215" s="254" t="s">
+      <c r="E215" s="249" t="s">
         <v>450</v>
       </c>
-      <c r="F215" s="254"/>
+      <c r="F215" s="249"/>
     </row>
     <row r="216" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B216" s="214"/>
-      <c r="C216" s="243"/>
+      <c r="B216" s="238"/>
+      <c r="C216" s="248"/>
       <c r="D216" s="34">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E216" s="254" t="s">
+      <c r="E216" s="249" t="s">
         <v>451</v>
       </c>
-      <c r="F216" s="261"/>
+      <c r="F216" s="250"/>
     </row>
     <row r="217" spans="2:6">
-      <c r="B217" s="244" t="s">
+      <c r="B217" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C217" s="245"/>
+      <c r="C217" s="252"/>
       <c r="D217" s="39">
         <v>3.2750000000000001E-2</v>
       </c>
-      <c r="E217" s="213"/>
-      <c r="F217" s="213"/>
+      <c r="E217" s="205"/>
+      <c r="F217" s="205"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="255" t="s">
+      <c r="B219" s="253" t="s">
         <v>452</v>
       </c>
-      <c r="C219" s="256"/>
+      <c r="C219" s="254"/>
       <c r="D219" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="E219" s="257" t="s">
+      <c r="E219" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F219" s="257"/>
+      <c r="F219" s="255"/>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="214"/>
-      <c r="C220" s="243"/>
+      <c r="B220" s="238"/>
+      <c r="C220" s="248"/>
       <c r="D220" s="34">
         <v>1.125E-2</v>
       </c>
-      <c r="E220" s="254" t="s">
+      <c r="E220" s="249" t="s">
         <v>454</v>
       </c>
-      <c r="F220" s="254"/>
+      <c r="F220" s="249"/>
     </row>
     <row r="221" spans="2:6" ht="31.5" customHeight="1">
-      <c r="B221" s="214"/>
-      <c r="C221" s="243"/>
+      <c r="B221" s="238"/>
+      <c r="C221" s="248"/>
       <c r="D221" s="34">
         <v>3.68</v>
       </c>
-      <c r="E221" s="259" t="s">
+      <c r="E221" s="256" t="s">
         <v>455</v>
       </c>
-      <c r="F221" s="260"/>
+      <c r="F221" s="259"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="214"/>
-      <c r="C222" s="243"/>
+      <c r="B222" s="238"/>
+      <c r="C222" s="248"/>
       <c r="D222" s="34">
         <v>4.2</v>
       </c>
-      <c r="E222" s="259" t="s">
+      <c r="E222" s="256" t="s">
         <v>456</v>
       </c>
-      <c r="F222" s="260"/>
+      <c r="F222" s="259"/>
     </row>
     <row r="223" spans="2:6">
-      <c r="B223" s="214"/>
-      <c r="C223" s="243"/>
+      <c r="B223" s="238"/>
+      <c r="C223" s="248"/>
       <c r="D223" s="34">
         <v>3.1248</v>
       </c>
-      <c r="E223" s="259" t="s">
+      <c r="E223" s="256" t="s">
         <v>456</v>
       </c>
-      <c r="F223" s="260"/>
+      <c r="F223" s="259"/>
     </row>
     <row r="224" spans="2:6">
-      <c r="B224" s="214"/>
-      <c r="C224" s="243"/>
+      <c r="B224" s="238"/>
+      <c r="C224" s="248"/>
       <c r="D224" s="34">
         <v>1.764</v>
       </c>
-      <c r="E224" s="259" t="s">
+      <c r="E224" s="256" t="s">
         <v>456</v>
       </c>
-      <c r="F224" s="260"/>
+      <c r="F224" s="259"/>
     </row>
     <row r="225" spans="2:6">
-      <c r="B225" s="214"/>
-      <c r="C225" s="243"/>
+      <c r="B225" s="238"/>
+      <c r="C225" s="248"/>
       <c r="D225" s="34">
         <v>1.3440000000000001</v>
       </c>
-      <c r="E225" s="254" t="s">
+      <c r="E225" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F225" s="261"/>
+      <c r="F225" s="250"/>
     </row>
     <row r="226" spans="2:6">
-      <c r="B226" s="244"/>
-      <c r="C226" s="245"/>
+      <c r="B226" s="251"/>
+      <c r="C226" s="252"/>
       <c r="D226" s="34">
         <v>1.1060000000000001</v>
       </c>
-      <c r="E226" s="254" t="s">
+      <c r="E226" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F226" s="261"/>
+      <c r="F226" s="250"/>
     </row>
     <row r="227" spans="2:6">
-      <c r="B227" s="287"/>
-      <c r="C227" s="288"/>
+      <c r="B227" s="260"/>
+      <c r="C227" s="261"/>
       <c r="D227" s="109">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E227" s="254" t="s">
+      <c r="E227" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F227" s="261"/>
+      <c r="F227" s="250"/>
     </row>
     <row r="228" spans="2:6">
-      <c r="B228" s="287"/>
-      <c r="C228" s="288"/>
+      <c r="B228" s="260"/>
+      <c r="C228" s="261"/>
       <c r="D228" s="109">
         <v>0.74199999999999999</v>
       </c>
-      <c r="E228" s="254" t="s">
+      <c r="E228" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F228" s="261"/>
+      <c r="F228" s="250"/>
     </row>
     <row r="229" spans="2:6">
-      <c r="B229" s="287"/>
-      <c r="C229" s="288"/>
+      <c r="B229" s="260"/>
+      <c r="C229" s="261"/>
       <c r="D229" s="109">
         <v>0.66779999999999995</v>
       </c>
-      <c r="E229" s="254" t="s">
+      <c r="E229" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F229" s="261"/>
+      <c r="F229" s="250"/>
     </row>
     <row r="230" spans="2:6">
-      <c r="B230" s="287"/>
-      <c r="C230" s="288"/>
+      <c r="B230" s="260"/>
+      <c r="C230" s="261"/>
       <c r="D230" s="109">
         <v>0.71399999999999997</v>
       </c>
-      <c r="E230" s="254" t="s">
+      <c r="E230" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F230" s="261"/>
+      <c r="F230" s="250"/>
     </row>
     <row r="231" spans="2:6">
-      <c r="B231" s="287"/>
-      <c r="C231" s="288"/>
+      <c r="B231" s="260"/>
+      <c r="C231" s="261"/>
       <c r="D231" s="109">
         <v>0.81200000000000006</v>
       </c>
-      <c r="E231" s="254" t="s">
+      <c r="E231" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F231" s="261"/>
+      <c r="F231" s="250"/>
     </row>
     <row r="232" spans="2:6">
-      <c r="B232" s="214"/>
-      <c r="C232" s="243"/>
+      <c r="B232" s="238"/>
+      <c r="C232" s="248"/>
       <c r="D232" s="34">
         <v>0.80500000000000005</v>
       </c>
-      <c r="E232" s="254" t="s">
+      <c r="E232" s="249" t="s">
         <v>457</v>
       </c>
-      <c r="F232" s="261"/>
+      <c r="F232" s="250"/>
     </row>
     <row r="233" spans="2:6">
-      <c r="B233" s="244" t="s">
+      <c r="B233" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C233" s="245"/>
+      <c r="C233" s="252"/>
       <c r="D233" s="39">
         <v>1.5271399999999999</v>
       </c>
-      <c r="E233" s="213"/>
-      <c r="F233" s="213"/>
+      <c r="E233" s="205"/>
+      <c r="F233" s="205"/>
     </row>
     <row r="234" spans="2:6">
       <c r="B234" s="111"/>
@@ -15611,116 +15617,116 @@
       <c r="F234" s="25"/>
     </row>
     <row r="235" spans="2:6">
-      <c r="B235" s="255" t="s">
+      <c r="B235" s="253" t="s">
         <v>458</v>
       </c>
-      <c r="C235" s="256"/>
+      <c r="C235" s="254"/>
       <c r="D235" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="E235" s="257" t="s">
+      <c r="E235" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F235" s="257"/>
+      <c r="F235" s="255"/>
     </row>
     <row r="236" spans="2:6">
-      <c r="B236" s="214"/>
-      <c r="C236" s="243"/>
+      <c r="B236" s="238"/>
+      <c r="C236" s="248"/>
       <c r="D236" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E236" s="254" t="s">
+      <c r="E236" s="249" t="s">
         <v>460</v>
       </c>
-      <c r="F236" s="254"/>
+      <c r="F236" s="249"/>
     </row>
     <row r="237" spans="2:6">
-      <c r="B237" s="214"/>
-      <c r="C237" s="243"/>
+      <c r="B237" s="238"/>
+      <c r="C237" s="248"/>
       <c r="D237" s="34">
         <v>0.01</v>
       </c>
-      <c r="E237" s="259" t="s">
+      <c r="E237" s="256" t="s">
         <v>460</v>
       </c>
-      <c r="F237" s="260"/>
+      <c r="F237" s="259"/>
     </row>
     <row r="238" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B238" s="214"/>
-      <c r="C238" s="243"/>
+      <c r="B238" s="238"/>
+      <c r="C238" s="248"/>
       <c r="D238" s="34">
         <v>1.67E-3</v>
       </c>
-      <c r="E238" s="259" t="s">
+      <c r="E238" s="256" t="s">
         <v>461</v>
       </c>
-      <c r="F238" s="260"/>
+      <c r="F238" s="259"/>
     </row>
     <row r="239" spans="2:6" ht="54" customHeight="1">
-      <c r="B239" s="214"/>
-      <c r="C239" s="243"/>
+      <c r="B239" s="238"/>
+      <c r="C239" s="248"/>
       <c r="D239" s="34">
         <v>2.2499999999999998E-3</v>
       </c>
-      <c r="E239" s="259" t="s">
+      <c r="E239" s="256" t="s">
         <v>462</v>
       </c>
-      <c r="F239" s="260"/>
+      <c r="F239" s="259"/>
     </row>
     <row r="240" spans="2:6" ht="49.5" customHeight="1">
-      <c r="B240" s="214"/>
-      <c r="C240" s="243"/>
+      <c r="B240" s="238"/>
+      <c r="C240" s="248"/>
       <c r="D240" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E240" s="259" t="s">
+      <c r="E240" s="256" t="s">
         <v>463</v>
       </c>
-      <c r="F240" s="260"/>
+      <c r="F240" s="259"/>
     </row>
     <row r="241" spans="2:6" ht="48.75" customHeight="1">
-      <c r="B241" s="214"/>
-      <c r="C241" s="243"/>
+      <c r="B241" s="238"/>
+      <c r="C241" s="248"/>
       <c r="D241" s="34">
         <v>1.67E-2</v>
       </c>
-      <c r="E241" s="254" t="s">
+      <c r="E241" s="249" t="s">
         <v>464</v>
       </c>
-      <c r="F241" s="261"/>
+      <c r="F241" s="250"/>
     </row>
     <row r="242" spans="2:6" ht="54.75" customHeight="1">
-      <c r="B242" s="244"/>
-      <c r="C242" s="245"/>
+      <c r="B242" s="251"/>
+      <c r="C242" s="252"/>
       <c r="D242" s="34">
         <v>1.4E-2</v>
       </c>
-      <c r="E242" s="254" t="s">
+      <c r="E242" s="249" t="s">
         <v>465</v>
       </c>
-      <c r="F242" s="261"/>
+      <c r="F242" s="250"/>
     </row>
     <row r="243" spans="2:6" ht="51.75" customHeight="1">
-      <c r="B243" s="287"/>
-      <c r="C243" s="288"/>
+      <c r="B243" s="260"/>
+      <c r="C243" s="261"/>
       <c r="D243" s="109">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E243" s="254" t="s">
+      <c r="E243" s="249" t="s">
         <v>466</v>
       </c>
-      <c r="F243" s="261"/>
+      <c r="F243" s="250"/>
     </row>
     <row r="244" spans="2:6">
-      <c r="B244" s="244" t="s">
+      <c r="B244" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C244" s="245"/>
+      <c r="C244" s="252"/>
       <c r="D244" s="39">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="E244" s="213"/>
-      <c r="F244" s="213"/>
+      <c r="E244" s="205"/>
+      <c r="F244" s="205"/>
     </row>
     <row r="245" spans="2:6">
       <c r="B245" s="111"/>
@@ -15730,149 +15736,149 @@
       <c r="F245" s="25"/>
     </row>
     <row r="246" spans="2:6">
-      <c r="B246" s="255" t="s">
+      <c r="B246" s="253" t="s">
         <v>467</v>
       </c>
-      <c r="C246" s="256"/>
+      <c r="C246" s="254"/>
       <c r="D246" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="E246" s="257" t="s">
+      <c r="E246" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F246" s="257"/>
+      <c r="F246" s="255"/>
     </row>
     <row r="247" spans="2:6">
-      <c r="B247" s="214"/>
-      <c r="C247" s="243"/>
+      <c r="B247" s="238"/>
+      <c r="C247" s="248"/>
       <c r="D247" s="34">
         <v>0.75600000000000001</v>
       </c>
-      <c r="E247" s="254" t="s">
+      <c r="E247" s="249" t="s">
         <v>475</v>
       </c>
-      <c r="F247" s="254"/>
+      <c r="F247" s="249"/>
     </row>
     <row r="248" spans="2:6" ht="15" customHeight="1">
-      <c r="B248" s="214"/>
-      <c r="C248" s="243"/>
+      <c r="B248" s="238"/>
+      <c r="C248" s="248"/>
       <c r="D248" s="34">
         <v>0.64</v>
       </c>
-      <c r="E248" s="259" t="s">
+      <c r="E248" s="256" t="s">
         <v>474</v>
       </c>
-      <c r="F248" s="260"/>
+      <c r="F248" s="259"/>
     </row>
     <row r="249" spans="2:6">
-      <c r="B249" s="214"/>
-      <c r="C249" s="243"/>
+      <c r="B249" s="238"/>
+      <c r="C249" s="248"/>
       <c r="D249" s="34">
         <v>1</v>
       </c>
-      <c r="E249" s="259" t="s">
+      <c r="E249" s="256" t="s">
         <v>474</v>
       </c>
-      <c r="F249" s="260"/>
+      <c r="F249" s="259"/>
     </row>
     <row r="250" spans="2:6" ht="15" customHeight="1">
-      <c r="B250" s="214"/>
-      <c r="C250" s="243"/>
+      <c r="B250" s="238"/>
+      <c r="C250" s="248"/>
       <c r="D250" s="34">
         <v>0.97199999999999998</v>
       </c>
-      <c r="E250" s="259" t="s">
+      <c r="E250" s="256" t="s">
         <v>471</v>
       </c>
-      <c r="F250" s="260"/>
+      <c r="F250" s="259"/>
     </row>
     <row r="251" spans="2:6">
-      <c r="B251" s="214"/>
-      <c r="C251" s="243"/>
+      <c r="B251" s="238"/>
+      <c r="C251" s="248"/>
       <c r="D251" s="34">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E251" s="259" t="s">
+      <c r="E251" s="256" t="s">
         <v>471</v>
       </c>
-      <c r="F251" s="260"/>
+      <c r="F251" s="259"/>
     </row>
     <row r="252" spans="2:6">
-      <c r="B252" s="214"/>
-      <c r="C252" s="243"/>
+      <c r="B252" s="238"/>
+      <c r="C252" s="248"/>
       <c r="D252" s="34">
         <v>0.1008</v>
       </c>
-      <c r="E252" s="254" t="s">
+      <c r="E252" s="249" t="s">
         <v>473</v>
       </c>
-      <c r="F252" s="261"/>
+      <c r="F252" s="250"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="244"/>
-      <c r="C253" s="245"/>
+      <c r="B253" s="251"/>
+      <c r="C253" s="252"/>
       <c r="D253" s="34">
         <v>0.504</v>
       </c>
-      <c r="E253" s="254" t="s">
+      <c r="E253" s="249" t="s">
         <v>473</v>
       </c>
-      <c r="F253" s="261"/>
+      <c r="F253" s="250"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="B254" s="287"/>
-      <c r="C254" s="288"/>
+      <c r="B254" s="260"/>
+      <c r="C254" s="261"/>
       <c r="D254" s="109">
         <v>1.512</v>
       </c>
-      <c r="E254" s="254" t="s">
+      <c r="E254" s="249" t="s">
         <v>472</v>
       </c>
-      <c r="F254" s="261"/>
+      <c r="F254" s="250"/>
     </row>
     <row r="255" spans="2:6">
-      <c r="B255" s="287"/>
-      <c r="C255" s="288"/>
+      <c r="B255" s="260"/>
+      <c r="C255" s="261"/>
       <c r="D255" s="109">
         <v>0.11899999999999999</v>
       </c>
-      <c r="E255" s="254" t="s">
+      <c r="E255" s="249" t="s">
         <v>472</v>
       </c>
-      <c r="F255" s="261"/>
+      <c r="F255" s="250"/>
     </row>
     <row r="256" spans="2:6">
-      <c r="B256" s="287"/>
-      <c r="C256" s="288"/>
+      <c r="B256" s="260"/>
+      <c r="C256" s="261"/>
       <c r="D256" s="109">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E256" s="254" t="s">
+      <c r="E256" s="249" t="s">
         <v>471</v>
       </c>
-      <c r="F256" s="261"/>
+      <c r="F256" s="250"/>
     </row>
     <row r="257" spans="2:6" ht="33.75" customHeight="1">
-      <c r="B257" s="287"/>
-      <c r="C257" s="288"/>
+      <c r="B257" s="260"/>
+      <c r="C257" s="261"/>
       <c r="D257" s="109">
         <v>1.288</v>
       </c>
-      <c r="E257" s="254" t="s">
+      <c r="E257" s="249" t="s">
         <v>470</v>
       </c>
-      <c r="F257" s="261"/>
+      <c r="F257" s="250"/>
     </row>
     <row r="258" spans="2:6" ht="30" customHeight="1">
-      <c r="B258" s="287"/>
-      <c r="C258" s="288"/>
+      <c r="B258" s="260"/>
+      <c r="C258" s="261"/>
       <c r="D258" s="109">
         <v>2.1</v>
       </c>
-      <c r="E258" s="254" t="s">
+      <c r="E258" s="249" t="s">
         <v>470</v>
       </c>
-      <c r="F258" s="261"/>
+      <c r="F258" s="250"/>
     </row>
     <row r="259" spans="2:6">
       <c r="B259" s="110"/>
@@ -15880,32 +15886,32 @@
       <c r="D259" s="34">
         <v>0.95399999999999996</v>
       </c>
-      <c r="E259" s="254" t="s">
+      <c r="E259" s="249" t="s">
         <v>469</v>
       </c>
-      <c r="F259" s="261"/>
+      <c r="F259" s="250"/>
     </row>
     <row r="260" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B260" s="214"/>
-      <c r="C260" s="243"/>
+      <c r="B260" s="238"/>
+      <c r="C260" s="248"/>
       <c r="D260" s="34">
         <v>1.8759999999999999</v>
       </c>
-      <c r="E260" s="254" t="s">
+      <c r="E260" s="249" t="s">
         <v>469</v>
       </c>
-      <c r="F260" s="261"/>
+      <c r="F260" s="250"/>
     </row>
     <row r="261" spans="2:6">
-      <c r="B261" s="244" t="s">
+      <c r="B261" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C261" s="245"/>
+      <c r="C261" s="252"/>
       <c r="D261" s="39">
         <v>1.1097999999999999</v>
       </c>
-      <c r="E261" s="213"/>
-      <c r="F261" s="213"/>
+      <c r="E261" s="205"/>
+      <c r="F261" s="205"/>
     </row>
     <row r="262" spans="2:6">
       <c r="B262" s="111"/>
@@ -15915,50 +15921,50 @@
       <c r="F262" s="25"/>
     </row>
     <row r="263" spans="2:6">
-      <c r="B263" s="255" t="s">
+      <c r="B263" s="253" t="s">
         <v>476</v>
       </c>
-      <c r="C263" s="256"/>
+      <c r="C263" s="254"/>
       <c r="D263" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="E263" s="257" t="s">
+      <c r="E263" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F263" s="257"/>
+      <c r="F263" s="255"/>
     </row>
     <row r="264" spans="2:6">
-      <c r="B264" s="214"/>
-      <c r="C264" s="243"/>
+      <c r="B264" s="238"/>
+      <c r="C264" s="248"/>
       <c r="D264" s="34">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E264" s="254" t="s">
+      <c r="E264" s="249" t="s">
         <v>478</v>
       </c>
-      <c r="F264" s="254"/>
+      <c r="F264" s="249"/>
     </row>
     <row r="265" spans="2:6" ht="48.75" customHeight="1">
-      <c r="B265" s="214"/>
-      <c r="C265" s="243"/>
+      <c r="B265" s="238"/>
+      <c r="C265" s="248"/>
       <c r="D265" s="34">
         <v>0.2016</v>
       </c>
-      <c r="E265" s="259" t="s">
+      <c r="E265" s="256" t="s">
         <v>479</v>
       </c>
-      <c r="F265" s="260"/>
+      <c r="F265" s="259"/>
     </row>
     <row r="266" spans="2:6">
-      <c r="B266" s="244" t="s">
+      <c r="B266" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C266" s="245"/>
+      <c r="C266" s="252"/>
       <c r="D266" s="39">
         <v>0.32679999999999998</v>
       </c>
-      <c r="E266" s="213"/>
-      <c r="F266" s="213"/>
+      <c r="E266" s="205"/>
+      <c r="F266" s="205"/>
     </row>
     <row r="267" spans="2:6">
       <c r="B267" s="111"/>
@@ -15968,91 +15974,91 @@
       <c r="F267" s="25"/>
     </row>
     <row r="268" spans="2:6">
-      <c r="B268" s="255" t="s">
+      <c r="B268" s="253" t="s">
         <v>480</v>
       </c>
-      <c r="C268" s="256"/>
+      <c r="C268" s="254"/>
       <c r="D268" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="E268" s="257" t="s">
+      <c r="E268" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F268" s="257"/>
+      <c r="F268" s="255"/>
     </row>
     <row r="269" spans="2:6">
-      <c r="B269" s="214"/>
-      <c r="C269" s="243"/>
+      <c r="B269" s="238"/>
+      <c r="C269" s="248"/>
       <c r="D269" s="34">
         <v>0.23699999999999999</v>
       </c>
-      <c r="E269" s="254" t="s">
+      <c r="E269" s="249" t="s">
         <v>482</v>
       </c>
-      <c r="F269" s="254"/>
+      <c r="F269" s="249"/>
     </row>
     <row r="270" spans="2:6">
-      <c r="B270" s="214"/>
-      <c r="C270" s="243"/>
+      <c r="B270" s="238"/>
+      <c r="C270" s="248"/>
       <c r="D270" s="34">
         <v>0.54</v>
       </c>
-      <c r="E270" s="261" t="s">
+      <c r="E270" s="250" t="s">
         <v>483</v>
       </c>
-      <c r="F270" s="261"/>
+      <c r="F270" s="250"/>
     </row>
     <row r="271" spans="2:6">
-      <c r="B271" s="214"/>
-      <c r="C271" s="243"/>
+      <c r="B271" s="238"/>
+      <c r="C271" s="248"/>
       <c r="D271" s="34">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E271" s="261" t="s">
+      <c r="E271" s="250" t="s">
         <v>483</v>
       </c>
-      <c r="F271" s="261"/>
+      <c r="F271" s="250"/>
     </row>
     <row r="272" spans="2:6">
-      <c r="B272" s="214"/>
-      <c r="C272" s="243"/>
+      <c r="B272" s="238"/>
+      <c r="C272" s="248"/>
       <c r="D272" s="34">
         <v>2.88</v>
       </c>
-      <c r="E272" s="261" t="s">
+      <c r="E272" s="250" t="s">
         <v>483</v>
       </c>
-      <c r="F272" s="261"/>
+      <c r="F272" s="250"/>
     </row>
     <row r="273" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B273" s="214"/>
-      <c r="C273" s="243"/>
+      <c r="B273" s="238"/>
+      <c r="C273" s="248"/>
       <c r="D273" s="34">
         <v>0.65500000000000003</v>
       </c>
-      <c r="E273" s="254" t="s">
+      <c r="E273" s="249" t="s">
         <v>484</v>
       </c>
-      <c r="F273" s="254"/>
+      <c r="F273" s="249"/>
     </row>
     <row r="274" spans="2:6">
-      <c r="B274" s="244" t="s">
+      <c r="B274" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C274" s="245"/>
+      <c r="C274" s="252"/>
       <c r="D274" s="39">
         <v>0.87680000000000002</v>
       </c>
-      <c r="E274" s="213"/>
-      <c r="F274" s="213"/>
+      <c r="E274" s="205"/>
+      <c r="F274" s="205"/>
     </row>
     <row r="276" spans="2:6">
-      <c r="B276" s="252" t="s">
+      <c r="B276" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C276" s="252"/>
-      <c r="D276" s="252"/>
-      <c r="E276" s="252"/>
+      <c r="C276" s="245"/>
+      <c r="D276" s="245"/>
+      <c r="E276" s="245"/>
     </row>
     <row r="277" spans="2:6">
       <c r="B277" s="42" t="s">
@@ -16126,12 +16132,12 @@
       </c>
     </row>
     <row r="282" spans="2:6">
-      <c r="B282" s="258" t="s">
+      <c r="B282" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C282" s="258"/>
-      <c r="D282" s="258"/>
-      <c r="E282" s="258"/>
+      <c r="C282" s="244"/>
+      <c r="D282" s="244"/>
+      <c r="E282" s="244"/>
     </row>
     <row r="283" spans="2:6">
       <c r="B283" s="58" t="s">
@@ -16152,289 +16158,289 @@
       </c>
     </row>
     <row r="287" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B287" s="198" t="s">
+      <c r="B287" s="218" t="s">
         <v>496</v>
       </c>
-      <c r="C287" s="198"/>
-      <c r="D287" s="198"/>
-      <c r="E287" s="198"/>
-      <c r="F287" s="198"/>
+      <c r="C287" s="218"/>
+      <c r="D287" s="218"/>
+      <c r="E287" s="218"/>
+      <c r="F287" s="218"/>
     </row>
     <row r="288" spans="2:6">
-      <c r="B288" s="255" t="s">
+      <c r="B288" s="253" t="s">
         <v>498</v>
       </c>
-      <c r="C288" s="256"/>
+      <c r="C288" s="254"/>
       <c r="D288" s="41" t="s">
         <v>499</v>
       </c>
-      <c r="E288" s="257" t="s">
+      <c r="E288" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F288" s="257"/>
+      <c r="F288" s="255"/>
     </row>
     <row r="289" spans="2:6">
-      <c r="B289" s="214"/>
-      <c r="C289" s="243"/>
+      <c r="B289" s="238"/>
+      <c r="C289" s="248"/>
       <c r="D289" s="34">
         <v>0.18</v>
       </c>
-      <c r="E289" s="254" t="s">
+      <c r="E289" s="249" t="s">
         <v>511</v>
       </c>
-      <c r="F289" s="254"/>
+      <c r="F289" s="249"/>
     </row>
     <row r="290" spans="2:6" ht="38.25" customHeight="1">
-      <c r="B290" s="214"/>
-      <c r="C290" s="243"/>
+      <c r="B290" s="238"/>
+      <c r="C290" s="248"/>
       <c r="D290" s="34">
         <v>1.93</v>
       </c>
-      <c r="E290" s="254" t="s">
+      <c r="E290" s="249" t="s">
         <v>510</v>
       </c>
-      <c r="F290" s="254"/>
+      <c r="F290" s="249"/>
     </row>
     <row r="291" spans="2:6">
-      <c r="B291" s="214"/>
-      <c r="C291" s="243"/>
+      <c r="B291" s="238"/>
+      <c r="C291" s="248"/>
       <c r="D291" s="34">
         <v>0.1</v>
       </c>
-      <c r="E291" s="259" t="s">
+      <c r="E291" s="256" t="s">
         <v>508</v>
       </c>
-      <c r="F291" s="260"/>
+      <c r="F291" s="259"/>
     </row>
     <row r="292" spans="2:6">
-      <c r="B292" s="214"/>
-      <c r="C292" s="243"/>
+      <c r="B292" s="238"/>
+      <c r="C292" s="248"/>
       <c r="D292" s="34">
         <v>4.8</v>
       </c>
-      <c r="E292" s="259" t="s">
+      <c r="E292" s="256" t="s">
         <v>508</v>
       </c>
-      <c r="F292" s="260"/>
+      <c r="F292" s="259"/>
     </row>
     <row r="293" spans="2:6">
-      <c r="B293" s="214"/>
-      <c r="C293" s="243"/>
+      <c r="B293" s="238"/>
+      <c r="C293" s="248"/>
       <c r="D293" s="34">
         <v>0.26</v>
       </c>
-      <c r="E293" s="289" t="s">
+      <c r="E293" s="258" t="s">
         <v>509</v>
       </c>
-      <c r="F293" s="290"/>
+      <c r="F293" s="257"/>
     </row>
     <row r="294" spans="2:6">
-      <c r="B294" s="214"/>
-      <c r="C294" s="243"/>
+      <c r="B294" s="238"/>
+      <c r="C294" s="248"/>
       <c r="D294" s="34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E294" s="259" t="s">
+      <c r="E294" s="256" t="s">
         <v>508</v>
       </c>
-      <c r="F294" s="260"/>
+      <c r="F294" s="259"/>
     </row>
     <row r="295" spans="2:6" ht="36" customHeight="1">
-      <c r="B295" s="214"/>
-      <c r="C295" s="243"/>
+      <c r="B295" s="238"/>
+      <c r="C295" s="248"/>
       <c r="D295" s="34">
         <v>6.7</v>
       </c>
-      <c r="E295" s="259" t="s">
+      <c r="E295" s="256" t="s">
         <v>507</v>
       </c>
-      <c r="F295" s="260"/>
+      <c r="F295" s="259"/>
     </row>
     <row r="296" spans="2:6">
-      <c r="B296" s="214"/>
-      <c r="C296" s="243"/>
+      <c r="B296" s="238"/>
+      <c r="C296" s="248"/>
       <c r="D296" s="34">
         <v>5.53</v>
       </c>
-      <c r="E296" s="289" t="s">
+      <c r="E296" s="258" t="s">
         <v>506</v>
       </c>
-      <c r="F296" s="290"/>
+      <c r="F296" s="257"/>
     </row>
     <row r="297" spans="2:6">
-      <c r="B297" s="214"/>
-      <c r="C297" s="243"/>
+      <c r="B297" s="238"/>
+      <c r="C297" s="248"/>
       <c r="D297" s="34">
         <v>1.03</v>
       </c>
-      <c r="E297" s="289" t="s">
+      <c r="E297" s="258" t="s">
         <v>506</v>
       </c>
-      <c r="F297" s="290"/>
+      <c r="F297" s="257"/>
     </row>
     <row r="298" spans="2:6">
-      <c r="B298" s="214"/>
-      <c r="C298" s="243"/>
+      <c r="B298" s="238"/>
+      <c r="C298" s="248"/>
       <c r="D298" s="34">
         <v>0.54</v>
       </c>
-      <c r="E298" s="289" t="s">
+      <c r="E298" s="258" t="s">
         <v>506</v>
       </c>
-      <c r="F298" s="290"/>
+      <c r="F298" s="257"/>
     </row>
     <row r="299" spans="2:6">
-      <c r="B299" s="214"/>
-      <c r="C299" s="243"/>
+      <c r="B299" s="238"/>
+      <c r="C299" s="248"/>
       <c r="D299" s="34">
         <v>0.37</v>
       </c>
-      <c r="E299" s="289" t="s">
+      <c r="E299" s="258" t="s">
         <v>506</v>
       </c>
-      <c r="F299" s="290"/>
+      <c r="F299" s="257"/>
     </row>
     <row r="300" spans="2:6" ht="47.25" customHeight="1">
-      <c r="B300" s="214"/>
-      <c r="C300" s="243"/>
+      <c r="B300" s="238"/>
+      <c r="C300" s="248"/>
       <c r="D300" s="34">
         <v>0.69</v>
       </c>
-      <c r="E300" s="259" t="s">
+      <c r="E300" s="256" t="s">
         <v>505</v>
       </c>
-      <c r="F300" s="260"/>
+      <c r="F300" s="259"/>
     </row>
     <row r="301" spans="2:6">
-      <c r="B301" s="214"/>
-      <c r="C301" s="243"/>
+      <c r="B301" s="238"/>
+      <c r="C301" s="248"/>
       <c r="D301" s="34">
         <v>0.27</v>
       </c>
-      <c r="E301" s="289" t="s">
+      <c r="E301" s="258" t="s">
         <v>504</v>
       </c>
-      <c r="F301" s="290"/>
+      <c r="F301" s="257"/>
     </row>
     <row r="302" spans="2:6">
-      <c r="B302" s="214"/>
-      <c r="C302" s="243"/>
+      <c r="B302" s="238"/>
+      <c r="C302" s="248"/>
       <c r="D302" s="34">
         <v>0.17</v>
       </c>
-      <c r="E302" s="289" t="s">
+      <c r="E302" s="258" t="s">
         <v>503</v>
       </c>
-      <c r="F302" s="290"/>
+      <c r="F302" s="257"/>
     </row>
     <row r="303" spans="2:6">
-      <c r="B303" s="214"/>
-      <c r="C303" s="243"/>
+      <c r="B303" s="238"/>
+      <c r="C303" s="248"/>
       <c r="D303" s="34">
         <v>0.27</v>
       </c>
-      <c r="E303" s="289" t="s">
+      <c r="E303" s="258" t="s">
         <v>503</v>
       </c>
-      <c r="F303" s="290"/>
+      <c r="F303" s="257"/>
     </row>
     <row r="304" spans="2:6">
-      <c r="B304" s="214"/>
-      <c r="C304" s="243"/>
+      <c r="B304" s="238"/>
+      <c r="C304" s="248"/>
       <c r="D304" s="34">
         <v>0.35</v>
       </c>
-      <c r="E304" s="289" t="s">
+      <c r="E304" s="258" t="s">
         <v>503</v>
       </c>
-      <c r="F304" s="290"/>
+      <c r="F304" s="257"/>
     </row>
     <row r="305" spans="2:6">
-      <c r="B305" s="214"/>
-      <c r="C305" s="243"/>
+      <c r="B305" s="238"/>
+      <c r="C305" s="248"/>
       <c r="D305" s="34">
         <v>4.75</v>
       </c>
-      <c r="E305" s="289" t="s">
+      <c r="E305" s="258" t="s">
         <v>503</v>
       </c>
-      <c r="F305" s="290"/>
+      <c r="F305" s="257"/>
     </row>
     <row r="306" spans="2:6">
-      <c r="B306" s="214"/>
-      <c r="C306" s="243"/>
+      <c r="B306" s="238"/>
+      <c r="C306" s="248"/>
       <c r="D306" s="34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E306" s="289" t="s">
+      <c r="E306" s="258" t="s">
         <v>503</v>
       </c>
-      <c r="F306" s="290"/>
+      <c r="F306" s="257"/>
     </row>
     <row r="307" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B307" s="214"/>
-      <c r="C307" s="243"/>
+      <c r="B307" s="238"/>
+      <c r="C307" s="248"/>
       <c r="D307" s="34">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E307" s="259" t="s">
+      <c r="E307" s="256" t="s">
         <v>502</v>
       </c>
-      <c r="F307" s="290"/>
+      <c r="F307" s="257"/>
     </row>
     <row r="308" spans="2:6">
-      <c r="B308" s="214"/>
-      <c r="C308" s="243"/>
+      <c r="B308" s="238"/>
+      <c r="C308" s="248"/>
       <c r="D308" s="34">
         <v>0.52</v>
       </c>
-      <c r="E308" s="254" t="s">
+      <c r="E308" s="249" t="s">
         <v>500</v>
       </c>
-      <c r="F308" s="254"/>
+      <c r="F308" s="249"/>
     </row>
     <row r="309" spans="2:6">
-      <c r="B309" s="214"/>
-      <c r="C309" s="243"/>
+      <c r="B309" s="238"/>
+      <c r="C309" s="248"/>
       <c r="D309" s="34">
         <v>0.33</v>
       </c>
-      <c r="E309" s="254" t="s">
+      <c r="E309" s="249" t="s">
         <v>500</v>
       </c>
-      <c r="F309" s="254"/>
+      <c r="F309" s="249"/>
     </row>
     <row r="310" spans="2:6">
-      <c r="B310" s="214"/>
-      <c r="C310" s="243"/>
+      <c r="B310" s="238"/>
+      <c r="C310" s="248"/>
       <c r="D310" s="34">
         <v>0.27</v>
       </c>
-      <c r="E310" s="254" t="s">
+      <c r="E310" s="249" t="s">
         <v>500</v>
       </c>
-      <c r="F310" s="254"/>
+      <c r="F310" s="249"/>
     </row>
     <row r="311" spans="2:6" ht="31.5" customHeight="1">
-      <c r="B311" s="244" t="s">
+      <c r="B311" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C311" s="245"/>
+      <c r="C311" s="252"/>
       <c r="D311" s="39">
         <v>1.649</v>
       </c>
-      <c r="E311" s="254" t="s">
+      <c r="E311" s="249" t="s">
         <v>501</v>
       </c>
-      <c r="F311" s="254"/>
+      <c r="F311" s="249"/>
     </row>
     <row r="313" spans="2:6">
-      <c r="B313" s="252" t="s">
+      <c r="B313" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C313" s="252"/>
-      <c r="D313" s="252"/>
-      <c r="E313" s="252"/>
+      <c r="C313" s="245"/>
+      <c r="D313" s="245"/>
+      <c r="E313" s="245"/>
     </row>
     <row r="314" spans="2:6">
       <c r="B314" s="42" t="s">
@@ -16492,12 +16498,12 @@
       </c>
     </row>
     <row r="318" spans="2:6">
-      <c r="B318" s="258" t="s">
+      <c r="B318" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C318" s="258"/>
-      <c r="D318" s="258"/>
-      <c r="E318" s="258"/>
+      <c r="C318" s="244"/>
+      <c r="D318" s="244"/>
+      <c r="E318" s="244"/>
     </row>
     <row r="319" spans="2:6">
       <c r="B319" s="58" t="s">
@@ -16535,150 +16541,150 @@
       <c r="E321" s="58"/>
     </row>
     <row r="323" spans="2:6">
-      <c r="B323" s="255" t="s">
+      <c r="B323" s="253" t="s">
         <v>96</v>
       </c>
-      <c r="C323" s="256"/>
+      <c r="C323" s="254"/>
       <c r="D323" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E323" s="257" t="s">
+      <c r="E323" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F323" s="257"/>
+      <c r="F323" s="255"/>
     </row>
     <row r="324" spans="2:6">
-      <c r="B324" s="214"/>
-      <c r="C324" s="243"/>
+      <c r="B324" s="238"/>
+      <c r="C324" s="248"/>
       <c r="D324" s="34">
         <v>0.10125000000000001</v>
       </c>
-      <c r="E324" s="254" t="s">
+      <c r="E324" s="249" t="s">
         <v>88</v>
       </c>
-      <c r="F324" s="254"/>
+      <c r="F324" s="249"/>
     </row>
     <row r="325" spans="2:6">
-      <c r="B325" s="214"/>
-      <c r="C325" s="243"/>
+      <c r="B325" s="238"/>
+      <c r="C325" s="248"/>
       <c r="D325" s="34">
         <v>0.15079000000000001</v>
       </c>
-      <c r="E325" s="254" t="s">
+      <c r="E325" s="249" t="s">
         <v>89</v>
       </c>
-      <c r="F325" s="261"/>
+      <c r="F325" s="250"/>
     </row>
     <row r="326" spans="2:6">
-      <c r="B326" s="244" t="s">
+      <c r="B326" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C326" s="245"/>
+      <c r="C326" s="252"/>
       <c r="D326" s="39">
         <v>0.126</v>
       </c>
-      <c r="E326" s="213"/>
-      <c r="F326" s="213"/>
+      <c r="E326" s="205"/>
+      <c r="F326" s="205"/>
     </row>
     <row r="328" spans="2:6">
-      <c r="B328" s="255" t="s">
+      <c r="B328" s="253" t="s">
         <v>92</v>
       </c>
-      <c r="C328" s="256"/>
+      <c r="C328" s="254"/>
       <c r="D328" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E328" s="257" t="s">
+      <c r="E328" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F328" s="257"/>
+      <c r="F328" s="255"/>
     </row>
     <row r="329" spans="2:6">
-      <c r="B329" s="214"/>
-      <c r="C329" s="243"/>
+      <c r="B329" s="238"/>
+      <c r="C329" s="248"/>
       <c r="D329" s="34">
         <v>1.44</v>
       </c>
-      <c r="E329" s="254" t="s">
+      <c r="E329" s="249" t="s">
         <v>94</v>
       </c>
-      <c r="F329" s="254"/>
+      <c r="F329" s="249"/>
     </row>
     <row r="330" spans="2:6">
-      <c r="B330" s="214"/>
-      <c r="C330" s="243"/>
+      <c r="B330" s="238"/>
+      <c r="C330" s="248"/>
       <c r="D330" s="34">
         <v>2.88</v>
       </c>
-      <c r="E330" s="254" t="s">
+      <c r="E330" s="249" t="s">
         <v>95</v>
       </c>
-      <c r="F330" s="261"/>
+      <c r="F330" s="250"/>
     </row>
     <row r="331" spans="2:6">
-      <c r="B331" s="244" t="s">
+      <c r="B331" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C331" s="245"/>
+      <c r="C331" s="252"/>
       <c r="D331" s="39">
         <v>2.16</v>
       </c>
-      <c r="E331" s="213"/>
-      <c r="F331" s="213"/>
+      <c r="E331" s="205"/>
+      <c r="F331" s="205"/>
     </row>
     <row r="333" spans="2:6">
-      <c r="B333" s="255" t="s">
+      <c r="B333" s="253" t="s">
         <v>98</v>
       </c>
-      <c r="C333" s="256"/>
+      <c r="C333" s="254"/>
       <c r="D333" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E333" s="257" t="s">
+      <c r="E333" s="255" t="s">
         <v>87</v>
       </c>
-      <c r="F333" s="257"/>
+      <c r="F333" s="255"/>
     </row>
     <row r="334" spans="2:6">
-      <c r="B334" s="214"/>
-      <c r="C334" s="243"/>
+      <c r="B334" s="238"/>
+      <c r="C334" s="248"/>
       <c r="D334" s="34">
         <v>11.7</v>
       </c>
-      <c r="E334" s="254" t="s">
+      <c r="E334" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="F334" s="254"/>
+      <c r="F334" s="249"/>
     </row>
     <row r="335" spans="2:6">
-      <c r="B335" s="214"/>
-      <c r="C335" s="243"/>
+      <c r="B335" s="238"/>
+      <c r="C335" s="248"/>
       <c r="D335" s="34">
         <v>19.7</v>
       </c>
-      <c r="E335" s="254" t="s">
+      <c r="E335" s="249" t="s">
         <v>100</v>
       </c>
-      <c r="F335" s="261"/>
+      <c r="F335" s="250"/>
     </row>
     <row r="336" spans="2:6">
-      <c r="B336" s="244" t="s">
+      <c r="B336" s="251" t="s">
         <v>90</v>
       </c>
-      <c r="C336" s="245"/>
+      <c r="C336" s="252"/>
       <c r="D336" s="39">
         <v>15.7</v>
       </c>
-      <c r="E336" s="213"/>
-      <c r="F336" s="213"/>
+      <c r="E336" s="205"/>
+      <c r="F336" s="205"/>
     </row>
     <row r="339" spans="2:5">
-      <c r="B339" s="252" t="s">
+      <c r="B339" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C339" s="252"/>
-      <c r="D339" s="252"/>
-      <c r="E339" s="252"/>
+      <c r="C339" s="245"/>
+      <c r="D339" s="245"/>
+      <c r="E339" s="245"/>
     </row>
     <row r="340" spans="2:5">
       <c r="B340" s="42" t="s">
@@ -16843,12 +16849,12 @@
       </c>
     </row>
     <row r="351" spans="2:5">
-      <c r="B351" s="258" t="s">
+      <c r="B351" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C351" s="258"/>
-      <c r="D351" s="258"/>
-      <c r="E351" s="258"/>
+      <c r="C351" s="244"/>
+      <c r="D351" s="244"/>
+      <c r="E351" s="244"/>
     </row>
     <row r="352" spans="2:5">
       <c r="B352" s="58" t="s">
@@ -16903,12 +16909,12 @@
       <c r="E355" s="58"/>
     </row>
     <row r="357" spans="2:5">
-      <c r="B357" s="252" t="s">
+      <c r="B357" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C357" s="252"/>
-      <c r="D357" s="252"/>
-      <c r="E357" s="252"/>
+      <c r="C357" s="245"/>
+      <c r="D357" s="245"/>
+      <c r="E357" s="245"/>
     </row>
     <row r="358" spans="2:5">
       <c r="B358" s="42" t="s">
@@ -17045,12 +17051,12 @@
       </c>
     </row>
     <row r="367" spans="2:5">
-      <c r="B367" s="258" t="s">
+      <c r="B367" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C367" s="258"/>
-      <c r="D367" s="258"/>
-      <c r="E367" s="258"/>
+      <c r="C367" s="244"/>
+      <c r="D367" s="244"/>
+      <c r="E367" s="244"/>
     </row>
     <row r="368" spans="2:5">
       <c r="B368" s="58" t="s">
@@ -17084,12 +17090,12 @@
       </c>
     </row>
     <row r="373" spans="2:5">
-      <c r="B373" s="252" t="s">
+      <c r="B373" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C373" s="252"/>
-      <c r="D373" s="252"/>
-      <c r="E373" s="252"/>
+      <c r="C373" s="245"/>
+      <c r="D373" s="245"/>
+      <c r="E373" s="245"/>
     </row>
     <row r="374" spans="2:5">
       <c r="B374" s="42" t="s">
@@ -17121,12 +17127,12 @@
       </c>
     </row>
     <row r="376" spans="2:5">
-      <c r="B376" s="258" t="s">
+      <c r="B376" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C376" s="258"/>
-      <c r="D376" s="258"/>
-      <c r="E376" s="258"/>
+      <c r="C376" s="244"/>
+      <c r="D376" s="244"/>
+      <c r="E376" s="244"/>
     </row>
     <row r="377" spans="2:5">
       <c r="B377" s="58" t="s">
@@ -17145,12 +17151,12 @@
       </c>
     </row>
     <row r="381" spans="2:5">
-      <c r="B381" s="277" t="s">
+      <c r="B381" s="243" t="s">
         <v>531</v>
       </c>
-      <c r="C381" s="252"/>
-      <c r="D381" s="252"/>
-      <c r="E381" s="252"/>
+      <c r="C381" s="245"/>
+      <c r="D381" s="245"/>
+      <c r="E381" s="245"/>
     </row>
     <row r="382" spans="2:5">
       <c r="B382" s="1" t="s">
@@ -17335,12 +17341,12 @@
       </c>
     </row>
     <row r="396" spans="2:5">
-      <c r="B396" s="277" t="s">
+      <c r="B396" s="243" t="s">
         <v>532</v>
       </c>
-      <c r="C396" s="252"/>
-      <c r="D396" s="252"/>
-      <c r="E396" s="252"/>
+      <c r="C396" s="245"/>
+      <c r="D396" s="245"/>
+      <c r="E396" s="245"/>
     </row>
     <row r="397" spans="2:5">
       <c r="B397" s="1" t="s">
@@ -17525,13 +17531,13 @@
       </c>
     </row>
     <row r="411" spans="2:6">
-      <c r="B411" s="277" t="s">
+      <c r="B411" s="243" t="s">
         <v>528</v>
       </c>
-      <c r="C411" s="277"/>
-      <c r="D411" s="277"/>
-      <c r="E411" s="277"/>
-      <c r="F411" s="277"/>
+      <c r="C411" s="243"/>
+      <c r="D411" s="243"/>
+      <c r="E411" s="243"/>
+      <c r="F411" s="243"/>
     </row>
     <row r="412" spans="2:6">
       <c r="B412" s="115" t="s">
@@ -17764,43 +17770,43 @@
       </c>
     </row>
     <row r="428" spans="2:10">
-      <c r="B428" s="252" t="s">
+      <c r="B428" s="245" t="s">
         <v>551</v>
       </c>
-      <c r="C428" s="252"/>
-      <c r="D428" s="252"/>
-      <c r="E428" s="252"/>
-      <c r="F428" s="252"/>
-      <c r="G428" s="252"/>
-      <c r="H428" s="252"/>
-      <c r="I428" s="252"/>
-      <c r="J428" s="252"/>
+      <c r="C428" s="245"/>
+      <c r="D428" s="245"/>
+      <c r="E428" s="245"/>
+      <c r="F428" s="245"/>
+      <c r="G428" s="245"/>
+      <c r="H428" s="245"/>
+      <c r="I428" s="245"/>
+      <c r="J428" s="245"/>
     </row>
     <row r="429" spans="2:10">
-      <c r="B429" s="252" t="s">
+      <c r="B429" s="245" t="s">
         <v>552</v>
       </c>
-      <c r="C429" s="252"/>
-      <c r="D429" s="252"/>
-      <c r="E429" s="252"/>
-      <c r="F429" s="252"/>
-      <c r="G429" s="252"/>
-      <c r="H429" s="252"/>
-      <c r="I429" s="252"/>
-      <c r="J429" s="252"/>
+      <c r="C429" s="245"/>
+      <c r="D429" s="245"/>
+      <c r="E429" s="245"/>
+      <c r="F429" s="245"/>
+      <c r="G429" s="245"/>
+      <c r="H429" s="245"/>
+      <c r="I429" s="245"/>
+      <c r="J429" s="245"/>
     </row>
     <row r="430" spans="2:10">
-      <c r="B430" s="252" t="s">
+      <c r="B430" s="245" t="s">
         <v>553</v>
       </c>
-      <c r="C430" s="252"/>
-      <c r="D430" s="252"/>
-      <c r="E430" s="252"/>
-      <c r="F430" s="252"/>
-      <c r="G430" s="252"/>
-      <c r="H430" s="252"/>
-      <c r="I430" s="252"/>
-      <c r="J430" s="252"/>
+      <c r="C430" s="245"/>
+      <c r="D430" s="245"/>
+      <c r="E430" s="245"/>
+      <c r="F430" s="245"/>
+      <c r="G430" s="245"/>
+      <c r="H430" s="245"/>
+      <c r="I430" s="245"/>
+      <c r="J430" s="245"/>
     </row>
     <row r="431" spans="2:10">
       <c r="B431" s="42" t="s">
@@ -17818,10 +17824,10 @@
       <c r="F431" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G431" s="248" t="s">
+      <c r="G431" s="246" t="s">
         <v>196</v>
       </c>
-      <c r="H431" s="249"/>
+      <c r="H431" s="247"/>
       <c r="I431" s="119" t="s">
         <v>189</v>
       </c>
@@ -17998,272 +18004,35 @@
       </c>
     </row>
     <row r="444" spans="2:10">
-      <c r="C444" s="198"/>
-      <c r="D444" s="198"/>
+      <c r="C444" s="218"/>
+      <c r="D444" s="218"/>
     </row>
     <row r="445" spans="2:10">
-      <c r="C445" s="198"/>
-      <c r="D445" s="198"/>
+      <c r="C445" s="218"/>
+      <c r="D445" s="218"/>
     </row>
     <row r="446" spans="2:10">
-      <c r="C446" s="198"/>
-      <c r="D446" s="198"/>
+      <c r="C446" s="218"/>
+      <c r="D446" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="293">
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B376:E376"/>
-    <mergeCell ref="B381:E381"/>
-    <mergeCell ref="B396:E396"/>
-    <mergeCell ref="B430:J430"/>
-    <mergeCell ref="G431:H431"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="E335:F335"/>
-    <mergeCell ref="B336:C336"/>
-    <mergeCell ref="E336:F336"/>
-    <mergeCell ref="B339:E339"/>
-    <mergeCell ref="B351:E351"/>
-    <mergeCell ref="B357:E357"/>
-    <mergeCell ref="B367:E367"/>
-    <mergeCell ref="B373:E373"/>
-    <mergeCell ref="B329:C329"/>
-    <mergeCell ref="E329:F329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="E330:F330"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="E331:F331"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="E333:F333"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="E334:F334"/>
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="E323:F323"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="E324:F324"/>
-    <mergeCell ref="B325:C325"/>
-    <mergeCell ref="E325:F325"/>
-    <mergeCell ref="B326:C326"/>
-    <mergeCell ref="E326:F326"/>
-    <mergeCell ref="B328:C328"/>
-    <mergeCell ref="E328:F328"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="B306:C306"/>
-    <mergeCell ref="B307:C307"/>
-    <mergeCell ref="B308:C308"/>
-    <mergeCell ref="B309:C309"/>
-    <mergeCell ref="B313:E313"/>
-    <mergeCell ref="B318:E318"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="E310:F310"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="E311:F311"/>
-    <mergeCell ref="E309:F309"/>
-    <mergeCell ref="E308:F308"/>
-    <mergeCell ref="E307:F307"/>
-    <mergeCell ref="E306:F306"/>
-    <mergeCell ref="E305:F305"/>
-    <mergeCell ref="E304:F304"/>
-    <mergeCell ref="E303:F303"/>
-    <mergeCell ref="E295:F295"/>
-    <mergeCell ref="E294:F294"/>
-    <mergeCell ref="E293:F293"/>
-    <mergeCell ref="E292:F292"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="E296:F296"/>
-    <mergeCell ref="E302:F302"/>
-    <mergeCell ref="E301:F301"/>
-    <mergeCell ref="E300:F300"/>
-    <mergeCell ref="E299:F299"/>
-    <mergeCell ref="E298:F298"/>
-    <mergeCell ref="E297:F297"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="E288:F288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="E289:F289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="E290:F290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="E291:F291"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="E266:F266"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E270:F270"/>
-    <mergeCell ref="E271:F271"/>
-    <mergeCell ref="E272:F272"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="E274:F274"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="E268:F268"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="E269:F269"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="E273:F273"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="E261:F261"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="E264:F264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="E265:F265"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="E255:F255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="E258:F258"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="E250:F250"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="E251:F251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="E252:F252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="E253:F253"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="E254:F254"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="E246:F246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="E247:F247"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="E248:F248"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="E244:F244"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="E249:F249"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="E241:F241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="E242:F242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="E243:F243"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="E235:F235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="E236:F236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="E237:F237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="E238:F238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="E239:F239"/>
-    <mergeCell ref="E230:F230"/>
-    <mergeCell ref="E231:F231"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="E240:F240"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="E228:F228"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="J168:J169"/>
-    <mergeCell ref="I164:I166"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B174:M174"/>
-    <mergeCell ref="B181:E181"/>
-    <mergeCell ref="B185:E185"/>
-    <mergeCell ref="B189:E189"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="J164:J166"/>
-    <mergeCell ref="B149:J149"/>
-    <mergeCell ref="B162:J162"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="D151:D154"/>
-    <mergeCell ref="E151:E154"/>
-    <mergeCell ref="F151:F154"/>
-    <mergeCell ref="J151:J154"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="I151:I154"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C42:M42"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B35:M35"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
     <mergeCell ref="C444:C446"/>
     <mergeCell ref="D444:D446"/>
     <mergeCell ref="B429:J429"/>
@@ -18288,22 +18057,259 @@
     <mergeCell ref="E206:F206"/>
     <mergeCell ref="B211:C211"/>
     <mergeCell ref="E211:F211"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="B149:J149"/>
+    <mergeCell ref="B162:J162"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="D151:D154"/>
+    <mergeCell ref="E151:E154"/>
+    <mergeCell ref="F151:F154"/>
+    <mergeCell ref="J151:J154"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="I151:I154"/>
+    <mergeCell ref="J168:J169"/>
+    <mergeCell ref="I164:I166"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B174:M174"/>
+    <mergeCell ref="B181:E181"/>
+    <mergeCell ref="B185:E185"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="J164:J166"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="E240:F240"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="E241:F241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="E242:F242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="E243:F243"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="E235:F235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="E236:F236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="E237:F237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="E238:F238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="E239:F239"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="E246:F246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="E247:F247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="E248:F248"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="E249:F249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="E250:F250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="E251:F251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="E252:F252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="E254:F254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="E265:F265"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="E266:F266"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E270:F270"/>
+    <mergeCell ref="E271:F271"/>
+    <mergeCell ref="E272:F272"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="E274:F274"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="E268:F268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="E269:F269"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="E288:F288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="E289:F289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="E290:F290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="E291:F291"/>
+    <mergeCell ref="E302:F302"/>
+    <mergeCell ref="E301:F301"/>
+    <mergeCell ref="E300:F300"/>
+    <mergeCell ref="E299:F299"/>
+    <mergeCell ref="E298:F298"/>
+    <mergeCell ref="E297:F297"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="E295:F295"/>
+    <mergeCell ref="E294:F294"/>
+    <mergeCell ref="E293:F293"/>
+    <mergeCell ref="E292:F292"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="E296:F296"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="B313:E313"/>
+    <mergeCell ref="B318:E318"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="E310:F310"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="E311:F311"/>
+    <mergeCell ref="E309:F309"/>
+    <mergeCell ref="E308:F308"/>
+    <mergeCell ref="E307:F307"/>
+    <mergeCell ref="E306:F306"/>
+    <mergeCell ref="E305:F305"/>
+    <mergeCell ref="E304:F304"/>
+    <mergeCell ref="E303:F303"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="E323:F323"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="E324:F324"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="E325:F325"/>
+    <mergeCell ref="B326:C326"/>
+    <mergeCell ref="E326:F326"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="E328:F328"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="E329:F329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="E330:F330"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="E331:F331"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="E334:F334"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B376:E376"/>
+    <mergeCell ref="B381:E381"/>
+    <mergeCell ref="B396:E396"/>
+    <mergeCell ref="B430:J430"/>
+    <mergeCell ref="G431:H431"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="E335:F335"/>
+    <mergeCell ref="B336:C336"/>
+    <mergeCell ref="E336:F336"/>
+    <mergeCell ref="B339:E339"/>
+    <mergeCell ref="B351:E351"/>
+    <mergeCell ref="B357:E357"/>
+    <mergeCell ref="B367:E367"/>
+    <mergeCell ref="B373:E373"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18342,14 +18348,14 @@
     </row>
     <row r="26" spans="2:7" ht="15" thickBot="1"/>
     <row r="27" spans="2:7" ht="15" thickBot="1">
-      <c r="B27" s="262" t="s">
+      <c r="B27" s="276" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="263"/>
-      <c r="D27" s="264" t="s">
+      <c r="C27" s="277"/>
+      <c r="D27" s="278" t="s">
         <v>205</v>
       </c>
-      <c r="E27" s="265"/>
+      <c r="E27" s="279"/>
     </row>
     <row r="28" spans="2:7" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B28" s="63" t="s">
@@ -18401,10 +18407,10 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="39" customHeight="1" thickBot="1">
-      <c r="B31" s="304" t="s">
+      <c r="B31" s="309" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="304">
+      <c r="C31" s="309">
         <v>160</v>
       </c>
       <c r="D31" s="31" t="s">
@@ -18415,8 +18421,8 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B32" s="305"/>
-      <c r="C32" s="305"/>
+      <c r="B32" s="310"/>
+      <c r="C32" s="310"/>
       <c r="D32" s="28" t="s">
         <v>602</v>
       </c>
@@ -18425,8 +18431,8 @@
       </c>
     </row>
     <row r="33" spans="2:13" ht="21" customHeight="1" thickBot="1">
-      <c r="B33" s="305"/>
-      <c r="C33" s="305"/>
+      <c r="B33" s="310"/>
+      <c r="C33" s="310"/>
       <c r="D33" s="31" t="s">
         <v>603</v>
       </c>
@@ -18435,8 +18441,8 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="21" customHeight="1" thickBot="1">
-      <c r="B34" s="305"/>
-      <c r="C34" s="305"/>
+      <c r="B34" s="310"/>
+      <c r="C34" s="310"/>
       <c r="D34" s="28" t="s">
         <v>604</v>
       </c>
@@ -18445,8 +18451,8 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="21" customHeight="1" thickBot="1">
-      <c r="B35" s="306"/>
-      <c r="C35" s="306"/>
+      <c r="B35" s="311"/>
+      <c r="C35" s="311"/>
       <c r="D35" s="31" t="s">
         <v>605</v>
       </c>
@@ -18456,20 +18462,20 @@
     </row>
     <row r="37" spans="2:13" ht="15" thickBot="1"/>
     <row r="38" spans="2:13">
-      <c r="B38" s="272" t="s">
+      <c r="B38" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="C38" s="273"/>
-      <c r="D38" s="273"/>
-      <c r="E38" s="273"/>
-      <c r="F38" s="273"/>
-      <c r="G38" s="273"/>
-      <c r="H38" s="273"/>
-      <c r="I38" s="273"/>
-      <c r="J38" s="273"/>
-      <c r="K38" s="273"/>
-      <c r="L38" s="273"/>
-      <c r="M38" s="274"/>
+      <c r="C38" s="267"/>
+      <c r="D38" s="267"/>
+      <c r="E38" s="267"/>
+      <c r="F38" s="267"/>
+      <c r="G38" s="267"/>
+      <c r="H38" s="267"/>
+      <c r="I38" s="267"/>
+      <c r="J38" s="267"/>
+      <c r="K38" s="267"/>
+      <c r="L38" s="267"/>
+      <c r="M38" s="268"/>
     </row>
     <row r="39" spans="2:13" ht="15" thickBot="1"/>
     <row r="40" spans="2:13" ht="17" thickBot="1">
@@ -18482,20 +18488,20 @@
     </row>
     <row r="41" spans="2:13" ht="15" thickBot="1"/>
     <row r="42" spans="2:13" ht="15" thickBot="1">
-      <c r="B42" s="307" t="s">
+      <c r="B42" s="298" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="308"/>
-      <c r="D42" s="308"/>
-      <c r="E42" s="309"/>
+      <c r="C42" s="299"/>
+      <c r="D42" s="299"/>
+      <c r="E42" s="300"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="252" t="s">
+      <c r="B44" s="245" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
-      <c r="E44" s="252"/>
+      <c r="C44" s="245"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="42" t="s">
@@ -18523,7 +18529,7 @@
       <c r="D46" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="E46" s="310" t="s">
+      <c r="E46" s="312" t="s">
         <v>246</v>
       </c>
     </row>
@@ -18538,7 +18544,7 @@
       <c r="D47" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="E47" s="311"/>
+      <c r="E47" s="313"/>
       <c r="G47" s="66"/>
     </row>
     <row r="48" spans="2:13" ht="29">
@@ -18557,12 +18563,12 @@
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="258" t="s">
+      <c r="B49" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="258"/>
-      <c r="D49" s="258"/>
-      <c r="E49" s="258"/>
+      <c r="C49" s="244"/>
+      <c r="D49" s="244"/>
+      <c r="E49" s="244"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="59" t="s">
@@ -18596,12 +18602,12 @@
     </row>
     <row r="53" spans="2:8" ht="15" thickBot="1"/>
     <row r="54" spans="2:8" ht="15" thickBot="1">
-      <c r="B54" s="307" t="s">
+      <c r="B54" s="298" t="s">
         <v>248</v>
       </c>
-      <c r="C54" s="308"/>
-      <c r="D54" s="308"/>
-      <c r="E54" s="309"/>
+      <c r="C54" s="299"/>
+      <c r="D54" s="299"/>
+      <c r="E54" s="300"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="118" t="s">
@@ -18609,12 +18615,12 @@
       </c>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="258" t="s">
+      <c r="B57" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="258"/>
-      <c r="D57" s="258"/>
-      <c r="E57" s="258"/>
+      <c r="C57" s="244"/>
+      <c r="D57" s="244"/>
+      <c r="E57" s="244"/>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="73" t="s">
@@ -18676,12 +18682,12 @@
       <c r="F61" s="72"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="258" t="s">
+      <c r="B62" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="258"/>
-      <c r="D62" s="258"/>
-      <c r="E62" s="258"/>
+      <c r="C62" s="244"/>
+      <c r="D62" s="244"/>
+      <c r="E62" s="244"/>
       <c r="G62" t="s">
         <v>262</v>
       </c>
@@ -18731,20 +18737,20 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="33" customHeight="1">
-      <c r="B66" s="312" t="s">
+      <c r="B66" s="305" t="s">
         <v>533</v>
       </c>
-      <c r="C66" s="312"/>
-      <c r="D66" s="312"/>
-      <c r="E66" s="312"/>
+      <c r="C66" s="305"/>
+      <c r="D66" s="305"/>
+      <c r="E66" s="305"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="258" t="s">
+      <c r="B67" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="258"/>
-      <c r="D67" s="258"/>
-      <c r="E67" s="258"/>
+      <c r="C67" s="244"/>
+      <c r="D67" s="244"/>
+      <c r="E67" s="244"/>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="42" t="s">
@@ -18814,12 +18820,12 @@
       </c>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="258" t="s">
+      <c r="B73" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="258"/>
-      <c r="D73" s="258"/>
-      <c r="E73" s="258"/>
+      <c r="C73" s="244"/>
+      <c r="D73" s="244"/>
+      <c r="E73" s="244"/>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="59" t="s">
@@ -18878,20 +18884,20 @@
       <c r="E77" s="76"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="313" t="s">
+      <c r="B79" s="306" t="s">
         <v>274</v>
       </c>
-      <c r="C79" s="312"/>
-      <c r="D79" s="312"/>
-      <c r="E79" s="312"/>
+      <c r="C79" s="305"/>
+      <c r="D79" s="305"/>
+      <c r="E79" s="305"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="258" t="s">
+      <c r="B80" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="258"/>
-      <c r="D80" s="258"/>
-      <c r="E80" s="258"/>
+      <c r="C80" s="244"/>
+      <c r="D80" s="244"/>
+      <c r="E80" s="244"/>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="42" t="s">
@@ -18933,12 +18939,12 @@
       </c>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="258" t="s">
+      <c r="B84" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="258"/>
-      <c r="D84" s="258"/>
-      <c r="E84" s="258"/>
+      <c r="C84" s="244"/>
+      <c r="D84" s="244"/>
+      <c r="E84" s="244"/>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="59" t="s">
@@ -18968,20 +18974,20 @@
     </row>
     <row r="87" spans="2:5" ht="15" thickBot="1"/>
     <row r="88" spans="2:5" ht="15" thickBot="1">
-      <c r="B88" s="307" t="s">
+      <c r="B88" s="298" t="s">
         <v>277</v>
       </c>
-      <c r="C88" s="308"/>
-      <c r="D88" s="308"/>
-      <c r="E88" s="309"/>
+      <c r="C88" s="299"/>
+      <c r="D88" s="299"/>
+      <c r="E88" s="300"/>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="258" t="s">
+      <c r="B90" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="258"/>
-      <c r="D90" s="258"/>
-      <c r="E90" s="258"/>
+      <c r="C90" s="244"/>
+      <c r="D90" s="244"/>
+      <c r="E90" s="244"/>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="42" t="s">
@@ -19013,12 +19019,12 @@
       </c>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="258" t="s">
+      <c r="B93" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="258"/>
-      <c r="D93" s="258"/>
-      <c r="E93" s="258"/>
+      <c r="C93" s="244"/>
+      <c r="D93" s="244"/>
+      <c r="E93" s="244"/>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="59" t="s">
@@ -19034,12 +19040,12 @@
       <c r="E94" s="58"/>
     </row>
     <row r="96" spans="2:5">
-      <c r="B96" s="258" t="s">
+      <c r="B96" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="258"/>
-      <c r="D96" s="258"/>
-      <c r="E96" s="258"/>
+      <c r="C96" s="244"/>
+      <c r="D96" s="244"/>
+      <c r="E96" s="244"/>
     </row>
     <row r="97" spans="2:17">
       <c r="B97" s="42" t="s">
@@ -19071,10 +19077,10 @@
       </c>
     </row>
     <row r="99" spans="2:17">
-      <c r="B99" s="258"/>
-      <c r="C99" s="258"/>
-      <c r="D99" s="258"/>
-      <c r="E99" s="258"/>
+      <c r="B99" s="244"/>
+      <c r="C99" s="244"/>
+      <c r="D99" s="244"/>
+      <c r="E99" s="244"/>
     </row>
     <row r="100" spans="2:17">
       <c r="B100" s="59" t="s">
@@ -19091,33 +19097,33 @@
     </row>
     <row r="101" spans="2:17" ht="15" thickBot="1"/>
     <row r="102" spans="2:17" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B102" s="307" t="s">
+      <c r="B102" s="298" t="s">
         <v>282</v>
       </c>
-      <c r="C102" s="308"/>
-      <c r="D102" s="308"/>
-      <c r="E102" s="309"/>
-      <c r="G102" s="314" t="s">
+      <c r="C102" s="299"/>
+      <c r="D102" s="299"/>
+      <c r="E102" s="300"/>
+      <c r="G102" s="307" t="s">
         <v>281</v>
       </c>
-      <c r="H102" s="315"/>
-      <c r="I102" s="315"/>
-      <c r="J102" s="315"/>
-      <c r="K102" s="315"/>
-      <c r="L102" s="315"/>
-      <c r="M102" s="315"/>
-      <c r="N102" s="315"/>
-      <c r="O102" s="315"/>
-      <c r="P102" s="315"/>
-      <c r="Q102" s="315"/>
+      <c r="H102" s="308"/>
+      <c r="I102" s="308"/>
+      <c r="J102" s="308"/>
+      <c r="K102" s="308"/>
+      <c r="L102" s="308"/>
+      <c r="M102" s="308"/>
+      <c r="N102" s="308"/>
+      <c r="O102" s="308"/>
+      <c r="P102" s="308"/>
+      <c r="Q102" s="308"/>
     </row>
     <row r="104" spans="2:17">
-      <c r="B104" s="258" t="s">
+      <c r="B104" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="258"/>
-      <c r="D104" s="258"/>
-      <c r="E104" s="258"/>
+      <c r="C104" s="244"/>
+      <c r="D104" s="244"/>
+      <c r="E104" s="244"/>
     </row>
     <row r="105" spans="2:17">
       <c r="B105" s="42" t="s">
@@ -19236,12 +19242,12 @@
       </c>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="258" t="s">
+      <c r="B113" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C113" s="258"/>
-      <c r="D113" s="258"/>
-      <c r="E113" s="258"/>
+      <c r="C113" s="244"/>
+      <c r="D113" s="244"/>
+      <c r="E113" s="244"/>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="59" t="s">
@@ -19262,12 +19268,12 @@
       </c>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="258" t="s">
+      <c r="B118" s="244" t="s">
         <v>213</v>
       </c>
-      <c r="C118" s="258"/>
-      <c r="D118" s="258"/>
-      <c r="E118" s="258"/>
+      <c r="C118" s="244"/>
+      <c r="D118" s="244"/>
+      <c r="E118" s="244"/>
       <c r="F118" s="107"/>
     </row>
     <row r="119" spans="2:6">
@@ -19510,17 +19516,17 @@
       </c>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" s="252" t="s">
+      <c r="B135" s="245" t="s">
         <v>213</v>
       </c>
-      <c r="C135" s="252"/>
-      <c r="D135" s="252"/>
-      <c r="E135" s="252"/>
-      <c r="F135" s="252"/>
-      <c r="G135" s="252"/>
-      <c r="H135" s="252"/>
-      <c r="I135" s="252"/>
-      <c r="J135" s="252"/>
+      <c r="C135" s="245"/>
+      <c r="D135" s="245"/>
+      <c r="E135" s="245"/>
+      <c r="F135" s="245"/>
+      <c r="G135" s="245"/>
+      <c r="H135" s="245"/>
+      <c r="I135" s="245"/>
+      <c r="J135" s="245"/>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="42" t="s">
@@ -19538,10 +19544,10 @@
       <c r="F136" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G136" s="248" t="s">
+      <c r="G136" s="246" t="s">
         <v>196</v>
       </c>
-      <c r="H136" s="249"/>
+      <c r="H136" s="247"/>
       <c r="I136" s="119" t="s">
         <v>189</v>
       </c>
@@ -19551,47 +19557,47 @@
       <c r="K136" s="1"/>
     </row>
     <row r="137" spans="2:11" ht="117" customHeight="1">
-      <c r="B137" s="298" t="s">
+      <c r="B137" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="184" t="s">
+      <c r="C137" s="179" t="s">
         <v>194</v>
       </c>
-      <c r="D137" s="184" t="s">
+      <c r="D137" s="179" t="s">
         <v>289</v>
       </c>
-      <c r="E137" s="184" t="s">
+      <c r="E137" s="179" t="s">
         <v>562</v>
       </c>
-      <c r="F137" s="298"/>
+      <c r="F137" s="292"/>
       <c r="G137" s="140" t="s">
         <v>684</v>
       </c>
       <c r="H137" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="I137" s="284" t="s">
+      <c r="I137" s="262" t="s">
         <v>293</v>
       </c>
-      <c r="J137" s="184" t="s">
+      <c r="J137" s="179" t="s">
         <v>574</v>
       </c>
       <c r="K137" s="142"/>
     </row>
     <row r="138" spans="2:11" ht="43.5">
-      <c r="B138" s="299"/>
-      <c r="C138" s="185"/>
-      <c r="D138" s="185"/>
-      <c r="E138" s="185"/>
-      <c r="F138" s="299"/>
+      <c r="B138" s="294"/>
+      <c r="C138" s="180"/>
+      <c r="D138" s="180"/>
+      <c r="E138" s="180"/>
+      <c r="F138" s="294"/>
       <c r="G138" s="51" t="s">
         <v>623</v>
       </c>
       <c r="H138" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="I138" s="286"/>
-      <c r="J138" s="185"/>
+      <c r="I138" s="264"/>
+      <c r="J138" s="180"/>
       <c r="K138" s="1"/>
     </row>
     <row r="139" spans="2:11" ht="101.5">
@@ -19681,19 +19687,19 @@
       <c r="K141" s="1"/>
     </row>
     <row r="142" spans="2:11" ht="149.25" customHeight="1">
-      <c r="B142" s="298" t="s">
+      <c r="B142" s="292" t="s">
         <v>183</v>
       </c>
-      <c r="C142" s="184" t="s">
+      <c r="C142" s="179" t="s">
         <v>297</v>
       </c>
-      <c r="D142" s="184" t="s">
+      <c r="D142" s="179" t="s">
         <v>616</v>
       </c>
-      <c r="E142" s="184" t="s">
+      <c r="E142" s="179" t="s">
         <v>617</v>
       </c>
-      <c r="F142" s="184" t="s">
+      <c r="F142" s="179" t="s">
         <v>631</v>
       </c>
       <c r="G142" s="141" t="s">
@@ -19705,17 +19711,17 @@
       <c r="I142" s="120" t="s">
         <v>743</v>
       </c>
-      <c r="J142" s="184" t="s">
+      <c r="J142" s="179" t="s">
         <v>633</v>
       </c>
-      <c r="K142" s="318"/>
+      <c r="K142" s="301"/>
     </row>
     <row r="143" spans="2:11" ht="173.25" customHeight="1">
-      <c r="B143" s="317"/>
-      <c r="C143" s="316"/>
-      <c r="D143" s="316"/>
-      <c r="E143" s="316"/>
-      <c r="F143" s="316"/>
+      <c r="B143" s="293"/>
+      <c r="C143" s="291"/>
+      <c r="D143" s="291"/>
+      <c r="E143" s="291"/>
+      <c r="F143" s="291"/>
       <c r="G143" s="141" t="s">
         <v>750</v>
       </c>
@@ -19723,15 +19729,15 @@
         <v>751</v>
       </c>
       <c r="I143" s="120"/>
-      <c r="J143" s="316"/>
-      <c r="K143" s="318"/>
+      <c r="J143" s="291"/>
+      <c r="K143" s="301"/>
     </row>
     <row r="144" spans="2:11" ht="84" customHeight="1">
-      <c r="B144" s="317"/>
-      <c r="C144" s="316"/>
-      <c r="D144" s="316"/>
-      <c r="E144" s="316"/>
-      <c r="F144" s="316"/>
+      <c r="B144" s="293"/>
+      <c r="C144" s="291"/>
+      <c r="D144" s="291"/>
+      <c r="E144" s="291"/>
+      <c r="F144" s="291"/>
       <c r="G144" s="141" t="s">
         <v>757</v>
       </c>
@@ -19739,15 +19745,15 @@
         <v>752</v>
       </c>
       <c r="I144" s="120"/>
-      <c r="J144" s="316"/>
-      <c r="K144" s="318"/>
+      <c r="J144" s="291"/>
+      <c r="K144" s="301"/>
     </row>
     <row r="145" spans="2:13" ht="232.5" customHeight="1">
-      <c r="B145" s="317"/>
-      <c r="C145" s="316"/>
-      <c r="D145" s="316"/>
-      <c r="E145" s="316"/>
-      <c r="F145" s="316"/>
+      <c r="B145" s="293"/>
+      <c r="C145" s="291"/>
+      <c r="D145" s="291"/>
+      <c r="E145" s="291"/>
+      <c r="F145" s="291"/>
       <c r="G145" s="141" t="s">
         <v>753</v>
       </c>
@@ -19755,15 +19761,15 @@
         <v>754</v>
       </c>
       <c r="I145" s="120"/>
-      <c r="J145" s="316"/>
-      <c r="K145" s="318"/>
+      <c r="J145" s="291"/>
+      <c r="K145" s="301"/>
     </row>
     <row r="146" spans="2:13" ht="91.5" customHeight="1">
-      <c r="B146" s="317"/>
-      <c r="C146" s="316"/>
-      <c r="D146" s="316"/>
-      <c r="E146" s="316"/>
-      <c r="F146" s="316"/>
+      <c r="B146" s="293"/>
+      <c r="C146" s="291"/>
+      <c r="D146" s="291"/>
+      <c r="E146" s="291"/>
+      <c r="F146" s="291"/>
       <c r="G146" s="36" t="s">
         <v>755</v>
       </c>
@@ -19771,15 +19777,15 @@
         <v>756</v>
       </c>
       <c r="I146" s="120"/>
-      <c r="J146" s="316"/>
-      <c r="K146" s="318"/>
+      <c r="J146" s="291"/>
+      <c r="K146" s="301"/>
     </row>
     <row r="147" spans="2:13" ht="87.75" customHeight="1">
-      <c r="B147" s="299"/>
-      <c r="C147" s="185"/>
-      <c r="D147" s="185"/>
-      <c r="E147" s="185"/>
-      <c r="F147" s="185"/>
+      <c r="B147" s="294"/>
+      <c r="C147" s="180"/>
+      <c r="D147" s="180"/>
+      <c r="E147" s="180"/>
+      <c r="F147" s="180"/>
       <c r="G147" s="36" t="s">
         <v>834</v>
       </c>
@@ -19787,23 +19793,23 @@
         <v>752</v>
       </c>
       <c r="I147" s="120"/>
-      <c r="J147" s="185"/>
-      <c r="K147" s="318"/>
+      <c r="J147" s="180"/>
+      <c r="K147" s="301"/>
     </row>
     <row r="148" spans="2:13" ht="103.5" customHeight="1">
-      <c r="B148" s="298" t="s">
+      <c r="B148" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="C148" s="184" t="s">
+      <c r="C148" s="179" t="s">
         <v>297</v>
       </c>
-      <c r="D148" s="184" t="s">
+      <c r="D148" s="179" t="s">
         <v>616</v>
       </c>
-      <c r="E148" s="184" t="s">
+      <c r="E148" s="179" t="s">
         <v>632</v>
       </c>
-      <c r="F148" s="184" t="s">
+      <c r="F148" s="179" t="s">
         <v>620</v>
       </c>
       <c r="G148" s="52" t="s">
@@ -19815,17 +19821,17 @@
       <c r="I148" s="120" t="s">
         <v>845</v>
       </c>
-      <c r="J148" s="184" t="s">
+      <c r="J148" s="179" t="s">
         <v>633</v>
       </c>
-      <c r="K148" s="319"/>
+      <c r="K148" s="302"/>
     </row>
     <row r="149" spans="2:13" ht="279" customHeight="1">
-      <c r="B149" s="317"/>
-      <c r="C149" s="316"/>
-      <c r="D149" s="316"/>
-      <c r="E149" s="316"/>
-      <c r="F149" s="316"/>
+      <c r="B149" s="293"/>
+      <c r="C149" s="291"/>
+      <c r="D149" s="291"/>
+      <c r="E149" s="291"/>
+      <c r="F149" s="291"/>
       <c r="G149" s="52" t="s">
         <v>837</v>
       </c>
@@ -19833,29 +19839,29 @@
         <v>838</v>
       </c>
       <c r="I149" s="120"/>
-      <c r="J149" s="316"/>
-      <c r="K149" s="320"/>
+      <c r="J149" s="291"/>
+      <c r="K149" s="303"/>
     </row>
     <row r="150" spans="2:13" ht="96.75" customHeight="1">
-      <c r="B150" s="317"/>
-      <c r="C150" s="316"/>
-      <c r="D150" s="316"/>
-      <c r="E150" s="316"/>
-      <c r="F150" s="316"/>
+      <c r="B150" s="293"/>
+      <c r="C150" s="291"/>
+      <c r="D150" s="291"/>
+      <c r="E150" s="291"/>
+      <c r="F150" s="291"/>
       <c r="G150" s="52" t="s">
         <v>839</v>
       </c>
       <c r="H150" s="36"/>
       <c r="I150" s="120"/>
-      <c r="J150" s="316"/>
-      <c r="K150" s="320"/>
+      <c r="J150" s="291"/>
+      <c r="K150" s="303"/>
     </row>
     <row r="151" spans="2:13" ht="144" customHeight="1">
-      <c r="B151" s="317"/>
-      <c r="C151" s="316"/>
-      <c r="D151" s="316"/>
-      <c r="E151" s="316"/>
-      <c r="F151" s="316"/>
+      <c r="B151" s="293"/>
+      <c r="C151" s="291"/>
+      <c r="D151" s="291"/>
+      <c r="E151" s="291"/>
+      <c r="F151" s="291"/>
       <c r="G151" s="52" t="s">
         <v>840</v>
       </c>
@@ -19863,15 +19869,15 @@
         <v>841</v>
       </c>
       <c r="I151" s="120"/>
-      <c r="J151" s="316"/>
-      <c r="K151" s="320"/>
+      <c r="J151" s="291"/>
+      <c r="K151" s="303"/>
     </row>
     <row r="152" spans="2:13" ht="144" customHeight="1">
-      <c r="B152" s="317"/>
-      <c r="C152" s="316"/>
-      <c r="D152" s="316"/>
-      <c r="E152" s="316"/>
-      <c r="F152" s="316"/>
+      <c r="B152" s="293"/>
+      <c r="C152" s="291"/>
+      <c r="D152" s="291"/>
+      <c r="E152" s="291"/>
+      <c r="F152" s="291"/>
       <c r="G152" s="52" t="s">
         <v>842</v>
       </c>
@@ -19879,15 +19885,15 @@
         <v>843</v>
       </c>
       <c r="I152" s="120"/>
-      <c r="J152" s="316"/>
-      <c r="K152" s="320"/>
+      <c r="J152" s="291"/>
+      <c r="K152" s="303"/>
     </row>
     <row r="153" spans="2:13" ht="93.75" customHeight="1">
-      <c r="B153" s="299"/>
-      <c r="C153" s="185"/>
-      <c r="D153" s="185"/>
-      <c r="E153" s="185"/>
-      <c r="F153" s="185"/>
+      <c r="B153" s="294"/>
+      <c r="C153" s="180"/>
+      <c r="D153" s="180"/>
+      <c r="E153" s="180"/>
+      <c r="F153" s="180"/>
       <c r="G153" s="36" t="s">
         <v>844</v>
       </c>
@@ -19895,25 +19901,25 @@
         <v>752</v>
       </c>
       <c r="I153" s="120"/>
-      <c r="J153" s="185"/>
-      <c r="K153" s="321"/>
+      <c r="J153" s="180"/>
+      <c r="K153" s="304"/>
     </row>
     <row r="155" spans="2:13" ht="15" thickBot="1"/>
     <row r="156" spans="2:13">
-      <c r="B156" s="272" t="s">
+      <c r="B156" s="266" t="s">
         <v>300</v>
       </c>
-      <c r="C156" s="273"/>
-      <c r="D156" s="273"/>
-      <c r="E156" s="273"/>
-      <c r="F156" s="273"/>
-      <c r="G156" s="273"/>
-      <c r="H156" s="273"/>
-      <c r="I156" s="273"/>
-      <c r="J156" s="273"/>
-      <c r="K156" s="273"/>
-      <c r="L156" s="273"/>
-      <c r="M156" s="274"/>
+      <c r="C156" s="267"/>
+      <c r="D156" s="267"/>
+      <c r="E156" s="267"/>
+      <c r="F156" s="267"/>
+      <c r="G156" s="267"/>
+      <c r="H156" s="267"/>
+      <c r="I156" s="267"/>
+      <c r="J156" s="267"/>
+      <c r="K156" s="267"/>
+      <c r="L156" s="267"/>
+      <c r="M156" s="268"/>
     </row>
     <row r="157" spans="2:13" ht="15" thickBot="1"/>
     <row r="158" spans="2:13" ht="17" thickBot="1">
@@ -19926,20 +19932,20 @@
     </row>
     <row r="159" spans="2:13" ht="15" thickBot="1"/>
     <row r="160" spans="2:13" ht="15" thickBot="1">
-      <c r="B160" s="307" t="s">
+      <c r="B160" s="298" t="s">
         <v>282</v>
       </c>
-      <c r="C160" s="308"/>
-      <c r="D160" s="308"/>
-      <c r="E160" s="309"/>
+      <c r="C160" s="299"/>
+      <c r="D160" s="299"/>
+      <c r="E160" s="300"/>
     </row>
     <row r="162" spans="2:5">
-      <c r="B162" s="258" t="s">
+      <c r="B162" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C162" s="258"/>
-      <c r="D162" s="258"/>
-      <c r="E162" s="258"/>
+      <c r="C162" s="244"/>
+      <c r="D162" s="244"/>
+      <c r="E162" s="244"/>
     </row>
     <row r="163" spans="2:5">
       <c r="B163" s="42" t="s">
@@ -20001,12 +20007,12 @@
       </c>
     </row>
     <row r="167" spans="2:5">
-      <c r="B167" s="258" t="s">
+      <c r="B167" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C167" s="258"/>
-      <c r="D167" s="258"/>
-      <c r="E167" s="258"/>
+      <c r="C167" s="244"/>
+      <c r="D167" s="244"/>
+      <c r="E167" s="244"/>
     </row>
     <row r="168" spans="2:5">
       <c r="B168" s="59" t="s">
@@ -20023,21 +20029,21 @@
     </row>
     <row r="169" spans="2:5" ht="15" thickBot="1"/>
     <row r="170" spans="2:5" ht="15" thickBot="1">
-      <c r="B170" s="307" t="s">
+      <c r="B170" s="298" t="s">
         <v>422</v>
       </c>
-      <c r="C170" s="308"/>
-      <c r="D170" s="308"/>
-      <c r="E170" s="309"/>
+      <c r="C170" s="299"/>
+      <c r="D170" s="299"/>
+      <c r="E170" s="300"/>
     </row>
     <row r="171" spans="2:5" ht="15" thickBot="1"/>
     <row r="172" spans="2:5" ht="15" thickBot="1">
-      <c r="B172" s="307" t="s">
+      <c r="B172" s="298" t="s">
         <v>248</v>
       </c>
-      <c r="C172" s="308"/>
-      <c r="D172" s="308"/>
-      <c r="E172" s="309"/>
+      <c r="C172" s="299"/>
+      <c r="D172" s="299"/>
+      <c r="E172" s="300"/>
     </row>
     <row r="174" spans="2:5">
       <c r="B174" s="118" t="s">
@@ -20045,12 +20051,12 @@
       </c>
     </row>
     <row r="175" spans="2:5">
-      <c r="B175" s="258" t="s">
+      <c r="B175" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C175" s="258"/>
-      <c r="D175" s="258"/>
-      <c r="E175" s="258"/>
+      <c r="C175" s="244"/>
+      <c r="D175" s="244"/>
+      <c r="E175" s="244"/>
     </row>
     <row r="176" spans="2:5">
       <c r="B176" s="73" t="s">
@@ -20124,12 +20130,12 @@
       </c>
     </row>
     <row r="181" spans="2:5">
-      <c r="B181" s="258" t="s">
+      <c r="B181" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C181" s="258"/>
-      <c r="D181" s="258"/>
-      <c r="E181" s="258"/>
+      <c r="C181" s="244"/>
+      <c r="D181" s="244"/>
+      <c r="E181" s="244"/>
     </row>
     <row r="182" spans="2:5" ht="29">
       <c r="B182" s="59" t="s">
@@ -20159,20 +20165,20 @@
     </row>
     <row r="184" spans="2:5" ht="15" thickBot="1"/>
     <row r="185" spans="2:5" ht="15" thickBot="1">
-      <c r="B185" s="307" t="s">
+      <c r="B185" s="298" t="s">
         <v>277</v>
       </c>
-      <c r="C185" s="308"/>
-      <c r="D185" s="308"/>
-      <c r="E185" s="309"/>
+      <c r="C185" s="299"/>
+      <c r="D185" s="299"/>
+      <c r="E185" s="300"/>
     </row>
     <row r="187" spans="2:5">
-      <c r="B187" s="258" t="s">
+      <c r="B187" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="C187" s="258"/>
-      <c r="D187" s="258"/>
-      <c r="E187" s="258"/>
+      <c r="C187" s="244"/>
+      <c r="D187" s="244"/>
+      <c r="E187" s="244"/>
     </row>
     <row r="188" spans="2:5">
       <c r="B188" s="42" t="s">
@@ -20204,12 +20210,12 @@
       </c>
     </row>
     <row r="190" spans="2:5">
-      <c r="B190" s="258" t="s">
+      <c r="B190" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="C190" s="258"/>
-      <c r="D190" s="258"/>
-      <c r="E190" s="258"/>
+      <c r="C190" s="244"/>
+      <c r="D190" s="244"/>
+      <c r="E190" s="244"/>
     </row>
     <row r="191" spans="2:5">
       <c r="B191" s="59" t="s">
@@ -20230,12 +20236,12 @@
       </c>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="258" t="s">
+      <c r="B195" s="244" t="s">
         <v>300</v>
       </c>
-      <c r="C195" s="258"/>
-      <c r="D195" s="258"/>
-      <c r="E195" s="258"/>
+      <c r="C195" s="244"/>
+      <c r="D195" s="244"/>
+      <c r="E195" s="244"/>
       <c r="F195" s="105"/>
     </row>
     <row r="196" spans="2:6">
@@ -20431,17 +20437,17 @@
       </c>
     </row>
     <row r="212" spans="2:11">
-      <c r="B212" s="252" t="s">
+      <c r="B212" s="245" t="s">
         <v>300</v>
       </c>
-      <c r="C212" s="252"/>
-      <c r="D212" s="252"/>
-      <c r="E212" s="252"/>
-      <c r="F212" s="252"/>
-      <c r="G212" s="252"/>
-      <c r="H212" s="252"/>
-      <c r="I212" s="252"/>
-      <c r="J212" s="252"/>
+      <c r="C212" s="245"/>
+      <c r="D212" s="245"/>
+      <c r="E212" s="245"/>
+      <c r="F212" s="245"/>
+      <c r="G212" s="245"/>
+      <c r="H212" s="245"/>
+      <c r="I212" s="245"/>
+      <c r="J212" s="245"/>
     </row>
     <row r="213" spans="2:11">
       <c r="B213" s="42" t="s">
@@ -20459,10 +20465,10 @@
       <c r="F213" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G213" s="248" t="s">
+      <c r="G213" s="246" t="s">
         <v>196</v>
       </c>
-      <c r="H213" s="249"/>
+      <c r="H213" s="247"/>
       <c r="I213" s="119" t="s">
         <v>189</v>
       </c>
@@ -20471,54 +20477,54 @@
       </c>
     </row>
     <row r="214" spans="2:11" ht="87" customHeight="1">
-      <c r="B214" s="298" t="s">
+      <c r="B214" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="C214" s="184" t="s">
+      <c r="C214" s="179" t="s">
         <v>194</v>
       </c>
-      <c r="D214" s="184" t="s">
+      <c r="D214" s="179" t="s">
         <v>289</v>
       </c>
-      <c r="E214" s="184" t="s">
+      <c r="E214" s="179" t="s">
         <v>562</v>
       </c>
-      <c r="F214" s="298"/>
-      <c r="G214" s="294" t="s">
+      <c r="F214" s="292"/>
+      <c r="G214" s="317" t="s">
         <v>610</v>
       </c>
-      <c r="H214" s="296" t="s">
+      <c r="H214" s="319" t="s">
         <v>611</v>
       </c>
-      <c r="I214" s="284">
+      <c r="I214" s="262">
         <v>0.5</v>
       </c>
-      <c r="J214" s="184" t="s">
+      <c r="J214" s="179" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="215" spans="2:11" ht="1.5" customHeight="1">
-      <c r="B215" s="299"/>
-      <c r="C215" s="185"/>
-      <c r="D215" s="185"/>
-      <c r="E215" s="185"/>
-      <c r="F215" s="299"/>
-      <c r="G215" s="295"/>
-      <c r="H215" s="297"/>
-      <c r="I215" s="286"/>
-      <c r="J215" s="185"/>
+      <c r="B215" s="294"/>
+      <c r="C215" s="180"/>
+      <c r="D215" s="180"/>
+      <c r="E215" s="180"/>
+      <c r="F215" s="294"/>
+      <c r="G215" s="318"/>
+      <c r="H215" s="320"/>
+      <c r="I215" s="264"/>
+      <c r="J215" s="180"/>
     </row>
     <row r="216" spans="2:11" ht="39.75" customHeight="1">
-      <c r="B216" s="298" t="s">
+      <c r="B216" s="292" t="s">
         <v>180</v>
       </c>
-      <c r="C216" s="184" t="s">
+      <c r="C216" s="179" t="s">
         <v>573</v>
       </c>
-      <c r="D216" s="184" t="s">
+      <c r="D216" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="E216" s="184" t="s">
+      <c r="E216" s="179" t="s">
         <v>550</v>
       </c>
       <c r="F216" s="182"/>
@@ -20528,18 +20534,18 @@
       <c r="H216" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="I216" s="284">
+      <c r="I216" s="262">
         <v>0</v>
       </c>
-      <c r="J216" s="184" t="s">
+      <c r="J216" s="179" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="217" spans="2:11" ht="39.75" customHeight="1">
-      <c r="B217" s="299"/>
-      <c r="C217" s="185"/>
-      <c r="D217" s="185"/>
-      <c r="E217" s="185"/>
+      <c r="B217" s="294"/>
+      <c r="C217" s="180"/>
+      <c r="D217" s="180"/>
+      <c r="E217" s="180"/>
       <c r="F217" s="183"/>
       <c r="G217" s="36" t="s">
         <v>612</v>
@@ -20547,49 +20553,49 @@
       <c r="H217" s="34" t="s">
         <v>572</v>
       </c>
-      <c r="I217" s="286"/>
-      <c r="J217" s="185"/>
+      <c r="I217" s="264"/>
+      <c r="J217" s="180"/>
     </row>
     <row r="218" spans="2:11" ht="30" customHeight="1">
-      <c r="B218" s="298" t="s">
+      <c r="B218" s="292" t="s">
         <v>181</v>
       </c>
-      <c r="C218" s="184" t="s">
+      <c r="C218" s="179" t="s">
         <v>566</v>
       </c>
-      <c r="D218" s="184" t="s">
+      <c r="D218" s="179" t="s">
         <v>202</v>
       </c>
-      <c r="E218" s="184" t="s">
+      <c r="E218" s="179" t="s">
         <v>296</v>
       </c>
-      <c r="F218" s="184" t="s">
+      <c r="F218" s="179" t="s">
         <v>550</v>
       </c>
-      <c r="G218" s="302" t="s">
+      <c r="G218" s="323" t="s">
         <v>679</v>
       </c>
-      <c r="H218" s="298" t="s">
+      <c r="H218" s="292" t="s">
         <v>680</v>
       </c>
-      <c r="I218" s="300" t="s">
+      <c r="I218" s="321" t="s">
         <v>681</v>
       </c>
-      <c r="J218" s="184" t="s">
+      <c r="J218" s="179" t="s">
         <v>740</v>
       </c>
       <c r="K218" s="77"/>
     </row>
     <row r="219" spans="2:11" ht="142.5" customHeight="1">
-      <c r="B219" s="299"/>
-      <c r="C219" s="185"/>
-      <c r="D219" s="185"/>
-      <c r="E219" s="185"/>
-      <c r="F219" s="185"/>
-      <c r="G219" s="303"/>
-      <c r="H219" s="299"/>
-      <c r="I219" s="301"/>
-      <c r="J219" s="185"/>
+      <c r="B219" s="294"/>
+      <c r="C219" s="180"/>
+      <c r="D219" s="180"/>
+      <c r="E219" s="180"/>
+      <c r="F219" s="180"/>
+      <c r="G219" s="324"/>
+      <c r="H219" s="294"/>
+      <c r="I219" s="322"/>
+      <c r="J219" s="180"/>
       <c r="K219" s="127"/>
     </row>
     <row r="220" spans="2:11" ht="202.5" customHeight="1">
@@ -20622,73 +20628,73 @@
       </c>
     </row>
     <row r="221" spans="2:11" ht="157.5" customHeight="1">
-      <c r="B221" s="298" t="s">
+      <c r="B221" s="292" t="s">
         <v>183</v>
       </c>
-      <c r="C221" s="184" t="s">
+      <c r="C221" s="179" t="s">
         <v>615</v>
       </c>
-      <c r="D221" s="184" t="s">
+      <c r="D221" s="179" t="s">
         <v>616</v>
       </c>
-      <c r="E221" s="184" t="s">
+      <c r="E221" s="179" t="s">
         <v>298</v>
       </c>
-      <c r="F221" s="184" t="s">
+      <c r="F221" s="179" t="s">
         <v>620</v>
       </c>
-      <c r="G221" s="322" t="s">
+      <c r="G221" s="295" t="s">
         <v>742</v>
       </c>
-      <c r="H221" s="323" t="s">
+      <c r="H221" s="296" t="s">
         <v>833</v>
       </c>
       <c r="I221" s="120" t="s">
         <v>743</v>
       </c>
-      <c r="J221" s="324" t="s">
+      <c r="J221" s="297" t="s">
         <v>746</v>
       </c>
-      <c r="K221" s="291"/>
+      <c r="K221" s="314"/>
     </row>
     <row r="222" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B222" s="317"/>
-      <c r="C222" s="316"/>
-      <c r="D222" s="316"/>
-      <c r="E222" s="316"/>
-      <c r="F222" s="316"/>
-      <c r="G222" s="322"/>
-      <c r="H222" s="323"/>
+      <c r="B222" s="293"/>
+      <c r="C222" s="291"/>
+      <c r="D222" s="291"/>
+      <c r="E222" s="291"/>
+      <c r="F222" s="291"/>
+      <c r="G222" s="295"/>
+      <c r="H222" s="296"/>
       <c r="I222" s="120"/>
-      <c r="J222" s="316"/>
-      <c r="K222" s="292"/>
+      <c r="J222" s="291"/>
+      <c r="K222" s="315"/>
     </row>
     <row r="223" spans="2:11" ht="409.5" customHeight="1">
-      <c r="B223" s="299"/>
-      <c r="C223" s="185"/>
-      <c r="D223" s="185"/>
-      <c r="E223" s="185"/>
-      <c r="F223" s="185"/>
-      <c r="G223" s="322"/>
-      <c r="H223" s="323"/>
+      <c r="B223" s="294"/>
+      <c r="C223" s="180"/>
+      <c r="D223" s="180"/>
+      <c r="E223" s="180"/>
+      <c r="F223" s="180"/>
+      <c r="G223" s="295"/>
+      <c r="H223" s="296"/>
       <c r="I223" s="120"/>
-      <c r="J223" s="185"/>
-      <c r="K223" s="293"/>
+      <c r="J223" s="180"/>
+      <c r="K223" s="316"/>
     </row>
     <row r="224" spans="2:11" ht="192" customHeight="1">
-      <c r="B224" s="298" t="s">
+      <c r="B224" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="C224" s="184" t="s">
+      <c r="C224" s="179" t="s">
         <v>615</v>
       </c>
-      <c r="D224" s="184" t="s">
+      <c r="D224" s="179" t="s">
         <v>616</v>
       </c>
-      <c r="E224" s="184" t="s">
+      <c r="E224" s="179" t="s">
         <v>298</v>
       </c>
-      <c r="F224" s="184" t="s">
+      <c r="F224" s="179" t="s">
         <v>620</v>
       </c>
       <c r="G224" s="52" t="s">
@@ -20700,16 +20706,16 @@
       <c r="I224" s="120" t="s">
         <v>832</v>
       </c>
-      <c r="J224" s="184" t="s">
+      <c r="J224" s="179" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="225" spans="2:10">
-      <c r="B225" s="317"/>
-      <c r="C225" s="316"/>
-      <c r="D225" s="316"/>
-      <c r="E225" s="316"/>
-      <c r="F225" s="316"/>
+      <c r="B225" s="293"/>
+      <c r="C225" s="291"/>
+      <c r="D225" s="291"/>
+      <c r="E225" s="291"/>
+      <c r="F225" s="291"/>
       <c r="G225" s="161" t="s">
         <v>745</v>
       </c>
@@ -20717,14 +20723,14 @@
         <v>683</v>
       </c>
       <c r="I225" s="120"/>
-      <c r="J225" s="316"/>
+      <c r="J225" s="291"/>
     </row>
     <row r="226" spans="2:10" ht="15" customHeight="1">
-      <c r="B226" s="317"/>
-      <c r="C226" s="316"/>
-      <c r="D226" s="316"/>
-      <c r="E226" s="316"/>
-      <c r="F226" s="316"/>
+      <c r="B226" s="293"/>
+      <c r="C226" s="291"/>
+      <c r="D226" s="291"/>
+      <c r="E226" s="291"/>
+      <c r="F226" s="291"/>
       <c r="G226" s="69" t="s">
         <v>828</v>
       </c>
@@ -20732,14 +20738,14 @@
         <v>829</v>
       </c>
       <c r="I226" s="120"/>
-      <c r="J226" s="316"/>
+      <c r="J226" s="291"/>
     </row>
     <row r="227" spans="2:10" ht="43.5">
-      <c r="B227" s="317"/>
-      <c r="C227" s="316"/>
-      <c r="D227" s="316"/>
-      <c r="E227" s="316"/>
-      <c r="F227" s="316"/>
+      <c r="B227" s="293"/>
+      <c r="C227" s="291"/>
+      <c r="D227" s="291"/>
+      <c r="E227" s="291"/>
+      <c r="F227" s="291"/>
       <c r="G227" s="69" t="s">
         <v>830</v>
       </c>
@@ -20747,18 +20753,18 @@
         <v>831</v>
       </c>
       <c r="I227" s="120"/>
-      <c r="J227" s="316"/>
+      <c r="J227" s="291"/>
     </row>
     <row r="228" spans="2:10" ht="15.5">
-      <c r="B228" s="299"/>
-      <c r="C228" s="185"/>
-      <c r="D228" s="185"/>
-      <c r="E228" s="185"/>
-      <c r="F228" s="185"/>
+      <c r="B228" s="294"/>
+      <c r="C228" s="180"/>
+      <c r="D228" s="180"/>
+      <c r="E228" s="180"/>
+      <c r="F228" s="180"/>
       <c r="G228" s="69"/>
       <c r="H228" s="78"/>
       <c r="I228" s="120"/>
-      <c r="J228" s="185"/>
+      <c r="J228" s="180"/>
     </row>
     <row r="231" spans="2:10">
       <c r="B231" s="24"/>
@@ -20779,92 +20785,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="105">
-    <mergeCell ref="J224:J228"/>
-    <mergeCell ref="B224:B228"/>
-    <mergeCell ref="C224:C228"/>
-    <mergeCell ref="D224:D228"/>
-    <mergeCell ref="E224:E228"/>
-    <mergeCell ref="F224:F228"/>
-    <mergeCell ref="B221:B223"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="D221:D223"/>
-    <mergeCell ref="E221:E223"/>
-    <mergeCell ref="F221:F223"/>
-    <mergeCell ref="G221:G223"/>
-    <mergeCell ref="H221:H223"/>
-    <mergeCell ref="J221:J223"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B212:J212"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="E214:E215"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="I214:I215"/>
-    <mergeCell ref="J214:J215"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="C148:C153"/>
-    <mergeCell ref="B148:B153"/>
-    <mergeCell ref="J148:J153"/>
-    <mergeCell ref="B185:E185"/>
-    <mergeCell ref="B187:E187"/>
-    <mergeCell ref="B190:E190"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B181:E181"/>
-    <mergeCell ref="E142:E147"/>
-    <mergeCell ref="F142:F147"/>
-    <mergeCell ref="B156:M156"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="F148:F153"/>
-    <mergeCell ref="E148:E153"/>
-    <mergeCell ref="D148:D153"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="C142:C147"/>
-    <mergeCell ref="D142:D147"/>
-    <mergeCell ref="K142:K147"/>
-    <mergeCell ref="K148:K153"/>
-    <mergeCell ref="J142:J147"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="B135:J135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="J137:J138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="G102:Q102"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B38:M38"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="E46:E47"/>
     <mergeCell ref="K221:K223"/>
     <mergeCell ref="G214:G215"/>
     <mergeCell ref="H214:H215"/>
@@ -20884,6 +20804,92 @@
     <mergeCell ref="J218:J219"/>
     <mergeCell ref="G218:G219"/>
     <mergeCell ref="H218:H219"/>
+    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="G102:Q102"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="B135:J135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="E142:E147"/>
+    <mergeCell ref="F142:F147"/>
+    <mergeCell ref="B156:M156"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="F148:F153"/>
+    <mergeCell ref="E148:E153"/>
+    <mergeCell ref="D148:D153"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="C142:C147"/>
+    <mergeCell ref="D142:D147"/>
+    <mergeCell ref="K142:K147"/>
+    <mergeCell ref="K148:K153"/>
+    <mergeCell ref="J142:J147"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="C148:C153"/>
+    <mergeCell ref="B148:B153"/>
+    <mergeCell ref="J148:J153"/>
+    <mergeCell ref="B185:E185"/>
+    <mergeCell ref="B187:E187"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B181:E181"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B212:J212"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="I214:I215"/>
+    <mergeCell ref="J214:J215"/>
+    <mergeCell ref="J224:J228"/>
+    <mergeCell ref="B224:B228"/>
+    <mergeCell ref="C224:C228"/>
+    <mergeCell ref="D224:D228"/>
+    <mergeCell ref="E224:E228"/>
+    <mergeCell ref="F224:F228"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="D221:D223"/>
+    <mergeCell ref="E221:E223"/>
+    <mergeCell ref="F221:F223"/>
+    <mergeCell ref="G221:G223"/>
+    <mergeCell ref="H221:H223"/>
+    <mergeCell ref="J221:J223"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21050,10 +21056,10 @@
       <c r="F12" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="G12" s="242" t="s">
+      <c r="G12" s="199" t="s">
         <v>328</v>
       </c>
-      <c r="H12" s="242"/>
+      <c r="H12" s="199"/>
       <c r="I12" s="25">
         <f>0.92*K10</f>
         <v>55.2</v>
@@ -21108,10 +21114,10 @@
       <c r="F17" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="G17" s="242" t="s">
+      <c r="G17" s="199" t="s">
         <v>334</v>
       </c>
-      <c r="H17" s="242"/>
+      <c r="H17" s="199"/>
       <c r="I17" s="25">
         <f>I12-I15</f>
         <v>46.2</v>
@@ -21361,10 +21367,10 @@
       <c r="H58" s="85" t="s">
         <v>375</v>
       </c>
-      <c r="I58" s="242" t="s">
+      <c r="I58" s="199" t="s">
         <v>376</v>
       </c>
-      <c r="J58" s="242"/>
+      <c r="J58" s="199"/>
       <c r="K58" s="25">
         <f>37+E58</f>
         <v>46</v>
@@ -21382,19 +21388,19 @@
       <c r="H61" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="I61" s="242" t="s">
+      <c r="I61" s="199" t="s">
         <v>378</v>
       </c>
-      <c r="J61" s="242"/>
+      <c r="J61" s="199"/>
     </row>
     <row r="62" spans="2:12">
       <c r="H62" s="85" t="s">
         <v>379</v>
       </c>
-      <c r="I62" s="242" t="s">
+      <c r="I62" s="199" t="s">
         <v>380</v>
       </c>
-      <c r="J62" s="242"/>
+      <c r="J62" s="199"/>
       <c r="K62" s="25">
         <f>K58/0.92</f>
         <v>50</v>
@@ -21543,10 +21549,10 @@
       <c r="Q82" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="R82" s="242" t="s">
+      <c r="R82" s="199" t="s">
         <v>402</v>
       </c>
-      <c r="S82" s="242"/>
+      <c r="S82" s="199"/>
       <c r="T82" s="87">
         <f>1-S74-S78</f>
         <v>0.73677419354838702</v>
@@ -21582,10 +21588,10 @@
       <c r="Q86" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="R86" s="242" t="s">
+      <c r="R86" s="199" t="s">
         <v>406</v>
       </c>
-      <c r="S86" s="242"/>
+      <c r="S86" s="199"/>
       <c r="T86" s="97">
         <f>T82*E35</f>
         <v>1915.6129032258063</v>
@@ -21658,10 +21664,10 @@
       <c r="Q91" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="R91" s="242" t="s">
+      <c r="R91" s="199" t="s">
         <v>414</v>
       </c>
-      <c r="S91" s="242"/>
+      <c r="S91" s="199"/>
       <c r="T91" s="25">
         <f>E53+S70+T87</f>
         <v>2400</v>
